--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>本科</v>
       </c>
       <c r="G2" t="str">
-        <v>Android 最新</v>
+        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>大专</v>
       </c>
       <c r="G3" t="str">
-        <v>Android 最新</v>
+        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="4">
@@ -469,18 +469,18 @@
         <v>大专</v>
       </c>
       <c r="G4" t="str">
-        <v>Android 最新</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B5" t="str">
-        <v>5K-7K</v>
+        <v>8K-14K</v>
       </c>
       <c r="C5" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
@@ -489,13 +489,10 @@
         <v>1-3年</v>
       </c>
       <c r="F5" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-C++
-Kotlin
-最新</v>
+        <v>大专</v>
+      </c>
+      <c r="G5" t="str">
+        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +500,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6K-12K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C6" t="str">
-        <v>河南中信科大数据科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D6" t="str">
         <v>郑州</v>
@@ -518,21 +515,21 @@
         <v>大专</v>
       </c>
       <c r="G6" t="str">
-        <v>Android 最新</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
+        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="str">
-        <v>android软件开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6K-10K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C7" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
@@ -540,24 +537,22 @@
       <c r="F7" t="str">
         <v>本科</v>
       </c>
-      <c r="G7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-sdk
-最新</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
+      <c r="G7" t="str">
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6K-9K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C8" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E8" t="str">
         <v>1-3年</v>
@@ -565,51 +560,42 @@
       <c r="F8" t="str">
         <v>大专</v>
       </c>
-      <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-UI设计
-Java
-TCP/IP
-Socket
-最新</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
+      <c r="G8" t="str">
+        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="str">
-        <v>android应用开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B9" t="str">
-        <v>8K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C9" t="str">
-        <v>南京迈特望</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-C语言
-Linux
-Java
-最新</v>
+        <v>大专</v>
+      </c>
+      <c r="G9" t="str">
+        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
         <v>6K-8K</v>
       </c>
       <c r="C10" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
@@ -621,7 +607,7 @@
         <v>大专</v>
       </c>
       <c r="G10" t="str">
-        <v>移动开发 最新</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="11">
@@ -644,21 +630,21 @@
         <v>本科</v>
       </c>
       <c r="G11" t="str">
-        <v>AndroidSDK 最新</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ509638530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="str">
-        <v>android 研发人员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C12" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E12" t="str">
         <v>1-3年</v>
@@ -666,88 +652,77 @@
       <c r="F12" t="str">
         <v>本科</v>
       </c>
-      <c r="G12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-C++
-最新</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
+      <c r="G12" t="str">
+        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>7K-9K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C13" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D13" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G13" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-sdk
-Socket
-网络通信机制
-TCP/IP
-最新</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
+        <v>本科</v>
+      </c>
+      <c r="G13" t="str">
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="str">
-        <v>android开发工程师</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B14" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C14" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F14" t="str">
         <v>大专</v>
       </c>
-      <c r="G14" t="str" xml:space="preserve">
-        <v xml:space="preserve">androidframework
-AndroidSDK
-AndroidNDK
-最新</v>
+      <c r="G14" t="str">
+        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6K-11K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州云泉教育科技有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
-        <v>Android 最近</v>
+        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="16">
@@ -755,22 +730,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>10K-20K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C16" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
-        <v>AndroidStudio 最近</v>
+        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="17">
@@ -778,81 +753,79 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>10K-15K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C17" t="str">
-        <v>牧原股份</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
         <v>本科</v>
       </c>
       <c r="G17" t="str">
-        <v>AndroidUI 招聘中</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B18" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C18" t="str">
+        <v>牧原股份</v>
+      </c>
+      <c r="D18" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E18" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F18" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G18" t="str">
+        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>安卓android开发工程师</v>
+      </c>
+      <c r="B19" t="str">
+        <v>6K-11K</v>
+      </c>
+      <c r="C19" t="str">
+        <v>郑州云泉教育科技有限公司</v>
+      </c>
+      <c r="D19" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E19" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F19" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G19" t="str">
+        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>android 开发安卓工程师</v>
-      </c>
-      <c r="B18" t="str">
-        <v>8K-10K</v>
-      </c>
-      <c r="C18" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
-      </c>
-      <c r="D18" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E18" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F18" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>android</v>
-      </c>
-      <c r="B19" t="str">
-        <v>7K-14K</v>
-      </c>
-      <c r="C19" t="str">
-        <v>郑州维飞软件科技有限公司</v>
-      </c>
-      <c r="D19" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E19" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F19" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G19" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-招聘中</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C20" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D20" t="str">
         <v>郑州</v>
@@ -861,15 +834,10 @@
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-UI设计
-sdk
-Java
-AndroidSDK
-最新</v>
+        <v>本科</v>
+      </c>
+      <c r="G20" t="str">
+        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="21">
@@ -877,86 +845,82 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6K-12K</v>
+        <v>9K-15K</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F21" t="str">
         <v>本科</v>
       </c>
       <c r="G21" t="str">
-        <v>AndroidSDK 最近</v>
+        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B22" t="str">
-        <v>5K-10K</v>
+        <v>10K-12K</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G22" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>9K-15K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C23" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
         <v>本科</v>
       </c>
-      <c r="G23" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-TCP/IP
-Java
-Gradle
-招聘中</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
+      <c r="G23" t="str">
+        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C24" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
         <v>1-3年</v>
@@ -964,11 +928,8 @@
       <c r="F24" t="str">
         <v>大专</v>
       </c>
-      <c r="G24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Kotlin
-移动前端
-招聘中</v>
+      <c r="G24" t="str">
+        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="25">
@@ -976,50 +937,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>15K-20K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C25" t="str">
-        <v>南京迈特望</v>
+        <v>正商地产</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G25" t="str">
-        <v>AndroidSDK 招聘中</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B26" t="str">
-        <v>8K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C26" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
       </c>
-      <c r="G26" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-sdk
-UI设计
-react-native
-AndroidSDK
-招聘中</v>
+      <c r="G26" t="str">
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="27">
@@ -1027,10 +983,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>8K-15K</v>
+        <v>9K-13K</v>
       </c>
       <c r="C27" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>康桥悦生活</v>
       </c>
       <c r="D27" t="str">
         <v>郑州</v>
@@ -1042,18 +998,18 @@
         <v>本科</v>
       </c>
       <c r="G27" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>9K-13K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C28" t="str">
-        <v>康桥悦生活</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
@@ -1064,64 +1020,54 @@
       <c r="F28" t="str">
         <v>本科</v>
       </c>
-      <c r="G28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Kotlin
-Git
-招聘中</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
+      <c r="G28" t="str">
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D29" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E29" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F29" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G29" t="str">
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B30" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C30" t="str">
+        <v>南京迈特望</v>
+      </c>
+      <c r="D30" t="str">
         <v>郑州-二七区</v>
       </c>
-      <c r="E29" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F29" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G29" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-招聘中</v>
-      </c>
-    </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B30" t="str">
-        <v>4K-6K</v>
-      </c>
-      <c r="C30" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
-      </c>
-      <c r="D30" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
         <v>大专</v>
       </c>
-      <c r="G30" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-AndroidSDK
-react-native
-Socket
-招聘中</v>
+      <c r="G30" t="str">
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="31">
@@ -1129,13 +1075,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>8K-10K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C31" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州众惠通信技术有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E31" t="str">
         <v>1-3年</v>
@@ -1144,35 +1090,30 @@
         <v>大专</v>
       </c>
       <c r="G31" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ269981330.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6K-8K</v>
+        <v>7K-12K</v>
       </c>
       <c r="C32" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
         <v>本科</v>
       </c>
-      <c r="G32" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-TCP/IP
-Git
-Kotlin
-最新</v>
+      <c r="G32" t="str">
+        <v>https://company.zhaopin.com/CZ142437320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="33">
@@ -1180,10 +1121,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6K-8K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
@@ -1192,13 +1133,13 @@
         <v>1-3年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G33" t="str">
-        <v>Android 最新</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="str">
         <v>android高级开发工程师（java方向：9000-16000）</v>
       </c>
@@ -1217,144 +1158,123 @@
       <c r="F34" t="str">
         <v>本科</v>
       </c>
-      <c r="G34" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Android Studio
-AndroidSDK
-内存管理
-AndroidUI
-招聘中</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
+      <c r="G34" t="str">
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C35" t="str">
+        <v>郑州诺云网络科技有限公司</v>
+      </c>
+      <c r="D35" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F35" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G35" t="str">
+        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C36" t="str">
+        <v>河南光合四季教育信息咨询有限公司</v>
+      </c>
+      <c r="D36" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E36" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F36" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G36" t="str">
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B37" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C37" t="str">
+        <v>河南中信科大数据科技有限公司</v>
+      </c>
+      <c r="D37" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E37" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F37" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G37" t="str">
+        <v>https://company.zhaopin.com/CZ843228510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B38" t="str">
         <v>6K-10K</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <v>河南臻图信息科技有限公司</v>
       </c>
-      <c r="D35" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E35" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F35" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G35" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-AndroidSDK
-AndroidNDK
-招聘中</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B36" t="str">
-        <v>8K-10K</v>
-      </c>
-      <c r="C36" t="str">
-        <v>云鸟配送</v>
-      </c>
-      <c r="D36" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E36" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F36" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G36" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Git
-OkHttp
-hybird
-uni-app
-招聘中</v>
-      </c>
-    </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str">
-        <v>android/安卓开发工程师（高级）</v>
-      </c>
-      <c r="B37" t="str">
-        <v>10K-12K</v>
-      </c>
-      <c r="C37" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D37" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E37" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F37" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G37" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-地图
-最近</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B38" t="str">
-        <v>10K-15K</v>
-      </c>
-      <c r="C38" t="str">
-        <v>天瑞集团有限公司</v>
-      </c>
       <c r="D38" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G38" t="str" xml:space="preserve">
-        <v xml:space="preserve">HTML5
-HTML
-Android
-iOS
-Javascript
-招聘中</v>
+        <v>大专</v>
+      </c>
+      <c r="G38" t="str">
+        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B39" t="str">
-        <v>10K-12K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C39" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G39" t="str">
-        <v>Android 最近</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="40">
@@ -1362,22 +1282,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>6K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C40" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州巨之麦科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
         <v>本科</v>
       </c>
       <c r="G40" t="str">
-        <v>Android 招聘中</v>
+        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="41">
@@ -1385,193 +1305,174 @@
         <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C41" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D41" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F41" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G41" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B42" t="str">
         <v>10K-20K</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C42" t="str">
         <v>厦门特力通通信工程有限公司</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D42" t="str">
         <v>郑州-金水区</v>
       </c>
-      <c r="E41" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F41" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G41" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="42" xml:space="preserve">
-      <c r="A42" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B42" t="str">
+      <c r="E42" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F42" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G42" t="str">
+        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8K-13K</v>
+      </c>
+      <c r="C43" t="str">
+        <v>郑州一迅软件科技有限公司</v>
+      </c>
+      <c r="D43" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E43" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F43" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G43" t="str">
+        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B44" t="str">
         <v>5K-10K</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C44" t="str">
         <v>郑州闪创网络科技有限公司</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D44" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E42" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F42" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G42" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-service
-RxJava
-招聘中</v>
-      </c>
-    </row>
-    <row r="43" xml:space="preserve">
-      <c r="A43" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="E44" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F44" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G44" t="str">
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C45" t="str">
+        <v>天宇正清科技有限公司</v>
+      </c>
+      <c r="D45" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E45" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F45" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G45" t="str">
+        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B46" t="str">
         <v>6K-8K</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C46" t="str">
         <v>郑州梦之源电子科技有限公司</v>
       </c>
-      <c r="D43" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E43" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F43" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G43" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-招聘中</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
-      <c r="A44" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B44" t="str">
-        <v>薪资面议</v>
-      </c>
-      <c r="C44" t="str">
-        <v>新开普</v>
-      </c>
-      <c r="D44" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E44" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F44" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G44" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidSDK
-service
-SQLITE 数据库
-ANDROID UI
-最新</v>
-      </c>
-    </row>
-    <row r="45" xml:space="preserve">
-      <c r="A45" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B45" t="str">
-        <v>10K-15K</v>
-      </c>
-      <c r="C45" t="str">
-        <v>天瑞集团有限公司</v>
-      </c>
-      <c r="D45" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E45" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F45" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G45" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Git
-Java
-AndroidStudio
-WebView
-招聘中</v>
-      </c>
-    </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str">
-        <v>android/安卓技术主管</v>
-      </c>
-      <c r="B46" t="str">
-        <v>12K-15K</v>
-      </c>
-      <c r="C46" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G46" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-地图
-最近</v>
-      </c>
-    </row>
-    <row r="47" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G46" t="str">
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>急聘安卓(android)开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>5K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州燚轩软件科技有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
         <v>大专</v>
       </c>
-      <c r="G47" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-service
-RxJava
-招聘中</v>
+      <c r="G47" t="str">
+        <v>https://company.zhaopin.com/CZ306667430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android 开发</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6K-12K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C48" t="str">
-        <v>浪潮集团</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
@@ -1580,67 +1481,64 @@
         <v>大专</v>
       </c>
       <c r="G48" t="str">
-        <v>招聘中</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>资深android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B49" t="str">
+        <v>12K-15K</v>
+      </c>
+      <c r="C49" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D49" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E49" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F49" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G49" t="str">
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>android/安卓开发经理</v>
+      </c>
+      <c r="B50" t="str">
         <v>15K-20K</v>
       </c>
-      <c r="C49" t="str">
-        <v>郑州珑凌科技有限公司</v>
-      </c>
-      <c r="D49" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E49" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F49" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G49" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str">
-        <v>android应用开发工程师</v>
-      </c>
-      <c r="B50" t="str">
-        <v>10K-15K</v>
-      </c>
       <c r="C50" t="str">
-        <v>天迈科技</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F50" t="str">
         <v>本科</v>
       </c>
-      <c r="G50" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-C语言
-C++
-招聘中</v>
-      </c>
-    </row>
-    <row r="51" xml:space="preserve">
+      <c r="G50" t="str">
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C51" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
@@ -1651,10 +1549,8 @@
       <c r="F51" t="str">
         <v>大专</v>
       </c>
-      <c r="G51" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-地图
-最近</v>
+      <c r="G51" t="str">
+        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="52">
@@ -1662,10 +1558,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>6K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C52" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>郑州程序猫信息技术有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
@@ -1674,49 +1570,47 @@
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G52" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="53" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="str">
-        <v>高级android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>11K-18K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C53" t="str">
-        <v>刀锋互娱</v>
+        <v>天迈科技</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G53" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-招聘中</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
+        <v>本科</v>
+      </c>
+      <c r="G53" t="str">
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>6K-12K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C54" t="str">
-        <v>新天科技</v>
+        <v>新开普</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E54" t="str">
         <v>1-3年</v>
@@ -1724,46 +1618,42 @@
       <c r="F54" t="str">
         <v>本科</v>
       </c>
-      <c r="G54" t="str" xml:space="preserve">
-        <v xml:space="preserve">Socket
-AndroidSDK
-AndroidStudio
-Java
-招聘中</v>
+      <c r="G54" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>急聘安卓(android)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>8K-13K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州燚轩软件科技有限公司</v>
+        <v>河南快易易物企业管理咨询有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="56" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>8K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州巨之麦科技有限公司</v>
+        <v>上海屹通信息科技发展有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
@@ -1774,47 +1664,42 @@
       <c r="F56" t="str">
         <v>本科</v>
       </c>
-      <c r="G56" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-service
-Framework
-最新</v>
-      </c>
-    </row>
-    <row r="57" xml:space="preserve">
+      <c r="G56" t="str">
+        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>15K-20K</v>
+        <v>7K-12K</v>
       </c>
       <c r="C57" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G57" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-地图
-最近</v>
-      </c>
-    </row>
-    <row r="58" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G57" t="str">
+        <v>https://company.zhaopin.com/CZ872926580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>5K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C58" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D58" t="str">
         <v>郑州-高新区</v>
@@ -1825,38 +1710,31 @@
       <c r="F58" t="str">
         <v>本科</v>
       </c>
-      <c r="G58" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-sdk
-Java
-Android Studio
-Eclipse
-招聘中</v>
-      </c>
-    </row>
-    <row r="59" xml:space="preserve">
+      <c r="G58" t="str">
+        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B59" t="str">
-        <v>7K-12K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C59" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G59" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidSDK
-AndroidUI
-招聘中</v>
+        <v>本科</v>
+      </c>
+      <c r="G59" t="str">
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="60">
@@ -1864,33 +1742,33 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>5K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C60" t="str">
-        <v>河南鼎健航天技术股份有限公司</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-新密市</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
         <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G60" t="str">
-        <v>Android 最近</v>
+        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B61" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
@@ -1899,21 +1777,21 @@
         <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G61" t="str">
-        <v>Android 招聘中</v>
+        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B62" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C62" t="str">
-        <v>上海屹通信息科技发展有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
@@ -1925,35 +1803,30 @@
         <v>本科</v>
       </c>
       <c r="G62" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="63" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>6K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G63" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidSDK
-Java
-Socket
-service
-AndroidNDK
-最新</v>
+        <v>本科</v>
+      </c>
+      <c r="G63" t="str">
+        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="64">
@@ -1961,150 +1834,137 @@
         <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6K-8K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C64" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D64" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E64" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F64" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G64" t="str">
+        <v>https://company.zhaopin.com/CZ511889520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B65" t="str">
+        <v>10K-12K</v>
+      </c>
+      <c r="C65" t="str">
+        <v>超级智慧家(上海)物联网科技有限公司</v>
+      </c>
+      <c r="D65" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E64" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F64" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G64" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="65" xml:space="preserve">
-      <c r="A65" t="str">
-        <v>软件开发工程师（android）</v>
-      </c>
-      <c r="B65" t="str">
-        <v>8K-10K</v>
-      </c>
-      <c r="C65" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D65" t="str">
-        <v>郑州-二七区</v>
-      </c>
       <c r="E65" t="str">
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
       </c>
-      <c r="G65" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-Android
-招聘中</v>
-      </c>
-    </row>
-    <row r="66" xml:space="preserve">
+      <c r="G65" t="str">
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>8K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州程序猫信息技术有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
         <v>大专</v>
       </c>
-      <c r="G66" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidSDK
-Java
-Socket
-招聘中</v>
+      <c r="G66" t="str">
+        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>4K-6K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C67" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D67" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E67" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F67" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G67" t="str">
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B68" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C68" t="str">
+        <v>绿建生态环境集团有限公司</v>
+      </c>
+      <c r="D68" t="str">
         <v>郑州-金水区</v>
       </c>
-      <c r="E67" t="str">
-        <v>无经验</v>
-      </c>
-      <c r="F67" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G67" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="68" xml:space="preserve">
-      <c r="A68" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B68" t="str">
-        <v>6K-8K</v>
-      </c>
-      <c r="C68" t="str">
-        <v>河南在成长信息技术有限公司</v>
-      </c>
-      <c r="D68" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
       </c>
-      <c r="G68" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidStudio
-react-native
-管理经验
-招聘中</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
+      <c r="G68" t="str">
+        <v>https://company.zhaopin.com/CZ186070620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B69" t="str">
-        <v>6K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G69" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-Socket
-Eclipse
-AndroidStudio
-AndroidSDK
-招聘中</v>
+        <v>本科</v>
+      </c>
+      <c r="G69" t="str">
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="70">
@@ -2112,56 +1972,56 @@
         <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>8K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C70" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
         <v>本科</v>
       </c>
       <c r="G70" t="str">
-        <v>Android 招聘中</v>
+        <v>https://company.zhaopin.com/CZ277890680.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
         <v>6K-10K</v>
       </c>
       <c r="C71" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
         <v>3-5年</v>
       </c>
       <c r="F71" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G71" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>6K-11K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C72" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
         <v>郑州-高新区</v>
@@ -2170,49 +2030,47 @@
         <v>3-5年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G72" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-ANDROID UI
-招聘中</v>
+        <v>大专</v>
+      </c>
+      <c r="G72" t="str">
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>5K-8K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C73" t="str">
-        <v>八六三软件</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
       </c>
       <c r="G73" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>8K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C74" t="str">
-        <v>科大讯飞</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
@@ -2220,25 +2078,22 @@
       <c r="F74" t="str">
         <v>本科</v>
       </c>
-      <c r="G74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-TCP/IP
-Java
-招聘中</v>
-      </c>
-    </row>
-    <row r="75" xml:space="preserve">
+      <c r="G74" t="str">
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>8K-15K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C75" t="str">
-        <v>硕诺科技</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
@@ -2246,26 +2101,22 @@
       <c r="F75" t="str">
         <v>本科</v>
       </c>
-      <c r="G75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-AndroidStudio
-AndroidSDK
-androidframework
-最新</v>
-      </c>
-    </row>
-    <row r="76" xml:space="preserve">
+      <c r="G75" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>10K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C76" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E76" t="str">
         <v>3-5年</v>
@@ -2273,51 +2124,45 @@
       <c r="F76" t="str">
         <v>本科</v>
       </c>
-      <c r="G76" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-招聘中</v>
-      </c>
-    </row>
-    <row r="77" xml:space="preserve">
+      <c r="G76" t="str">
+        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B77" t="str">
-        <v>7K-12K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州恩普特</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-Android Studio
-Flutter
-招聘中</v>
+        <v>大专</v>
+      </c>
+      <c r="G77" t="str">
+        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8K-10K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C78" t="str">
-        <v>正商地产</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
         <v>3-5年</v>
@@ -2326,21 +2171,21 @@
         <v>本科</v>
       </c>
       <c r="G78" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="79" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>5K-8K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州众惠通信技术有限公司</v>
+        <v>河南鼎健航天技术股份有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-新密市</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
@@ -2348,27 +2193,22 @@
       <c r="F79" t="str">
         <v>大专</v>
       </c>
-      <c r="G79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Socket
-网络通信机制
-AndroidNDK
-多线程开发
-招聘中</v>
+      <c r="G79" t="str">
+        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android程序员</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>10K-15K</v>
+        <v>11K-18K</v>
       </c>
       <c r="C80" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
@@ -2377,86 +2217,79 @@
         <v>大专</v>
       </c>
       <c r="G80" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="81" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8K-13K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
         <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G81" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidStudio
-AndroidSDK
-最新</v>
-      </c>
-    </row>
-    <row r="82" xml:space="preserve">
+        <v>本科</v>
+      </c>
+      <c r="G81" t="str">
+        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>10K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C82" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
         <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G82" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-AndroidSDK
-Kotlin
-招聘中</v>
+        <v>大专</v>
+      </c>
+      <c r="G82" t="str">
+        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B83" t="str">
-        <v>8K-15K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C83" t="str">
-        <v>天宇正清科技有限公司</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F83" t="str">
         <v>本科</v>
       </c>
       <c r="G83" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="84" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="str">
         <v>android开发工程师</v>
       </c>
@@ -2475,24 +2308,22 @@
       <c r="F84" t="str">
         <v>本科</v>
       </c>
-      <c r="G84" t="str" xml:space="preserve">
-        <v xml:space="preserve">ANDROID SDK
-Android
-最新</v>
+      <c r="G84" t="str">
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B85" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
         <v>3-5年</v>
@@ -2501,191 +2332,173 @@
         <v>本科</v>
       </c>
       <c r="G85" t="str">
-        <v>Android移动开发 最新</v>
-      </c>
-    </row>
-    <row r="86" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="str">
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>7K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D86" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E86" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F86" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G86" t="str">
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>android软件工程师</v>
+      </c>
+      <c r="B87" t="str">
+        <v>4K-8K</v>
+      </c>
+      <c r="C87" t="str">
+        <v>河南品辰电子科技有限公司</v>
+      </c>
+      <c r="D87" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E87" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F87" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G87" t="str">
+        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>android底层驱动工程师</v>
+      </c>
+      <c r="B88" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C88" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D88" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E86" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F86" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G86" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-视频编解码
-招聘中</v>
-      </c>
-    </row>
-    <row r="87" xml:space="preserve">
-      <c r="A87" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B87" t="str">
-        <v>薪资面议</v>
-      </c>
-      <c r="C87" t="str">
-        <v>新开普</v>
-      </c>
-      <c r="D87" t="str">
+      <c r="E88" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F88" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G88" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>android C/C++开发工程师</v>
+      </c>
+      <c r="B89" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C89" t="str">
+        <v>天迈科技</v>
+      </c>
+      <c r="D89" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E87" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F87" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G87" t="str" xml:space="preserve">
-        <v xml:space="preserve">REACT NATIVE
-Android
-招聘中</v>
-      </c>
-    </row>
-    <row r="88" xml:space="preserve">
-      <c r="A88" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B88" t="str">
-        <v>9K-12K</v>
-      </c>
-      <c r="C88" t="str">
-        <v>河南诚禾智能科技有限公司</v>
-      </c>
-      <c r="D88" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E88" t="str">
-        <v>经验不限</v>
-      </c>
-      <c r="F88" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G88" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-APP开发
-商城
-最新</v>
-      </c>
-    </row>
-    <row r="89" xml:space="preserve">
-      <c r="A89" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B89" t="str">
-        <v>6K-12K</v>
-      </c>
-      <c r="C89" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
-      </c>
-      <c r="D89" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
         <v>本科</v>
       </c>
-      <c r="G89" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-移动端
-安卓
-最新</v>
-      </c>
-    </row>
-    <row r="90" xml:space="preserve">
+      <c r="G89" t="str">
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>8K-10K</v>
+        <v>7K-12K</v>
       </c>
       <c r="C90" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
         <v>大专</v>
       </c>
-      <c r="G90" t="str" xml:space="preserve">
-        <v xml:space="preserve">IT支持
-系统运维
-APP开发
-软件开发
-安卓开发
-最新</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
+      <c r="G90" t="str">
+        <v>https://company.zhaopin.com/CZ468463280.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="str">
-        <v>android软件工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>4K-8K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C91" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G91" t="str" xml:space="preserve">
-        <v xml:space="preserve">Linux
-Android
-招聘中</v>
+        <v>本科</v>
+      </c>
+      <c r="G91" t="str">
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>10K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C92" t="str">
-        <v>天迈科技</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F92" t="str">
         <v>本科</v>
       </c>
       <c r="G92" t="str">
-        <v>招聘中</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android 工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B93" t="str">
         <v>6K-8K</v>
@@ -2697,144 +2510,142 @@
         <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>本科</v>
       </c>
       <c r="G93" t="str">
-        <v>Android移动开发 最新</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android底层驱动工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B94" t="str">
-        <v>薪资面议</v>
+        <v>15K-20K</v>
       </c>
       <c r="C94" t="str">
-        <v>新开普</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G94" t="str">
-        <v>招聘中</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>10K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C95" t="str">
-        <v>威科姆</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F95" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G95" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="96" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>7K-12K</v>
+        <v>10K-16K</v>
       </c>
       <c r="C96" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G96" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android移动开发
-sdk
-招聘中</v>
+        <v>本科</v>
+      </c>
+      <c r="G96" t="str">
+        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android软件工程师</v>
+        <v>河南-android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C97" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天博电子信息科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E97" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G97" t="str">
-        <v>Android移动开发 招聘中</v>
+        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C98" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
         <v>本科</v>
       </c>
       <c r="G98" t="str">
-        <v>Android移动开发 最新</v>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B99" t="str">
-        <v>15K-20K</v>
+        <v>8K-16K</v>
       </c>
       <c r="C99" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E99" t="str">
         <v>3-5年</v>
@@ -2842,167 +2653,151 @@
       <c r="F99" t="str">
         <v>大专</v>
       </c>
-      <c r="G99" t="str" xml:space="preserve">
-        <v xml:space="preserve">C++
-Android
-Java
-最近</v>
+      <c r="G99" t="str">
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>河南-android开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>5K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C100" t="str">
-        <v>天博电子信息科技有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
         <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G100" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="101" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" t="str">
+        <v>安卓工程师郑州</v>
+      </c>
+      <c r="B101" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C101" t="str">
+        <v>蓝众物业集团有限公司</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E101" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F101" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G101" t="str">
+        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
         <v>andriod开发工程师</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B102" t="str">
         <v>12K-16K</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C102" t="str">
         <v>郑州阿帕斯科技有限公司</v>
       </c>
-      <c r="D101" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E101" t="str">
+      <c r="D102" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E102" t="str">
         <v>5-10年</v>
       </c>
-      <c r="F101" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G101" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-最新</v>
-      </c>
-    </row>
-    <row r="102" xml:space="preserve">
-      <c r="A102" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B102" t="str">
-        <v>10K-16K</v>
-      </c>
-      <c r="C102" t="str">
-        <v>南京北路智控科技股份有限公司</v>
-      </c>
-      <c r="D102" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E102" t="str">
-        <v>3-5年</v>
-      </c>
       <c r="F102" t="str">
         <v>本科</v>
       </c>
-      <c r="G102" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-架构设计
-TCP/IP
-最新</v>
+      <c r="G102" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Anroid开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>7K-11K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C103" t="str">
-        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
+        <v>郑州超盟信息技术有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F103" t="str">
         <v>本科</v>
       </c>
       <c r="G103" t="str">
-        <v>Android 最新</v>
-      </c>
-    </row>
-    <row r="104" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8K-16K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C104" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G104" t="str" xml:space="preserve">
-        <v xml:space="preserve">C/C++
-Android
-安卓
-Android Studio
-AndroidNDK
-最新</v>
-      </c>
-    </row>
-    <row r="105" xml:space="preserve">
+        <v>本科</v>
+      </c>
+      <c r="G104" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="str">
-        <v>安卓开发工程师</v>
+        <v>Flutter</v>
       </c>
       <c r="B105" t="str">
-        <v>10K-15K</v>
+        <v>9K-11K</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州中原报业传媒有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G105" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-Java
-招聘中</v>
-      </c>
-    </row>
-    <row r="106" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G105" t="str">
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B106" t="str">
         <v>15K-20K</v>
@@ -3019,195 +2814,169 @@
       <c r="F106" t="str">
         <v>本科</v>
       </c>
-      <c r="G106" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-最新</v>
-      </c>
-    </row>
-    <row r="107" xml:space="preserve">
+      <c r="G106" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="str">
+        <v>安卓前端研发工程师</v>
+      </c>
+      <c r="B107" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C107" t="str">
+        <v>河南陀螺信息技术有限公司</v>
+      </c>
+      <c r="D107" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E107" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F107" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G107" t="str">
+        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>移动端开发工程师</v>
+      </c>
+      <c r="B108" t="str">
+        <v>12K-16K</v>
+      </c>
+      <c r="C108" t="str">
+        <v>绿建生态环境集团有限公司</v>
+      </c>
+      <c r="D108" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E108" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F108" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G108" t="str">
+        <v>https://company.zhaopin.com/CZ186070620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Anroid开发工程师</v>
+      </c>
+      <c r="B109" t="str">
+        <v>7K-11K</v>
+      </c>
+      <c r="C109" t="str">
+        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
+      </c>
+      <c r="D109" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E109" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F109" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G109" t="str">
+        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B110" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C110" t="str">
+        <v>郑州京慧越科技有限公司</v>
+      </c>
+      <c r="D110" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E110" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F110" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G110" t="str">
+        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B111" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C111" t="str">
+        <v>郑州新中软科技有限公司</v>
+      </c>
+      <c r="D111" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E111" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F111" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G111" t="str">
+        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
         <v>急聘安卓高级工程师</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B112" t="str">
         <v>8K-15K</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C112" t="str">
         <v>郑州中软高科信息技术有限公司</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D112" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E107" t="str">
+      <c r="E112" t="str">
         <v>5-10年</v>
       </c>
-      <c r="F107" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G107" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-AndroidStudio
-androidframework
-Java
-最新</v>
-      </c>
-    </row>
-    <row r="108" xml:space="preserve">
-      <c r="A108" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B108" t="str">
-        <v>8K-12K</v>
-      </c>
-      <c r="C108" t="str">
-        <v>河南省新星科技有限公司</v>
-      </c>
-      <c r="D108" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E108" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F108" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G108" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-Eclipse
-招聘中</v>
-      </c>
-    </row>
-    <row r="109" xml:space="preserve">
-      <c r="A109" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B109" t="str">
-        <v>6K-9K</v>
-      </c>
-      <c r="C109" t="str">
-        <v>北京晟壁科技有限公司郑州分公司</v>
-      </c>
-      <c r="D109" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E109" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F109" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G109" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-架构设计
-Android Studio
-TCP/IP
-SQLite
-招聘中</v>
-      </c>
-    </row>
-    <row r="110" xml:space="preserve">
-      <c r="A110" t="str">
-        <v>移动端开发工程师</v>
-      </c>
-      <c r="B110" t="str">
-        <v>12K-16K</v>
-      </c>
-      <c r="C110" t="str">
-        <v>绿建生态环境集团有限公司</v>
-      </c>
-      <c r="D110" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E110" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F110" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G110" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-hybird
-Kotlin
-招聘中</v>
-      </c>
-    </row>
-    <row r="111" xml:space="preserve">
-      <c r="A111" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
-      </c>
-      <c r="B111" t="str">
-        <v>15K-20K</v>
-      </c>
-      <c r="C111" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D111" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E111" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F111" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G111" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-最新</v>
-      </c>
-    </row>
-    <row r="112" xml:space="preserve">
-      <c r="A112" t="str">
-        <v>uni app开发工程师</v>
-      </c>
-      <c r="B112" t="str">
-        <v>6K-8K</v>
-      </c>
-      <c r="C112" t="str">
-        <v>河南智宽科技有限公司</v>
-      </c>
-      <c r="D112" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E112" t="str">
-        <v>1-3年</v>
-      </c>
       <c r="F112" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G112" t="str" xml:space="preserve">
-        <v xml:space="preserve">HTML5
-Android
-Javascript
-CSS
-JSON
-招聘中</v>
+        <v>本科</v>
+      </c>
+      <c r="G112" t="str">
+        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>6K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C113" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>慕然云(深圳)科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G113" t="str">
-        <v>AndroidNDK 最新</v>
+        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="114">
@@ -3215,133 +2984,125 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>4K-6K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>北京晟壁科技有限公司郑州分公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G114" t="str">
-        <v>Android 最近</v>
+        <v>https://company.zhaopin.com/CZ633504430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Flutter</v>
+        <v>安卓开发软件工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>9K-11K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C115" t="str">
-        <v>云鸟配送</v>
+        <v>正星科技</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G115" t="str">
-        <v>Android 最近</v>
-      </c>
-    </row>
-    <row r="116" xml:space="preserve">
+        <v>http://special.zhaopin.com/pagepublish/13788064/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B116" t="str">
-        <v>15K-20K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>硕士</v>
-      </c>
-      <c r="G116" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Java
-Linux
-最新</v>
+        <v>大专</v>
+      </c>
+      <c r="G116" t="str">
+        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B117" t="str">
-        <v>5K-7K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专</v>
+        <v>硕士</v>
       </c>
       <c r="G117" t="str">
-        <v>Android 招聘中</v>
-      </c>
-    </row>
-    <row r="118" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="str">
-        <v>安卓开发工程师</v>
+        <v>移动端主程</v>
       </c>
       <c r="B118" t="str">
-        <v>7K-9K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C118" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G118" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-sdk
-Socket
-网络通信机制
-TCP/IP
-最新</v>
-      </c>
-    </row>
-    <row r="119" xml:space="preserve">
+        <v>本科</v>
+      </c>
+      <c r="G118" t="str">
+        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>8K-12K</v>
+        <v>15K-30K</v>
       </c>
       <c r="C119" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>正阳县启蒙文化传媒有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州-金水区</v>
@@ -3352,157 +3113,135 @@
       <c r="F119" t="str">
         <v>大专</v>
       </c>
-      <c r="G119" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-移动端
-招聘中</v>
-      </c>
-    </row>
-    <row r="120" xml:space="preserve">
+      <c r="G119" t="str">
+        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>6K-12K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C120" t="str">
-        <v>郑州云跃信息技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D120" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
         <v>本科</v>
       </c>
-      <c r="G120" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-Kotlin
-JSON
-BANNER
-Glide
-最近</v>
-      </c>
-    </row>
-    <row r="121" xml:space="preserve">
+      <c r="G120" t="str">
+        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="str">
-        <v>逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>15K-30K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C121" t="str">
-        <v>正阳县启蒙文化传媒有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
         <v>大专</v>
       </c>
-      <c r="G121" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-C++
-TCP/IP
-测试
-Java
-最新</v>
+      <c r="G121" t="str">
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓开发</v>
       </c>
       <c r="B122" t="str">
-        <v>6K-9K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C122" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州云跃信息技术有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E122" t="str">
         <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G122" t="str">
-        <v>AndroidNDK 招聘中</v>
-      </c>
-    </row>
-    <row r="123" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ857895930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B123" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C123" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D123" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E123" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F123" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G123" t="str">
+        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B124" t="str">
+        <v>7K-10K</v>
+      </c>
+      <c r="C124" t="str">
+        <v>河南光合四季教育信息咨询有限公司</v>
+      </c>
+      <c r="D124" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E124" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F124" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G124" t="str">
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
         <v>安卓手机app开发人员</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B125" t="str">
         <v>5K-7K</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C125" t="str">
         <v>河南商蒙软件科技有限公司</v>
       </c>
-      <c r="D123" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E123" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F123" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G123" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-AndroidStudio
-AndroidUI
-Socket
-招聘中</v>
-      </c>
-    </row>
-    <row r="124" xml:space="preserve">
-      <c r="A124" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B124" t="str">
-        <v>8K-12K</v>
-      </c>
-      <c r="C124" t="str">
-        <v>云涌科技</v>
-      </c>
-      <c r="D124" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E124" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F124" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G124" t="str" xml:space="preserve">
-        <v xml:space="preserve">FRAGMENT
-ACTIVITY
-Android
-Android Studio
-H5
-最近</v>
-      </c>
-    </row>
-    <row r="125" xml:space="preserve">
-      <c r="A125" t="str">
-        <v>移动端工程师</v>
-      </c>
-      <c r="B125" t="str">
-        <v>6K-8K</v>
-      </c>
-      <c r="C125" t="str">
-        <v>河南紫马网络科技有限公司</v>
-      </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
@@ -3512,27 +3251,22 @@
       <c r="F125" t="str">
         <v>大专</v>
       </c>
-      <c r="G125" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-AndroidUI
-Java
-Socket
-招聘中</v>
-      </c>
-    </row>
-    <row r="126" xml:space="preserve">
+      <c r="G125" t="str">
+        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" t="str">
-        <v>移动端主程</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B126" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C126" t="str">
-        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
         <v>3-5年</v>
@@ -3540,126 +3274,111 @@
       <c r="F126" t="str">
         <v>本科</v>
       </c>
-      <c r="G126" t="str" xml:space="preserve">
-        <v xml:space="preserve">ANDROID/IOS
-FLUTTER
-最近</v>
+      <c r="G126" t="str">
+        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6K-8K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C127" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州柯品网络科技有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F127" t="str">
         <v>本科</v>
       </c>
       <c r="G127" t="str">
-        <v>Android 最新</v>
-      </c>
-    </row>
-    <row r="128" xml:space="preserve">
+        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发软件工程师</v>
+        <v>中高级安卓软件工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6K-8K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C128" t="str">
-        <v>正星科技</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
         <v>本科</v>
       </c>
-      <c r="G128" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidNDK
-AndroidSDK
-AndroidStudio
-androidframework
-招聘中</v>
-      </c>
-    </row>
-    <row r="129" xml:space="preserve">
+      <c r="G128" t="str">
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" t="str">
         <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>7K-10K</v>
+        <v>3.5K-7K</v>
       </c>
       <c r="C129" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E129" t="str">
         <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G129" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-产品需求分析
-架构设计
-测试
-招聘中</v>
-      </c>
-    </row>
-    <row r="130" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G129" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" t="str">
-        <v>APP开发工程师</v>
+        <v>flutter APP 开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>9K-18K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C130" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南冠杰智能科技股份有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E130" t="str">
         <v>5-10年</v>
       </c>
       <c r="F130" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G130" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-APP开发
-Java
-Javascript
-前端开发
-最新</v>
-      </c>
-    </row>
-    <row r="131" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G130" t="str">
+        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C131" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
@@ -3668,26 +3387,21 @@
         <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G131" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-HTML5
-AndroidNDK
-AndroidUI
-androidframework
-招聘中</v>
-      </c>
-    </row>
-    <row r="132" xml:space="preserve">
+        <v>大专</v>
+      </c>
+      <c r="G131" t="str">
+        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" t="str">
-        <v>安卓工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6K-10K</v>
+        <v>10K-16K</v>
       </c>
       <c r="C132" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
@@ -3698,213 +3412,59 @@
       <c r="F132" t="str">
         <v>大专</v>
       </c>
-      <c r="G132" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-WEBSCOKET
-声网
-IM
-Flutter
-招聘中</v>
+      <c r="G132" t="str">
+        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>5K-7K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州柯品网络科技有限公司</v>
+        <v>昆山双宇新信息科技有限公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F133" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G133" t="str">
-        <v>招聘中</v>
+        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>3.5K-7K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C134" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>河南建祥装饰工程有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G134" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>中高级安卓软件工程师</v>
-      </c>
-      <c r="B135" t="str">
-        <v>6K-12K</v>
-      </c>
-      <c r="C135" t="str">
-        <v>郑州闪创网络科技有限公司</v>
-      </c>
-      <c r="D135" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E135" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F135" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G135" t="str">
-        <v>招聘中</v>
-      </c>
-    </row>
-    <row r="136" xml:space="preserve">
-      <c r="A136" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B136" t="str">
-        <v>10K-16K</v>
-      </c>
-      <c r="C136" t="str">
-        <v>郑州五岳电子科技有限公司</v>
-      </c>
-      <c r="D136" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E136" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F136" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G136" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-APP开发
-Java
-Kotlin
-Canvas
-招聘中</v>
-      </c>
-    </row>
-    <row r="137" xml:space="preserve">
-      <c r="A137" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B137" t="str">
-        <v>8K-10K</v>
-      </c>
-      <c r="C137" t="str">
-        <v>郑州立信软件科技有限公司</v>
-      </c>
-      <c r="D137" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E137" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F137" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G137" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidSDK
-AndroidUI
-Java
-Socket
-招聘中</v>
-      </c>
-    </row>
-    <row r="138" xml:space="preserve">
-      <c r="A138" t="str">
-        <v>flutter APP 开发工程师</v>
-      </c>
-      <c r="B138" t="str">
-        <v>10K-15K</v>
-      </c>
-      <c r="C138" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
-      </c>
-      <c r="D138" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E138" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F138" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G138" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dart
-Flutter
-招聘中</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B139" t="str">
-        <v>6K-8K</v>
-      </c>
-      <c r="C139" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
-      </c>
-      <c r="D139" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E139" t="str">
-        <v>经验不限</v>
-      </c>
-      <c r="F139" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G139" t="str">
-        <v>APP设计 招聘中</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B140" t="str">
-        <v>6K-10K</v>
-      </c>
-      <c r="C140" t="str">
-        <v>河南建祥装饰工程有限公司</v>
-      </c>
-      <c r="D140" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E140" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F140" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G140" t="str">
-        <v>APP设计 招聘中</v>
+        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G140"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G134"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +408,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>5K-8K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -420,33 +420,33 @@
         <v>1-3年</v>
       </c>
       <c r="F2" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G2" t="str">
-        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>5K-8K</v>
+        <v>11K-18K</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E3" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F3" t="str">
         <v>大专</v>
       </c>
       <c r="G3" t="str">
-        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="4">
@@ -454,13 +454,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>5K-8K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C4" t="str">
-        <v>河南欣宜嘉医疗科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E4" t="str">
         <v>3-5年</v>
@@ -469,18 +469,18 @@
         <v>大专</v>
       </c>
       <c r="G4" t="str">
-        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ551973080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8K-14K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
@@ -492,7 +492,7 @@
         <v>大专</v>
       </c>
       <c r="G5" t="str">
-        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="6">
@@ -500,79 +500,79 @@
         <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G6" t="str">
-        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C7" t="str">
-        <v>南京迈特望</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师周末双休</v>
       </c>
       <c r="B8" t="str">
-        <v>5K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C8" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>郑州现代外语学校</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E8" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G8" t="str">
-        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ185092810.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6K-8K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C9" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>郑州港达物流有限公司</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
@@ -584,7 +584,7 @@
         <v>大专</v>
       </c>
       <c r="G9" t="str">
-        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="10">
@@ -595,65 +595,65 @@
         <v>6K-8K</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
         <v>大专</v>
       </c>
       <c r="G10" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ361838210.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android安卓开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8K-13K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C11" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州云泉教育科技有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
         <v>本科</v>
       </c>
       <c r="G11" t="str">
-        <v>https://company.zhaopin.com/CZ509638530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B12" t="str">
-        <v>6K-8K</v>
+        <v>8K-14K</v>
       </c>
       <c r="C12" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
         <v>1-3年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G12" t="str">
-        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="13">
@@ -661,36 +661,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C13" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G13" t="str">
-        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android 研发人员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C14" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
         <v>1-3年</v>
@@ -699,7 +699,7 @@
         <v>大专</v>
       </c>
       <c r="G14" t="str">
-        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1233889700.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="15">
@@ -707,10 +707,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C15" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
@@ -722,7 +722,7 @@
         <v>大专</v>
       </c>
       <c r="G15" t="str">
-        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="16">
@@ -730,22 +730,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>8K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C16" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
-        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="17">
@@ -753,22 +753,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>10K-20K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C17" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F17" t="str">
         <v>本科</v>
       </c>
       <c r="G17" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="18">
@@ -776,33 +776,33 @@
         <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>10K-15K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C18" t="str">
-        <v>牧原股份</v>
+        <v>中机智云有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G18" t="str">
-        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ522433280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6K-11K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州云泉教育科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D19" t="str">
         <v>郑州</v>
@@ -811,10 +811,10 @@
         <v>1-3年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G19" t="str">
-        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/11059/zz/2014/zgw011950/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="20">
@@ -837,7 +837,7 @@
         <v>本科</v>
       </c>
       <c r="G20" t="str">
-        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="21">
@@ -845,45 +845,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>9K-15K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C21" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E21" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
-        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B22" t="str">
-        <v>10K-12K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C22" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F22" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G22" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="23">
@@ -891,10 +891,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6K-12K</v>
+        <v>9K-13K</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>康桥悦生活</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
@@ -906,7 +906,7 @@
         <v>本科</v>
       </c>
       <c r="G23" t="str">
-        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="24">
@@ -914,22 +914,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>8K-10K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C24" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
         <v>大专</v>
       </c>
       <c r="G24" t="str">
-        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="25">
@@ -937,13 +937,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C25" t="str">
-        <v>正商地产</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
@@ -952,30 +952,30 @@
         <v>本科</v>
       </c>
       <c r="G25" t="str">
-        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>5K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
       </c>
       <c r="G26" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="27">
@@ -983,68 +983,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>9K-13K</v>
+        <v>9K-15K</v>
       </c>
       <c r="C27" t="str">
-        <v>康桥悦生活</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E27" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F27" t="str">
         <v>本科</v>
       </c>
       <c r="G27" t="str">
-        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C28" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E28" t="str">
         <v>3-5年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G28" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B29" t="str">
-        <v>6K-10K</v>
+        <v>10K-12K</v>
       </c>
       <c r="C29" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F29" t="str">
         <v>本科</v>
       </c>
       <c r="G29" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="30">
@@ -1052,13 +1052,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>15K-20K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C30" t="str">
-        <v>南京迈特望</v>
+        <v>河南臻图信息科技有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
         <v>3-5年</v>
@@ -1067,18 +1067,18 @@
         <v>大专</v>
       </c>
       <c r="G30" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B31" t="str">
-        <v>5K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州众惠通信技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州-二七区</v>
@@ -1087,10 +1087,10 @@
         <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G31" t="str">
-        <v>https://company.zhaopin.com/CZ269981330.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="32">
@@ -1098,22 +1098,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>7K-12K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州恩普特</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F32" t="str">
         <v>本科</v>
       </c>
       <c r="G32" t="str">
-        <v>https://company.zhaopin.com/CZ142437320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="33">
@@ -1121,45 +1121,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>4K-6K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C33" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E33" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G33" t="str">
-        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android高级开发工程师（java方向：9000-16000）</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B34" t="str">
-        <v>10K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
         <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G34" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="35">
@@ -1170,7 +1170,7 @@
         <v>6K-8K</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>上海屹通信息科技发展有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州</v>
@@ -1182,7 +1182,7 @@
         <v>本科</v>
       </c>
       <c r="G35" t="str">
-        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="36">
@@ -1190,13 +1190,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8K-15K</v>
+        <v>10K-12K</v>
       </c>
       <c r="C36" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
@@ -1205,7 +1205,7 @@
         <v>本科</v>
       </c>
       <c r="G36" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="37">
@@ -1213,10 +1213,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6K-12K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C37" t="str">
-        <v>河南中信科大数据科技有限公司</v>
+        <v>河南欣宜嘉医疗科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1228,7 +1228,7 @@
         <v>大专</v>
       </c>
       <c r="G37" t="str">
-        <v>https://company.zhaopin.com/CZ843228510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="38">
@@ -1236,68 +1236,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C38" t="str">
-        <v>河南臻图信息科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G38" t="str">
-        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B39" t="str">
-        <v>8K-10K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C39" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G39" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8K-10K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州巨之麦科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
         <v>本科</v>
       </c>
       <c r="G40" t="str">
-        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="41">
@@ -1305,22 +1305,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>薪资面议</v>
+        <v>6K-9K</v>
       </c>
       <c r="C41" t="str">
-        <v>新开普</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G41" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="42">
@@ -1328,13 +1328,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>10K-20K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C42" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
@@ -1343,7 +1343,7 @@
         <v>大专</v>
       </c>
       <c r="G42" t="str">
-        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="43">
@@ -1351,36 +1351,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8K-13K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G43" t="str">
-        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B44" t="str">
         <v>5K-10K</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
         <v>1-3年</v>
@@ -1389,7 +1389,7 @@
         <v>大专</v>
       </c>
       <c r="G44" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="45">
@@ -1397,22 +1397,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8K-15K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C45" t="str">
-        <v>天宇正清科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
         <v>本科</v>
       </c>
       <c r="G45" t="str">
-        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="46">
@@ -1420,10 +1420,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6K-8K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南光合四季教育信息咨询有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1432,47 +1432,47 @@
         <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G46" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>急聘安卓(android)开发工程师</v>
+        <v>android高级开发工程师（java方向：9000-16000）</v>
       </c>
       <c r="B47" t="str">
-        <v>8K-13K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州燚轩软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G47" t="str">
-        <v>https://company.zhaopin.com/CZ306667430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5K-10K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
@@ -1481,53 +1481,53 @@
         <v>大专</v>
       </c>
       <c r="G48" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android程序员</v>
       </c>
       <c r="B49" t="str">
-        <v>12K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C49" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G49" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>15K-20K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C50" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E50" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G50" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="51">
@@ -1538,7 +1538,7 @@
         <v>6K-8K</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
@@ -1550,7 +1550,7 @@
         <v>大专</v>
       </c>
       <c r="G51" t="str">
-        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="52">
@@ -1558,13 +1558,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8K-10K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州程序猫信息技术有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
@@ -1573,21 +1573,21 @@
         <v>大专</v>
       </c>
       <c r="G52" t="str">
-        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C53" t="str">
-        <v>天迈科技</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
@@ -1596,7 +1596,7 @@
         <v>本科</v>
       </c>
       <c r="G53" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="54">
@@ -1604,36 +1604,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>薪资面议</v>
+        <v>6K-8K</v>
       </c>
       <c r="C54" t="str">
-        <v>新开普</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G54" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B55" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C55" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
@@ -1642,7 +1642,7 @@
         <v>本科</v>
       </c>
       <c r="G55" t="str">
-        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="56">
@@ -1653,7 +1653,7 @@
         <v>6K-8K</v>
       </c>
       <c r="C56" t="str">
-        <v>上海屹通信息科技发展有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
@@ -1662,171 +1662,171 @@
         <v>1-3年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G56" t="str">
-        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>7K-12K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C57" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
-        <v>https://company.zhaopin.com/CZ872926580.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B58" t="str">
-        <v>7K-10K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>无经验</v>
       </c>
       <c r="F58" t="str">
         <v>本科</v>
       </c>
       <c r="G58" t="str">
-        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C59" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州巨之麦科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
         <v>本科</v>
       </c>
       <c r="G59" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B60" t="str">
-        <v>6K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C60" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
       </c>
       <c r="G60" t="str">
-        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>5K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C61" t="str">
-        <v>八六三软件</v>
+        <v>河南快易易物企业管理咨询有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
       </c>
       <c r="G61" t="str">
-        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>5K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C62" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州程序猫信息技术有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G62" t="str">
-        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8K-12K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C63" t="str">
-        <v>科大讯飞</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
         <v>本科</v>
       </c>
       <c r="G63" t="str">
-        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="64">
@@ -1834,22 +1834,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8K-15K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C64" t="str">
-        <v>硕诺科技</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
         <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G64" t="str">
-        <v>https://company.zhaopin.com/CZ511889520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="65">
@@ -1857,45 +1857,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>10K-12K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C65" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E65" t="str">
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G65" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B66" t="str">
-        <v>6K-9K</v>
+        <v>12K-15K</v>
       </c>
       <c r="C66" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G66" t="str">
-        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="67">
@@ -1903,22 +1903,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>8K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C67" t="str">
-        <v>云鸟配送</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
         <v>大专</v>
       </c>
       <c r="G67" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="68">
@@ -1926,36 +1926,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>10K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C68" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
       </c>
       <c r="G68" t="str">
-        <v>https://company.zhaopin.com/CZ186070620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发</v>
       </c>
       <c r="B69" t="str">
-        <v>8K-10K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E69" t="str">
         <v>1-3年</v>
@@ -1964,7 +1964,7 @@
         <v>本科</v>
       </c>
       <c r="G69" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="70">
@@ -1972,59 +1972,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>5K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C70" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G70" t="str">
-        <v>https://company.zhaopin.com/CZ277890680.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B71" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
       </c>
       <c r="G71" t="str">
-        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>7K-9K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C72" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
         <v>3-5年</v>
@@ -2033,44 +2033,44 @@
         <v>大专</v>
       </c>
       <c r="G72" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师</v>
+        <v>android/iOS实习生</v>
       </c>
       <c r="B73" t="str">
-        <v>10K-15K</v>
+        <v>3K-4K</v>
       </c>
       <c r="C73" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D73" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
       </c>
       <c r="G73" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>10K-15K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C74" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
@@ -2079,7 +2079,7 @@
         <v>本科</v>
       </c>
       <c r="G74" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="75">
@@ -2087,13 +2087,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>10K-15K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C75" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
@@ -2102,21 +2102,21 @@
         <v>本科</v>
       </c>
       <c r="G75" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>8K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E76" t="str">
         <v>3-5年</v>
@@ -2125,18 +2125,18 @@
         <v>本科</v>
       </c>
       <c r="G76" t="str">
-        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>6K-12K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C77" t="str">
-        <v>浪潮集团</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D77" t="str">
         <v>郑州-高新区</v>
@@ -2145,24 +2145,24 @@
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G77" t="str">
-        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>15K-20K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E78" t="str">
         <v>3-5年</v>
@@ -2171,7 +2171,7 @@
         <v>本科</v>
       </c>
       <c r="G78" t="str">
-        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="79">
@@ -2194,21 +2194,21 @@
         <v>大专</v>
       </c>
       <c r="G79" t="str">
-        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>11K-18K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C80" t="str">
-        <v>刀锋互娱</v>
+        <v>河南新辰环保科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
@@ -2217,41 +2217,41 @@
         <v>大专</v>
       </c>
       <c r="G80" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ286545730.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>6K-11K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C81" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
         <v>本科</v>
       </c>
       <c r="G81" t="str">
-        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C82" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
@@ -2260,33 +2260,33 @@
         <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G82" t="str">
-        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>4K-6K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C83" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>无经验</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G83" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ664230380.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="84">
@@ -2294,13 +2294,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6K-10K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C84" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>天宇正清科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E84" t="str">
         <v>3-5年</v>
@@ -2309,30 +2309,30 @@
         <v>本科</v>
       </c>
       <c r="G84" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发</v>
+        <v>android 开发</v>
       </c>
       <c r="B85" t="str">
-        <v>6K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C85" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E85" t="str">
         <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G85" t="str">
-        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="86">
@@ -2340,59 +2340,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>本科</v>
       </c>
       <c r="G86" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>4K-8K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C87" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G87" t="str">
-        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android底层驱动工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B88" t="str">
-        <v>薪资面议</v>
+        <v>6K-10K</v>
       </c>
       <c r="C88" t="str">
-        <v>新开普</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E88" t="str">
         <v>3-5年</v>
@@ -2401,30 +2401,30 @@
         <v>本科</v>
       </c>
       <c r="G88" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>10K-15K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C89" t="str">
-        <v>天迈科技</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="90">
@@ -2432,36 +2432,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>7K-12K</v>
+        <v>4K-7K</v>
       </c>
       <c r="C90" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>北京同创软件有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
         <v>大专</v>
       </c>
       <c r="G90" t="str">
-        <v>https://company.zhaopin.com/CZ468463280.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ390446980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C91" t="str">
-        <v>威科姆</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E91" t="str">
         <v>3-5年</v>
@@ -2470,44 +2470,44 @@
         <v>本科</v>
       </c>
       <c r="G91" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6K-8K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C92" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G92" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6K-8K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C93" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>新开普</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E93" t="str">
         <v>1-3年</v>
@@ -2516,110 +2516,110 @@
         <v>本科</v>
       </c>
       <c r="G93" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>15K-20K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C94" t="str">
-        <v>刀锋互娱</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G94" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州众惠通信技术有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E95" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G95" t="str">
-        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ269981330.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>10K-16K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C96" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E96" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
         <v>本科</v>
       </c>
       <c r="G96" t="str">
-        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>河南-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>5K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C97" t="str">
-        <v>天博电子信息科技有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E97" t="str">
         <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G97" t="str">
-        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ834311830.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>安卓工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8K-12K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C98" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
@@ -2628,116 +2628,116 @@
         <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G98" t="str">
-        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8K-16K</v>
+        <v>4K-8K</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
         <v>大专</v>
       </c>
       <c r="G99" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F100" t="str">
         <v>本科</v>
       </c>
       <c r="G100" t="str">
-        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓工程师郑州</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6K-8K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C101" t="str">
-        <v>蓝众物业集团有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E101" t="str">
         <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G101" t="str">
-        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>12K-16K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F102" t="str">
         <v>本科</v>
       </c>
       <c r="G102" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8K-10K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C103" t="str">
-        <v>郑州超盟信息技术有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
@@ -2746,478 +2746,478 @@
         <v>本科</v>
       </c>
       <c r="G103" t="str">
-        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>15K-20K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C104" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F104" t="str">
         <v>本科</v>
       </c>
       <c r="G104" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Flutter</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>9K-11K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C105" t="str">
-        <v>云鸟配送</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
         <v>3-5年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G105" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B106" t="str">
-        <v>15K-20K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
         <v>本科</v>
       </c>
       <c r="G106" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B107" t="str">
         <v>6K-8K</v>
       </c>
       <c r="C107" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F107" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G107" t="str">
-        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>移动端开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B108" t="str">
-        <v>12K-16K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C108" t="str">
-        <v>绿建生态环境集团有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E108" t="str">
         <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
-        <v>https://company.zhaopin.com/CZ186070620.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Anroid开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>7K-11K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C109" t="str">
-        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F109" t="str">
         <v>本科</v>
       </c>
       <c r="G109" t="str">
-        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>5K-7K</v>
+        <v>12K-16K</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
-        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓开发工程师</v>
+        <v>河南-android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>4K-6K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>天博电子信息科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
         <v>大专</v>
       </c>
       <c r="G111" t="str">
-        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>急聘安卓高级工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>8K-15K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州中软高科信息技术有限公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E112" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G112" t="str">
-        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ509352280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8K-12K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C113" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G113" t="str">
-        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B114" t="str">
-        <v>6K-9K</v>
+        <v>8K-16K</v>
       </c>
       <c r="C114" t="str">
-        <v>北京晟壁科技有限公司郑州分公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G114" t="str">
-        <v>https://company.zhaopin.com/CZ633504430.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓开发软件工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B115" t="str">
-        <v>6K-8K</v>
+        <v>15K-25K</v>
       </c>
       <c r="C115" t="str">
-        <v>正星科技</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>本科</v>
       </c>
       <c r="G115" t="str">
-        <v>http://special.zhaopin.com/pagepublish/13788064/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6K-9K</v>
+        <v>10K-16K</v>
       </c>
       <c r="C116" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E116" t="str">
         <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G116" t="str">
-        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>15K-20K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州京慧越科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G117" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>移动端主程</v>
+        <v>移动端开发工程师（2021校招）</v>
       </c>
       <c r="B118" t="str">
-        <v>8K-10K</v>
+        <v>9K-18K</v>
       </c>
       <c r="C118" t="str">
-        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+        <v>蓝鸽科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1年以下</v>
       </c>
       <c r="F118" t="str">
         <v>本科</v>
       </c>
       <c r="G118" t="str">
-        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ526418220.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>逆向工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>15K-30K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C119" t="str">
-        <v>正阳县启蒙文化传媒有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
         <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G119" t="str">
-        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>8K-12K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C120" t="str">
-        <v>云涌科技</v>
+        <v>河南万邦国际农产品物流股份有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G120" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>7K-9K</v>
+        <v>15K-30K</v>
       </c>
       <c r="C121" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>正阳县启蒙文化传媒有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E121" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
         <v>大专</v>
       </c>
       <c r="G121" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发</v>
+        <v>Anroid开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6K-12K</v>
+        <v>7K-11K</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州云跃信息技术有限公司</v>
+        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
         <v>本科</v>
       </c>
       <c r="G122" t="str">
-        <v>https://company.zhaopin.com/CZ857895930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>系统开发工程师</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>6K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C123" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
       </c>
       <c r="G123" t="str">
-        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓开发工程师</v>
+        <v>郑州五险安卓APP软件开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>7K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C124" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>蓝众物业集团有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州</v>
@@ -3226,21 +3226,21 @@
         <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G124" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>5K-7K</v>
+        <v>15K-25K</v>
       </c>
       <c r="C125" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>上海易宝软件有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
@@ -3249,44 +3249,44 @@
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G125" t="str">
-        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ120109940.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>8K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C126" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
       </c>
       <c r="G126" t="str">
-        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B127" t="str">
-        <v>5K-7K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C127" t="str">
-        <v>郑州柯品网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
@@ -3295,33 +3295,33 @@
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G127" t="str">
-        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B128" t="str">
-        <v>6K-12K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C128" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F128" t="str">
         <v>本科</v>
       </c>
       <c r="G128" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="129">
@@ -3329,56 +3329,56 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>3.5K-7K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C129" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G129" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ140937420.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>flutter APP 开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>10K-15K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C130" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
+        <v>郑州新中软科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
         <v>大专</v>
       </c>
       <c r="G130" t="str">
-        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
@@ -3390,81 +3390,518 @@
         <v>大专</v>
       </c>
       <c r="G131" t="str">
-        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>APP开发工程师</v>
+        <v>急聘安卓高级工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>10K-16K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>郑州中软高科信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F132" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
-        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>APP开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>6K-8K</v>
+        <v>7K-14K</v>
       </c>
       <c r="C133" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>河南洁路德环境科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G133" t="str">
-        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+        <v>https://company.zhaopin.com/CZL1248339850.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B134" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C134" t="str">
+        <v>郑州双杰科技股份有限公司</v>
+      </c>
+      <c r="D134" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E134" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F134" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G134" t="str">
+        <v>https://company.zhaopin.com/CZ214831510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>移动端主程</v>
+      </c>
+      <c r="B135" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C135" t="str">
+        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+      </c>
+      <c r="D135" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E135" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F135" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G135" t="str">
+        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>资深andriod开发工程师-清理安全方向</v>
+      </c>
+      <c r="B136" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C136" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D136" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E136" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F136" t="str">
+        <v>硕士</v>
+      </c>
+      <c r="G136" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>中高级安卓软件工程师</v>
+      </c>
+      <c r="B137" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C137" t="str">
+        <v>郑州闪创网络科技有限公司</v>
+      </c>
+      <c r="D137" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E137" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F137" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G137" t="str">
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>安卓前端研发工程师</v>
+      </c>
+      <c r="B138" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C138" t="str">
+        <v>河南陀螺信息技术有限公司</v>
+      </c>
+      <c r="D138" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E138" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F138" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G138" t="str">
+        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B139" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C139" t="str">
+        <v>郑州超盟信息技术有限公司</v>
+      </c>
+      <c r="D139" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E139" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F139" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G139" t="str">
+        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>高级安卓开发工程师</v>
+      </c>
+      <c r="B140" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C140" t="str">
+        <v>河南千年国医健康产业集团有限公司</v>
+      </c>
+      <c r="D140" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E140" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F140" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G140" t="str">
+        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B141" t="str">
+        <v>7K-9K</v>
+      </c>
+      <c r="C141" t="str">
+        <v>河南讯丰信息技术有限公司</v>
+      </c>
+      <c r="D141" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F141" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G141" t="str">
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B142" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C142" t="str">
+        <v>郑州柯品网络科技有限公司</v>
+      </c>
+      <c r="D142" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E142" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F142" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G142" t="str">
+        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B143" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C143" t="str">
+        <v>慕然云(深圳)科技有限公司</v>
+      </c>
+      <c r="D143" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E143" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F143" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G143" t="str">
+        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B144" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C144" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D144" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E144" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F144" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G144" t="str">
+        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B145" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C145" t="str">
+        <v>郑州立信软件科技有限公司</v>
+      </c>
+      <c r="D145" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E145" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F145" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G145" t="str">
+        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B146" t="str">
+        <v>7K-10K</v>
+      </c>
+      <c r="C146" t="str">
+        <v>河南光合四季教育信息咨询有限公司</v>
+      </c>
+      <c r="D146" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E146" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F146" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G146" t="str">
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B147" t="str">
+        <v>10K-16K</v>
+      </c>
+      <c r="C147" t="str">
+        <v>郑州五岳电子科技有限公司</v>
+      </c>
+      <c r="D147" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E147" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F147" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G147" t="str">
+        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B148" t="str">
+        <v>3.5K-7K</v>
+      </c>
+      <c r="C148" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D148" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E148" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F148" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G148" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>安卓手机app开发人员</v>
+      </c>
+      <c r="B149" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C149" t="str">
+        <v>河南商蒙软件科技有限公司</v>
+      </c>
+      <c r="D149" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E149" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F149" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G149" t="str">
+        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>flutter APP 开发工程师</v>
+      </c>
+      <c r="B150" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C150" t="str">
+        <v>河南冠杰智能科技股份有限公司</v>
+      </c>
+      <c r="D150" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E150" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F150" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G150" t="str">
+        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B151" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C151" t="str">
+        <v>昆山双宇新信息科技有限公司</v>
+      </c>
+      <c r="D151" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E151" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F151" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G151" t="str">
+        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B152" t="str">
         <v>6K-10K</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C152" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D134" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E134" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F134" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G134" t="str">
-        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=c945820e-2d60-4bb5-9faa-2ff58bfeca46</v>
+      <c r="D152" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E152" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F152" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G152" t="str">
+        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>移动端安卓研发</v>
+      </c>
+      <c r="B153" t="str">
+        <v>7K-10K</v>
+      </c>
+      <c r="C153" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D153" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E153" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F153" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G153" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G134"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G153"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +408,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6K-9K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C2" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>郑州港达物流有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -423,21 +423,21 @@
         <v>大专</v>
       </c>
       <c r="G2" t="str">
-        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>11K-18K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C3" t="str">
-        <v>刀锋互娱</v>
+        <v>河南新辰环保科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
@@ -446,7 +446,7 @@
         <v>大专</v>
       </c>
       <c r="G3" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ286545730.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="4">
@@ -454,45 +454,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8K-13K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C4" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
         <v>大专</v>
       </c>
       <c r="G4" t="str">
-        <v>https://company.zhaopin.com/CZ551973080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（java方向：9000-16000）</v>
       </c>
       <c r="B5" t="str">
-        <v>8K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C5" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E5" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G5" t="str">
-        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="6">
@@ -500,13 +500,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>10K-15K</v>
+        <v>10K-12K</v>
       </c>
       <c r="C6" t="str">
-        <v>牧原股份</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -515,64 +515,64 @@
         <v>本科</v>
       </c>
       <c r="G6" t="str">
-        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B7" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C7" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
-        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android工程师周末双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6K-9K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州现代外语学校</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E8" t="str">
         <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G8" t="str">
-        <v>https://company.zhaopin.com/CZ185092810.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ361838210.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B9" t="str">
-        <v>5K-7K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州港达物流有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
@@ -584,18 +584,18 @@
         <v>大专</v>
       </c>
       <c r="G9" t="str">
-        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6K-8K</v>
+        <v>11K-18K</v>
       </c>
       <c r="C10" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D10" t="str">
         <v>郑州-中原区</v>
@@ -607,18 +607,18 @@
         <v>大专</v>
       </c>
       <c r="G10" t="str">
-        <v>https://company.zhaopin.com/CZ361838210.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6K-11K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州云泉教育科技有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
@@ -627,33 +627,33 @@
         <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G11" t="str">
-        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ664230380.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8K-14K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G12" t="str">
-        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="13">
@@ -661,22 +661,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C13" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>河南鼎健航天技术股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-新密市</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
         <v>大专</v>
       </c>
       <c r="G13" t="str">
-        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="14">
@@ -684,13 +684,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>10K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C14" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
         <v>1-3年</v>
@@ -699,7 +699,7 @@
         <v>大专</v>
       </c>
       <c r="G14" t="str">
-        <v>https://company.zhaopin.com/CZL1233889700.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="15">
@@ -710,19 +710,19 @@
         <v>7K-10K</v>
       </c>
       <c r="C15" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E15" t="str">
         <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G15" t="str">
-        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="16">
@@ -730,22 +730,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C16" t="str">
-        <v>新天科技</v>
+        <v>牧原股份</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
         <v>本科</v>
       </c>
       <c r="G16" t="str">
-        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="17">
@@ -753,22 +753,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
-        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="18">
@@ -776,68 +776,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6K-9K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C18" t="str">
-        <v>中机智云有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E18" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G18" t="str">
-        <v>https://company.zhaopin.com/CZ522433280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师周末双休</v>
       </c>
       <c r="B19" t="str">
-        <v>6K-8K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C19" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州现代外语学校</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E19" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G19" t="str">
-        <v>http://special.zhaopin.com/11059/zz/2014/zgw011950/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ185092810.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C20" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G20" t="str">
-        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ551973080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="21">
@@ -845,68 +845,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>5K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C21" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G21" t="str">
-        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android 研发人员</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>5K-10K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C22" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>郑州云泉教育科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
         <v>1-3年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G22" t="str">
-        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B23" t="str">
-        <v>9K-13K</v>
+        <v>8K-14K</v>
       </c>
       <c r="C23" t="str">
-        <v>康桥悦生活</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G23" t="str">
-        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="24">
@@ -914,22 +914,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>10K-20K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C24" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E24" t="str">
         <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G24" t="str">
-        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="25">
@@ -937,13 +937,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C25" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
@@ -952,7 +952,7 @@
         <v>本科</v>
       </c>
       <c r="G25" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="26">
@@ -960,22 +960,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6K-9K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
       </c>
       <c r="G26" t="str">
-        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1233889700.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="27">
@@ -983,22 +983,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>9K-15K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C27" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D27" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E27" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G27" t="str">
-        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="28">
@@ -1006,45 +1006,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>7K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C28" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G28" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>10K-12K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C29" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G29" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="30">
@@ -1052,45 +1052,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>6K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C30" t="str">
-        <v>河南臻图信息科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G30" t="str">
-        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>8K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
         <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G31" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="32">
@@ -1098,22 +1098,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>10K-20K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C32" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="33">
@@ -1121,68 +1121,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>7K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C33" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F33" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G33" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/11059/zz/2014/zgw011950/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>8K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C34" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
         <v>大专</v>
       </c>
       <c r="G34" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android开发工程师</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B35" t="str">
-        <v>6K-8K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C35" t="str">
-        <v>上海屹通信息科技发展有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E35" t="str">
         <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G35" t="str">
-        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="36">
@@ -1190,13 +1190,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>10K-12K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C36" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
@@ -1205,7 +1205,7 @@
         <v>本科</v>
       </c>
       <c r="G36" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="37">
@@ -1213,10 +1213,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>5K-8K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C37" t="str">
-        <v>河南欣宜嘉医疗科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1225,102 +1225,102 @@
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G37" t="str">
-        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C38" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G38" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>5K-8K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C39" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
       </c>
       <c r="G39" t="str">
-        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>15K-20K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>上海屹通信息科技发展有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
         <v>本科</v>
       </c>
       <c r="G40" t="str">
-        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B41" t="str">
-        <v>6K-9K</v>
+        <v>10K-12K</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G41" t="str">
-        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="42">
@@ -1328,13 +1328,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>8K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C42" t="str">
-        <v>云鸟配送</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
@@ -1343,7 +1343,7 @@
         <v>大专</v>
       </c>
       <c r="G42" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="43">
@@ -1351,59 +1351,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>6K-8K</v>
+        <v>9K-13K</v>
       </c>
       <c r="C43" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>康桥悦生活</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
       </c>
       <c r="G43" t="str">
-        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>5K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南臻图信息科技有限公司</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
         <v>大专</v>
       </c>
       <c r="G44" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B45" t="str">
-        <v>5K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C45" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E45" t="str">
         <v>1-3年</v>
@@ -1412,44 +1412,44 @@
         <v>本科</v>
       </c>
       <c r="G45" t="str">
-        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B46" t="str">
-        <v>8K-15K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C46" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F46" t="str">
         <v>本科</v>
       </c>
       <c r="G46" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android高级开发工程师（java方向：9000-16000）</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B47" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E47" t="str">
         <v>3-5年</v>
@@ -1458,21 +1458,21 @@
         <v>本科</v>
       </c>
       <c r="G47" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B48" t="str">
-        <v>7K-9K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C48" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
@@ -1481,21 +1481,21 @@
         <v>大专</v>
       </c>
       <c r="G48" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C49" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
@@ -1504,7 +1504,7 @@
         <v>大专</v>
       </c>
       <c r="G49" t="str">
-        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="50">
@@ -1515,19 +1515,19 @@
         <v>5K-8K</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>河南欣宜嘉医疗科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
         <v>大专</v>
       </c>
       <c r="G50" t="str">
-        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="51">
@@ -1535,22 +1535,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
         <v>大专</v>
       </c>
       <c r="G51" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="52">
@@ -1558,22 +1558,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>15K-20K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C52" t="str">
-        <v>南京迈特望</v>
+        <v>河南光合四季教育信息咨询有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G52" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="53">
@@ -1581,13 +1581,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>10K-15K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C53" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
@@ -1596,18 +1596,18 @@
         <v>本科</v>
       </c>
       <c r="G53" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>6K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1616,33 +1616,33 @@
         <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
-        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>8K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C55" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G55" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="56">
@@ -1650,68 +1650,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6K-8K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E56" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
         <v>大专</v>
       </c>
       <c r="G56" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B57" t="str">
-        <v>8K-15K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C57" t="str">
-        <v>南京迈特望</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G57" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>4K-6K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C58" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E58" t="str">
-        <v>无经验</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G58" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="59">
@@ -1719,45 +1719,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州巨之麦科技有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
         <v>本科</v>
       </c>
       <c r="G59" t="str">
-        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>15K-20K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C60" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G60" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="61">
@@ -1765,10 +1765,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>8K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C61" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
@@ -1777,10 +1777,10 @@
         <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G61" t="str">
-        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="62">
@@ -1788,10 +1788,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>8K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州程序猫信息技术有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
@@ -1803,30 +1803,30 @@
         <v>大专</v>
       </c>
       <c r="G62" t="str">
-        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>7K-10K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D63" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>本科</v>
       </c>
       <c r="G63" t="str">
-        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="64">
@@ -1834,22 +1834,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6K-10K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G64" t="str">
-        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="65">
@@ -1857,45 +1857,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C65" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>河南快易易物企业管理咨询有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G65" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android程序员</v>
       </c>
       <c r="B66" t="str">
-        <v>12K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C66" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="67">
@@ -1903,13 +1903,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>5K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E67" t="str">
         <v>1-3年</v>
@@ -1918,41 +1918,41 @@
         <v>大专</v>
       </c>
       <c r="G67" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B68" t="str">
-        <v>6K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C68" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D68" t="str">
         <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
       </c>
       <c r="G68" t="str">
-        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>5K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C69" t="str">
-        <v>八六三软件</v>
+        <v>郑州巨之麦科技有限公司</v>
       </c>
       <c r="D69" t="str">
         <v>郑州</v>
@@ -1964,7 +1964,7 @@
         <v>本科</v>
       </c>
       <c r="G69" t="str">
-        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="70">
@@ -1975,47 +1975,47 @@
         <v>7K-10K</v>
       </c>
       <c r="C70" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C71" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>郑州程序猫信息技术有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
       </c>
       <c r="G71" t="str">
-        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
         <v>5K-10K</v>
@@ -2024,131 +2024,131 @@
         <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
         <v>大专</v>
       </c>
       <c r="G72" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android/iOS实习生</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B73" t="str">
-        <v>3K-4K</v>
+        <v>12K-15K</v>
       </c>
       <c r="C73" t="str">
-        <v>云鸟配送</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>无经验</v>
+        <v>5-10年</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
       </c>
       <c r="G73" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>8K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C74" t="str">
-        <v>科大讯飞</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
         <v>本科</v>
       </c>
       <c r="G74" t="str">
-        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android/iOS实习生</v>
       </c>
       <c r="B75" t="str">
-        <v>6K-12K</v>
+        <v>3K-4K</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F75" t="str">
         <v>本科</v>
       </c>
       <c r="G75" t="str">
-        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android应用开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>10K-15K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C76" t="str">
-        <v>天迈科技</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E76" t="str">
         <v>3-5年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G76" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>7K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C77" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G77" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="78">
@@ -2156,22 +2156,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C78" t="str">
-        <v>正商地产</v>
+        <v>中机智云有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G78" t="str">
-        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ522433280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="79">
@@ -2179,22 +2179,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>5K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C79" t="str">
-        <v>河南鼎健航天技术股份有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-新密市</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G79" t="str">
-        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="80">
@@ -2202,13 +2202,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>7K-10K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C80" t="str">
-        <v>河南新辰环保科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
@@ -2217,7 +2217,7 @@
         <v>大专</v>
       </c>
       <c r="G80" t="str">
-        <v>https://company.zhaopin.com/CZ286545730.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="81">
@@ -2225,45 +2225,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>7K-10K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>天宇正清科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
         <v>本科</v>
       </c>
       <c r="G81" t="str">
-        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6K-10K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C82" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F82" t="str">
         <v>本科</v>
       </c>
       <c r="G82" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="83">
@@ -2271,22 +2271,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8K-10K</v>
+        <v>9K-15K</v>
       </c>
       <c r="C83" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F83" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G83" t="str">
-        <v>https://company.zhaopin.com/CZ664230380.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="84">
@@ -2294,13 +2294,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>8K-15K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C84" t="str">
-        <v>天宇正清科技有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E84" t="str">
         <v>3-5年</v>
@@ -2309,7 +2309,7 @@
         <v>本科</v>
       </c>
       <c r="G84" t="str">
-        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="85">
@@ -2332,7 +2332,7 @@
         <v>大专</v>
       </c>
       <c r="G85" t="str">
-        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="86">
@@ -2340,22 +2340,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>10K-15K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C86" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
         <v>本科</v>
       </c>
       <c r="G86" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="87">
@@ -2363,79 +2363,79 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>薪资面议</v>
+        <v>4K-7K</v>
       </c>
       <c r="C87" t="str">
-        <v>新开普</v>
+        <v>北京同创软件有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G87" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ390446980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C88" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
         <v>本科</v>
       </c>
       <c r="G88" t="str">
-        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B89" t="str">
-        <v>8K-13K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F89" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G89" t="str">
-        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>4K-7K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C90" t="str">
-        <v>北京同创软件有限公司</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州-高新区</v>
@@ -2444,24 +2444,24 @@
         <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
-        <v>https://company.zhaopin.com/CZ390446980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>10K-15K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C91" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E91" t="str">
         <v>3-5年</v>
@@ -2470,7 +2470,7 @@
         <v>本科</v>
       </c>
       <c r="G91" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="92">
@@ -2478,22 +2478,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>4K-6K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C92" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G92" t="str">
-        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="93">
@@ -2501,45 +2501,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>薪资面议</v>
+        <v>10K-15K</v>
       </c>
       <c r="C93" t="str">
-        <v>新开普</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D93" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
         <v>本科</v>
       </c>
       <c r="G93" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6K-11K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C94" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G94" t="str">
-        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="95">
@@ -2547,59 +2547,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>5K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州众惠通信技术有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G95" t="str">
-        <v>https://company.zhaopin.com/CZ269981330.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ834311830.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>6K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C96" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G96" t="str">
-        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B97" t="str">
-        <v>8K-12K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C97" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
         <v>1-3年</v>
@@ -2608,67 +2608,67 @@
         <v>本科</v>
       </c>
       <c r="G97" t="str">
-        <v>https://company.zhaopin.com/CZ834311830.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8K-10K</v>
+        <v>4K-8K</v>
       </c>
       <c r="C98" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
         <v>大专</v>
       </c>
       <c r="G98" t="str">
-        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android软件工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>4K-8K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C99" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E99" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F99" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G99" t="str">
-        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B100" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C100" t="str">
-        <v>威科姆</v>
+        <v>天迈科技</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E100" t="str">
         <v>3-5年</v>
@@ -2677,67 +2677,67 @@
         <v>本科</v>
       </c>
       <c r="G100" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>10K-15K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C101" t="str">
-        <v>天迈科技</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
         <v>本科</v>
       </c>
       <c r="G101" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>6K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
         <v>本科</v>
       </c>
       <c r="G102" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android底层驱动工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>薪资面议</v>
+        <v>8K-10K</v>
       </c>
       <c r="C103" t="str">
-        <v>新开普</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
@@ -2746,18 +2746,18 @@
         <v>本科</v>
       </c>
       <c r="G103" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C104" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2769,260 +2769,260 @@
         <v>本科</v>
       </c>
       <c r="G104" t="str">
-        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C105" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F105" t="str">
         <v>本科</v>
       </c>
       <c r="G105" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B106" t="str">
         <v>6K-8K</v>
       </c>
       <c r="C106" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F106" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G106" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android软件工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B107" t="str">
-        <v>6K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C107" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E107" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G107" t="str">
-        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B108" t="str">
-        <v>15K-20K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C108" t="str">
-        <v>刀锋互娱</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G108" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android 工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6K-8K</v>
+        <v>12K-16K</v>
       </c>
       <c r="C109" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>经验不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F109" t="str">
         <v>本科</v>
       </c>
       <c r="G109" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>andriod开发工程师</v>
+        <v>河南-android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>12K-16K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>天博电子信息科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E110" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G110" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>河南-android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>5K-8K</v>
+        <v>10K-16K</v>
       </c>
       <c r="C111" t="str">
-        <v>天博电子信息科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E111" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G111" t="str">
-        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G112" t="str">
-        <v>https://company.zhaopin.com/CZ509352280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B113" t="str">
-        <v>8K-10K</v>
+        <v>8K-16K</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G113" t="str">
-        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B114" t="str">
-        <v>8K-16K</v>
+        <v>15K-25K</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G114" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>15K-25K</v>
+        <v>7K-12K</v>
       </c>
       <c r="C115" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G115" t="str">
-        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ533358520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="116">
@@ -3030,13 +3030,13 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>10K-16K</v>
+        <v>15K-25K</v>
       </c>
       <c r="C116" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>上海易宝软件有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
         <v>3-5年</v>
@@ -3045,30 +3045,30 @@
         <v>本科</v>
       </c>
       <c r="G116" t="str">
-        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ120109940.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>5K-7K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
         <v>大专</v>
       </c>
       <c r="G117" t="str">
-        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ509352280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="118">
@@ -3091,30 +3091,30 @@
         <v>本科</v>
       </c>
       <c r="G118" t="str">
-        <v>https://company.zhaopin.com/CZ526418220.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ526418220.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>8K-12K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C119" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>郑州京慧越科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G119" t="str">
-        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="120">
@@ -3137,7 +3137,7 @@
         <v>大专</v>
       </c>
       <c r="G120" t="str">
-        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="121">
@@ -3160,168 +3160,168 @@
         <v>大专</v>
       </c>
       <c r="G121" t="str">
-        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Anroid开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>7K-11K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C122" t="str">
-        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F122" t="str">
         <v>本科</v>
       </c>
       <c r="G122" t="str">
-        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>Anroid开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>15K-20K</v>
+        <v>7K-11K</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
       </c>
       <c r="G123" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>郑州五险安卓APP软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C124" t="str">
-        <v>蓝众物业集团有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E124" t="str">
         <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G124" t="str">
-        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>15K-25K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C125" t="str">
-        <v>上海易宝软件有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F125" t="str">
         <v>本科</v>
       </c>
       <c r="G125" t="str">
-        <v>https://company.zhaopin.com/CZ120109940.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓工程师</v>
+        <v>急聘安卓高级工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>8K-12K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C126" t="str">
-        <v>云涌科技</v>
+        <v>郑州中软高科信息技术有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
       </c>
       <c r="G126" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发（双休）</v>
+        <v>软件工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6K-9K</v>
+        <v>7K-14K</v>
       </c>
       <c r="C127" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南洁路德环境科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G127" t="str">
-        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1248339850.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B128" t="str">
-        <v>15K-20K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C128" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G128" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="129">
@@ -3329,10 +3329,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6K-8K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C129" t="str">
-        <v>天一文化</v>
+        <v>郑州新中软科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
@@ -3341,44 +3341,44 @@
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G129" t="str">
-        <v>https://company.zhaopin.com/CZ140937420.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B130" t="str">
-        <v>4K-6K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F130" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G130" t="str">
-        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C131" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
@@ -3387,56 +3387,56 @@
         <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
-        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ140937420.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>急聘安卓高级工程师</v>
+        <v>郑州五险安卓APP软件开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>8K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州中软高科信息技术有限公司</v>
+        <v>蓝众物业集团有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G132" t="str">
-        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>软件工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>7K-14K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C133" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
         <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G133" t="str">
-        <v>https://company.zhaopin.com/CZL1248339850.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="134">
@@ -3444,22 +3444,22 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>5K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>郑州超盟信息技术有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G134" t="str">
-        <v>https://company.zhaopin.com/CZ214831510.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="135">
@@ -3482,7 +3482,7 @@
         <v>本科</v>
       </c>
       <c r="G135" t="str">
-        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="136">
@@ -3505,67 +3505,67 @@
         <v>硕士</v>
       </c>
       <c r="G136" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>6K-12K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E137" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G137" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ214831510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>6K-8K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C138" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>郑州柯品网络科技有限公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
         <v>本科</v>
       </c>
       <c r="G138" t="str">
-        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>中高级安卓软件工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州超盟信息技术有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
@@ -3574,30 +3574,30 @@
         <v>本科</v>
       </c>
       <c r="G139" t="str">
-        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>8K-10K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C140" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G140" t="str">
-        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="141">
@@ -3605,33 +3605,33 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>7K-9K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C141" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>慕然云(深圳)科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E141" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
         <v>大专</v>
       </c>
       <c r="G141" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级安卓开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>5K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C142" t="str">
-        <v>郑州柯品网络科技有限公司</v>
+        <v>河南千年国医健康产业集团有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
@@ -3643,30 +3643,30 @@
         <v>本科</v>
       </c>
       <c r="G142" t="str">
-        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>8K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C143" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F143" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G143" t="str">
-        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="144">
@@ -3689,7 +3689,7 @@
         <v>本科</v>
       </c>
       <c r="G144" t="str">
-        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="145">
@@ -3712,7 +3712,7 @@
         <v>大专</v>
       </c>
       <c r="G145" t="str">
-        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="146">
@@ -3735,53 +3735,53 @@
         <v>本科</v>
       </c>
       <c r="G146" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>10K-16K</v>
+        <v>3.5K-7K</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
         <v>大专</v>
       </c>
       <c r="G147" t="str">
-        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>3.5K-7K</v>
+        <v>10K-16K</v>
       </c>
       <c r="C148" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>郑州五岳电子科技有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
         <v>大专</v>
       </c>
       <c r="G148" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="149">
@@ -3804,7 +3804,7 @@
         <v>大专</v>
       </c>
       <c r="G149" t="str">
-        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="150">
@@ -3827,7 +3827,7 @@
         <v>大专</v>
       </c>
       <c r="G150" t="str">
-        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="151">
@@ -3835,22 +3835,22 @@
         <v>APP开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6K-8K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C151" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>河南建祥装饰工程有限公司</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F151" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G151" t="str">
-        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
     <row r="152">
@@ -3858,50 +3858,27 @@
         <v>APP开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C152" t="str">
-        <v>河南建祥装饰工程有限公司</v>
+        <v>昆山双宇新信息科技有限公司</v>
       </c>
       <c r="D152" t="str">
         <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F152" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G152" t="str">
-        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>移动端安卓研发</v>
-      </c>
-      <c r="B153" t="str">
-        <v>7K-10K</v>
-      </c>
-      <c r="C153" t="str">
-        <v>天瑞集团有限公司</v>
-      </c>
-      <c r="D153" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E153" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F153" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G153" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=14971915-d6f4-4e8d-8567-09a666866923</v>
+        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G153"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G152"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B2" t="str">
-        <v>5K-7K</v>
+        <v>8K-14K</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州港达物流有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -423,7 +423,7 @@
         <v>大专</v>
       </c>
       <c r="G2" t="str">
-        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="3">
@@ -431,22 +431,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>7K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C3" t="str">
-        <v>河南新辰环保科技有限公司</v>
+        <v>河南有家车服网络科技有限公司</v>
       </c>
       <c r="D3" t="str">
         <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F3" t="str">
         <v>大专</v>
       </c>
       <c r="G3" t="str">
-        <v>https://company.zhaopin.com/CZ286545730.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1288963210.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="4">
@@ -454,36 +454,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>6K-9K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C4" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>郑州星掣信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
         <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
         <v>大专</v>
       </c>
       <c r="G4" t="str">
-        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ660970680.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android高级开发工程师（java方向：9000-16000）</v>
+        <v>android高级工程师</v>
       </c>
       <c r="B5" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南经方云科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
@@ -492,7 +492,7 @@
         <v>本科</v>
       </c>
       <c r="G5" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1233272320.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="6">
@@ -500,36 +500,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>10K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C6" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F6" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G6" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/11059/zz/2014/zgw011950/?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B7" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C7" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
@@ -538,7 +538,7 @@
         <v>本科</v>
       </c>
       <c r="G7" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="8">
@@ -561,7 +561,7 @@
         <v>大专</v>
       </c>
       <c r="G8" t="str">
-        <v>https://company.zhaopin.com/CZ361838210.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ361838210.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="9">
@@ -584,30 +584,30 @@
         <v>大专</v>
       </c>
       <c r="G9" t="str">
-        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ427911780.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>11K-18K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C10" t="str">
-        <v>刀锋互娱</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
         <v>大专</v>
       </c>
       <c r="G10" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ664230380.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="11">
@@ -615,22 +615,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C11" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G11" t="str">
-        <v>https://company.zhaopin.com/CZ664230380.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="12">
@@ -638,22 +638,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C12" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G12" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="13">
@@ -661,22 +661,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>5K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C13" t="str">
-        <v>河南鼎健航天技术股份有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-新密市</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
         <v>大专</v>
       </c>
       <c r="G13" t="str">
-        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ551973080.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="14">
@@ -684,22 +684,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C14" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E14" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G14" t="str">
-        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="15">
@@ -707,22 +707,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>7K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C15" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="16">
@@ -730,22 +730,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>10K-15K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C16" t="str">
-        <v>牧原股份</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
-        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="17">
@@ -753,22 +753,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C17" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E17" t="str">
         <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G17" t="str">
-        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="18">
@@ -776,36 +776,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>7K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C18" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G18" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android工程师周末双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6K-9K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C19" t="str">
-        <v>郑州现代外语学校</v>
+        <v>牧原股份</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E19" t="str">
         <v>3-5年</v>
@@ -814,7 +814,7 @@
         <v>本科</v>
       </c>
       <c r="G19" t="str">
-        <v>https://company.zhaopin.com/CZ185092810.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="20">
@@ -822,22 +822,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8K-13K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C20" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G20" t="str">
-        <v>https://company.zhaopin.com/CZ551973080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="21">
@@ -845,68 +845,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>7K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C21" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1217490570.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android工程师周末双休</v>
       </c>
       <c r="B22" t="str">
-        <v>6K-11K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州云泉教育科技有限公司</v>
+        <v>郑州现代外语学校</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E22" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
       </c>
       <c r="G22" t="str">
-        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ185092810.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>8K-14K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C23" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E23" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G23" t="str">
-        <v>https://company.zhaopin.com/CZ890006910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="24">
@@ -914,22 +914,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>7K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C24" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G24" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="25">
@@ -940,19 +940,19 @@
         <v>8K-10K</v>
       </c>
       <c r="C25" t="str">
-        <v>正商地产</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G25" t="str">
-        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="26">
@@ -960,45 +960,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>10K-15K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C26" t="str">
-        <v>河南好项目企业管理有限公司</v>
+        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G26" t="str">
-        <v>https://company.zhaopin.com/CZL1233889700.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（java方向：9000-16000）</v>
       </c>
       <c r="B27" t="str">
-        <v>7K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C27" t="str">
-        <v>濮阳市华龙区易联盛世网络科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E27" t="str">
         <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
-        <v>https://company.zhaopin.com/CZ821667000.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="28">
@@ -1006,10 +1006,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6K-12K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C28" t="str">
-        <v>新天科技</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
@@ -1021,7 +1021,7 @@
         <v>本科</v>
       </c>
       <c r="G28" t="str">
-        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="29">
@@ -1029,59 +1029,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>8K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C29" t="str">
-        <v>河南紫马网络科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F29" t="str">
         <v>大专</v>
       </c>
       <c r="G29" t="str">
-        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B30" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
       </c>
       <c r="G30" t="str">
-        <v>https://company.zhaopin.com/CZ437057480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B31" t="str">
-        <v>6K-9K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E31" t="str">
         <v>1-3年</v>
@@ -1090,7 +1090,7 @@
         <v>大专</v>
       </c>
       <c r="G31" t="str">
-        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="32">
@@ -1098,22 +1098,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>7K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州爱梦教育科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
         <v>大专</v>
       </c>
       <c r="G32" t="str">
-        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ852496910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="33">
@@ -1121,59 +1121,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>6K-8K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C33" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
         <v>大专</v>
       </c>
       <c r="G33" t="str">
-        <v>http://special.zhaopin.com/11059/zz/2014/zgw011950/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ818372040.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（java方向：9000-16000）</v>
       </c>
       <c r="B34" t="str">
-        <v>5K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C34" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G34" t="str">
-        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android 研发人员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>5K-10K</v>
+        <v>8K-13K</v>
       </c>
       <c r="C35" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>1-3年</v>
@@ -1182,30 +1182,30 @@
         <v>大专</v>
       </c>
       <c r="G35" t="str">
-        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ611404130.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>6K-10K</v>
+        <v>4K-8K</v>
       </c>
       <c r="C36" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G36" t="str">
-        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="37">
@@ -1213,33 +1213,33 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>北京小马人科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G37" t="str">
-        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ897262120.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C38" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>郑州爱梦教育科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
@@ -1248,33 +1248,33 @@
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G38" t="str">
-        <v>https://company.zhaopin.com/CZ146973780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://special.zhaopin.com/Flying/pagepublish/84893130/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android软件开发工程师</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B39" t="str">
-        <v>6K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C39" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G39" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ673236780.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="40">
@@ -1282,10 +1282,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>6K-8K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C40" t="str">
-        <v>上海屹通信息科技发展有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
@@ -1294,33 +1294,33 @@
         <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G40" t="str">
-        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1217490570.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>10K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C41" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
         <v>本科</v>
       </c>
       <c r="G41" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="42">
@@ -1328,45 +1328,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>6K-9K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>河南鼎健航天技术股份有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-新密市</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F42" t="str">
         <v>大专</v>
       </c>
       <c r="G42" t="str">
-        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B43" t="str">
-        <v>9K-13K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C43" t="str">
-        <v>康桥悦生活</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
       </c>
       <c r="G43" t="str">
-        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="44">
@@ -1374,36 +1374,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>6K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C44" t="str">
-        <v>河南臻图信息科技有限公司</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G44" t="str">
-        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8K-10K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
         <v>1-3年</v>
@@ -1412,18 +1412,18 @@
         <v>本科</v>
       </c>
       <c r="G45" t="str">
-        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ146469520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>5K-8K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C46" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州港达物流有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1432,56 +1432,56 @@
         <v>1-3年</v>
       </c>
       <c r="F46" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G46" t="str">
-        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>10K-15K</v>
+        <v>11K-18K</v>
       </c>
       <c r="C47" t="str">
-        <v>天迈科技</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E47" t="str">
         <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G47" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B48" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C48" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G48" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="49">
@@ -1489,13 +1489,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8K-10K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C49" t="str">
-        <v>云鸟配送</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
@@ -1504,7 +1504,7 @@
         <v>大专</v>
       </c>
       <c r="G49" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="50">
@@ -1512,10 +1512,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>5K-8K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C50" t="str">
-        <v>河南欣宜嘉医疗科技有限公司</v>
+        <v>河南新辰环保科技有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
@@ -1527,30 +1527,30 @@
         <v>大专</v>
       </c>
       <c r="G50" t="str">
-        <v>https://company.zhaopin.com/CZ303820080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ286545730.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>5K-8K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G51" t="str">
-        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="52">
@@ -1558,22 +1558,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8K-15K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C52" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
       </c>
       <c r="G52" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="53">
@@ -1581,45 +1581,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>薪资面议</v>
+        <v>4K-7K</v>
       </c>
       <c r="C53" t="str">
-        <v>新开普</v>
+        <v>北京同创软件有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G53" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ390446980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>资深android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>15K-20K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州云泉教育科技有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F54" t="str">
         <v>本科</v>
       </c>
       <c r="G54" t="str">
-        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1266508240.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="55">
@@ -1627,68 +1627,68 @@
         <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>8K-13K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>郑州市智成软件科技有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
-        <v>https://company.zhaopin.com/CZ553730720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>7K-9K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C56" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G56" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ268855320.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>5K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E57" t="str">
         <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="58">
@@ -1696,13 +1696,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>15K-20K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C58" t="str">
-        <v>南京迈特望</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E58" t="str">
         <v>3-5年</v>
@@ -1711,7 +1711,7 @@
         <v>大专</v>
       </c>
       <c r="G58" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="59">
@@ -1722,19 +1722,19 @@
         <v>10K-15K</v>
       </c>
       <c r="C59" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>河南好项目企业管理有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G59" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1233889700.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="60">
@@ -1742,10 +1742,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>4K-6K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C60" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
@@ -1754,10 +1754,10 @@
         <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G60" t="str">
-        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="61">
@@ -1765,22 +1765,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6K-8K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
         <v>大专</v>
       </c>
       <c r="G61" t="str">
-        <v>https://company.zhaopin.com/CZ203721030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ233551680.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="62">
@@ -1788,13 +1788,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>6K-8K</v>
+        <v>7K-9K</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南讯丰信息技术有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
@@ -1803,21 +1803,21 @@
         <v>大专</v>
       </c>
       <c r="G62" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android应用开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8K-15K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C63" t="str">
-        <v>南京迈特望</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
@@ -1826,7 +1826,7 @@
         <v>本科</v>
       </c>
       <c r="G63" t="str">
-        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="64">
@@ -1834,45 +1834,45 @@
         <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>薪资面议</v>
+        <v>6K-12K</v>
       </c>
       <c r="C64" t="str">
-        <v>新开普</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
       </c>
       <c r="G64" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ396451910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发工程师</v>
+        <v>android/iOS实习生</v>
       </c>
       <c r="B65" t="str">
-        <v>8K-10K</v>
+        <v>3K-4K</v>
       </c>
       <c r="C65" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>云鸟配送</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
       </c>
       <c r="G65" t="str">
-        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="66">
@@ -1895,67 +1895,67 @@
         <v>大专</v>
       </c>
       <c r="G66" t="str">
-        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>6K-8K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G67" t="str">
-        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发</v>
       </c>
       <c r="B68" t="str">
-        <v>15K-20K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C68" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D68" t="str">
         <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G68" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B69" t="str">
         <v>8K-10K</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州巨之麦科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E69" t="str">
         <v>1-3年</v>
@@ -1964,7 +1964,7 @@
         <v>本科</v>
       </c>
       <c r="G69" t="str">
-        <v>https://company.zhaopin.com/CZL1222864050.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ221909520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="70">
@@ -1972,22 +1972,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>7K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C70" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
-        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="71">
@@ -1998,7 +1998,7 @@
         <v>8K-10K</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州程序猫信息技术有限公司</v>
+        <v>河南紫马网络科技有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
@@ -2010,7 +2010,7 @@
         <v>大专</v>
       </c>
       <c r="G71" t="str">
-        <v>https://company.zhaopin.com/CZ882723790.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1233850590.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="72">
@@ -2018,128 +2018,128 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>5K-10K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G72" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ278798110.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B73" t="str">
-        <v>12K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C73" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
       </c>
       <c r="G73" t="str">
-        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B74" t="str">
         <v>6K-8K</v>
       </c>
       <c r="C74" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>经验不限</v>
       </c>
       <c r="F74" t="str">
         <v>本科</v>
       </c>
       <c r="G74" t="str">
-        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android/iOS实习生</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>3K-4K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C75" t="str">
-        <v>云鸟配送</v>
+        <v>河南臻图信息科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>无经验</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G75" t="str">
-        <v>https://company.zhaopin.com/CZ257666030.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1290232040.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>5K-10K</v>
+        <v>9K-15K</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G76" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>8K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C77" t="str">
-        <v>科大讯飞</v>
+        <v>威科姆</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
@@ -2148,30 +2148,30 @@
         <v>本科</v>
       </c>
       <c r="G77" t="str">
-        <v>http://special.zhaopin.com/2016/hf/kdxf031862?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B78" t="str">
-        <v>6K-9K</v>
+        <v>6K-12K</v>
       </c>
       <c r="C78" t="str">
-        <v>中机智云有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
         <v>大专</v>
       </c>
       <c r="G78" t="str">
-        <v>https://company.zhaopin.com/CZ522433280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://inspur.zhaopin.com/?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="79">
@@ -2179,13 +2179,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>7K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州市智成软件科技有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
@@ -2194,18 +2194,18 @@
         <v>本科</v>
       </c>
       <c r="G79" t="str">
-        <v>https://company.zhaopin.com/CZ305373710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ834311830.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B80" t="str">
-        <v>10K-20K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C80" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州-金水区</v>
@@ -2214,10 +2214,10 @@
         <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G80" t="str">
-        <v>http://special.zhaopin.com/pagepublish/34231773/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="81">
@@ -2225,13 +2225,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8K-15K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C81" t="str">
-        <v>天宇正清科技有限公司</v>
+        <v>河南快易易物企业管理咨询有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
         <v>3-5年</v>
@@ -2240,30 +2240,30 @@
         <v>本科</v>
       </c>
       <c r="G81" t="str">
-        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ454926780.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>10K-20K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C82" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F82" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G82" t="str">
-        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="83">
@@ -2271,22 +2271,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>9K-15K</v>
+        <v>9K-13K</v>
       </c>
       <c r="C83" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>康桥悦生活</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
         <v>本科</v>
       </c>
       <c r="G83" t="str">
-        <v>https://company.zhaopin.com/CZ467184580.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ389580680.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="84">
@@ -2294,13 +2294,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>10K-15K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C84" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>天宇正清科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E84" t="str">
         <v>3-5年</v>
@@ -2309,30 +2309,30 @@
         <v>本科</v>
       </c>
       <c r="G84" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ173534910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C85" t="str">
-        <v>浪潮集团</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
         <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G85" t="str">
-        <v>http://inspur.zhaopin.com/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="86">
@@ -2340,22 +2340,22 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>5K-7K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C86" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>本科</v>
       </c>
       <c r="G86" t="str">
-        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="87">
@@ -2363,36 +2363,36 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>4K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C87" t="str">
-        <v>北京同创软件有限公司</v>
+        <v>正商地产</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E87" t="str">
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G87" t="str">
-        <v>https://company.zhaopin.com/CZ390446980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B88" t="str">
-        <v>6K-8K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C88" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
         <v>1-3年</v>
@@ -2401,76 +2401,76 @@
         <v>本科</v>
       </c>
       <c r="G88" t="str">
-        <v>http://special.zhaopin.com/2012/zz/rili091704/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ596879620.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>4K-6K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C89" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>上海屹通信息科技发展有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>无经验</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
         <v>本科</v>
       </c>
       <c r="G89" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ599165520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6K-11K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C90" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
-        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/25524318/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C91" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
-        <v>https://company.zhaopin.com/CZ249456510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ476132530.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="92">
@@ -2493,7 +2493,7 @@
         <v>本科</v>
       </c>
       <c r="G92" t="str">
-        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="93">
@@ -2501,59 +2501,59 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>10K-15K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C93" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G93" t="str">
-        <v>https://company.zhaopin.com/CZ313330930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ148391030.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6K-10K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G94" t="str">
-        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B95" t="str">
-        <v>8K-12K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C95" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
         <v>1-3年</v>
@@ -2562,18 +2562,18 @@
         <v>本科</v>
       </c>
       <c r="G95" t="str">
-        <v>https://company.zhaopin.com/CZ834311830.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8K-10K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C96" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2582,93 +2582,93 @@
         <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G96" t="str">
-        <v>https://company.zhaopin.com/CZ750990400.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B97" t="str">
-        <v>5K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C97" t="str">
-        <v>八六三软件</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F97" t="str">
         <v>本科</v>
       </c>
       <c r="G97" t="str">
-        <v>https://company.zhaopin.com/CZ621497980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android软件工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B98" t="str">
-        <v>4K-8K</v>
+        <v>12K-15K</v>
       </c>
       <c r="C98" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F98" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G98" t="str">
-        <v>https://company.zhaopin.com/CZ366785430.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android底层驱动工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>薪资面议</v>
+        <v>10K-20K</v>
       </c>
       <c r="C99" t="str">
-        <v>新开普</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F99" t="str">
         <v>本科</v>
       </c>
       <c r="G99" t="str">
-        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
         <v>10K-15K</v>
       </c>
       <c r="C100" t="str">
-        <v>天迈科技</v>
+        <v>牧原股份</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E100" t="str">
         <v>3-5年</v>
@@ -2677,7 +2677,7 @@
         <v>本科</v>
       </c>
       <c r="G100" t="str">
-        <v>https://company.zhaopin.com/CZ214081510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ495147320.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="101">
@@ -2685,13 +2685,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6K-12K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E101" t="str">
         <v>1-3年</v>
@@ -2700,21 +2700,21 @@
         <v>本科</v>
       </c>
       <c r="G101" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>10K-15K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C102" t="str">
-        <v>威科姆</v>
+        <v>新开普</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E102" t="str">
         <v>3-5年</v>
@@ -2723,21 +2723,21 @@
         <v>本科</v>
       </c>
       <c r="G102" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android工程师</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8K-10K</v>
+        <v>6K-11K</v>
       </c>
       <c r="C103" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
@@ -2746,7 +2746,7 @@
         <v>本科</v>
       </c>
       <c r="G103" t="str">
-        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ380901080.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="104">
@@ -2754,82 +2754,82 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>6K-10K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C104" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G104" t="str">
-        <v>https://company.zhaopin.com/CZ193013510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>6K-8K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C105" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E105" t="str">
-        <v>经验不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
         <v>本科</v>
       </c>
       <c r="G105" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ451155030.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6K-8K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G106" t="str">
-        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ322096480.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
         <v>15K-20K</v>
       </c>
       <c r="C107" t="str">
-        <v>刀锋互娱</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E107" t="str">
         <v>3-5年</v>
@@ -2838,110 +2838,110 @@
         <v>大专</v>
       </c>
       <c r="G107" t="str">
-        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ142971790.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6K-8K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C108" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
-        <v>https://company.zhaopin.com/CZ531799930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>12K-16K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G109" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1257189660.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>河南-android开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B110" t="str">
-        <v>5K-8K</v>
+        <v>15K-20K</v>
       </c>
       <c r="C110" t="str">
-        <v>天博电子信息科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
         <v>大专</v>
       </c>
       <c r="G110" t="str">
-        <v>https://company.zhaopin.com/CZ198243710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安卓开发工程师</v>
+        <v>Anroid开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>10K-16K</v>
+        <v>7K-11K</v>
       </c>
       <c r="C111" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
         <v>本科</v>
       </c>
       <c r="G111" t="str">
-        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>8K-10K</v>
+        <v>薪资面议</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>中原银行</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
@@ -2953,38 +2953,38 @@
         <v>本科</v>
       </c>
       <c r="G112" t="str">
-        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ480039210.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>Java开发工程师+五险一金+带薪年假+单双休</v>
       </c>
       <c r="B113" t="str">
-        <v>8K-16K</v>
+        <v>9K-14K</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G113" t="str">
-        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B114" t="str">
-        <v>15K-25K</v>
+        <v>13K-25K</v>
       </c>
       <c r="C114" t="str">
         <v>合肥观六智能科技有限公司</v>
@@ -2999,228 +2999,228 @@
         <v>本科</v>
       </c>
       <c r="G114" t="str">
-        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>flutter开发工程师</v>
+        <v>前端软件工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>7K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C115" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>河南祥鼎智能科技股份有限公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>大专</v>
       </c>
       <c r="G115" t="str">
-        <v>https://company.zhaopin.com/CZ533358520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ438855630.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>15K-25K</v>
+        <v>7K-12K</v>
       </c>
       <c r="C116" t="str">
-        <v>上海易宝软件有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G116" t="str">
-        <v>https://company.zhaopin.com/CZ120109940.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ533358520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Andriod开发工程师</v>
+        <v>web前端开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E117" t="str">
         <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G117" t="str">
-        <v>https://company.zhaopin.com/CZ509352280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ406026480.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>移动端开发工程师（2021校招）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>9K-18K</v>
+        <v>5K-7K</v>
       </c>
       <c r="C118" t="str">
-        <v>蓝鸽科技有限公司</v>
+        <v>郑州柯品网络科技有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>1年以下</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
         <v>本科</v>
       </c>
       <c r="G118" t="str">
-        <v>https://company.zhaopin.com/CZ526418220.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发工程师</v>
+        <v>嵌入式软件工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>5K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C119" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>天创软件开发有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
         <v>大专</v>
       </c>
       <c r="G119" t="str">
-        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ551342730.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>8K-15K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C120" t="str">
-        <v>河南万邦国际农产品物流股份有限公司</v>
+        <v>河南花样年通讯科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F120" t="str">
         <v>大专</v>
       </c>
       <c r="G120" t="str">
-        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ477722530.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>逆向工程师</v>
+        <v>河南艺术职业学院-校企合作UI讲师</v>
       </c>
       <c r="B121" t="str">
-        <v>15K-30K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C121" t="str">
-        <v>正阳县启蒙文化传媒有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G121" t="str">
-        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ334693330.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓工程师</v>
+        <v>教学主管 8000+</v>
       </c>
       <c r="B122" t="str">
-        <v>8K-12K</v>
+        <v>8K-15K</v>
       </c>
       <c r="C122" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>北京打造前程互联网教育科技有限公司河南分公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F122" t="str">
         <v>本科</v>
       </c>
       <c r="G122" t="str">
-        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ334693330.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Anroid开发工程师</v>
+        <v>DCloud开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>7K-11K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C123" t="str">
-        <v>英浦(北京)教育科技有限责任公司郑州分公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
       </c>
       <c r="G123" t="str">
-        <v>https://company.zhaopin.com/CZ614308080.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ462136910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>8K-12K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C124" t="str">
-        <v>云涌科技</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
         <v>1-3年</v>
@@ -3229,87 +3229,87 @@
         <v>本科</v>
       </c>
       <c r="G124" t="str">
-        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>Web前端开发工程师(高级)</v>
       </c>
       <c r="B125" t="str">
-        <v>15K-20K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南同多优电子科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G125" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1274162810.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>急聘安卓高级工程师</v>
+        <v>app运营总监</v>
       </c>
       <c r="B126" t="str">
-        <v>8K-15K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州中软高科信息技术有限公司</v>
+        <v>河南万国科技股份有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
       </c>
       <c r="G126" t="str">
-        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ238670710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>软件工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>7K-14K</v>
+        <v>15K-30K</v>
       </c>
       <c r="C127" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>正阳县启蒙文化传媒有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G127" t="str">
-        <v>https://company.zhaopin.com/CZL1248339850.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1242612440.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发（双休）</v>
+        <v>im客户端主程</v>
       </c>
       <c r="B128" t="str">
-        <v>6K-9K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C128" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南斗呗互娱网络科技有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
@@ -3321,67 +3321,67 @@
         <v>大专</v>
       </c>
       <c r="G128" t="str">
-        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ819997520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B129" t="str">
-        <v>4K-6K</v>
+        <v>5K-10K</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G129" t="str">
-        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/65325852/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>机械电子产品研发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>15K-20K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南盛苑实业有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>5-10年</v>
+        <v>经验不限</v>
       </c>
       <c r="F130" t="str">
         <v>本科</v>
       </c>
       <c r="G130" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ243146110.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓开发工程师</v>
+        <v>C语言开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6K-8K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C131" t="str">
-        <v>天一文化</v>
+        <v>郑州势为物联网科技有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E131" t="str">
         <v>3-5年</v>
@@ -3390,90 +3390,90 @@
         <v>本科</v>
       </c>
       <c r="G131" t="str">
-        <v>https://company.zhaopin.com/CZ140937420.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ829401680.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>郑州五险安卓APP软件开发工程师</v>
+        <v>嵌入式软件工程师（新三板上市公司）</v>
       </c>
       <c r="B132" t="str">
-        <v>6K-8K</v>
+        <v>10K-20K</v>
       </c>
       <c r="C132" t="str">
-        <v>蓝众物业集团有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F132" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
-        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ142437320.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>6K-10K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C133" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F133" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G133" t="str">
-        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>8K-10K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州超盟信息技术有限公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G134" t="str">
-        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ509352280.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>移动端主程</v>
+        <v>产品经理</v>
       </c>
       <c r="B135" t="str">
-        <v>8K-10K</v>
+        <v>8K-12K</v>
       </c>
       <c r="C135" t="str">
-        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
@@ -3482,113 +3482,113 @@
         <v>本科</v>
       </c>
       <c r="G135" t="str">
-        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/28156448/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B136" t="str">
-        <v>15K-20K</v>
+        <v>6K-9K</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G136" t="str">
-        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ638376420.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安卓开发工程师</v>
+        <v>Java研发工程师（用户学习研发部）</v>
       </c>
       <c r="B137" t="str">
-        <v>5K-7K</v>
+        <v>9K-14K</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G137" t="str">
-        <v>https://company.zhaopin.com/CZ214831510.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>计算机类图书研发</v>
       </c>
       <c r="B138" t="str">
-        <v>5K-7K</v>
+        <v>7K-10K</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州柯品网络科技有限公司</v>
+        <v>北京金企鹅文化发展有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>经验不限</v>
       </c>
       <c r="F138" t="str">
-        <v>本科</v>
+        <v>硕士</v>
       </c>
       <c r="G138" t="str">
-        <v>https://company.zhaopin.com/CZ869023880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ146186870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>Java高级开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>6K-12K</v>
+        <v>6K-10K</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>北京时代华擎信息技术有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G139" t="str">
-        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/12101298/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>安卓开发工程师</v>
+        <v>app项目经理</v>
       </c>
       <c r="B140" t="str">
-        <v>7K-9K</v>
+        <v>6K-8K</v>
       </c>
       <c r="C140" t="str">
-        <v>河南讯丰信息技术有限公司</v>
+        <v>河南万国科技股份有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
         <v>1-3年</v>
@@ -3597,64 +3597,64 @@
         <v>大专</v>
       </c>
       <c r="G140" t="str">
-        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ238670710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>安卓开发工程师</v>
+        <v>游戏前端开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8K-12K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C141" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>西安棋云创世网络科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G141" t="str">
-        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ482888230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>UI设计</v>
       </c>
       <c r="B142" t="str">
-        <v>8K-10K</v>
+        <v>4K-8K</v>
       </c>
       <c r="C142" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>郑州丰曜网络科技有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G142" t="str">
-        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1232372620.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
         <v>6K-8K</v>
       </c>
       <c r="C143" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>郑州沃铭信息技术服务有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
@@ -3663,33 +3663,33 @@
         <v>1-3年</v>
       </c>
       <c r="F143" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G143" t="str">
-        <v>https://company.zhaopin.com/CZL1241162550.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ530573020.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>系统开发工程师</v>
+        <v>UI设计师（郑州）</v>
       </c>
       <c r="B144" t="str">
-        <v>6K-8K</v>
+        <v>9K-15K</v>
       </c>
       <c r="C144" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>长亮科技</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E144" t="str">
-        <v>经验不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
       </c>
       <c r="G144" t="str">
-        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ120564550.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="145">
@@ -3700,7 +3700,7 @@
         <v>8K-10K</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州超盟信息技术有限公司</v>
       </c>
       <c r="D145" t="str">
         <v>郑州</v>
@@ -3709,176 +3709,3557 @@
         <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G145" t="str">
-        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ836249750.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级软件测试工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>7K-10K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C146" t="str">
-        <v>河南光合四季教育信息咨询有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
       </c>
       <c r="G146" t="str">
-        <v>https://company.zhaopin.com/CZL1223635190.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ385902710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓开发工程师</v>
+        <v>UI设计/美工</v>
       </c>
       <c r="B147" t="str">
-        <v>3.5K-7K</v>
+        <v>5K-8K</v>
       </c>
       <c r="C147" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>大专</v>
       </c>
       <c r="G147" t="str">
-        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>APP开发工程师</v>
+        <v>技术总监</v>
       </c>
       <c r="B148" t="str">
-        <v>10K-16K</v>
+        <v>10K-15K</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>五基传媒有限公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F148" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G148" t="str">
-        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZL1249000020.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>高级测试工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>5K-7K</v>
+        <v>8K-10K</v>
       </c>
       <c r="C149" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州中业科技股份有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E149" t="str">
         <v>3-5年</v>
       </c>
       <c r="F149" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G149" t="str">
-        <v>https://company.zhaopin.com/CZ265778530.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ385902710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>flutter APP 开发工程师</v>
+        <v>产品经理（移动端方向）+带薪年假+五险一金</v>
       </c>
       <c r="B150" t="str">
-        <v>10K-15K</v>
+        <v>12K-18K</v>
       </c>
       <c r="C150" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G150" t="str">
-        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>APP开发工程师</v>
+        <v>.net软件开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6K-10K</v>
+        <v>4K-6K</v>
       </c>
       <c r="C151" t="str">
-        <v>河南建祥装饰工程有限公司</v>
+        <v>北京永杰友信科技有限公司</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G151" t="str">
-        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+        <v>https://company.zhaopin.com/CZ189414520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
+        <v>移动端测试工程师</v>
+      </c>
+      <c r="B152" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C152" t="str">
+        <v>北京小马人科技有限公司</v>
+      </c>
+      <c r="D152" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E152" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F152" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G152" t="str">
+        <v>https://company.zhaopin.com/CZ897262120.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>移动端测试岗</v>
+      </c>
+      <c r="B153" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C153" t="str">
+        <v>北京小马人科技有限公司</v>
+      </c>
+      <c r="D153" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E153" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F153" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G153" t="str">
+        <v>https://company.zhaopin.com/CZ897262120.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>IT项目经理</v>
+      </c>
+      <c r="B154" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C154" t="str">
+        <v>河南全占国际财税咨询管理有限公司</v>
+      </c>
+      <c r="D154" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E154" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F154" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G154" t="str">
+        <v>https://company.zhaopin.com/CZL1260870180.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>嵌入式软件工程师</v>
+      </c>
+      <c r="B155" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C155" t="str">
+        <v>河南迈科路重工科技有限公司</v>
+      </c>
+      <c r="D155" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E155" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F155" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G155" t="str">
+        <v>https://company.zhaopin.com/CZ713787380.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B156" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C156" t="str">
+        <v>郑州京慧越科技有限公司</v>
+      </c>
+      <c r="D156" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F156" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G156" t="str">
+        <v>https://company.zhaopin.com/CZ629756520.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>软件测试工程师（2021届校招）</v>
+      </c>
+      <c r="B157" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C157" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D157" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E157" t="str">
+        <v>无经验</v>
+      </c>
+      <c r="F157" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G157" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>资深andriod开发工程师-浏览器方向</v>
+      </c>
+      <c r="B158" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C158" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D158" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E158" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F158" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G158" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>资深andriod开发工程师</v>
+      </c>
+      <c r="B159" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C159" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D159" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E159" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F159" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G159" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>软件工程师</v>
+      </c>
+      <c r="B160" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C160" t="str">
+        <v>河南乐佳电子科技有限公司</v>
+      </c>
+      <c r="D160" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E160" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F160" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G160" t="str">
+        <v>https://company.zhaopin.com/CZ634845920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>资深浏览器内核研发工程师</v>
+      </c>
+      <c r="B161" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C161" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D161" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E161" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F161" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G161" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>andriod开发工程师</v>
+      </c>
+      <c r="B162" t="str">
+        <v>12K-16K</v>
+      </c>
+      <c r="C162" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D162" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E162" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F162" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G162" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>软件工程师</v>
+      </c>
+      <c r="B163" t="str">
+        <v>7K-14K</v>
+      </c>
+      <c r="C163" t="str">
+        <v>河南洁路德环境科技有限公司</v>
+      </c>
+      <c r="D163" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E163" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F163" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G163" t="str">
+        <v>https://company.zhaopin.com/CZL1248339850.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>uni app开发工程师</v>
+      </c>
+      <c r="B164" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C164" t="str">
+        <v>河南智宽科技有限公司</v>
+      </c>
+      <c r="D164" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E164" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F164" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G164" t="str">
+        <v>https://company.zhaopin.com/CZ233170180.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>资深andriod开发工程师-清理安全方向</v>
+      </c>
+      <c r="B165" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C165" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D165" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E165" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F165" t="str">
+        <v>硕士</v>
+      </c>
+      <c r="G165" t="str">
+        <v>https://company.zhaopin.com/CZ849335980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>java研发工程师+带薪年假+五险一金</v>
+      </c>
+      <c r="B166" t="str">
+        <v>9K-14K</v>
+      </c>
+      <c r="C166" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D166" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E166" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F166" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G166" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B167" t="str">
         <v>6K-8K</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C167" t="str">
         <v>昆山双宇新信息科技有限公司</v>
       </c>
-      <c r="D152" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E152" t="str">
+      <c r="D167" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E167" t="str">
         <v>经验不限</v>
       </c>
-      <c r="F152" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G152" t="str">
-        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401901&amp;preactionid=f8c6ce6b-a4e9-48ff-8397-859c6733b7d7</v>
+      <c r="F167" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G167" t="str">
+        <v>https://company.zhaopin.com/CZ600280130.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>系统架构师</v>
+      </c>
+      <c r="B168" t="str">
+        <v>15K-30K</v>
+      </c>
+      <c r="C168" t="str">
+        <v>河南在成长信息技术有限公司</v>
+      </c>
+      <c r="D168" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E168" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F168" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G168" t="str">
+        <v>https://company.zhaopin.com/CZ308604230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>电子工程师</v>
+      </c>
+      <c r="B169" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C169" t="str">
+        <v>河南盛苑实业有限公司</v>
+      </c>
+      <c r="D169" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E169" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F169" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G169" t="str">
+        <v>https://company.zhaopin.com/CZ243146110.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>前端开发工程师</v>
+      </c>
+      <c r="B170" t="str">
+        <v>5K-9K</v>
+      </c>
+      <c r="C170" t="str">
+        <v>河南新远方商翼电子科技有限公司</v>
+      </c>
+      <c r="D170" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E170" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F170" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G170" t="str">
+        <v>https://company.zhaopin.com/CZ477750920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B171" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C171" t="str">
+        <v>上海保鼎科技服务有限公司</v>
+      </c>
+      <c r="D171" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E171" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F171" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G171" t="str">
+        <v>https://company.zhaopin.com/CZ845457850.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B172" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C172" t="str">
+        <v>云涌科技</v>
+      </c>
+      <c r="D172" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E172" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F172" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G172" t="str">
+        <v>http://special.zhaopin.com/2018/zz/11245/zzyy091246?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B173" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C173" t="str">
+        <v>河南蓝信科技有限责任公司</v>
+      </c>
+      <c r="D173" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E173" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F173" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G173" t="str">
+        <v>https://company.zhaopin.com/CZ224028310.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>资深软件测试工程师</v>
+      </c>
+      <c r="B174" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C174" t="str">
+        <v>蜜雪冰城</v>
+      </c>
+      <c r="D174" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E174" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F174" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G174" t="str">
+        <v>https://company.zhaopin.com/CZ407014910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>校企合作UI讲师(急聘)</v>
+      </c>
+      <c r="B175" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C175" t="str">
+        <v>北京黑马卓越信息技术有限公司</v>
+      </c>
+      <c r="D175" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E175" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F175" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G175" t="str">
+        <v>https://company.zhaopin.com/CZ846912090.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>React Native前端工程师（可兼职）</v>
+      </c>
+      <c r="B176" t="str">
+        <v>18K-30K</v>
+      </c>
+      <c r="C176" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D176" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E176" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F176" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G176" t="str">
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Flutter开发工程师（可兼职）</v>
+      </c>
+      <c r="B177" t="str">
+        <v>15K-25K</v>
+      </c>
+      <c r="C177" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D177" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E177" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F177" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G177" t="str">
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>前端工程师（可兼职）</v>
+      </c>
+      <c r="B178" t="str">
+        <v>15K-25K</v>
+      </c>
+      <c r="C178" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D178" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E178" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F178" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G178" t="str">
+        <v>https://company.zhaopin.com/CZL1241679600.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>软件技术工程师</v>
+      </c>
+      <c r="B179" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C179" t="str">
+        <v>河南华谱澄源环保科技有限公司</v>
+      </c>
+      <c r="D179" t="str">
+        <v>郑州-经开区</v>
+      </c>
+      <c r="E179" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F179" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G179" t="str">
+        <v>https://company.zhaopin.com/CZ492294380.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>cocos/unity游戏开发工程师</v>
+      </c>
+      <c r="B180" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C180" t="str">
+        <v>刀锋互娱</v>
+      </c>
+      <c r="D180" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E180" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F180" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G180" t="str">
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>产品经理（五险一金+带薪年假+单双休）</v>
+      </c>
+      <c r="B181" t="str">
+        <v>9K-14K</v>
+      </c>
+      <c r="C181" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D181" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E181" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F181" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G181" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>前端设计工程师</v>
+      </c>
+      <c r="B182" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C182" t="str">
+        <v>郑州字节律动信息技术有限公司</v>
+      </c>
+      <c r="D182" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E182" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F182" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G182" t="str">
+        <v>https://company.zhaopin.com/CZ873196840.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>研发部经理</v>
+      </c>
+      <c r="B183" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C183" t="str">
+        <v>河南鼎健航天技术股份有限公司</v>
+      </c>
+      <c r="D183" t="str">
+        <v>郑州-新密市</v>
+      </c>
+      <c r="E183" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F183" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G183" t="str">
+        <v>https://company.zhaopin.com/CZL1227382220.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>前端工程师</v>
+      </c>
+      <c r="B184" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C184" t="str">
+        <v>郑州港达物流有限公司</v>
+      </c>
+      <c r="D184" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E184" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F184" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G184" t="str">
+        <v>https://company.zhaopin.com/CZ643624920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>硬件设计工程师</v>
+      </c>
+      <c r="B185" t="str">
+        <v>7K-14K</v>
+      </c>
+      <c r="C185" t="str">
+        <v>威科姆</v>
+      </c>
+      <c r="D185" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E185" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F185" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G185" t="str">
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B186" t="str">
+        <v>10K-16K</v>
+      </c>
+      <c r="C186" t="str">
+        <v>南京北路智控科技股份有限公司</v>
+      </c>
+      <c r="D186" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E186" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F186" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G186" t="str">
+        <v>https://company.zhaopin.com/CZ204378620.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Unity程序开发工程师（中级）洛阳</v>
+      </c>
+      <c r="B187" t="str">
+        <v>7K-10K</v>
+      </c>
+      <c r="C187" t="str">
+        <v>星航游戏科技有限公司</v>
+      </c>
+      <c r="D187" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E187" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F187" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G187" t="str">
+        <v>http://special.zhaopin.com/pagepublish/62245298/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>移动端资深产品经理（大牛带队+五险一金+年终奖+丰富福利+双休）</v>
+      </c>
+      <c r="B188" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C188" t="str">
+        <v>刀锋互娱</v>
+      </c>
+      <c r="D188" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E188" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F188" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G188" t="str">
+        <v>https://company.zhaopin.com/CZ476044230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="B189" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C189" t="str">
+        <v>河南千年国医健康产业集团有限公司</v>
+      </c>
+      <c r="D189" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E189" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F189" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G189" t="str">
+        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Cocos2d-x开发工程师（郑州）</v>
+      </c>
+      <c r="B190" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C190" t="str">
+        <v>上海研游网络科技有限公司广州分公司</v>
+      </c>
+      <c r="D190" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E190" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F190" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G190" t="str">
+        <v>https://company.zhaopin.com/CZ309926280.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>高级安卓开发工程师</v>
+      </c>
+      <c r="B191" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C191" t="str">
+        <v>河南千年国医健康产业集团有限公司</v>
+      </c>
+      <c r="D191" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E191" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F191" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G191" t="str">
+        <v>https://company.zhaopin.com/CZL1266382900.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B192" t="str">
+        <v>6K-10K</v>
+      </c>
+      <c r="C192" t="str">
+        <v>河南建祥装饰工程有限公司</v>
+      </c>
+      <c r="D192" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E192" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F192" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G192" t="str">
+        <v>http://special.zhaopin.com/pagepublish/57161632/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>软件测试主管</v>
+      </c>
+      <c r="B193" t="str">
+        <v>10K-20K</v>
+      </c>
+      <c r="C193" t="str">
+        <v>河南国超电子商务有限公司</v>
+      </c>
+      <c r="D193" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E193" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F193" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G193" t="str">
+        <v>https://company.zhaopin.com/CZ386838720.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B194" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C194" t="str">
+        <v>河南明之旗网络科技有限公司</v>
+      </c>
+      <c r="D194" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E194" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F194" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G194" t="str">
+        <v>https://company.zhaopin.com/CZ694871580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>UI讲师，培训师</v>
+      </c>
+      <c r="B195" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C195" t="str">
+        <v>河南蓝狐文化传播有限公司</v>
+      </c>
+      <c r="D195" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E195" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F195" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G195" t="str">
+        <v>https://company.zhaopin.com/CZ302339580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>ui设计师</v>
+      </c>
+      <c r="B196" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C196" t="str">
+        <v>河南七颗牙教育科技有限公司</v>
+      </c>
+      <c r="D196" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E196" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F196" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G196" t="str">
+        <v>https://company.zhaopin.com/CZ463554580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>前端开发工程师-安卓</v>
+      </c>
+      <c r="B197" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C197" t="str">
+        <v>上海云话科技有限公司河南分公司</v>
+      </c>
+      <c r="D197" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E197" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F197" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G197" t="str">
+        <v>https://company.zhaopin.com/CZ882448560.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>UI设计师(五险一金+双休）</v>
+      </c>
+      <c r="B198" t="str">
+        <v>5K-8K</v>
+      </c>
+      <c r="C198" t="str">
+        <v>郑州腾佑科技有限公司</v>
+      </c>
+      <c r="D198" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E198" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F198" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G198" t="str">
+        <v>http://special.zhaopin.com/pagepublish/33352211/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Java研发主管 +五险一金+单双休+带薪年假</v>
+      </c>
+      <c r="B199" t="str">
+        <v>12K-18K</v>
+      </c>
+      <c r="C199" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D199" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E199" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F199" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G199" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B200" t="str">
+        <v>4K-7K</v>
+      </c>
+      <c r="C200" t="str">
+        <v>郑州索特信息技术有限公司</v>
+      </c>
+      <c r="D200" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E200" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F200" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G200" t="str">
+        <v>https://company.zhaopin.com/CZ231174210.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>软件研发工程师</v>
+      </c>
+      <c r="B201" t="str">
+        <v>4K-8K</v>
+      </c>
+      <c r="C201" t="str">
+        <v>河南明泰铝业</v>
+      </c>
+      <c r="D201" t="str">
+        <v>郑州-巩义市</v>
+      </c>
+      <c r="E201" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F201" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G201" t="str">
+        <v>https://company.zhaopin.com/CZ229407510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B202" t="str">
+        <v>8K-16K</v>
+      </c>
+      <c r="C202" t="str">
+        <v>河南小微动力实业股份有限公司</v>
+      </c>
+      <c r="D202" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E202" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F202" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G202" t="str">
+        <v>https://company.zhaopin.com/CZ337405980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>移动开发工程师</v>
+      </c>
+      <c r="B203" t="str">
+        <v>10K-17K</v>
+      </c>
+      <c r="C203" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D203" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E203" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F203" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G203" t="str">
+        <v>http://special.zhaopin.com/2016/zz/hfjj122823/?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B204" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C204" t="str">
+        <v>河南省新星科技有限公司</v>
+      </c>
+      <c r="D204" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E204" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F204" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G204" t="str">
+        <v>https://company.zhaopin.com/CZ145658350.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B205" t="str">
+        <v>10K-16K</v>
+      </c>
+      <c r="C205" t="str">
+        <v>郑州五岳电子科技有限公司</v>
+      </c>
+      <c r="D205" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E205" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F205" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G205" t="str">
+        <v>https://company.zhaopin.com/CZ222297610.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>研发技术经理</v>
+      </c>
+      <c r="B206" t="str">
+        <v>9K-12K</v>
+      </c>
+      <c r="C206" t="str">
+        <v>河南讯丰信息技术有限公司</v>
+      </c>
+      <c r="D206" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E206" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F206" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G206" t="str">
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>系统技术工程师</v>
+      </c>
+      <c r="B207" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C207" t="str">
+        <v>郑州西普德科技股份有限公司</v>
+      </c>
+      <c r="D207" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E207" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F207" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G207" t="str">
+        <v>https://company.zhaopin.com/CZ370147410.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B208" t="str">
+        <v>5K-7K</v>
+      </c>
+      <c r="C208" t="str">
+        <v>郑州双杰科技股份有限公司</v>
+      </c>
+      <c r="D208" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E208" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F208" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G208" t="str">
+        <v>https://company.zhaopin.com/CZ214831510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>前端开发工程师</v>
+      </c>
+      <c r="B209" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C209" t="str">
+        <v>北大软件</v>
+      </c>
+      <c r="D209" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E209" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F209" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G209" t="str">
+        <v>https://company.zhaopin.com/CZ000362500.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>C++开发工程师（JD：OI07）</v>
+      </c>
+      <c r="B210" t="str">
+        <v>8K-16K</v>
+      </c>
+      <c r="C210" t="str">
+        <v>郑州迪维勒普科技有限公司</v>
+      </c>
+      <c r="D210" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E210" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F210" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G210" t="str">
+        <v>https://company.zhaopin.com/CZ471522930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Web前端工程师</v>
+      </c>
+      <c r="B211" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C211" t="str">
+        <v>河南国测信息技术有限公司</v>
+      </c>
+      <c r="D211" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E211" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F211" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G211" t="str">
+        <v>https://company.zhaopin.com/CZL1285108930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>web前端开发工程师</v>
+      </c>
+      <c r="B212" t="str">
+        <v>5K-8K</v>
+      </c>
+      <c r="C212" t="str">
+        <v>郑州点都科技有限公司</v>
+      </c>
+      <c r="D212" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E212" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F212" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G212" t="str">
+        <v>https://company.zhaopin.com/CZ505297420.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B213" t="str">
+        <v>15K-25K</v>
+      </c>
+      <c r="C213" t="str">
+        <v>上海易宝软件有限公司</v>
+      </c>
+      <c r="D213" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E213" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F213" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G213" t="str">
+        <v>https://company.zhaopin.com/CZ120109940.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>高级ui设计师</v>
+      </c>
+      <c r="B214" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C214" t="str">
+        <v>河南明之旗网络科技有限公司</v>
+      </c>
+      <c r="D214" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E214" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F214" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G214" t="str">
+        <v>https://company.zhaopin.com/CZ694871580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Unity程序开发工程师（高级）洛阳</v>
+      </c>
+      <c r="B215" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C215" t="str">
+        <v>星航游戏科技有限公司</v>
+      </c>
+      <c r="D215" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E215" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F215" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G215" t="str">
+        <v>http://special.zhaopin.com/pagepublish/62245298/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>前端研发工程师 带薪年假 五险一金</v>
+      </c>
+      <c r="B216" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C216" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D216" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E216" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F216" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G216" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>移动端开发工程师</v>
+      </c>
+      <c r="B217" t="str">
+        <v>5K-8K</v>
+      </c>
+      <c r="C217" t="str">
+        <v>郑州软语科技有限公司</v>
+      </c>
+      <c r="D217" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E217" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F217" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G217" t="str">
+        <v>https://company.zhaopin.com/CZ404924910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>郑州五险安卓APP软件开发工程师</v>
+      </c>
+      <c r="B218" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C218" t="str">
+        <v>蓝众物业集团有限公司</v>
+      </c>
+      <c r="D218" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E218" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F218" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G218" t="str">
+        <v>https://company.zhaopin.com/CZ374866530.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>机器人编程老师</v>
+      </c>
+      <c r="B219" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C219" t="str">
+        <v>郑州励琅文化传播有限公司</v>
+      </c>
+      <c r="D219" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E219" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F219" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G219" t="str">
+        <v>https://company.zhaopin.com/CZ887592410.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>网校网站维护员</v>
+      </c>
+      <c r="B220" t="str">
+        <v>5K-8K</v>
+      </c>
+      <c r="C220" t="str">
+        <v>郑州陈中实验学校</v>
+      </c>
+      <c r="D220" t="str">
+        <v>郑州-惠济区</v>
+      </c>
+      <c r="E220" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F220" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G220" t="str">
+        <v>https://company.zhaopin.com/CZL1211921800.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Java研发主管 大平台 五险一金</v>
+      </c>
+      <c r="B221" t="str">
+        <v>12K-18K</v>
+      </c>
+      <c r="C221" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D221" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E221" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F221" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G221" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>产品经理（移动端方向） 大平台 五险一金</v>
+      </c>
+      <c r="B222" t="str">
+        <v>12K-18K</v>
+      </c>
+      <c r="C222" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D222" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E222" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F222" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G222" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>测试工程师（偏软件）</v>
+      </c>
+      <c r="B223" t="str">
+        <v>5.5K-7.5K</v>
+      </c>
+      <c r="C223" t="str">
+        <v>合众思壮</v>
+      </c>
+      <c r="D223" t="str">
+        <v>郑州-航空港区</v>
+      </c>
+      <c r="E223" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F223" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G223" t="str">
+        <v>http://special.zhaopin.com/bj/2011/hz01210700/enter.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="B224" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C224" t="str">
+        <v>万动力(河南)网络科技有限公司</v>
+      </c>
+      <c r="D224" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E224" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F224" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G224" t="str">
+        <v>https://company.zhaopin.com/CZL1219212080.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B225" t="str">
+        <v>5K-10K</v>
+      </c>
+      <c r="C225" t="str">
+        <v>河南睿文信息技术有限公司</v>
+      </c>
+      <c r="D225" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E225" t="str">
+        <v>无经验</v>
+      </c>
+      <c r="F225" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G225" t="str">
+        <v>https://company.zhaopin.com/CZ882728380.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>前端开发工程师</v>
+      </c>
+      <c r="B226" t="str">
+        <v>7K-14K</v>
+      </c>
+      <c r="C226" t="str">
+        <v>河南睿文信息技术有限公司</v>
+      </c>
+      <c r="D226" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E226" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F226" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G226" t="str">
+        <v>https://company.zhaopin.com/CZ882728380.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="B227" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C227" t="str">
+        <v>郑州万动力计算机科技有限公司</v>
+      </c>
+      <c r="D227" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E227" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F227" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G227" t="str">
+        <v>https://company.zhaopin.com/CZ210852930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B228" t="str">
+        <v>7K-9K</v>
+      </c>
+      <c r="C228" t="str">
+        <v>河南讯丰信息技术有限公司</v>
+      </c>
+      <c r="D228" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E228" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F228" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G228" t="str">
+        <v>https://company.zhaopin.com/CZ695801720.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>信息化专员</v>
+      </c>
+      <c r="B229" t="str">
+        <v>6K-10K</v>
+      </c>
+      <c r="C229" t="str">
+        <v>河南建业新生活服务有限公司</v>
+      </c>
+      <c r="D229" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E229" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F229" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G229" t="str">
+        <v>https://company.zhaopin.com/CZ390484930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>高级产品经理</v>
+      </c>
+      <c r="B230" t="str">
+        <v>12K-20K</v>
+      </c>
+      <c r="C230" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D230" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E230" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F230" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G230" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>测试主管</v>
+      </c>
+      <c r="B231" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C231" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D231" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E231" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F231" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G231" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>高级产品经理-货主端方向</v>
+      </c>
+      <c r="B232" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C232" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D232" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E232" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F232" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G232" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>高级产品经理-运力端方向</v>
+      </c>
+      <c r="B233" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C233" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D233" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E233" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F233" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G233" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>FAE现场工程师</v>
+      </c>
+      <c r="B234" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C234" t="str">
+        <v>广东九联科技股份有限公司</v>
+      </c>
+      <c r="D234" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E234" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F234" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G234" t="str">
+        <v>https://company.zhaopin.com/CZ386517020.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B235" t="str">
+        <v>6K-10K</v>
+      </c>
+      <c r="C235" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D235" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E235" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F235" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G235" t="str">
+        <v>https://company.zhaopin.com/CZ868655440.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>java软件工程师</v>
+      </c>
+      <c r="B236" t="str">
+        <v>4K-8K</v>
+      </c>
+      <c r="C236" t="str">
+        <v>河南迈锐德实业有限公司</v>
+      </c>
+      <c r="D236" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E236" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F236" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G236" t="str">
+        <v>https://company.zhaopin.com/CZ385345130.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>cocos creator开发工程师</v>
+      </c>
+      <c r="B237" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C237" t="str">
+        <v>西安棋云创世网络科技有限公司</v>
+      </c>
+      <c r="D237" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E237" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F237" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G237" t="str">
+        <v>https://company.zhaopin.com/CZ482888230.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>移动端主程</v>
+      </c>
+      <c r="B238" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C238" t="str">
+        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+      </c>
+      <c r="D238" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E238" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F238" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G238" t="str">
+        <v>https://company.zhaopin.com/CZ511671820.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>【产品经理（APP方向）】+五险一金</v>
+      </c>
+      <c r="B239" t="str">
+        <v>12K-18K</v>
+      </c>
+      <c r="C239" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D239" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E239" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F239" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G239" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Java研发工程师+五险一金+带薪年假+单双休</v>
+      </c>
+      <c r="B240" t="str">
+        <v>9K-14K</v>
+      </c>
+      <c r="C240" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D240" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E240" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F240" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G240" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>产品经理（移动端）+五险一金+带薪年假+单双休</v>
+      </c>
+      <c r="B241" t="str">
+        <v>12K-18K</v>
+      </c>
+      <c r="C241" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D241" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E241" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F241" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G241" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>移动端开发工程师（2021校招）</v>
+      </c>
+      <c r="B242" t="str">
+        <v>9K-18K</v>
+      </c>
+      <c r="C242" t="str">
+        <v>蓝鸽科技有限公司</v>
+      </c>
+      <c r="D242" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E242" t="str">
+        <v>1年以下</v>
+      </c>
+      <c r="F242" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G242" t="str">
+        <v>https://company.zhaopin.com/CZ526418220.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>java高级研发主管+五险一金</v>
+      </c>
+      <c r="B243" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C243" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D243" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E243" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F243" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G243" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>高级前端H5开发工程师(J10178)</v>
+      </c>
+      <c r="B244" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C244" t="str">
+        <v>蜜雪冰城</v>
+      </c>
+      <c r="D244" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E244" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F244" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G244" t="str">
+        <v>https://company.zhaopin.com/CZ407014910.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>flutter APP 开发工程师</v>
+      </c>
+      <c r="B245" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C245" t="str">
+        <v>河南冠杰智能科技股份有限公司</v>
+      </c>
+      <c r="D245" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E245" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F245" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G245" t="str">
+        <v>https://company.zhaopin.com/CZ288959930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>渗透测试工程师</v>
+      </c>
+      <c r="B246" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C246" t="str">
+        <v>深圳爱加密科技有限公司</v>
+      </c>
+      <c r="D246" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E246" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F246" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G246" t="str">
+        <v>https://company.zhaopin.com/CZ253081030.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>编程老师（高薪+五险一金）</v>
+      </c>
+      <c r="B247" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C247" t="str">
+        <v>郑州励琅文化传播有限公司</v>
+      </c>
+      <c r="D247" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E247" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F247" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G247" t="str">
+        <v>https://company.zhaopin.com/CZ887592410.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>移动端高级测试工程师（物联网产品线）</v>
+      </c>
+      <c r="B248" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C248" t="str">
+        <v>威科姆</v>
+      </c>
+      <c r="D248" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E248" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F248" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G248" t="str">
+        <v>http://special.zhaopin.com/2018/zz/11024/zzwk073146?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>前端开发工程师</v>
+      </c>
+      <c r="B249" t="str">
+        <v>7K-12K</v>
+      </c>
+      <c r="C249" t="str">
+        <v>河南榕基信息技术有限公司</v>
+      </c>
+      <c r="D249" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E249" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F249" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G249" t="str">
+        <v>https://company.zhaopin.com/CZ435108920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>渗透工程师</v>
+      </c>
+      <c r="B250" t="str">
+        <v>6K-10K</v>
+      </c>
+      <c r="C250" t="str">
+        <v>河南宝通信息安全测评有限公司</v>
+      </c>
+      <c r="D250" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E250" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F250" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G250" t="str">
+        <v>https://company.zhaopin.com/CZ527374220.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>ASO优化师</v>
+      </c>
+      <c r="B251" t="str">
+        <v>10K-20K</v>
+      </c>
+      <c r="C251" t="str">
+        <v>河南国超电子商务有限公司</v>
+      </c>
+      <c r="D251" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E251" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F251" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G251" t="str">
+        <v>https://company.zhaopin.com/CZ386838720.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>安卓软件开发工程师</v>
+      </c>
+      <c r="B252" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C252" t="str">
+        <v>郑州远洋电子科技有限公司</v>
+      </c>
+      <c r="D252" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E252" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F252" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G252" t="str">
+        <v>https://company.zhaopin.com/CZ609313820.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>（前端）软件工程师</v>
+      </c>
+      <c r="B253" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C253" t="str">
+        <v>河南航天金穗电子有限公司</v>
+      </c>
+      <c r="D253" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E253" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F253" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G253" t="str">
+        <v>http://special.zhaopin.com/pagepublish/13722257/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B254" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C254" t="str">
+        <v>郑州立信软件科技有限公司</v>
+      </c>
+      <c r="D254" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E254" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F254" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G254" t="str">
+        <v>https://company.zhaopin.com/CZ276883280.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>移动端安卓研发</v>
+      </c>
+      <c r="B255" t="str">
+        <v>7K-10K</v>
+      </c>
+      <c r="C255" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D255" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E255" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F255" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G255" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>U3D开发工程师</v>
+      </c>
+      <c r="B256" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C256" t="str">
+        <v>北京宜乐互娱科技有限公司</v>
+      </c>
+      <c r="D256" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E256" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F256" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G256" t="str">
+        <v>https://company.zhaopin.com/CZL1215897980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>安卓端工程师</v>
+      </c>
+      <c r="B257" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C257" t="str">
+        <v>河南万邦国际农产品物流股份有限公司</v>
+      </c>
+      <c r="D257" t="str">
+        <v>郑州-中牟县</v>
+      </c>
+      <c r="E257" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F257" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G257" t="str">
+        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B258" t="str">
+        <v>6K-10K</v>
+      </c>
+      <c r="C258" t="str">
+        <v>河南万邦国际农产品物流股份有限公司</v>
+      </c>
+      <c r="D258" t="str">
+        <v>郑州-中牟县</v>
+      </c>
+      <c r="E258" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F258" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G258" t="str">
+        <v>http://special.zhaopin.com/pagepublish/42477291/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>安卓开发工程师andriod</v>
+      </c>
+      <c r="B259" t="str">
+        <v>8K-16K</v>
+      </c>
+      <c r="C259" t="str">
+        <v>郑州龙图环宇科技开发有限公司</v>
+      </c>
+      <c r="D259" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E259" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F259" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G259" t="str">
+        <v>https://company.zhaopin.com/CZ153401710.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>高级软件工程师（.net工程师）</v>
+      </c>
+      <c r="B260" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C260" t="str">
+        <v>正星科技</v>
+      </c>
+      <c r="D260" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E260" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F260" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G260" t="str">
+        <v>http://special.zhaopin.com/pagepublish/13788064/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Java开发工程师</v>
+      </c>
+      <c r="B261" t="str">
+        <v>6K-11K</v>
+      </c>
+      <c r="C261" t="str">
+        <v>横琴宝蓝科技有限公司</v>
+      </c>
+      <c r="D261" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E261" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F261" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G261" t="str">
+        <v>https://company.zhaopin.com/CZL1286401300.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>中高级安卓软件工程师</v>
+      </c>
+      <c r="B262" t="str">
+        <v>6K-12K</v>
+      </c>
+      <c r="C262" t="str">
+        <v>郑州闪创网络科技有限公司</v>
+      </c>
+      <c r="D262" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E262" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F262" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G262" t="str">
+        <v>https://company.zhaopin.com/CZ441044880.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B263" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C263" t="str">
+        <v>慕然云(深圳)科技有限公司</v>
+      </c>
+      <c r="D263" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E263" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F263" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G263" t="str">
+        <v>https://company.zhaopin.com/CZL1238116930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>高级产品经理-运力端方向</v>
+      </c>
+      <c r="B264" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C264" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D264" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E264" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F264" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G264" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>产品经理</v>
+      </c>
+      <c r="B265" t="str">
+        <v>15K-20K</v>
+      </c>
+      <c r="C265" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D265" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E265" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F265" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G265" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B266" t="str">
+        <v>3.5K-7K</v>
+      </c>
+      <c r="C266" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D266" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E266" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F266" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G266" t="str">
+        <v>http://special.zhaopin.com/2017/zz/11104/trjt022292?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>C++/QT研发工程师</v>
+      </c>
+      <c r="B267" t="str">
+        <v>8K-12K</v>
+      </c>
+      <c r="C267" t="str">
+        <v>河南国测信息技术有限公司</v>
+      </c>
+      <c r="D267" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E267" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F267" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G267" t="str">
+        <v>https://company.zhaopin.com/CZL1285108930.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>UI设计工程师（智慧城市方向）</v>
+      </c>
+      <c r="B268" t="str">
+        <v>6K-9K</v>
+      </c>
+      <c r="C268" t="str">
+        <v>郑州金惠计算机系统工程有限公司</v>
+      </c>
+      <c r="D268" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E268" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F268" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G268" t="str">
+        <v>http://special.zhaopin.com/pagepublish/13824635/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>急聘安卓高级工程师</v>
+      </c>
+      <c r="B269" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C269" t="str">
+        <v>郑州中软高科信息技术有限公司</v>
+      </c>
+      <c r="D269" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E269" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F269" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G269" t="str">
+        <v>https://company.zhaopin.com/CZ390449810.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>嵌入式开发工程师</v>
+      </c>
+      <c r="B270" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C270" t="str">
+        <v>河南永硕实业发展有限公司</v>
+      </c>
+      <c r="D270" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E270" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F270" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G270" t="str">
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>web前端工程师</v>
+      </c>
+      <c r="B271" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C271" t="str">
+        <v>河南慧点信息科技有限公司</v>
+      </c>
+      <c r="D271" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E271" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F271" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G271" t="str">
+        <v>https://company.zhaopin.com/CZ877505630.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>App推广主管</v>
+      </c>
+      <c r="B272" t="str">
+        <v>5K-9K</v>
+      </c>
+      <c r="C272" t="str">
+        <v>UU跑腿</v>
+      </c>
+      <c r="D272" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E272" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F272" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G272" t="str">
+        <v>http://special.zhaopin.com/pagepublish/28156448/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B273" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C273" t="str">
+        <v>郑州应之运文化传播有限公司</v>
+      </c>
+      <c r="D273" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E273" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F273" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G273" t="str">
+        <v>https://company.zhaopin.com/CZ854038490.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>HTML5 游戏开发</v>
+      </c>
+      <c r="B274" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C274" t="str">
+        <v>河南永硕实业发展有限公司</v>
+      </c>
+      <c r="D274" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E274" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F274" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G274" t="str">
+        <v>https://company.zhaopin.com/CZ533614920.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Unity3d 主程</v>
+      </c>
+      <c r="B275" t="str">
+        <v>8K-15K</v>
+      </c>
+      <c r="C275" t="str">
+        <v>河南幻境教育科技有限公司</v>
+      </c>
+      <c r="D275" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E275" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F275" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G275" t="str">
+        <v>https://company.zhaopin.com/CZL1258948990.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>软件测试员</v>
+      </c>
+      <c r="B276" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C276" t="str">
+        <v>河南幻境教育科技有限公司</v>
+      </c>
+      <c r="D276" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E276" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F276" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G276" t="str">
+        <v>https://company.zhaopin.com/CZL1258948990.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>java研发工程师</v>
+      </c>
+      <c r="B277" t="str">
+        <v>9K-14K</v>
+      </c>
+      <c r="C277" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D277" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E277" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F277" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G277" t="str">
+        <v>http://special.zhaopin.com/pagepublish/45379172/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>中级JAVA开发</v>
+      </c>
+      <c r="B278" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C278" t="str">
+        <v>正商地产</v>
+      </c>
+      <c r="D278" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E278" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F278" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G278" t="str">
+        <v>http://special.zhaopin.com/pagepublish/15926641/index.html?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>linux开发工程师</v>
+      </c>
+      <c r="B279" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C279" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D279" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E279" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F279" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G279" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>产品经理（信息化方向）</v>
+      </c>
+      <c r="B280" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C280" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D280" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E280" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F280" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G280" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>嵌入式软件工程师</v>
+      </c>
+      <c r="B281" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C281" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D281" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E281" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F281" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G281" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B282" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C282" t="str">
+        <v>郑州车来顺大数据科技有限公司</v>
+      </c>
+      <c r="D282" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E282" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F282" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G282" t="str">
+        <v>https://company.zhaopin.com/CZ847101990.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>测试工程师</v>
+      </c>
+      <c r="B283" t="str">
+        <v>3K-5K</v>
+      </c>
+      <c r="C283" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D283" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E283" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F283" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G283" t="str">
+        <v>https://company.zhaopin.com/CZ274982580.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B284" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C284" t="str">
+        <v>郑州新中软科技有限公司</v>
+      </c>
+      <c r="D284" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E284" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F284" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G284" t="str">
+        <v>https://company.zhaopin.com/CZ211119510.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>前端应用开发工程师</v>
+      </c>
+      <c r="B285" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C285" t="str">
+        <v>中移在线服务有限公司</v>
+      </c>
+      <c r="D285" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E285" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F285" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G285" t="str">
+        <v>https://company.zhaopin.com/CZ000413680D00303565652.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>C/C++开发工程师-2020YF25</v>
+      </c>
+      <c r="B286" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C286" t="str">
+        <v>信大捷安</v>
+      </c>
+      <c r="D286" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E286" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F286" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G286" t="str">
+        <v>https://company.zhaopin.com/CZ142403970.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>产品经理（子公司）</v>
+      </c>
+      <c r="B287" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C287" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D287" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E287" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F287" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G287" t="str">
+        <v>https://company.zhaopin.com/CZ130180870.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>技术总监/CTO</v>
+      </c>
+      <c r="B288" t="str">
+        <v>9K-15K</v>
+      </c>
+      <c r="C288" t="str">
+        <v>河南睿腾信息技术有限公司</v>
+      </c>
+      <c r="D288" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E288" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F288" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G288" t="str">
+        <v>https://company.zhaopin.com/CZ387562810.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B289" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C289" t="str">
+        <v>中再物产有限公司</v>
+      </c>
+      <c r="D289" t="str">
+        <v>郑州-航空港区</v>
+      </c>
+      <c r="E289" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F289" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G289" t="str">
+        <v>https://company.zhaopin.com/CZ892065650.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>开发工程师（APP）</v>
+      </c>
+      <c r="B290" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C290" t="str">
+        <v>中移在线服务有限公司</v>
+      </c>
+      <c r="D290" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E290" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F290" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G290" t="str">
+        <v>https://company.zhaopin.com/CZ000413680D00303565652.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>软件测试（郑州公司位置绿地中心北塔）</v>
+      </c>
+      <c r="B291" t="str">
+        <v>4K-6K</v>
+      </c>
+      <c r="C291" t="str">
+        <v>北京赏心悦目软件有限公司</v>
+      </c>
+      <c r="D291" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E291" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F291" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G291" t="str">
+        <v>https://company.zhaopin.com/CZ837822980.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>游戏主策划</v>
+      </c>
+      <c r="B292" t="str">
+        <v>10K-15K</v>
+      </c>
+      <c r="C292" t="str">
+        <v>郑州鸿戈网络科技有限公司</v>
+      </c>
+      <c r="D292" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E292" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F292" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G292" t="str">
+        <v>https://company.zhaopin.com/CZ818894420.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>平面UI设计 助理</v>
+      </c>
+      <c r="B293" t="str">
+        <v>3K-6K</v>
+      </c>
+      <c r="C293" t="str">
+        <v>深圳市聚点数码科技有限公司郑州分公司</v>
+      </c>
+      <c r="D293" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E293" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F293" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G293" t="str">
+        <v>https://company.zhaopin.com/CZ458839880.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B294" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C294" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D294" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E294" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F294" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G294" t="str">
+        <v>https://company.zhaopin.com/CZ140937420.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>中级移动前端开发工程师</v>
+      </c>
+      <c r="B295" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C295" t="str">
+        <v>中科软</v>
+      </c>
+      <c r="D295" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E295" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F295" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G295" t="str">
+        <v>https://company.zhaopin.com/CZ120160390.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>移动前端开发高级工程师</v>
+      </c>
+      <c r="B296" t="str">
+        <v>8K-10K</v>
+      </c>
+      <c r="C296" t="str">
+        <v>中科软</v>
+      </c>
+      <c r="D296" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E296" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F296" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G296" t="str">
+        <v>https://company.zhaopin.com/CZ120160390.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>软件开发</v>
+      </c>
+      <c r="B297" t="str">
+        <v>薪资面议</v>
+      </c>
+      <c r="C297" t="str">
+        <v>中讯设计</v>
+      </c>
+      <c r="D297" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E297" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F297" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G297" t="str">
+        <v>https://company.zhaopin.com/CZ450769020.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>软件测试工程师应届生</v>
+      </c>
+      <c r="B298" t="str">
+        <v>6K-8K</v>
+      </c>
+      <c r="C298" t="str">
+        <v>超级智慧家(上海)物联网科技有限公司</v>
+      </c>
+      <c r="D298" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E298" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F298" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G298" t="str">
+        <v>http://special.zhaopin.com/2018/sh/11006/shzg033031?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>赴日IT工程师</v>
+      </c>
+      <c r="B299" t="str">
+        <v>15K-30K</v>
+      </c>
+      <c r="C299" t="str">
+        <v>西安纽伦信息科技有限公司</v>
+      </c>
+      <c r="D299" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E299" t="str">
+        <v>经验不限</v>
+      </c>
+      <c r="F299" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G299" t="str">
+        <v>https://company.zhaopin.com/CZ876522040.htm?srccode=401903&amp;preactionid=28e54809-dbf8-4674-979f-3ae55dbdd479</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G152"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G299"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,16 +405,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E2" t="str">
         <v>1-3年</v>
@@ -431,16 +431,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C3" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州凯格电子科技有限公司</v>
       </c>
       <c r="D3" t="str">
         <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
         <v>大专</v>
@@ -454,19 +454,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C4" t="str">
-        <v>欣网互联</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E4" t="str">
         <v>3-5年</v>
       </c>
       <c r="F4" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,19 +474,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B5" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C5" t="str">
-        <v>硕诺科技</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F5" t="str">
         <v>本科</v>
@@ -497,16 +497,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B6" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -532,10 +532,10 @@
         <v>郑州</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C9" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E9" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,19 +589,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B10" t="str">
-        <v>9千-1.6万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
         <v>大专</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
         <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -635,22 +635,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C12" t="str">
-        <v>刀锋互娱</v>
+        <v>牧原股份</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -661,19 +661,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>河南首江实业集团有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,19 +684,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E14" t="str">
         <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -704,16 +704,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B15" t="str">
-        <v>6千-8千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C15" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
         <v>1-3年</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C16" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
@@ -742,7 +742,7 @@
         <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -753,19 +753,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C17" t="str">
-        <v>牧原股份</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E17" t="str">
         <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,19 +773,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>研发工程师（android）</v>
       </c>
       <c r="B18" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C18" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
         <v>大专</v>
@@ -796,19 +796,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C19" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F19" t="str">
         <v>本科</v>
@@ -822,10 +822,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>9千-1.3万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C20" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>欣网互联</v>
       </c>
       <c r="D20" t="str">
         <v>郑州</v>
@@ -834,7 +834,7 @@
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android工程师(J10282)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C21" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -868,16 +868,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
         <v>大专</v>
@@ -888,16 +888,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B23" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C23" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -917,7 +917,7 @@
         <v>6千-1万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州星掣信息技术有限公司</v>
       </c>
       <c r="D24" t="str">
         <v>郑州</v>
@@ -926,7 +926,7 @@
         <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -934,19 +934,19 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B25" t="str">
-        <v>8千-1.3万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F25" t="str">
         <v>大专</v>
@@ -957,19 +957,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android原生手机app开发高级工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6千-1万</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州星掣信息技术有限公司</v>
+        <v>郑州设邦电子科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>研发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
@@ -1006,13 +1006,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1万-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师(J10282)</v>
       </c>
       <c r="B29" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C29" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E29" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1052,16 +1052,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>1万-2万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C30" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
@@ -1075,19 +1075,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E32" t="str">
         <v>1-3年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C33" t="str">
-        <v>科大讯飞</v>
+        <v>北京小马人科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1141,19 +1141,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>移动开发工程师（android）</v>
       </c>
       <c r="B34" t="str">
-        <v>9千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C34" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>河南北斗卫星导航平台有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E34" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
         <v>本科</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C35" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1190,19 +1190,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州凯格电子科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E36" t="str">
         <v>5-10年</v>
       </c>
       <c r="F36" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android 研发人员</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
         <v>1-3年</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C38" t="str">
-        <v>屹通信息</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
         <v>本科</v>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1282,19 +1282,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C41" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android应用开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B42" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C42" t="str">
-        <v>天迈科技</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F42" t="str">
         <v>本科</v>
@@ -1351,16 +1351,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C43" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
@@ -1374,10 +1374,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C44" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D44" t="str">
         <v>郑州-高新区</v>
@@ -1397,16 +1397,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8千-1万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
         <v>本科</v>
@@ -1420,16 +1420,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E46" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
         <v>大专</v>
@@ -1443,16 +1443,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>三门峡崤云信息服务股份有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
         <v>本科</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C48" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1489,19 +1489,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>5千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C49" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B50" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C50" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
         <v>大专</v>
@@ -1535,16 +1535,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E51" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
         <v>大专</v>
@@ -1558,16 +1558,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>面议</v>
+        <v>5千-7千</v>
       </c>
       <c r="C52" t="str">
-        <v>新开普</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android开发工程师</v>
+        <v>android主板硬件开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C53" t="str">
         <v>郑州梦之源电子科技有限公司</v>
@@ -1590,10 +1590,10 @@
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南臻图信息科技有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1624,19 +1624,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
         <v>本科</v>
@@ -1650,16 +1650,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F56" t="str">
         <v>大专</v>
@@ -1676,16 +1676,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南快易易物企业管理咨询有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B59" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>南京迈特望</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州-二七区</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1745,7 +1745,7 @@
         <v>5千-1万</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州-高新区</v>
@@ -1754,7 +1754,7 @@
         <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
         <v>大专</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B62" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C62" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B63" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C63" t="str">
         <v>郑州梦之源电子科技有限公司</v>
@@ -1820,7 +1820,7 @@
         <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
         <v>大专</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B64" t="str">
-        <v>5千-7千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C64" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发</v>
+        <v>android程序员</v>
       </c>
       <c r="B65" t="str">
-        <v>5千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>八六三软件</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>河南首江实业集团有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B67" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州云跃信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
@@ -1915,7 +1915,7 @@
         <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师（入职五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州沃克尔人力资源管理有限责任公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
         <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1949,19 +1949,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>3千-6千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C69" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E69" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C70" t="str">
-        <v>易安德电子商务有限公司</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>无经验</v>
       </c>
       <c r="F70" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C71" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F71" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2018,16 +2018,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C72" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
         <v>本科</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（入职五险一金）</v>
       </c>
       <c r="B73" t="str">
-        <v>6千-9千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>郑州沃克尔人力资源管理有限责任公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C74" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
@@ -2087,10 +2087,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南臻图信息科技有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D75" t="str">
         <v>郑州</v>
@@ -2110,16 +2110,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>8千-1.3万</v>
+        <v>3千-6千</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
         <v>大专</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C77" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D77" t="str">
         <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F77" t="str">
         <v>本科</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C78" t="str">
-        <v>浪潮集团</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B79" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C79" t="str">
-        <v>北京小马人科技有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E79" t="str">
         <v>3-5年</v>
       </c>
       <c r="F79" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C80" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州云跃信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C81" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
-        <v>无经验</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
         <v>本科</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>移动端开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州出窝旅游服务有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E82" t="str">
         <v>3-5年</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>安卓端工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C83" t="str">
-        <v>万邦国际集团</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E83" t="str">
         <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2294,19 +2294,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6千-1万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C84" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州青天软件科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>安卓开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C85" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D85" t="str">
         <v>郑州-管城回族区</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C86" t="str">
-        <v>八六三软件</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C87" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
@@ -2375,7 +2375,7 @@
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C88" t="str">
-        <v>上海易宝软件有限公司</v>
+        <v>易安德电子商务有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
@@ -2398,7 +2398,7 @@
         <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C89" t="str">
-        <v>天迈科技</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C90" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>安卓工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>4千-6千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android软件工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D93" t="str">
         <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Andriod开发工程师</v>
+        <v>android开发Arcgis for android</v>
       </c>
       <c r="B94" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>河南北斗空间科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>flutter开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C95" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F95" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1.5万-2万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F96" t="str">
-        <v>硕士</v>
+        <v>本科</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
@@ -2605,7 +2605,7 @@
         <v>3-5年</v>
       </c>
       <c r="F97" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C99" t="str">
-        <v>河南信合建设投资集团有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F99" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>4千-6千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>1.2万-1.6万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E101" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2708,16 +2708,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州中原报业传媒有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
         <v>本科</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C103" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南信合建设投资集团有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C104" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
         <v>3-5年</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C105" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
         <v>大专</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B106" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C106" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科</v>
+        <v>硕士</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>移动开发工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B107" t="str">
-        <v>8千-1万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C107" t="str">
-        <v>河南力安测控科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州-高新区</v>
@@ -2835,7 +2835,7 @@
         <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C108" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
         <v>3-5年</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>4千-8千</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南众诚信息科技股份有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C110" t="str">
-        <v>云涌科技</v>
+        <v>郑州出窝旅游服务有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>1.5万-2万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C111" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南洁路德环境科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E112" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2961,19 +2961,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>5千-7千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州京慧越科技有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2984,16 +2984,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州超盟信息技术有限公司</v>
+        <v>郑州中原报业传媒有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
         <v>本科</v>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Flutter</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>9千-1.1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C115" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
         <v>大专</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6千-9千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C116" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州新中软科技有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B117" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D117" t="str">
         <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3073,19 +3073,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B118" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C118" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
         <v>本科</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C119" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E119" t="str">
         <v>1-3年</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发工程师</v>
+        <v>Flutter</v>
       </c>
       <c r="B120" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.1万</v>
       </c>
       <c r="C120" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E120" t="str">
         <v>3-5年</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C121" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F121" t="str">
         <v>本科</v>
@@ -3165,13 +3165,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>上海埃林哲软件系统股份有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
@@ -3180,7 +3180,7 @@
         <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3188,19 +3188,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B123" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C123" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
@@ -3211,13 +3211,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>软件工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C124" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>河南力安测控科技有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州-高新区</v>
@@ -3226,7 +3226,7 @@
         <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>移动端主程</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C125" t="str">
-        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州-高新区</v>
@@ -3249,7 +3249,7 @@
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>移动端安卓研发</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B127" t="str">
-        <v>7千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C127" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发工程师（双休+五险一金+高新区）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C128" t="str">
-        <v>八六三软件</v>
+        <v>天一文化</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
         <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>移动端主程</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>天一文化</v>
+        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E129" t="str">
         <v>3-5年</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>郑州五险安卓APP软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C130" t="str">
-        <v>蓝众物业集团有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>APP开发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B131" t="str">
-        <v>1万-1.6万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州五岳电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3398,16 +3398,16 @@
         <v>APP开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C132" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>厚泽数据</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E132" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
         <v>大专</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>flutter APP 开发工程师</v>
+        <v>安卓开发工程师（双休+五险一金+高新区）</v>
       </c>
       <c r="B133" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C133" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>大专</v>
@@ -3441,30 +3441,260 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
+        <v>中高级安卓软件工程师</v>
+      </c>
+      <c r="B134" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C134" t="str">
+        <v>郑州闪创网络科技有限公司</v>
+      </c>
+      <c r="D134" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E134" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F134" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>高级安卓开发工程师</v>
+      </c>
+      <c r="B135" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C135" t="str">
+        <v>河南千年国医健康产业集团有限公司</v>
+      </c>
+      <c r="D135" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E135" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F135" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>安卓开发工程师（双休）</v>
+      </c>
+      <c r="B136" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C136" t="str">
+        <v>河南知途游道信息科技有限公司</v>
+      </c>
+      <c r="D136" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E136" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F136" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B137" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C137" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D137" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E137" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F137" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B138" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C138" t="str">
+        <v>慕然云(深圳)科技有限公司</v>
+      </c>
+      <c r="D138" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E138" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F138" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>安卓开发（双休）</v>
+      </c>
+      <c r="B139" t="str">
+        <v>6千-9千</v>
+      </c>
+      <c r="C139" t="str">
+        <v>河南易众拍卖行有限公司</v>
+      </c>
+      <c r="D139" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E139" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F139" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>移动端安卓研发</v>
+      </c>
+      <c r="B140" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C140" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D140" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E140" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F140" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>flutter APP 开发工程师</v>
+      </c>
+      <c r="B141" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C141" t="str">
+        <v>河南冠杰智能科技股份有限公司</v>
+      </c>
+      <c r="D141" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E141" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F141" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B142" t="str">
+        <v>1万-1.6万</v>
+      </c>
+      <c r="C142" t="str">
+        <v>郑州五岳电子科技有限公司</v>
+      </c>
+      <c r="D142" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E142" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F142" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B143" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C143" t="str">
+        <v>昆山双宇新信息科技有限公司</v>
+      </c>
+      <c r="D143" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E143" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F143" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B144" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C144" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D134" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E134" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F134" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G134" t="str">
+      <c r="D144" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E144" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F144" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G144" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G134"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G144"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,22 +405,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C2" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -428,19 +428,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州凯格电子科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E3" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F3" t="str">
         <v>大专</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师（YD15ysw）(J12486)</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C4" t="str">
-        <v>硕诺科技</v>
+        <v>东方国信</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
         <v>本科</v>
@@ -474,22 +474,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android</v>
       </c>
       <c r="B5" t="str">
-        <v>5千-8千</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F5" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -497,16 +497,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C6" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -520,22 +520,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B7" t="str">
-        <v>6千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C7" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E7" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -546,13 +546,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>1万-1.2万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C8" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
         <v>3-5年</v>
@@ -566,16 +566,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C9" t="str">
-        <v>刀锋互娱</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
@@ -589,22 +589,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>移动端开发（android）</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C10" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B11" t="str">
-        <v>8千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -661,16 +661,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南首江实业集团有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -704,22 +704,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android工程师（YD15ysw）(J12486)</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B15" t="str">
-        <v>6千-9千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>东方国信</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -730,19 +730,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C16" t="str">
-        <v>屹通信息</v>
+        <v>郑州星掣信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -750,16 +750,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8千-1.3万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
         <v>3-5年</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>研发工程师（android）</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -799,13 +799,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>5千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C19" t="str">
-        <v>八六三软件</v>
+        <v>屹通信息</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
         <v>1-3年</v>
@@ -822,19 +822,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C20" t="str">
-        <v>欣网互联</v>
+        <v>软语科技</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android开发工程师</v>
+        <v>中级android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C21" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -868,19 +868,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8千-1万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -888,16 +888,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C23" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -914,16 +914,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州星掣信息技术有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
         <v>大专</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>9千-1.6万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>上海保鼎科技服务有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E25" t="str">
         <v>不限</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>安卓android原生手机app开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>6千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州设邦电子科技有限公司</v>
+        <v>北京小马人科技有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -983,16 +983,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>8千-1.3万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
         <v>大专</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C28" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android工程师(J10282)</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B29" t="str">
         <v>8千-1.2万</v>
       </c>
       <c r="C29" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E29" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
         <v>本科</v>
@@ -1052,10 +1052,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>9千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C30" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
@@ -1064,7 +1064,7 @@
         <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1075,16 +1075,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>本科</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B32" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C32" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F32" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1121,19 +1121,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C33" t="str">
-        <v>北京小马人科技有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1141,19 +1141,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>移动开发工程师（android）</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B34" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C34" t="str">
-        <v>河南北斗卫星导航平台有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
         <v>本科</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C35" t="str">
-        <v>天迈科技</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E35" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1190,16 +1190,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C36" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
         <v>本科</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
         <v>大专</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州凯格电子科技有限公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B39" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C39" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1271,7 +1271,7 @@
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B40" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C40" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
@@ -1294,7 +1294,7 @@
         <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1305,16 +1305,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E41" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F41" t="str">
         <v>本科</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android 开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C42" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>北京企服嘉通技术服务有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E42" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
         <v>本科</v>
@@ -1351,19 +1351,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E43" t="str">
         <v>1-3年</v>
       </c>
       <c r="F43" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发工程师</v>
+        <v>软件开发工程师（android）</v>
       </c>
       <c r="B44" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C44" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E44" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
         <v>本科</v>
@@ -1397,16 +1397,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>9千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C45" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>河南在成长信息技术有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
         <v>本科</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B46" t="str">
-        <v>1.5万-2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C46" t="str">
-        <v>南京迈特望</v>
+        <v>八六三软件</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1443,13 +1443,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C47" t="str">
-        <v>三门峡崤云信息服务股份有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
         <v>3-5年</v>
@@ -1469,10 +1469,10 @@
         <v>6千-8千</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E48" t="str">
         <v>1-3年</v>
@@ -1489,10 +1489,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>1万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C49" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>河南首江实业集团有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州-金水区</v>
@@ -1501,7 +1501,7 @@
         <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android 研发人员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>5千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C50" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
         <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
         <v>1-3年</v>
@@ -1558,16 +1558,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>5千-7千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android主板硬件开发工程师</v>
+        <v>android开发工程师（入职五险一金）</v>
       </c>
       <c r="B53" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州沃克尔人力资源管理有限责任公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E53" t="str">
         <v>3-5年</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南臻图信息科技有限公司</v>
+        <v>郑州云跃信息技术有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1616,7 +1616,7 @@
         <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>6千-1.1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C55" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1650,19 +1650,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E56" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1673,10 +1673,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C57" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D57" t="str">
         <v>郑州-高新区</v>
@@ -1693,19 +1693,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师(J10282)</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C58" t="str">
-        <v>河南快易易物企业管理咨询有限公司</v>
+        <v>麒麟软件有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F58" t="str">
         <v>本科</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
         <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B60" t="str">
-        <v>5千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C60" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
         <v>1-3年</v>
@@ -1765,19 +1765,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>北京琥珀创想科技有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C62" t="str">
-        <v>八六三软件</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C64" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州优易达电子科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android程序员</v>
+        <v>安卓android原生手机app开发高级工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州设邦电子科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
         <v>大专</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B66" t="str">
-        <v>5千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1949,19 +1949,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C69" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D69" t="str">
         <v>郑州</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>4千-6千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C70" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E70" t="str">
-        <v>无经验</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android 研发人员</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南智联时空信息科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-惠济区</v>
       </c>
       <c r="E71" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B72" t="str">
-        <v>6千-1.2万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D72" t="str">
         <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师（入职五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州沃克尔人力资源管理有限责任公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
@@ -2064,16 +2064,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
         <v>本科</v>
@@ -2087,19 +2087,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C75" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2110,19 +2110,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>3千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C76" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E76" t="str">
         <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C77" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E77" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2156,19 +2156,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android 开发</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C79" t="str">
-        <v>浪潮集团</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
         <v>3-5年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>8千-1.6万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州云跃信息技术有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
@@ -2214,7 +2214,7 @@
         <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2225,10 +2225,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C81" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州-高新区</v>
@@ -2237,7 +2237,7 @@
         <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2248,16 +2248,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C82" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F82" t="str">
         <v>大专</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B83" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C83" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
         <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2294,10 +2294,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6千-9千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州青天软件科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
         <v>8千-1.2万</v>
       </c>
       <c r="C85" t="str">
-        <v>科大讯飞</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
         <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2340,16 +2340,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C86" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南中钢网电子商务有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发工程师</v>
+        <v>研发工程师（android）</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>大专</v>
@@ -2386,10 +2386,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C88" t="str">
-        <v>易安德电子商务有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
@@ -2398,7 +2398,7 @@
         <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发工程师</v>
+        <v>android主板硬件开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C89" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州梦之源电子科技有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2432,19 +2432,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1万-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C90" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C91" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>8千-1万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F92" t="str">
         <v>本科</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android高级开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C93" t="str">
-        <v>八六三软件</v>
+        <v>天迈科技</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发Arcgis for android</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B94" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C94" t="str">
-        <v>河南北斗空间科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D94" t="str">
         <v>郑州</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android 工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C95" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2570,16 +2570,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>4千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
         <v>本科</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C97" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发Arcgis for android</v>
       </c>
       <c r="B98" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C98" t="str">
-        <v>天迈科技</v>
+        <v>河南北斗空间科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F98" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android软件工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B99" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E99" t="str">
         <v>不限</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C100" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>上海埃林哲软件系统股份有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2674,7 +2674,7 @@
         <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>8千-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C101" t="str">
-        <v>万邦国际集团</v>
+        <v>郑州新中软科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
         <v>3-5年</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B102" t="str">
-        <v>1万-1.6万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C102" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E102" t="str">
         <v>3-5年</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B103" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C103" t="str">
-        <v>河南信合建设投资集团有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2754,10 +2754,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C104" t="str">
-        <v>河南思维列控</v>
+        <v>易宝软件</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>flutter开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C105" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南省新星科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>硕士</v>
+        <v>本科</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>1.3万-2.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C107" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F107" t="str">
         <v>本科</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>软件开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C108" t="str">
-        <v>贝博电子</v>
+        <v>郑州出窝旅游服务有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
@@ -2858,7 +2858,7 @@
         <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2869,19 +2869,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>9千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C109" t="str">
-        <v>河南众诚信息科技股份有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
         <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B110" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州出窝旅游服务有限公司</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D110" t="str">
         <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>andriod开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F111" t="str">
         <v>本科</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>软件工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>7千-1.4万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C112" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>1.5万-2.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C113" t="str">
-        <v>易宝软件</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B114" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州中原报业传媒有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C115" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>大专</v>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>4千-6千</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>上海保鼎科技服务有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F116" t="str">
         <v>大专</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B117" t="str">
-        <v>8千-1.6万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D117" t="str">
         <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专</v>
+        <v>硕士</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>1.5万-2.5万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C118" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -3096,19 +3096,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C119" t="str">
-        <v>云涌科技</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E119" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
         <v>本科</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Flutter</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>9千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C120" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>郑州中原报业传媒有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B121" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C121" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>APP开发工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B122" t="str">
-        <v>8千-1.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C122" t="str">
-        <v>上海埃林哲软件系统股份有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E122" t="str">
         <v>3-5年</v>
@@ -3188,13 +3188,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
@@ -3203,7 +3203,7 @@
         <v>1-3年</v>
       </c>
       <c r="F123" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3211,16 +3211,16 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>移动开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B124" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C124" t="str">
-        <v>河南力安测控科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
@@ -3234,16 +3234,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Andriod开发工程师</v>
+        <v>Flutter</v>
       </c>
       <c r="B125" t="str">
-        <v>7千-1万</v>
+        <v>9千-1.1万</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B126" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G126" t="str">
         <v/>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>软件工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C127" t="str">
-        <v>刀锋互娱</v>
+        <v>河南洁路德环境科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安卓开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C128" t="str">
-        <v>天一文化</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>移动端主程</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C129" t="str">
-        <v>北京广大泰祥自动化技术有限公司鹤壁分公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
         <v>3-5年</v>
@@ -3349,16 +3349,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>安卓工程师</v>
+        <v>移动端安卓研发</v>
       </c>
       <c r="B130" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C130" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E130" t="str">
         <v>3-5年</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C132" t="str">
-        <v>厚泽数据</v>
+        <v>河南信合建设投资集团有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
       </c>
       <c r="F132" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓开发工程师（双休+五险一金+高新区）</v>
+        <v>中高级安卓软件工程师</v>
       </c>
       <c r="B133" t="str">
         <v>6千-1.2万</v>
       </c>
       <c r="C133" t="str">
-        <v>八六三软件</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州-高新区</v>
@@ -3433,7 +3433,7 @@
         <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F134" t="str">
         <v>本科</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>高级安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>河南千年国医健康产业集团有限公司</v>
+        <v>厚泽数据</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>flutter APP 开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C136" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南冠杰智能科技股份有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F136" t="str">
         <v>大专</v>
@@ -3510,13 +3510,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>系统开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B137" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C137" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>昆山双宇新信息科技有限公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
@@ -3525,7 +3525,7 @@
         <v>不限</v>
       </c>
       <c r="F137" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3533,168 +3533,30 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C138" t="str">
-        <v>慕然云(深圳)科技有限公司</v>
+        <v>河南建祥装饰工程有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
         <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G138" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>安卓开发（双休）</v>
-      </c>
-      <c r="B139" t="str">
-        <v>6千-9千</v>
-      </c>
-      <c r="C139" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D139" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E139" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F139" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G139" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>移动端安卓研发</v>
-      </c>
-      <c r="B140" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C140" t="str">
-        <v>天瑞集团有限公司</v>
-      </c>
-      <c r="D140" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E140" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F140" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G140" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>flutter APP 开发工程师</v>
-      </c>
-      <c r="B141" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C141" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
-      </c>
-      <c r="D141" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E141" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F141" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G141" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B142" t="str">
-        <v>1万-1.6万</v>
-      </c>
-      <c r="C142" t="str">
-        <v>郑州五岳电子科技有限公司</v>
-      </c>
-      <c r="D142" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E142" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F142" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G142" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B143" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C143" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
-      </c>
-      <c r="D143" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E143" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F143" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G143" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B144" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C144" t="str">
-        <v>河南建祥装饰工程有限公司</v>
-      </c>
-      <c r="D144" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E144" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F144" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G144" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G138"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,22 +405,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C2" t="str">
-        <v>优路教育</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F2" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>高级android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C3" t="str">
-        <v>刀锋互娱</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,22 +451,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android工程师（YD15ysw）(J12486)</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B4" t="str">
-        <v>6千-9千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C4" t="str">
-        <v>东方国信</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E4" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F4" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,19 +474,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>9千-1.6万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F5" t="str">
         <v>大专</v>
@@ -497,22 +497,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>1万-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C6" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F6" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -520,16 +520,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C7" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
@@ -546,10 +546,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>9千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C8" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州</v>
@@ -558,7 +558,7 @@
         <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -569,13 +569,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C9" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
@@ -589,19 +589,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C10" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
         <v>本科</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
+        <v>android开发</v>
       </c>
       <c r="B11" t="str">
-        <v>1万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C11" t="str">
-        <v>新商育科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E11" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -638,19 +638,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C12" t="str">
-        <v>牧原股份</v>
+        <v>上海保鼎科技服务有限公司</v>
       </c>
       <c r="D12" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F12" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,19 +658,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -684,16 +684,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C14" t="str">
-        <v>八六三软件</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F14" t="str">
         <v>大专</v>
@@ -704,13 +704,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
@@ -719,7 +719,7 @@
         <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -730,19 +730,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6千-1万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州星掣信息技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -750,19 +750,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B17" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F17" t="str">
         <v>大专</v>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -796,13 +796,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B19" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C19" t="str">
-        <v>屹通信息</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D19" t="str">
         <v>郑州</v>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C20" t="str">
-        <v>软语科技</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,16 +842,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>中级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
         <v>3-5年</v>
@@ -865,22 +865,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B22" t="str">
-        <v>9千-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -888,16 +888,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B23" t="str">
-        <v>1万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C23" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -914,19 +914,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C24" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>河南首江实业集团有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B25" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C25" t="str">
-        <v>上海保鼎科技服务有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E25" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -957,45 +957,46 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B26" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C26" t="str">
-        <v>北京小马人科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F26" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G26" t="str">
         <v/>
       </c>
     </row>
-    <row r="27">
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B27" t="str">
-        <v>1.5万-2万</v>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">6千-8千
+          · 14薪</v>
       </c>
       <c r="C27" t="str">
-        <v>南京迈特望</v>
+        <v>郑州创亿达照明有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1003,16 +1004,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C28" t="str">
-        <v>天迈科技</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
         <v>3-5年</v>
@@ -1026,22 +1027,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C29" t="str">
-        <v>科大讯飞</v>
+        <v>神州通誉软件(上海)股份有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1052,10 +1053,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C30" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
@@ -1072,19 +1073,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B31" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
-        <v>八六三软件</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F31" t="str">
         <v>本科</v>
@@ -1095,22 +1096,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C32" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1118,16 +1119,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B33" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
@@ -1141,22 +1142,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
         <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1167,19 +1168,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1万-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C35" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1190,19 +1191,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C36" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1210,22 +1211,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1236,16 +1237,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州凯格电子科技有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E38" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
         <v>大专</v>
@@ -1256,13 +1257,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>6千-9千</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C39" t="str">
-        <v>东方国信</v>
+        <v>优路教育</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1279,16 +1280,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C40" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E40" t="str">
         <v>1-3年</v>
@@ -1302,22 +1303,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B41" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C41" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州</v>
       </c>
       <c r="E41" t="str">
         <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1325,16 +1326,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android 开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>6千-1.1万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C42" t="str">
-        <v>北京企服嘉通技术服务有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
@@ -1348,22 +1349,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1371,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>软件开发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C44" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1397,10 +1398,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南在成长信息技术有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
@@ -1417,19 +1418,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>5千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C46" t="str">
-        <v>八六三软件</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
         <v>本科</v>
@@ -1440,19 +1441,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B47" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
         <v>本科</v>
@@ -1466,13 +1467,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C48" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E48" t="str">
         <v>1-3年</v>
@@ -1489,19 +1490,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C49" t="str">
-        <v>河南首江实业集团有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F49" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1512,16 +1513,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
         <v>本科</v>
@@ -1532,22 +1533,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E51" t="str">
         <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1555,22 +1556,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>硕诺科技</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1578,22 +1579,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android开发工程师（入职五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>8千-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C53" t="str">
-        <v>郑州沃克尔人力资源管理有限责任公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E53" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1601,13 +1602,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州云跃信息技术有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1616,7 +1617,7 @@
         <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1627,19 +1628,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C55" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1647,19 +1648,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B56" t="str">
-        <v>1万-2万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C56" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
         <v>本科</v>
@@ -1673,19 +1674,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C57" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1693,19 +1694,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android工程师(J10282)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>麒麟软件有限公司</v>
+        <v>软语科技</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E58" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
         <v>本科</v>
@@ -1716,16 +1717,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android原生手机app开发高级工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州设邦电子科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E59" t="str">
         <v>1-3年</v>
@@ -1739,19 +1740,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>5千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C60" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1765,13 +1766,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C61" t="str">
-        <v>北京琥珀创想科技有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E61" t="str">
         <v>3-5年</v>
@@ -1788,16 +1789,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C62" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1808,19 +1809,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D63" t="str">
         <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>大专</v>
@@ -1831,19 +1832,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州优易达电子科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
@@ -1854,22 +1855,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>安卓android原生手机app开发高级工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州设邦电子科技有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
         <v>1-3年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1877,16 +1878,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android 开发</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B66" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>浪潮集团</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
         <v>3-5年</v>
@@ -1900,22 +1901,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B67" t="str">
-        <v>7千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E67" t="str">
         <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1923,22 +1924,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>中级android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E68" t="str">
         <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1949,16 +1950,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C69" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D69" t="str">
         <v>郑州</v>
       </c>
       <c r="E69" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F69" t="str">
         <v>大专</v>
@@ -1969,19 +1970,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C70" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
         <v>大专</v>
@@ -1992,19 +1993,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android 研发人员</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B71" t="str">
         <v>5千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>河南智联时空信息科技有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-惠济区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
@@ -2018,10 +2019,10 @@
         <v>android开发</v>
       </c>
       <c r="B72" t="str">
-        <v>4千-6千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D72" t="str">
         <v>郑州</v>
@@ -2030,7 +2031,7 @@
         <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -2041,19 +2042,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>5千-7千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C73" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F73" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2067,16 +2068,16 @@
         <v>5千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>新天科技</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E74" t="str">
         <v>1-3年</v>
       </c>
       <c r="F74" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -2087,19 +2088,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2107,19 +2108,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C76" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F76" t="str">
         <v>本科</v>
@@ -2136,16 +2137,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C77" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
         <v>1-3年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2156,19 +2157,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C78" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
         <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2176,19 +2177,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D79" t="str">
         <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
         <v>本科</v>
@@ -2202,10 +2203,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
@@ -2225,19 +2226,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C81" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2245,22 +2246,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E82" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2268,19 +2269,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C83" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
         <v>大专</v>
@@ -2291,19 +2292,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B84" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F84" t="str">
         <v>大专</v>
@@ -2317,19 +2318,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C85" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>河南省智联电力有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2340,16 +2341,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C86" t="str">
-        <v>河南中钢网电子商务有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2360,22 +2361,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>研发工程师（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C87" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -2389,13 +2390,13 @@
         <v>6千-8千</v>
       </c>
       <c r="C88" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
         <v>本科</v>
@@ -2406,19 +2407,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android主板硬件开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州梦之源电子科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F89" t="str">
         <v>本科</v>
@@ -2432,10 +2433,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C90" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州赛科药业科技有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
@@ -2444,7 +2445,7 @@
         <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2452,22 +2453,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B91" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E91" t="str">
         <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2478,19 +2479,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2498,16 +2499,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C93" t="str">
-        <v>天迈科技</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
         <v>3-5年</v>
@@ -2521,22 +2522,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E94" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2544,16 +2545,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C95" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E95" t="str">
         <v>3-5年</v>
@@ -2567,22 +2568,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B96" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C96" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2590,13 +2591,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C97" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
@@ -2613,13 +2614,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发Arcgis for android</v>
+        <v>android 工程师</v>
       </c>
       <c r="B98" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C98" t="str">
-        <v>河南北斗空间科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
@@ -2628,7 +2629,7 @@
         <v>不限</v>
       </c>
       <c r="F98" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2636,22 +2637,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B99" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州优易达电子科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E99" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2659,19 +2660,19 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C100" t="str">
-        <v>上海埃林哲软件系统股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
         <v>本科</v>
@@ -2682,22 +2683,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>4千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州新中软科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F101" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2705,16 +2706,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>android工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>1.3万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C102" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E102" t="str">
         <v>3-5年</v>
@@ -2728,13 +2729,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C103" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2743,7 +2744,7 @@
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2751,13 +2752,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>1.5万-2.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C104" t="str">
-        <v>易宝软件</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2774,22 +2775,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>安卓工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B105" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-7千</v>
       </c>
       <c r="C105" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E105" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2797,13 +2798,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C106" t="str">
-        <v>河南省新星科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
@@ -2820,19 +2821,19 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C107" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
         <v>本科</v>
@@ -2843,19 +2844,19 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>移动端开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C108" t="str">
-        <v>郑州出窝旅游服务有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
         <v>大专</v>
@@ -2866,22 +2867,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B109" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C109" t="str">
-        <v>河南思维列控</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2889,22 +2890,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安桌app开发员</v>
       </c>
       <c r="B110" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C110" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F110" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2912,13 +2913,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>软件开发工程师</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C111" t="str">
-        <v>贝博电子</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2927,7 +2928,7 @@
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2935,22 +2936,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>1.2万-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -2958,22 +2959,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2981,13 +2982,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>上海埃林哲软件系统股份有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
@@ -2996,7 +2997,7 @@
         <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -3004,22 +3005,22 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C115" t="str">
-        <v>万邦国际集团</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3027,22 +3028,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>安卓工程师</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>1万-1.6万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C116" t="str">
-        <v>上海保鼎科技服务有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F116" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3050,22 +3051,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B117" t="str">
         <v>1.5万-2万</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3073,22 +3074,22 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>9千-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C118" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -3096,22 +3097,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>1万-1.6万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C119" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F119" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3119,19 +3120,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>安卓开发工程师</v>
+        <v>软件工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C120" t="str">
-        <v>郑州中原报业传媒有限公司</v>
+        <v>河南洁路德环境科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>本科</v>
@@ -3142,22 +3143,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>安卓开发（双休）</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6千-9千</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C121" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3165,22 +3166,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C122" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>上海保鼎科技服务有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F122" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3188,19 +3189,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C123" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
         <v>大专</v>
@@ -3211,22 +3212,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C124" t="str">
-        <v>刀锋互娱</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3234,16 +3235,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Flutter</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>9千-1.1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C125" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>郑州出窝旅游服务有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
@@ -3257,13 +3258,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>超图软件</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
@@ -3280,22 +3281,22 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>软件工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B127" t="str">
-        <v>7千-1.4万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C127" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3303,22 +3304,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>flutter开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C128" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3326,13 +3327,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>天一文化</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
@@ -3341,7 +3342,7 @@
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3349,19 +3350,19 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>移动端安卓研发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C130" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
         <v>本科</v>
@@ -3372,22 +3373,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B131" t="str">
-        <v>6千-1万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C131" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E131" t="str">
         <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3395,16 +3396,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C132" t="str">
-        <v>河南信合建设投资集团有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
@@ -3418,19 +3419,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>中高级安卓软件工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B133" t="str">
-        <v>6千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3441,22 +3442,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>系统开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C134" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3464,22 +3465,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C135" t="str">
-        <v>厚泽数据</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F135" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3487,19 +3488,19 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>flutter APP 开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B136" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C136" t="str">
-        <v>河南冠杰智能科技股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
         <v>大专</v>
@@ -3510,19 +3511,19 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>6千-8千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C137" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E137" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
         <v>大专</v>
@@ -3533,30 +3534,306 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
+        <v>安卓研发工程师</v>
+      </c>
+      <c r="B138" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C138" t="str">
+        <v>河南绘梦未来网络科技有限公司</v>
+      </c>
+      <c r="D138" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E138" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F138" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B139" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C139" t="str">
+        <v>河南思维列控</v>
+      </c>
+      <c r="D139" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E139" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F139" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Flutter开发工程师（可兼职）</v>
+      </c>
+      <c r="B140" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C140" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D140" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E140" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F140" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+      </c>
+      <c r="B141" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C141" t="str">
+        <v>超图软件</v>
+      </c>
+      <c r="D141" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F141" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B142" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C142" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D142" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E142" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F142" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>资深andriod开发工程师-清理安全方向</v>
+      </c>
+      <c r="B143" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C143" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D143" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E143" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F143" t="str">
+        <v>硕士</v>
+      </c>
+      <c r="G143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B144" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C144" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D144" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E144" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F144" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>移动端安卓研发</v>
+      </c>
+      <c r="B145" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C145" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D145" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E145" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F145" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B146" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C146" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D146" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E146" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F146" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>安卓开发工程师5K-1W</v>
+      </c>
+      <c r="B147" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C147" t="str">
+        <v>河南格瑞恩电子科技有限公司</v>
+      </c>
+      <c r="D147" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E147" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F147" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B148" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C148" t="str">
+        <v>郑州维飞软件科技有限公司</v>
+      </c>
+      <c r="D148" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E148" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F148" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B149" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C149" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D149" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E149" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F149" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B150" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C150" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D138" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E138" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F138" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G138" t="str">
+      <c r="D150" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E150" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F150" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G150" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G138"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G150"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,36 +405,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E2" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>android工程师</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8千-1.2万</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">8千-9千
+          · 13薪</v>
       </c>
       <c r="C3" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D3" t="str">
         <v>郑州-金水区</v>
@@ -443,7 +444,7 @@
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,19 +452,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>4千-6千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C4" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D4" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E4" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
         <v>大专</v>
@@ -474,16 +475,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android软件开发工程师</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B5" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E5" t="str">
         <v>1-3年</v>
@@ -497,22 +498,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E6" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F6" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,19 +524,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C7" t="str">
-        <v>硕诺科技</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E7" t="str">
         <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -546,16 +547,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C8" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F8" t="str">
         <v>大专</v>
@@ -566,22 +567,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C9" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -592,16 +593,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7千-1.4万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D10" t="str">
         <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
         <v>本科</v>
@@ -612,16 +613,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
         <v>3-5年</v>
@@ -638,19 +639,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C12" t="str">
-        <v>上海保鼎科技服务有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D12" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,19 +659,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D13" t="str">
         <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -684,16 +685,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
         <v>大专</v>
@@ -704,19 +705,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>昂普科技</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
         <v>本科</v>
@@ -727,19 +728,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>5千-7千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
         <v>本科</v>
@@ -750,22 +751,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C17" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,22 +774,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E18" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -796,22 +797,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>5千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C19" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E19" t="str">
         <v>1-3年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -819,19 +820,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C20" t="str">
-        <v>刀锋互娱</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F20" t="str">
         <v>大专</v>
@@ -845,16 +846,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D21" t="str">
         <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
         <v>本科</v>
@@ -865,13 +866,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android开发工程师7-10k</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
@@ -880,7 +881,7 @@
         <v>3-5年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -888,13 +889,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C23" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
@@ -903,7 +904,7 @@
         <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -911,19 +912,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B24" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C24" t="str">
-        <v>河南首江实业集团有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
         <v>本科</v>
@@ -934,22 +935,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E25" t="str">
         <v>1-3年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -957,19 +958,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>9千-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
@@ -978,25 +979,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" xml:space="preserve">
+    <row r="27">
       <c r="A27" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B27" t="str" xml:space="preserve">
-        <v xml:space="preserve">6千-8千
-          · 14薪</v>
+      <c r="B27" t="str">
+        <v>6千-8千</v>
       </c>
       <c r="C27" t="str">
-        <v>郑州创亿达照明有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1004,22 +1004,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B28" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1030,19 +1030,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C29" t="str">
-        <v>神州通誉软件(上海)股份有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1053,19 +1053,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C30" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E30" t="str">
         <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F31" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1096,19 +1096,19 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B32" t="str">
-        <v>8千-1.3万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C32" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F32" t="str">
         <v>大专</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师高级</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B33" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C33" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
@@ -1134,7 +1134,7 @@
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1142,22 +1142,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B34" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C34" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1168,19 +1168,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>7千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C35" t="str">
-        <v>UU跑腿</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E35" t="str">
         <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1188,19 +1188,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>7千-9千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E36" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
         <v>大专</v>
@@ -1211,19 +1211,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B37" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C37" t="str">
-        <v>天迈科技</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F37" t="str">
         <v>本科</v>
@@ -1237,13 +1237,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>5千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C38" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E38" t="str">
         <v>1-3年</v>
@@ -1255,21 +1255,22 @@
         <v/>
       </c>
     </row>
-    <row r="39">
+    <row r="39" xml:space="preserve">
       <c r="A39" t="str">
-        <v>聘android（安卓）研发工程师</v>
-      </c>
-      <c r="B39" t="str">
-        <v>8千-1.6万</v>
+        <v>android开发工程师</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">6千-1万
+          · 14薪</v>
       </c>
       <c r="C39" t="str">
-        <v>优路教育</v>
+        <v>郑州创亿达照明有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
@@ -1280,19 +1281,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C40" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
         <v>本科</v>
@@ -1303,22 +1304,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1329,10 +1330,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>9千-1.3万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C42" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
@@ -1341,7 +1342,7 @@
         <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1349,13 +1350,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
@@ -1364,7 +1365,7 @@
         <v>3-5年</v>
       </c>
       <c r="F43" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1372,22 +1373,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C44" t="str">
-        <v>八六三软件</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1395,13 +1396,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
@@ -1410,7 +1411,7 @@
         <v>1-3年</v>
       </c>
       <c r="F45" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1418,19 +1419,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android系统固件工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C46" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F46" t="str">
         <v>本科</v>
@@ -1441,22 +1442,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
         <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1467,19 +1468,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E48" t="str">
         <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1487,22 +1488,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B49" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E49" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1513,13 +1514,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C50" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
         <v>3-5年</v>
@@ -1533,22 +1534,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B51" t="str">
-        <v>7千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1556,22 +1557,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android安卓开发工程师</v>
+        <v>中级android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C52" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1582,13 +1583,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>4千-6千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C53" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E53" t="str">
         <v>1-3年</v>
@@ -1605,10 +1606,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>8千-1.3万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1617,7 +1618,7 @@
         <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1628,19 +1629,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C55" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1648,16 +1649,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>6千-9千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C56" t="str">
-        <v>东方国信</v>
+        <v>天迈科技</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
@@ -1674,19 +1675,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1694,16 +1695,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C58" t="str">
-        <v>软语科技</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E58" t="str">
         <v>3-5年</v>
@@ -1717,22 +1718,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>安卓android原生手机app开发高级工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B59" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州设邦电子科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1743,19 +1744,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>7千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C60" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F60" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1763,19 +1764,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1789,16 +1790,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C62" t="str">
-        <v>八六三软件</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1812,13 +1813,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C63" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
         <v>3-5年</v>
@@ -1832,22 +1833,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B64" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
         <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1855,19 +1856,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C65" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
@@ -1878,13 +1879,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android程序员</v>
       </c>
       <c r="B66" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C66" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
@@ -1901,13 +1902,13 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>4千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
@@ -1924,19 +1925,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>中级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1950,13 +1951,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C69" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
@@ -1970,13 +1971,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>5千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C70" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D70" t="str">
         <v>郑州</v>
@@ -1985,7 +1986,7 @@
         <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1993,22 +1994,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2016,22 +2017,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>5千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C72" t="str">
-        <v>八六三软件</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -2042,16 +2043,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>4千-6千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
         <v>大专</v>
@@ -2065,16 +2066,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F74" t="str">
         <v>大专</v>
@@ -2085,22 +2086,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B75" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2108,22 +2109,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C76" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州</v>
       </c>
       <c r="E76" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2131,19 +2132,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B77" t="str">
-        <v>6千-8千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C77" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
         <v>本科</v>
@@ -2157,16 +2158,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C78" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
         <v>本科</v>
@@ -2180,16 +2181,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C79" t="str">
-        <v>新天科技</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F79" t="str">
         <v>本科</v>
@@ -2200,19 +2201,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B80" t="str">
-        <v>7千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C80" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
         <v>大专</v>
@@ -2226,19 +2227,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1万-1.2万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C81" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2246,22 +2247,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C82" t="str">
-        <v>科大讯飞</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
         <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2272,16 +2273,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C83" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
         <v>大专</v>
@@ -2292,22 +2293,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
+        <v>android app工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>1万-2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C84" t="str">
-        <v>新商育科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -2315,22 +2316,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B85" t="str">
-        <v>9千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C85" t="str">
-        <v>河南省智联电力有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2341,19 +2342,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1万-2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C86" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E86" t="str">
         <v>3-5年</v>
       </c>
       <c r="F86" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2361,19 +2362,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C87" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州优易达电子科技有限公司</v>
       </c>
       <c r="D87" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2384,22 +2385,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B88" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C88" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F88" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2407,22 +2408,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android高级开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2433,19 +2434,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州赛科药业科技有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2453,22 +2454,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android 开发</v>
+        <v>android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C91" t="str">
-        <v>浪潮集团</v>
+        <v>八六三软件</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2479,13 +2480,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
@@ -2499,22 +2500,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E93" t="str">
         <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2525,16 +2526,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C94" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E94" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F94" t="str">
         <v>大专</v>
@@ -2548,19 +2549,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C95" t="str">
-        <v>南京迈特望</v>
+        <v>河南首江实业集团有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E95" t="str">
         <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2568,22 +2569,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C96" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2594,10 +2595,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>4千-6千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C97" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
@@ -2614,19 +2615,19 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B98" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C98" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
         <v>本科</v>
@@ -2637,22 +2638,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州优易达电子科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E99" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F99" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2663,16 +2664,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F100" t="str">
         <v>本科</v>
@@ -2683,22 +2684,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2706,13 +2707,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B102" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
@@ -2721,7 +2722,7 @@
         <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2729,22 +2730,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B103" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C103" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2755,10 +2756,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>7千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C104" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2767,7 +2768,7 @@
         <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -2775,19 +2776,19 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android前端开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>4千-7千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C105" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F105" t="str">
         <v>大专</v>
@@ -2798,13 +2799,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C106" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
@@ -2824,16 +2825,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C107" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F107" t="str">
         <v>本科</v>
@@ -2844,19 +2845,19 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>flutter开发工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B108" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C108" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F108" t="str">
         <v>大专</v>
@@ -2867,22 +2868,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
         <v>8千-1.2万</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E109" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2890,22 +2891,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>安桌app开发员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C110" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E110" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2913,13 +2914,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Andorid开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C111" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2936,22 +2937,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -2959,16 +2960,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>安卓开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C113" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
@@ -2982,22 +2983,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>APP开发工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B114" t="str">
-        <v>8千-1.5万</v>
+        <v>4千-7千</v>
       </c>
       <c r="C114" t="str">
-        <v>上海埃林哲软件系统股份有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E114" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F114" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -3005,19 +3006,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C115" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
         <v>本科</v>
@@ -3028,19 +3029,19 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>1.5万-2万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F116" t="str">
         <v>本科</v>
@@ -3051,22 +3052,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C117" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F117" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3074,19 +3075,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C118" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
         <v>本科</v>
@@ -3097,22 +3098,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>9千-1.8万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C119" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3120,22 +3121,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>软件工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C120" t="str">
-        <v>河南洁路德环境科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
         <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3143,19 +3144,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>andriod开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>1.2万-1.6万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C121" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F121" t="str">
         <v>本科</v>
@@ -3166,22 +3167,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C122" t="str">
-        <v>上海保鼎科技服务有限公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3189,22 +3190,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>安卓端工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>万邦国际集团</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F123" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3212,19 +3213,19 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C124" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
         <v>本科</v>
@@ -3235,19 +3236,19 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州出窝旅游服务有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F125" t="str">
         <v>大专</v>
@@ -3258,13 +3259,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
@@ -3281,13 +3282,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C127" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
@@ -3296,7 +3297,7 @@
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3304,22 +3305,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>软件开发工程师</v>
+        <v>安桌app开发员</v>
       </c>
       <c r="B128" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C128" t="str">
-        <v>贝博电子</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F128" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3327,13 +3328,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
@@ -3350,22 +3351,22 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>安卓工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B130" t="str">
         <v>8千-1.2万</v>
       </c>
       <c r="C130" t="str">
-        <v>云涌科技</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
         <v>1-3年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3373,22 +3374,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>1.3万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C131" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
         <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3396,16 +3397,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>高级Linux工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B132" t="str">
-        <v>1万-1.5万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C132" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
@@ -3419,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3442,19 +3443,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Andriod开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>7千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C134" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F134" t="str">
         <v>大专</v>
@@ -3465,22 +3466,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E135" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3488,45 +3489,46 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>8千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E136" t="str">
         <v>3-5年</v>
       </c>
       <c r="F136" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G136" t="str">
         <v/>
       </c>
     </row>
-    <row r="137">
+    <row r="137" xml:space="preserve">
       <c r="A137" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B137" t="str">
-        <v>5千-7千</v>
+      <c r="B137" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3534,22 +3536,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓研发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>6千-8千</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C138" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3557,22 +3559,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C139" t="str">
-        <v>河南思维列控</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3580,22 +3582,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>1.5万-2.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C140" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
         <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3603,16 +3605,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C141" t="str">
-        <v>超图软件</v>
+        <v>云涌科技</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E141" t="str">
         <v>1-3年</v>
@@ -3626,22 +3628,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>安卓工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C142" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3649,22 +3651,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F143" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3672,22 +3674,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>系统开发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C144" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>云库科技</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E144" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3695,22 +3697,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>移动端安卓研发</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B145" t="str">
-        <v>7千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C145" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3718,16 +3720,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C146" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E146" t="str">
         <v>3-5年</v>
@@ -3741,13 +3743,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C147" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
@@ -3764,22 +3766,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E148" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3787,16 +3789,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓开发工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B149" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C149" t="str">
-        <v>天一文化</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E149" t="str">
         <v>3-5年</v>
@@ -3810,30 +3812,513 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
+        <v>资深andriod开发工程师</v>
+      </c>
+      <c r="B150" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C150" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D150" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E150" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F150" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B151" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C151" t="str">
+        <v>河南蓝信科技有限责任公司</v>
+      </c>
+      <c r="D151" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E151" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F151" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>安卓手机app开发人员</v>
+      </c>
+      <c r="B152" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C152" t="str">
+        <v>河南商蒙软件科技有限公司</v>
+      </c>
+      <c r="D152" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E152" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F152" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B153" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C153" t="str">
+        <v>河南凯仕网络科技有限公司</v>
+      </c>
+      <c r="D153" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E153" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F153" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>安卓前端研发工程师</v>
+      </c>
+      <c r="B154" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C154" t="str">
+        <v>河南陀螺信息技术有限公司</v>
+      </c>
+      <c r="D154" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E154" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F154" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+      </c>
+      <c r="B155" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C155" t="str">
+        <v>超图软件</v>
+      </c>
+      <c r="D155" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E155" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F155" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>资深andriod开发工程师-浏览器方向</v>
+      </c>
+      <c r="B156" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C156" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D156" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E156" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F156" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B157" t="str">
+        <v>5千-7千</v>
+      </c>
+      <c r="C157" t="str">
+        <v>郑州双杰科技股份有限公司</v>
+      </c>
+      <c r="D157" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E157" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F157" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>移动端安卓研发</v>
+      </c>
+      <c r="B158" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C158" t="str">
+        <v>天瑞集团有限公司</v>
+      </c>
+      <c r="D158" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E158" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F158" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B159" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C159" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D159" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E159" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F159" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B160" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C160" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D160" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E160" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F160" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>资深andriod开发工程师-清理安全方向</v>
+      </c>
+      <c r="B161" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C161" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D161" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E161" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F161" t="str">
+        <v>硕士</v>
+      </c>
+      <c r="G161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>安卓开发工程师5K-1W</v>
+      </c>
+      <c r="B162" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C162" t="str">
+        <v>河南格瑞恩电子科技有限公司</v>
+      </c>
+      <c r="D162" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E162" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F162" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>安卓开发工程师（双休）</v>
+      </c>
+      <c r="B163" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C163" t="str">
+        <v>河南知途游道信息科技有限公司</v>
+      </c>
+      <c r="D163" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E163" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F163" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B164" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C164" t="str">
+        <v>郑州维飞软件科技有限公司</v>
+      </c>
+      <c r="D164" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E164" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F164" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>逆向研发工程师</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C165" t="str">
+        <v>云库科技</v>
+      </c>
+      <c r="D165" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E165" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F165" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B166" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C166" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D166" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E166" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F166" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B167" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C167" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D167" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E167" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F167" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>集团总部-开发工程师（移动端）</v>
+      </c>
+      <c r="B168" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C168" t="str">
+        <v>东方今典集团有限公司</v>
+      </c>
+      <c r="D168" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E168" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F168" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B169" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C169" t="str">
+        <v>昆山双宇新信息科技有限公司</v>
+      </c>
+      <c r="D169" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E169" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F169" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B170" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C170" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D150" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E150" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F150" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G150" t="str">
+      <c r="D170" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E170" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F170" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>科技公司-移动端开发经理</v>
+      </c>
+      <c r="B171" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C171" t="str">
+        <v>东方今典集团有限公司</v>
+      </c>
+      <c r="D171" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E171" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F171" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G171" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G150"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G171"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,16 +498,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E6" t="str">
         <v>1-3年</v>
@@ -521,22 +521,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C7" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -544,13 +544,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C8" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州</v>
@@ -567,22 +567,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C9" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -593,7 +593,7 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C10" t="str">
         <v>河南安盛科技股份有限公司</v>
@@ -616,19 +616,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -659,19 +659,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D13" t="str">
         <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -685,19 +685,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D14" t="str">
         <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -708,19 +708,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -728,22 +728,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>8千-1万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -751,19 +751,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B17" t="str">
-        <v>7千-1万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
         <v>本科</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>8千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C18" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
         <v>3-5年</v>
@@ -797,22 +797,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -823,16 +823,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>7千-9千</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C20" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E20" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
         <v>大专</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>5千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C21" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D21" t="str">
         <v>郑州</v>
@@ -858,7 +858,7 @@
         <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -866,19 +866,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B22" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
@@ -889,22 +889,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android软件开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>7千-1.1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C23" t="str">
-        <v>昂普科技</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -912,16 +912,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E24" t="str">
         <v>1-3年</v>
@@ -938,10 +938,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C25" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州-金水区</v>
@@ -958,13 +958,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C26" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
@@ -973,7 +973,7 @@
         <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -984,19 +984,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6千-8千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C27" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
@@ -1030,19 +1030,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B30" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C30" t="str">
-        <v>牧原股份</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
@@ -1076,10 +1076,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C31" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
@@ -1088,7 +1088,7 @@
         <v>3-5年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1096,22 +1096,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>9千-1.6万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
       </c>
       <c r="E32" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>1万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C34" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D34" t="str">
         <v>郑州-郑东新区</v>
@@ -1168,16 +1168,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C35" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F35" t="str">
         <v>大专</v>
@@ -1188,16 +1188,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C36" t="str">
-        <v>刀锋互娱</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
@@ -1237,319 +1237,319 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C38" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D38" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E38" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F38" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B39" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C39" t="str">
+        <v>河南饮水网文化传媒有限公司</v>
+      </c>
+      <c r="D39" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F39" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>android</v>
+      </c>
+      <c r="B40" t="str">
+        <v>9千-1.6万</v>
+      </c>
+      <c r="C40" t="str">
+        <v>郑州维飞软件科技有限公司</v>
+      </c>
+      <c r="D40" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E40" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F40" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B41" t="str">
+        <v>9千-1.3万</v>
+      </c>
+      <c r="C41" t="str">
+        <v>康桥悦生活服务集团有限公司</v>
+      </c>
+      <c r="D41" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F41" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>android 开发安卓工程师</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C42" t="str">
+        <v>河南恒辉房地产顾问有限公司</v>
+      </c>
+      <c r="D42" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E42" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F42" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>android安卓开发工程师</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C43" t="str">
+        <v>河南澳乐康科技有限公司</v>
+      </c>
+      <c r="D43" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E43" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F43" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>android开发 (MJ004178)</v>
+      </c>
+      <c r="B44" t="str">
+        <v>1万-1.6万</v>
+      </c>
+      <c r="C44" t="str">
+        <v>神州数码系统集成服务有限公司广州分公司</v>
+      </c>
+      <c r="D44" t="str">
         <v>郑州-郑东新区</v>
       </c>
-      <c r="E38" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F38" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B39" t="str" xml:space="preserve">
+      <c r="E44" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F44" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>聘android（安卓）研发工程师</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8千-1.6万</v>
+      </c>
+      <c r="C45" t="str">
+        <v>优路教育</v>
+      </c>
+      <c r="D45" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E45" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F45" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B46" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C46" t="str">
+        <v>河南买多电子商务有限公司</v>
+      </c>
+      <c r="D46" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E46" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F46" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>android高级开发工程师</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8千-1.6万</v>
+      </c>
+      <c r="C47" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D47" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E47" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F47" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B48" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C48" t="str">
+        <v>河南宏博测控技术有限公司</v>
+      </c>
+      <c r="D48" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E48" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F48" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B49" t="str">
+        <v>1万-1.8万</v>
+      </c>
+      <c r="C49" t="str">
+        <v>智信安装集团有限公司</v>
+      </c>
+      <c r="D49" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E49" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F49" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>android开发工程师高级</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C50" t="str">
+        <v>中融鑫集团有限公司</v>
+      </c>
+      <c r="D50" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E50" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F50" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B51" t="str" xml:space="preserve">
         <v xml:space="preserve">6千-1万
           · 14薪</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C51" t="str">
         <v>郑州创亿达照明有限公司</v>
       </c>
-      <c r="D39" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E39" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F39" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>聘android（安卓）研发工程师</v>
-      </c>
-      <c r="B40" t="str">
-        <v>8千-1.6万</v>
-      </c>
-      <c r="C40" t="str">
-        <v>优路教育</v>
-      </c>
-      <c r="D40" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E40" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F40" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B41" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C41" t="str">
-        <v>新天科技</v>
-      </c>
-      <c r="D41" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E41" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F41" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B42" t="str">
-        <v>7千-1.3万</v>
-      </c>
-      <c r="C42" t="str">
-        <v>河南宝蓝实业有限公司</v>
-      </c>
-      <c r="D42" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E42" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F42" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B43" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C43" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
-      </c>
-      <c r="D43" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E43" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F43" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B44" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C44" t="str">
-        <v>河南印爱文化艺术有限公司</v>
-      </c>
-      <c r="D44" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E44" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F44" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>android软件开发工程师</v>
-      </c>
-      <c r="B45" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C45" t="str">
-        <v>河南品辰电子科技有限公司</v>
-      </c>
-      <c r="D45" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E45" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F45" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>android高级开发工程师</v>
-      </c>
-      <c r="B46" t="str">
-        <v>8千-1.6万</v>
-      </c>
-      <c r="C46" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D46" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E46" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F46" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B47" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C47" t="str">
-        <v>河南云考点教育科技有限公司</v>
-      </c>
-      <c r="D47" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E47" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F47" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B48" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C48" t="str">
-        <v>河南省863软件孵化器有限公司</v>
-      </c>
-      <c r="D48" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E48" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F48" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
-      </c>
-      <c r="B49" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C49" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
-      </c>
-      <c r="D49" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E49" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F49" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B50" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C50" t="str">
-        <v>河南友联金融服务有限公司</v>
-      </c>
-      <c r="D50" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E50" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F50" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
-      </c>
-      <c r="B51" t="str">
-        <v>1万-2万</v>
-      </c>
-      <c r="C51" t="str">
-        <v>新商育科技有限公司</v>
-      </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1557,22 +1557,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>中级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
         <v>3-5年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1583,13 +1583,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>7千-9千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C53" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E53" t="str">
         <v>1-3年</v>
@@ -1606,16 +1606,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>7千-1.4万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F54" t="str">
         <v>本科</v>
@@ -1626,22 +1626,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>4千-6千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C55" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C56" t="str">
-        <v>天迈科技</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1672,19 +1672,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师</v>
+        <v>中级android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1万-2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C57" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
         <v>本科</v>
@@ -1695,19 +1695,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F58" t="str">
         <v>本科</v>
@@ -1718,22 +1718,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C60" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1764,19 +1764,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1790,7 +1790,7 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>1万-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C62" t="str">
         <v>超级智慧家(上海)物联网科技有限公司</v>
@@ -1799,7 +1799,7 @@
         <v>郑州-高新区</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1813,16 +1813,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C63" t="str">
-        <v>八六三软件</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
         <v>大专</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B64" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C64" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D64" t="str">
         <v>郑州</v>
@@ -1856,19 +1856,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>科大讯飞</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
@@ -1879,19 +1879,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C66" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
         <v>大专</v>
@@ -1902,22 +1902,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C67" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1925,19 +1925,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B68" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C68" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1971,22 +1971,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B70" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C70" t="str">
-        <v>UU跑腿</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1997,19 +1997,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2017,19 +2017,19 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B72" t="str">
-        <v>4千-6千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C72" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
         <v>大专</v>
@@ -2043,13 +2043,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
         <v>3-5年</v>
@@ -2063,19 +2063,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B74" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
         <v>大专</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
@@ -2109,16 +2109,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C76" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E76" t="str">
         <v>1-3年</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>6千-9千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C77" t="str">
-        <v>东方国信</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D77" t="str">
         <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F77" t="str">
         <v>本科</v>
@@ -2158,10 +2158,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C78" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州-高新区</v>
@@ -2181,19 +2181,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>8千-1.3万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C79" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E79" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2201,19 +2201,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>4千-6千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
         <v>大专</v>
@@ -2227,16 +2227,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>4千-6千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C81" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
         <v>大专</v>
@@ -2247,22 +2247,22 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B82" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E82" t="str">
         <v>3-5年</v>
       </c>
       <c r="F82" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2273,16 +2273,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C83" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
         <v>大专</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android app工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>5千-7千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
@@ -2316,19 +2316,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C85" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D85" t="str">
         <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F85" t="str">
         <v>大专</v>
@@ -2342,19 +2342,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>7千-1.1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2362,19 +2362,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-8千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州优易达电子科技有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2385,22 +2385,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B88" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2408,19 +2408,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B89" t="str">
-        <v>5千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
         <v>大专</v>
@@ -2437,16 +2437,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C90" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2454,22 +2454,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B91" t="str">
-        <v>5千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C91" t="str">
-        <v>八六三软件</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2480,10 +2480,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>5千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D92" t="str">
         <v>郑州-高新区</v>
@@ -2492,7 +2492,7 @@
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2506,16 +2506,16 @@
         <v>7千-1.1万</v>
       </c>
       <c r="C93" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E93" t="str">
         <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2523,19 +2523,19 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>1万-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C94" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F94" t="str">
         <v>大专</v>
@@ -2546,22 +2546,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C95" t="str">
-        <v>河南首江实业集团有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F95" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2569,19 +2569,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android app工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>9千-1.3万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C96" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
         <v>本科</v>
@@ -2595,16 +2595,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>7千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F97" t="str">
         <v>大专</v>
@@ -2615,19 +2615,19 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发工程师高级</v>
+        <v>安卓android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C98" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州优易达电子科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
         <v>本科</v>
@@ -2641,16 +2641,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C99" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E99" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
         <v>大专</v>
@@ -2661,19 +2661,19 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B100" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C100" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
         <v>本科</v>
@@ -2684,16 +2684,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B101" t="str">
-        <v>8千-1.3万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E101" t="str">
         <v>3-5年</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师7-10k</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>7千-1.1万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
@@ -2722,7 +2722,7 @@
         <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2730,16 +2730,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android 开发</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B103" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C103" t="str">
-        <v>浪潮集团</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
@@ -2756,19 +2756,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>5千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C104" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -2779,16 +2779,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C105" t="str">
-        <v>南京迈特望</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
         <v>大专</v>
@@ -2799,16 +2799,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E106" t="str">
         <v>3-5年</v>
@@ -2822,22 +2822,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B107" t="str">
-        <v>7千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C107" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2845,22 +2845,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C108" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2868,16 +2868,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B109" t="str">
         <v>8千-1.2万</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
         <v>3-5年</v>
@@ -2897,16 +2897,16 @@
         <v>5千-8千</v>
       </c>
       <c r="C110" t="str">
-        <v>八六三软件</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2920,7 +2920,7 @@
         <v>6千-1万</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2937,19 +2937,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2960,16 +2960,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
@@ -2983,16 +2983,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>android前端开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>4千-7千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C114" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
         <v>1-3年</v>
@@ -3009,10 +3009,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C115" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
@@ -3021,7 +3021,7 @@
         <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3029,22 +3029,22 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>android开发工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B116" t="str">
-        <v>4千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3052,22 +3052,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android软件工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B117" t="str">
-        <v>6千-8千</v>
+        <v>4千-7千</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E117" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3075,16 +3075,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C118" t="str">
-        <v>天迈科技</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
         <v>3-5年</v>
@@ -3098,22 +3098,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C119" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F119" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3121,22 +3121,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C120" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E120" t="str">
         <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3144,19 +3144,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C121" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
         <v>本科</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B122" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C122" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
@@ -3182,7 +3182,7 @@
         <v>3-5年</v>
       </c>
       <c r="F122" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>6千-8千</v>
+        <v>4千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
@@ -3216,10 +3216,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C124" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州</v>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
@@ -3282,19 +3282,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>安卓开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C127" t="str">
-        <v>易宝软件</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F127" t="str">
         <v>本科</v>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>安桌app开发员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C128" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E128" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
         <v>学历不限</v>
@@ -3328,22 +3328,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F129" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3351,22 +3351,22 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>flutter开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C130" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Andorid开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B131" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C131" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
         <v>大专</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>1.3万-2.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C132" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
         <v>3-5年</v>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B133" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C133" t="str">
-        <v>贝博电子</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3443,19 +3443,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>APP开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>9千-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C134" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D134" t="str">
         <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F134" t="str">
         <v>大专</v>
@@ -3466,22 +3466,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓端工程师</v>
+        <v>安桌app开发员</v>
       </c>
       <c r="B135" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>万邦国际集团</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F135" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3489,158 +3489,158 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B136" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C136" t="str">
+        <v>贝博电子</v>
+      </c>
+      <c r="D136" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E136" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F136" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>andriod开发工程师</v>
+      </c>
+      <c r="B137" t="str">
+        <v>1.2万-1.6万</v>
+      </c>
+      <c r="C137" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D137" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E137" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F137" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B138" t="str">
+        <v>9千-1.8万</v>
+      </c>
+      <c r="C138" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D138" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E138" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F138" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Andorid开发工程师</v>
+      </c>
+      <c r="B139" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C139" t="str">
         <v>河南友联金融服务有限公司</v>
       </c>
-      <c r="D136" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E136" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F136" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G136" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="137" xml:space="preserve">
-      <c r="A137" t="str">
+      <c r="D139" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E139" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F139" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>andriod开发工程师（可兼职）</v>
+      </c>
+      <c r="B140" t="str">
+        <v>1.3万-2.5万</v>
+      </c>
+      <c r="C140" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D140" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E140" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F140" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>安卓端工程师</v>
+      </c>
+      <c r="B141" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C141" t="str">
+        <v>万邦国际集团</v>
+      </c>
+      <c r="D141" t="str">
+        <v>郑州-中牟县</v>
+      </c>
+      <c r="E141" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F141" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B137" t="str" xml:space="preserve">
+      <c r="B142" t="str" xml:space="preserve">
         <v xml:space="preserve">9千-1.6万
           · 13薪</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C142" t="str">
         <v>南京北路智控科技股份有限公司</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D142" t="str">
         <v>郑州-管城回族区</v>
       </c>
-      <c r="E137" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F137" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G137" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B138" t="str">
-        <v>1.2万-1.6万</v>
-      </c>
-      <c r="C138" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D138" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E138" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F138" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G138" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>Andriod开发工程师</v>
-      </c>
-      <c r="B139" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C139" t="str">
-        <v>郑州原力能源科技有限公司</v>
-      </c>
-      <c r="D139" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E139" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F139" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G139" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B140" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C140" t="str">
-        <v>河南知途游道信息科技有限公司</v>
-      </c>
-      <c r="D140" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E140" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F140" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G140" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B141" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C141" t="str">
-        <v>云涌科技</v>
-      </c>
-      <c r="D141" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E141" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F141" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G141" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>安卓软件开发工程师</v>
-      </c>
-      <c r="B142" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C142" t="str">
-        <v>郑州远洋电子科技有限公司</v>
-      </c>
-      <c r="D142" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E142" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
         <v>本科</v>
@@ -3651,19 +3651,19 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C143" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
         <v>大专</v>
@@ -3674,22 +3674,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>逆向工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>1万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C144" t="str">
-        <v>云库科技</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F144" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3697,22 +3697,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B145" t="str">
         <v>1.5万-2万</v>
       </c>
       <c r="C145" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F145" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3723,13 +3723,13 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C146" t="str">
-        <v>河南思维列控</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E146" t="str">
         <v>3-5年</v>
@@ -3743,19 +3743,19 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C147" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>本科</v>
@@ -3766,22 +3766,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>高级Linux工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C148" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
         <v>3-5年</v>
       </c>
       <c r="F148" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B149" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C149" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E149" t="str">
         <v>3-5年</v>
       </c>
       <c r="F149" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3812,19 +3812,19 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C150" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F150" t="str">
         <v>本科</v>
@@ -3835,19 +3835,19 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>安卓工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C151" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E151" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F151" t="str">
         <v>本科</v>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C152" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C153" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D153" t="str">
         <v>郑州</v>
@@ -3904,22 +3904,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B154" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C154" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3927,19 +3927,19 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B155" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C155" t="str">
-        <v>超图软件</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F155" t="str">
         <v>本科</v>
@@ -3950,22 +3950,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C156" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3996,16 +3996,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>移动端安卓研发</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B158" t="str">
-        <v>7千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C158" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
@@ -4019,19 +4019,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C159" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
         <v>本科</v>
@@ -4042,19 +4042,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C160" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F160" t="str">
         <v>本科</v>
@@ -4065,22 +4065,22 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E161" t="str">
         <v>5-10年</v>
       </c>
       <c r="F161" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G161" t="str">
         <v/>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B162" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C162" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D162" t="str">
         <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F162" t="str">
-        <v>本科</v>
+        <v>硕士</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -4111,22 +4111,22 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C163" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E163" t="str">
         <v>3-5年</v>
       </c>
       <c r="F163" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G163" t="str">
         <v/>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C164" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
@@ -4149,7 +4149,7 @@
         <v>1-3年</v>
       </c>
       <c r="F164" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G164" t="str">
         <v/>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>逆向研发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B165" t="str">
-        <v>1万-2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C165" t="str">
-        <v>云库科技</v>
+        <v>超图软件</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F165" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -4180,16 +4180,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>安卓工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C166" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
         <v>3-5年</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B167" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C167" t="str">
-        <v>天一文化</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D167" t="str">
         <v>郑州</v>
@@ -4218,7 +4218,7 @@
         <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4226,19 +4226,19 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>集团总部-开发工程师（移动端）</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B168" t="str">
-        <v>1.5万-2.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C168" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D168" t="str">
         <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
         <v>本科</v>
@@ -4249,19 +4249,19 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C169" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
         <v>大专</v>
@@ -4272,16 +4272,16 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>APP开发工程师</v>
+        <v>移动端安卓研发</v>
       </c>
       <c r="B170" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C170" t="str">
-        <v>河南建祥装饰工程有限公司</v>
+        <v>天瑞集团有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E170" t="str">
         <v>3-5年</v>
@@ -4295,30 +4295,145 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B171" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C171" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D171" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E171" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F171" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B172" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C172" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D172" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E172" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F172" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>集团总部-开发工程师（移动端）</v>
+      </c>
+      <c r="B173" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C173" t="str">
+        <v>东方今典集团有限公司</v>
+      </c>
+      <c r="D173" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E173" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F173" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B174" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C174" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D174" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E174" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F174" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B175" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C175" t="str">
+        <v>河南建祥装饰工程有限公司</v>
+      </c>
+      <c r="D175" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E175" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F175" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
         <v>科技公司-移动端开发经理</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B176" t="str">
         <v>7千-1.2万</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C176" t="str">
         <v>东方今典集团有限公司</v>
       </c>
-      <c r="D171" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E171" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F171" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G171" t="str">
+      <c r="D176" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E176" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F176" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G176" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G171"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G176"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,37 +405,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Andorid开发工程师</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C2" t="str">
+        <v>河南友联金融服务有限公司</v>
+      </c>
+      <c r="D2" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F2" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>android工程师</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>8千-1.2万</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <v>河南省吉立达机器人有限公司</v>
-      </c>
-      <c r="D2" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E2" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F2" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">8千-9千
-          · 13薪</v>
-      </c>
-      <c r="C3" t="str">
-        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D3" t="str">
         <v>郑州-金水区</v>
@@ -444,7 +443,7 @@
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -498,19 +497,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B6" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E6" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
         <v>本科</v>
@@ -521,22 +520,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -593,19 +592,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C10" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
         <v>1-3年</v>
       </c>
       <c r="F10" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -613,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C11" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E11" t="str">
         <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -659,19 +658,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
         <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -682,19 +681,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D14" t="str">
         <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
         <v>本科</v>
@@ -708,19 +707,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -731,19 +730,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>9千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -751,19 +750,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android工程师(J10082)</v>
       </c>
       <c r="B17" t="str">
-        <v>1.2万-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>天星教育</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F17" t="str">
         <v>本科</v>
@@ -774,16 +773,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E18" t="str">
         <v>3-5年</v>
@@ -795,21 +794,22 @@
         <v/>
       </c>
     </row>
-    <row r="19">
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>android底层开发工程师</v>
-      </c>
-      <c r="B19" t="str">
-        <v>8千-1.5万</v>
+        <v>android开发工程师</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">6千-1万
+          · 14薪</v>
       </c>
       <c r="C19" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州创亿达照明有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F19" t="str">
         <v>本科</v>
@@ -823,19 +823,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>7千-1.3万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C20" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F20" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -843,16 +843,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C21" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E21" t="str">
         <v>1-3年</v>
@@ -866,19 +866,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
@@ -889,16 +889,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C23" t="str">
-        <v>刀锋互娱</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
         <v>3-5年</v>
@@ -912,22 +912,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -935,22 +935,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>7千-9千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -958,16 +958,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>7千-1.1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C26" t="str">
-        <v>昂普科技</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -984,19 +984,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>5千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B28" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
@@ -1027,22 +1027,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
+        <v>android app工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6千-1万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C29" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
         <v>1-3年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C30" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
@@ -1076,13 +1076,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E31" t="str">
         <v>3-5年</v>
@@ -1099,10 +1099,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
@@ -1111,7 +1111,7 @@
         <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1122,13 +1122,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C33" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
@@ -1145,19 +1145,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C34" t="str">
-        <v>牧原股份</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E34" t="str">
         <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1171,7 +1171,7 @@
         <v>1万-1.5万</v>
       </c>
       <c r="C35" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州</v>
@@ -1180,7 +1180,7 @@
         <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1188,22 +1188,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android开发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F36" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1211,22 +1211,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C37" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
       </c>
       <c r="E37" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1234,19 +1234,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B38" t="str">
-        <v>1万-1.6万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C38" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F38" t="str">
         <v>大专</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B40" t="str">
-        <v>9千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C40" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
         <v>大专</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>9千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C41" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B42" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C42" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android安卓开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
@@ -1372,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C44" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1395,19 +1395,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C45" t="str">
-        <v>优路教育</v>
+        <v>新天科技</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
         <v>本科</v>
@@ -1441,19 +1441,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
         <v>本科</v>
@@ -1464,22 +1464,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C48" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1490,16 +1490,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>1万-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C49" t="str">
-        <v>智信安装集团有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
         <v>大专</v>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B50" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C50" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E50" t="str">
         <v>3-5年</v>
@@ -1531,22 +1531,21 @@
         <v/>
       </c>
     </row>
-    <row r="51" xml:space="preserve">
+    <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B51" t="str" xml:space="preserve">
-        <v xml:space="preserve">6千-1万
-          · 14薪</v>
+        <v>高级android开发工程师</v>
+      </c>
+      <c r="B51" t="str">
+        <v>1万-1.5万</v>
       </c>
       <c r="C51" t="str">
-        <v>郑州创亿达照明有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F51" t="str">
         <v>本科</v>
@@ -1557,22 +1556,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8千-1.2万</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1626,22 +1625,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C55" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1655,16 +1654,16 @@
         <v>7千-1万</v>
       </c>
       <c r="C56" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1698,19 +1697,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C58" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1724,16 +1723,16 @@
         <v>8千-1.3万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1741,19 +1740,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C60" t="str">
-        <v>天迈科技</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1767,16 +1766,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C61" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1787,22 +1786,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B62" t="str">
         <v>1万-2万</v>
       </c>
       <c r="C62" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
         <v>5-10年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1813,16 +1812,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C63" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
         <v>大专</v>
@@ -1833,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师7-10k</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C64" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E64" t="str">
         <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1856,19 +1855,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
@@ -1879,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C66" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1902,22 +1901,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>科大讯飞</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1925,19 +1924,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B68" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C68" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E68" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1971,22 +1970,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android 开发</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B70" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C70" t="str">
-        <v>浪潮集团</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1994,13 +1993,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B71" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C71" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
@@ -2017,13 +2016,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B72" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C72" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D72" t="str">
         <v>郑州</v>
@@ -2043,19 +2042,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>八六三软件</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D73" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2063,16 +2062,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android程序员</v>
+        <v>android 开发</v>
       </c>
       <c r="B74" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
@@ -2086,22 +2085,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B75" t="str">
-        <v>1万-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C75" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2112,13 +2111,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>5千-8千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C76" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E76" t="str">
         <v>1-3年</v>
@@ -2132,19 +2131,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C77" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
         <v>本科</v>
@@ -2155,16 +2154,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C78" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
         <v>1-3年</v>
@@ -2181,16 +2180,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C79" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F79" t="str">
         <v>大专</v>
@@ -2204,19 +2203,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C80" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2227,13 +2226,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C81" t="str">
-        <v>南京迈特望</v>
+        <v>八六三软件</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
         <v>3-5年</v>
@@ -2247,16 +2246,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C82" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E82" t="str">
         <v>3-5年</v>
@@ -2270,19 +2269,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B83" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C83" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
         <v>大专</v>
@@ -2293,13 +2292,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B84" t="str">
-        <v>7千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C84" t="str">
-        <v>UU跑腿</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
@@ -2319,16 +2318,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
         <v>大专</v>
@@ -2339,22 +2338,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>4千-6千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C86" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2362,22 +2361,22 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-9千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C87" t="str">
-        <v>东方国信</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E87" t="str">
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -2385,22 +2384,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B88" t="str">
-        <v>6千-8千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C88" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2408,22 +2407,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2431,22 +2430,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B90" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C90" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E90" t="str">
         <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2480,19 +2479,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>5千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C92" t="str">
-        <v>八六三软件</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2503,16 +2502,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>7千-1.1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>本科</v>
@@ -2523,13 +2522,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D94" t="str">
         <v>郑州</v>
@@ -2546,22 +2545,22 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D95" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2569,19 +2568,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android app工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>5千-7千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州科瑞思拓软件科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州</v>
+        <v>郑州-经开区</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
         <v>本科</v>
@@ -2592,22 +2591,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C97" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F97" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2615,22 +2614,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州优易达电子科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2684,19 +2683,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C101" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F101" t="str">
         <v>大专</v>
@@ -2707,13 +2706,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>7千-1.4万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
@@ -2722,7 +2721,7 @@
         <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2730,13 +2729,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C103" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2745,7 +2744,7 @@
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2753,16 +2752,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B104" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C104" t="str">
-        <v>新天科技</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E104" t="str">
         <v>1-3年</v>
@@ -2776,22 +2775,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B105" t="str">
-        <v>7千-9千</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C105" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2802,19 +2801,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>8千-1.3万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C106" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2822,13 +2821,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>1万-2万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C107" t="str">
-        <v>新商育科技有限公司</v>
+        <v>智信安装集团有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
@@ -2848,10 +2847,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C108" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
@@ -2860,7 +2859,7 @@
         <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2868,13 +2867,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C109" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
@@ -2894,10 +2893,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>5千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C110" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D110" t="str">
         <v>郑州</v>
@@ -2906,7 +2905,7 @@
         <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2917,10 +2916,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C111" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2937,19 +2936,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2963,16 +2962,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F113" t="str">
         <v>本科</v>
@@ -2981,18 +2980,19 @@
         <v/>
       </c>
     </row>
-    <row r="114">
+    <row r="114" xml:space="preserve">
       <c r="A114" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B114" t="str">
-        <v>4千-6千</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B114" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
       </c>
       <c r="C114" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E114" t="str">
         <v>1-3年</v>
@@ -3009,19 +3009,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C115" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3029,19 +3029,19 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C116" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F116" t="str">
         <v>大专</v>
@@ -3052,22 +3052,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android前端开发</v>
+        <v>android开发</v>
       </c>
       <c r="B117" t="str">
-        <v>4千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C117" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E117" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3078,10 +3078,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C118" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
@@ -3090,7 +3090,7 @@
         <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -3098,13 +3098,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android软件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C119" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
@@ -3113,7 +3113,7 @@
         <v>不限</v>
       </c>
       <c r="F119" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3121,22 +3121,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C120" t="str">
-        <v>天迈科技</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3144,22 +3144,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android开发工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B121" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C121" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3167,22 +3167,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C122" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3190,22 +3190,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android开发工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B123" t="str">
-        <v>4千-8千</v>
+        <v>4千-7千</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E123" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3213,22 +3213,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C124" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
         <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F124" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C125" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
@@ -3259,19 +3259,19 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>android开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
@@ -3282,22 +3282,22 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>android 工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C127" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
       </c>
       <c r="E127" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3308,19 +3308,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C128" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3328,19 +3328,19 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android软件开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
         <v>本科</v>
@@ -3354,10 +3354,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C130" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
@@ -3374,22 +3374,22 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F131" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C132" t="str">
-        <v>易宝软件</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3443,22 +3443,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>flutter开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C134" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D134" t="str">
         <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F134" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3466,22 +3466,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安桌app开发员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C135" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E135" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3489,19 +3489,19 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C136" t="str">
-        <v>贝博电子</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F136" t="str">
         <v>本科</v>
@@ -3512,22 +3512,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B137" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>9千-1.8万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C138" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3558,13 +3558,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Andorid开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C139" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
@@ -3573,7 +3573,7 @@
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3581,22 +3581,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>安桌app开发员</v>
       </c>
       <c r="B140" t="str">
-        <v>1.3万-2.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C140" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F140" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3604,19 +3604,19 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>安卓端工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C141" t="str">
-        <v>万邦国际集团</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F141" t="str">
         <v>大专</v>
@@ -3625,19 +3625,18 @@
         <v/>
       </c>
     </row>
-    <row r="142" xml:space="preserve">
+    <row r="142">
       <c r="A142" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B142" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
+      <c r="B142" t="str">
+        <v>1万-1.5万</v>
       </c>
       <c r="C142" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
@@ -3674,19 +3673,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>8千-1万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
@@ -3697,13 +3696,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>1.5万-2万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D145" t="str">
         <v>郑州</v>
@@ -3712,7 +3711,7 @@
         <v>5-10年</v>
       </c>
       <c r="F145" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3720,16 +3719,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B146" t="str">
-        <v>1万-1.5万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C146" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E146" t="str">
         <v>3-5年</v>
@@ -3743,45 +3742,46 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
+        <v>安卓端工程师</v>
+      </c>
+      <c r="B147" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C147" t="str">
+        <v>万邦国际集团</v>
+      </c>
+      <c r="D147" t="str">
+        <v>郑州-中牟县</v>
+      </c>
+      <c r="E147" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F147" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B147" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C147" t="str">
-        <v>河南思维列控</v>
-      </c>
-      <c r="D147" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E147" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F147" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G147" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B148" t="str">
-        <v>7千-1万</v>
+      <c r="B148" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
       </c>
       <c r="C148" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E148" t="str">
         <v>3-5年</v>
       </c>
       <c r="F148" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B149" t="str">
         <v>1.5万-2万</v>
       </c>
       <c r="C149" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F149" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C150" t="str">
-        <v>云涌科技</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E150" t="str">
         <v>1-3年</v>
@@ -3835,19 +3835,19 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>高级Linux工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C151" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F151" t="str">
         <v>本科</v>
@@ -3858,22 +3858,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D152" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E152" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F152" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -3881,19 +3881,19 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C153" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E153" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F153" t="str">
         <v>本科</v>
@@ -3904,13 +3904,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C154" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
@@ -3919,7 +3919,7 @@
         <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3927,22 +3927,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C155" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3950,19 +3950,19 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>安卓研发工程师</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C156" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E156" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
         <v>大专</v>
@@ -3973,19 +3973,19 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>安卓开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B157" t="str">
-        <v>5千-7千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E157" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F157" t="str">
         <v>大专</v>
@@ -4019,19 +4019,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B159" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C159" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F159" t="str">
         <v>本科</v>
@@ -4042,22 +4042,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>安卓工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C160" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>逆向工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B161" t="str">
         <v>1万-2万</v>
@@ -4077,7 +4077,7 @@
         <v>郑州-高新区</v>
       </c>
       <c r="E161" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
         <v>大专</v>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>1.5万-2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C162" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E162" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F162" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C163" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F163" t="str">
         <v>本科</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C164" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B165" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C165" t="str">
-        <v>超图软件</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D165" t="str">
         <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -4180,19 +4180,19 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>逆向研发工程师</v>
+        <v>Java开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>1万-2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C166" t="str">
-        <v>云库科技</v>
+        <v>河南艺树文化创意有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F166" t="str">
         <v>大专</v>
@@ -4203,19 +4203,19 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C167" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F167" t="str">
         <v>大专</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B168" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C168" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D168" t="str">
         <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F168" t="str">
-        <v>本科</v>
+        <v>硕士</v>
       </c>
       <c r="G168" t="str">
         <v/>
@@ -4249,13 +4249,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C169" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
@@ -4264,7 +4264,7 @@
         <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4272,19 +4272,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>移动端安卓研发</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B170" t="str">
-        <v>7千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C170" t="str">
-        <v>天瑞集团有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
         <v>本科</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>系统开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C171" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E171" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
         <v>本科</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>安卓工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C172" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F172" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4341,19 +4341,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>集团总部-开发工程师（移动端）</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B173" t="str">
-        <v>1.5万-2.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C173" t="str">
-        <v>东方今典集团有限公司</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D173" t="str">
         <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F173" t="str">
         <v>本科</v>
@@ -4367,19 +4367,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C174" t="str">
-        <v>天一文化</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F174" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G174" t="str">
         <v/>
@@ -4387,13 +4387,13 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B175" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C175" t="str">
-        <v>河南建祥装饰工程有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D175" t="str">
         <v>郑州</v>
@@ -4402,7 +4402,7 @@
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4410,30 +4410,122 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B176" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C176" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D176" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E176" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F176" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B177" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C177" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D177" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E177" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F177" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>集团总部-开发工程师（移动端）</v>
+      </c>
+      <c r="B178" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C178" t="str">
+        <v>东方今典集团有限公司</v>
+      </c>
+      <c r="D178" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E178" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F178" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B179" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C179" t="str">
+        <v>河南建祥装饰工程有限公司</v>
+      </c>
+      <c r="D179" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E179" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F179" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
         <v>科技公司-移动端开发经理</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B180" t="str">
         <v>7千-1.2万</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C180" t="str">
         <v>东方今典集团有限公司</v>
       </c>
-      <c r="D176" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E176" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F176" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G176" t="str">
+      <c r="D180" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E180" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F180" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G180" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G176"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G180"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Andorid开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B2" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android工程师</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C3" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,22 +451,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>5千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C4" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D4" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E4" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,13 +474,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C5" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州-金水区</v>
@@ -497,22 +497,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D6" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F6" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,19 +523,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -543,19 +543,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C8" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D8" t="str">
         <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
         <v>大专</v>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B9" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C9" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E9" t="str">
         <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,16 +589,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C10" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
         <v>1-3年</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C11" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -638,19 +638,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C12" t="str">
-        <v>硕诺科技</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D12" t="str">
         <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,16 +658,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C13" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E13" t="str">
         <v>1-3年</v>
@@ -681,16 +681,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E14" t="str">
         <v>3-5年</v>
@@ -707,16 +707,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
         <v>本科</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C17" t="str">
-        <v>天星教育</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,92 +773,92 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B18" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C18" t="str">
+        <v>河南云煤网网络科技有限责任公司</v>
+      </c>
+      <c r="D18" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E18" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F18" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>android工程师(J10082)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C19" t="str">
+        <v>天星教育</v>
+      </c>
+      <c r="D19" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E19" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F19" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>android底层开发工程师</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B20" t="str">
         <v>8千-1.5万</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C20" t="str">
         <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D20" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E18" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F18" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B19" t="str" xml:space="preserve">
+      <c r="E20" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F20" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
         <v xml:space="preserve">6千-1万
           · 14薪</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C21" t="str">
         <v>郑州创亿达照明有限公司</v>
       </c>
-      <c r="D19" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E19" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F19" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B20" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C20" t="str">
-        <v>河南省日立信股份有限公司</v>
-      </c>
-      <c r="D20" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E20" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F20" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B21" t="str">
-        <v>7千-9千</v>
-      </c>
-      <c r="C21" t="str">
-        <v>河南沃柑科技服务有限公司</v>
-      </c>
       <c r="D21" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
         <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -869,16 +869,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C22" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
@@ -912,22 +912,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1.5万-2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C24" t="str">
-        <v>刀锋互娱</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -935,22 +935,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B25" t="str">
-        <v>7千-1.1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C25" t="str">
-        <v>昂普科技</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -958,16 +958,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>7千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C26" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -984,19 +984,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C28" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B30" t="str">
-        <v>6千-1.2万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
@@ -1076,13 +1076,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C31" t="str">
-        <v>牧原股份</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
         <v>3-5年</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C32" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E32" t="str">
         <v>3-5年</v>
@@ -1119,22 +1119,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>7千-1.1万</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1145,19 +1145,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>9千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C34" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E34" t="str">
         <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1171,10 +1171,10 @@
         <v>1万-1.5万</v>
       </c>
       <c r="C35" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
@@ -1188,22 +1188,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C36" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1214,13 +1214,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
@@ -1234,19 +1234,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>9千-1.6万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E38" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
         <v>大专</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
@@ -1280,22 +1280,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B40" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C40" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D40" t="str">
         <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F40" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
@@ -1326,22 +1326,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android开发工程师高级</v>
+        <v>android</v>
       </c>
       <c r="B42" t="str">
-        <v>8千-1万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C42" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F42" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C43" t="str">
-        <v>优路教育</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
@@ -1375,13 +1375,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C44" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E44" t="str">
         <v>1-3年</v>
@@ -1395,22 +1395,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B45" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C45" t="str">
-        <v>新天科技</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F45" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1418,22 +1418,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C46" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1444,10 +1444,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>7千-1.4万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C47" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android高级开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B48" t="str">
         <v>8千-1.6万</v>
       </c>
       <c r="C48" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D48" t="str">
         <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F48" t="str">
         <v>本科</v>
@@ -1487,22 +1487,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B49" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1510,22 +1510,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C50" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>高级android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
@@ -1556,19 +1556,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>1.3万-1.8万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C52" t="str">
-        <v>捷安高科</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
@@ -1582,19 +1582,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>7千-1.1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C53" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E53" t="str">
         <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1605,19 +1605,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C54" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E54" t="str">
         <v>1-3年</v>
       </c>
       <c r="F54" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1625,22 +1625,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B55" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C55" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1648,19 +1648,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
       </c>
       <c r="E56" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F56" t="str">
         <v>本科</v>
@@ -1671,22 +1671,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>中级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
         <v>7千-1.1万</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1697,16 +1697,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
         <v>大专</v>
@@ -1720,16 +1720,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8千-1.3万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
         <v>本科</v>
@@ -1743,16 +1743,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>1万-2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C60" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1766,19 +1766,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>5千-7千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1786,22 +1786,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>1万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C62" t="str">
-        <v>新商育科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E62" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1812,19 +1812,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C63" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android应用开发工程师</v>
+        <v>安卓android工程师—五险、双休、带薪年假~</v>
       </c>
       <c r="B64" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C64" t="str">
-        <v>天迈科技</v>
+        <v>新商育科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1855,19 +1855,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C65" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E65" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C66" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B67" t="str">
-        <v>6千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C67" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>大专</v>
@@ -1924,19 +1924,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C68" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1947,22 +1947,22 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B69" t="str">
-        <v>1万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C69" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1970,22 +1970,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C70" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1993,19 +1993,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
@@ -2016,22 +2016,22 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师7-10k</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B72" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -2039,22 +2039,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B73" t="str">
-        <v>7千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C74" t="str">
-        <v>浪潮集团</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
         <v>大专</v>
@@ -2085,22 +2085,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2108,13 +2108,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>7千-9千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C76" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D76" t="str">
         <v>郑州</v>
@@ -2123,7 +2123,7 @@
         <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2134,19 +2134,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>1万-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C77" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C78" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
@@ -2180,13 +2180,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C79" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E79" t="str">
         <v>3-5年</v>
@@ -2200,22 +2200,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B80" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C80" t="str">
-        <v>屹通信息</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C81" t="str">
-        <v>八六三软件</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E81" t="str">
         <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2246,19 +2246,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B82" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C82" t="str">
-        <v>科大讯飞</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F82" t="str">
         <v>本科</v>
@@ -2269,19 +2269,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C83" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
         <v>大专</v>
@@ -2292,22 +2292,22 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>5千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C84" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F84" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -2315,22 +2315,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B85" t="str">
-        <v>4千-6千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C85" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2338,22 +2338,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>资深android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B86" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C86" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2364,19 +2364,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C87" t="str">
-        <v>南京迈特望</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E87" t="str">
         <v>3-5年</v>
       </c>
       <c r="F87" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -2384,22 +2384,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android开发</v>
       </c>
       <c r="B88" t="str">
-        <v>6千-9千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C88" t="str">
-        <v>东方国信</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2407,22 +2407,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>4千-6千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
         <v>大专</v>
@@ -2453,22 +2453,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C91" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F91" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2479,13 +2479,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B93" t="str">
         <v>5千-8千</v>
@@ -2508,7 +2508,7 @@
         <v>八六三软件</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
         <v>1-3年</v>
@@ -2525,16 +2525,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C94" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F94" t="str">
         <v>大专</v>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B95" t="str">
         <v>5千-1万</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州闪创网络科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2568,19 +2568,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B96" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州科瑞思拓软件科技有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-经开区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E96" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
         <v>本科</v>
@@ -2591,22 +2591,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E97" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2617,16 +2617,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
         <v>大专</v>
@@ -2640,16 +2640,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F99" t="str">
         <v>大专</v>
@@ -2660,22 +2660,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C100" t="str">
-        <v>八六三软件</v>
+        <v>智信安装集团有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F100" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2683,22 +2683,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C101" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2706,22 +2706,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B102" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F102" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2732,10 +2732,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>9千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C103" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2752,45 +2752,46 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android 开发</v>
       </c>
       <c r="B104" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C104" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E104" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G104" t="str">
         <v/>
       </c>
     </row>
-    <row r="105">
+    <row r="105" xml:space="preserve">
       <c r="A105" t="str">
-        <v>android/安卓技术主管</v>
-      </c>
-      <c r="B105" t="str">
-        <v>1.2万-1.5万</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B105" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
       </c>
       <c r="C105" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E105" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2801,16 +2802,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>7千-9千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C106" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F106" t="str">
         <v>大专</v>
@@ -2824,19 +2825,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>1万-1.8万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C107" t="str">
-        <v>智信安装集团有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E107" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2847,19 +2848,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C108" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2870,10 +2871,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C109" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
@@ -2882,7 +2883,7 @@
         <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2896,13 +2897,13 @@
         <v>6千-8千</v>
       </c>
       <c r="C110" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E110" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F110" t="str">
         <v>本科</v>
@@ -2916,16 +2917,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>5千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C111" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
         <v>大专</v>
@@ -2936,19 +2937,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B112" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C112" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2959,19 +2960,19 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>7千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C113" t="str">
-        <v>UU跑腿</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
       </c>
       <c r="E113" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
         <v>本科</v>
@@ -2980,22 +2981,21 @@
         <v/>
       </c>
     </row>
-    <row r="114" xml:space="preserve">
+    <row r="114">
       <c r="A114" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B114" t="str" xml:space="preserve">
-        <v xml:space="preserve">7千-8千
-          · 13薪</v>
+        <v>android开发工程师</v>
+      </c>
+      <c r="B114" t="str">
+        <v>6千-8千</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州百易科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F114" t="str">
         <v>大专</v>
@@ -3009,19 +3009,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C115" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
         <v>1-3年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3032,13 +3032,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>4千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C116" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E116" t="str">
         <v>1-3年</v>
@@ -3052,19 +3052,19 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C117" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F117" t="str">
         <v>本科</v>
@@ -3081,7 +3081,7 @@
         <v>6千-1万</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
@@ -3098,19 +3098,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android开发工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B119" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C119" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F119" t="str">
         <v>大专</v>
@@ -3124,16 +3124,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>4千-6千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C120" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
         <v>大专</v>
@@ -3144,22 +3144,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C121" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3167,22 +3167,22 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android开发工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B122" t="str">
-        <v>6千-1.2万</v>
+        <v>4千-7千</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E122" t="str">
         <v>1-3年</v>
       </c>
       <c r="F122" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3190,22 +3190,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android前端开发</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>4千-7千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F123" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3213,22 +3213,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android软件工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E124" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C125" t="str">
-        <v>天迈科技</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C128" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C129" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
@@ -3354,16 +3354,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>8千-1万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C130" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F130" t="str">
         <v>本科</v>
@@ -3377,19 +3377,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E131" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3400,19 +3400,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C132" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B133" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C133" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3492,16 +3492,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F136" t="str">
         <v>本科</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>安桌app开发员</v>
       </c>
       <c r="B138" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C138" t="str">
-        <v>易宝软件</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F138" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3558,13 +3558,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C139" t="str">
-        <v>贝博电子</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
@@ -3573,7 +3573,7 @@
         <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3581,22 +3581,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>安桌app开发员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B140" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C140" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3604,22 +3604,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>flutter开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C141" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D141" t="str">
         <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3627,22 +3627,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>安卓开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C142" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3650,22 +3650,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>8千-1万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F143" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3673,19 +3673,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E144" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
@@ -3696,19 +3696,19 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>9千-1.8万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C145" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E145" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F145" t="str">
         <v>大专</v>
@@ -3742,66 +3742,66 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C147" t="str">
-        <v>万邦国际集团</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G147" t="str">
         <v/>
       </c>
     </row>
-    <row r="148" xml:space="preserve">
+    <row r="148">
       <c r="A148" t="str">
+        <v>安卓软件开发工程师</v>
+      </c>
+      <c r="B148" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C148" t="str">
+        <v>河南国都时代科技有限公司</v>
+      </c>
+      <c r="D148" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E148" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F148" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B148" t="str" xml:space="preserve">
+      <c r="B149" t="str" xml:space="preserve">
         <v xml:space="preserve">9千-1.6万
           · 13薪</v>
       </c>
-      <c r="C148" t="str">
+      <c r="C149" t="str">
         <v>南京北路智控科技股份有限公司</v>
       </c>
-      <c r="D148" t="str">
+      <c r="D149" t="str">
         <v>郑州-管城回族区</v>
       </c>
-      <c r="E148" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F148" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G148" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>资深andriod开发工程师</v>
-      </c>
-      <c r="B149" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C149" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D149" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E149" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
         <v>本科</v>
@@ -3812,19 +3812,19 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>资深andriod开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C150" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F150" t="str">
         <v>本科</v>
@@ -3835,22 +3835,22 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6千-8千</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C151" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -3881,22 +3881,22 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>高级Linux工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C153" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3904,16 +3904,16 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C154" t="str">
-        <v>河南思维列控</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E154" t="str">
         <v>3-5年</v>
@@ -3927,19 +3927,19 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C155" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F155" t="str">
         <v>大专</v>
@@ -3950,22 +3950,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C156" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
         <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3973,16 +3973,16 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>Andriod开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C157" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州原力能源科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E157" t="str">
         <v>3-5年</v>
@@ -3996,22 +3996,22 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B158" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C158" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E158" t="str">
         <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -4019,22 +4019,22 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B159" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C159" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G159" t="str">
         <v/>
@@ -4042,19 +4042,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>安卓研发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C160" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E160" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F160" t="str">
         <v>大专</v>
@@ -4065,22 +4065,22 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>逆向研发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B161" t="str">
-        <v>1万-2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C161" t="str">
-        <v>云库科技</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E161" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F161" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G161" t="str">
         <v/>
@@ -4134,19 +4134,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>安卓开发工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B164" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C164" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
         <v>本科</v>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C165" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4180,13 +4180,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Java开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>5千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C166" t="str">
-        <v>河南艺树文化创意有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D166" t="str">
         <v>郑州</v>
@@ -4195,7 +4195,7 @@
         <v>1-3年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>逆向工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C167" t="str">
-        <v>云库科技</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4249,13 +4249,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B169" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C169" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D169" t="str">
         <v>郑州</v>
@@ -4272,19 +4272,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C170" t="str">
-        <v>超图软件</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
         <v>本科</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>APP开发工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C171" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F171" t="str">
         <v>本科</v>
@@ -4318,19 +4318,19 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B172" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C172" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F172" t="str">
         <v>本科</v>
@@ -4341,13 +4341,13 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B173" t="str">
         <v>5千-1万</v>
       </c>
       <c r="C173" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D173" t="str">
         <v>郑州</v>
@@ -4356,7 +4356,7 @@
         <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -4364,19 +4364,19 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C174" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
         <v>大专</v>
@@ -4387,13 +4387,13 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C175" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D175" t="str">
         <v>郑州</v>
@@ -4402,7 +4402,7 @@
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>安卓工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B176" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C176" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南建祥装饰工程有限公司</v>
       </c>
       <c r="D176" t="str">
         <v>郑州</v>
@@ -4425,107 +4425,15 @@
         <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G176" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B177" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C177" t="str">
-        <v>天一文化</v>
-      </c>
-      <c r="D177" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E177" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F177" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G177" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>集团总部-开发工程师（移动端）</v>
-      </c>
-      <c r="B178" t="str">
-        <v>1.5万-2.5万</v>
-      </c>
-      <c r="C178" t="str">
-        <v>东方今典集团有限公司</v>
-      </c>
-      <c r="D178" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E178" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F178" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G178" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B179" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C179" t="str">
-        <v>河南建祥装饰工程有限公司</v>
-      </c>
-      <c r="D179" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E179" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F179" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G179" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>科技公司-移动端开发经理</v>
-      </c>
-      <c r="B180" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C180" t="str">
-        <v>东方今典集团有限公司</v>
-      </c>
-      <c r="D180" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E180" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F180" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G180" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G180"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G176"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Andorid开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C3" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -454,7 +454,7 @@
         <v>android工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C4" t="str">
         <v>河南省吉立达机器人有限公司</v>
@@ -474,16 +474,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
         <v>1-3年</v>
@@ -497,19 +497,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
         <v>大专</v>
@@ -520,19 +520,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B7" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E7" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
         <v>本科</v>
@@ -546,16 +546,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>郑州乙丙丁软件科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F8" t="str">
         <v>大专</v>
@@ -566,19 +566,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C9" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F9" t="str">
         <v>本科</v>
@@ -589,22 +589,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C10" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -612,19 +612,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C11" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
         <v>大专</v>
@@ -638,13 +638,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>5千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C12" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
         <v>1-3年</v>
@@ -658,22 +658,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C13" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E13" t="str">
         <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -681,16 +681,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>硕诺科技</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
         <v>3-5年</v>
@@ -707,16 +707,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
         <v>本科</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>6千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C16" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -753,19 +753,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -776,10 +776,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
@@ -796,22 +796,22 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C19" t="str">
-        <v>天星教育</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -819,16 +819,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android底层开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C20" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E20" t="str">
         <v>3-5年</v>
@@ -840,200 +840,200 @@
         <v/>
       </c>
     </row>
-    <row r="21" xml:space="preserve">
+    <row r="21">
       <c r="A21" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B21" t="str" xml:space="preserve">
+      <c r="B21" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C21" t="str">
+        <v>河南惟客信息科技有限公司</v>
+      </c>
+      <c r="D21" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F21" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>android软件开发工程师</v>
+      </c>
+      <c r="B22" t="str">
+        <v>7千-1.1万</v>
+      </c>
+      <c r="C22" t="str">
+        <v>昂普科技</v>
+      </c>
+      <c r="D22" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E22" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F22" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B23" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C23" t="str">
+        <v>河南善水左岸商贸有限公司</v>
+      </c>
+      <c r="D23" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F23" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>android app工程师</v>
+      </c>
+      <c r="B24" t="str">
+        <v>5千-7千</v>
+      </c>
+      <c r="C24" t="str">
+        <v>郑州万迪来电子技术有限公司</v>
+      </c>
+      <c r="D24" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F24" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>移动端开发（android）</v>
+      </c>
+      <c r="B25" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C25" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D25" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F25" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>android/安卓技术主管</v>
+      </c>
+      <c r="B26" t="str">
+        <v>1.2万-1.5万</v>
+      </c>
+      <c r="C26" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D26" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E26" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F26" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>android工程师(J10082)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C27" t="str">
+        <v>天星教育</v>
+      </c>
+      <c r="D27" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E27" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F27" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>高级android开发工程师</v>
+      </c>
+      <c r="B28" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C28" t="str">
+        <v>刀锋互娱</v>
+      </c>
+      <c r="D28" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E28" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F28" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
         <v xml:space="preserve">6千-1万
           · 14薪</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C29" t="str">
         <v>郑州创亿达照明有限公司</v>
-      </c>
-      <c r="D21" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E21" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F21" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B22" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C22" t="str">
-        <v>河南省日立信股份有限公司</v>
-      </c>
-      <c r="D22" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E22" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F22" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B23" t="str">
-        <v>7千-1.3万</v>
-      </c>
-      <c r="C23" t="str">
-        <v>河南宝蓝实业有限公司</v>
-      </c>
-      <c r="D23" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E23" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F23" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B24" t="str">
-        <v>5千-7千</v>
-      </c>
-      <c r="C24" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
-      </c>
-      <c r="D24" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E24" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F24" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>android开发工程师（高薪+五险）</v>
-      </c>
-      <c r="B25" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C25" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D25" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E25" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F25" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>android软件开发工程师</v>
-      </c>
-      <c r="B26" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C26" t="str">
-        <v>昂普科技</v>
-      </c>
-      <c r="D26" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E26" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F26" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B27" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C27" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
-      </c>
-      <c r="D27" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E27" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F27" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B28" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C28" t="str">
-        <v>河南惟客信息科技有限公司</v>
-      </c>
-      <c r="D28" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E28" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F28" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>android app工程师</v>
-      </c>
-      <c r="B29" t="str">
-        <v>5千-7千</v>
-      </c>
-      <c r="C29" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B30" t="str">
-        <v>1.2万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C30" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D30" t="str">
         <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F30" t="str">
         <v>本科</v>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B31" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C31" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E31" t="str">
         <v>3-5年</v>
       </c>
       <c r="F31" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C32" t="str">
-        <v>刀锋互娱</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州-中原区</v>
@@ -1111,7 +1111,7 @@
         <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1.3万-1.8万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C33" t="str">
-        <v>捷安高科</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F33" t="str">
         <v>本科</v>
@@ -1191,13 +1191,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
@@ -1214,13 +1214,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
@@ -1237,13 +1237,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>9千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C38" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
@@ -1260,19 +1260,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>北京标软信息技术有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E39" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1280,22 +1280,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C40" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E40" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1326,22 +1326,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>9千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1349,22 +1349,22 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F43" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1372,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C44" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1395,22 +1395,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1418,19 +1418,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>8千-1万</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C46" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F46" t="str">
         <v>本科</v>
@@ -1444,19 +1444,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>9千-1.3万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C47" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1464,22 +1464,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>8千-1.6万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C48" t="str">
-        <v>优路教育</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E48" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1487,22 +1487,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C49" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1513,19 +1513,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C50" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B52" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C53" t="str">
-        <v>新天科技</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F53" t="str">
         <v>本科</v>
@@ -1605,19 +1605,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E54" t="str">
         <v>1-3年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B55" t="str">
-        <v>1万-1.6万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C55" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
         <v>3-5年</v>
@@ -1648,19 +1648,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B56" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C56" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E56" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F56" t="str">
         <v>本科</v>
@@ -1674,19 +1674,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>7千-1.1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C57" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E57" t="str">
         <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1694,22 +1694,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C58" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1717,19 +1717,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
         <v>本科</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B61" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E61" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1789,16 +1789,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C62" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1812,16 +1812,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>1万-2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C63" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>本科</v>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>安卓android工程师—五险、双休、带薪年假~</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>1万-2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C64" t="str">
-        <v>新商育科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E64" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1855,22 +1855,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B65" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C65" t="str">
-        <v>天迈科技</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B66" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E66" t="str">
         <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1901,22 +1901,22 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B67" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C67" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F67" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B68" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C68" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D68" t="str">
         <v>郑州</v>
@@ -1939,7 +1939,7 @@
         <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1947,19 +1947,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C69" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E69" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F69" t="str">
         <v>本科</v>
@@ -1973,13 +1973,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>1万-2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C70" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E70" t="str">
         <v>3-5年</v>
@@ -1993,16 +1993,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C71" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E71" t="str">
         <v>1-3年</v>
@@ -2016,16 +2016,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师7-10k</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
@@ -2065,16 +2065,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>7千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
         <v>大专</v>
@@ -2088,19 +2088,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>1万-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C75" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2108,22 +2108,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B76" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C76" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F76" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2134,19 +2134,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2157,19 +2157,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C78" t="str">
-        <v>屹通信息</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B79" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C79" t="str">
-        <v>八六三软件</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
         <v>3-5年</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android程序员</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
@@ -2215,7 +2215,7 @@
         <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C81" t="str">
-        <v>科大讯飞</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2246,13 +2246,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>5千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C82" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
@@ -2272,19 +2272,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>4千-6千</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C83" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2295,16 +2295,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C84" t="str">
-        <v>南京迈特望</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
         <v>大专</v>
@@ -2315,22 +2315,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6千-9千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C85" t="str">
-        <v>东方国信</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2338,19 +2338,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C86" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2364,13 +2364,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
         <v>3-5年</v>
@@ -2384,19 +2384,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F88" t="str">
         <v>大专</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D89" t="str">
         <v>郑州</v>
@@ -2430,22 +2430,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C90" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E90" t="str">
         <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2453,22 +2453,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E91" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2479,16 +2479,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C92" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>智信安装集团有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F92" t="str">
         <v>大专</v>
@@ -2499,22 +2499,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>5千-8千</v>
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C93" t="str">
-        <v>八六三软件</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F93" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2522,22 +2522,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C94" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D94" t="str">
         <v>郑州-管城回族区</v>
       </c>
       <c r="E94" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>5千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州闪创网络科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2568,22 +2568,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B96" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E96" t="str">
         <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2594,16 +2594,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>5千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D97" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F97" t="str">
         <v>大专</v>
@@ -2617,19 +2617,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C98" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2640,10 +2640,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C99" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州</v>
@@ -2652,7 +2652,7 @@
         <v>3-5年</v>
       </c>
       <c r="F99" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2663,19 +2663,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>1万-1.8万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C100" t="str">
-        <v>智信安装集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E100" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2683,22 +2683,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android系统固件工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2706,45 +2706,46 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C102" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E102" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G102" t="str">
         <v/>
       </c>
     </row>
-    <row r="103">
+    <row r="103" xml:space="preserve">
       <c r="A103" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B103" t="str">
-        <v>1万-1.5万</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B103" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
       </c>
       <c r="C103" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E103" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2752,46 +2753,45 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C104" t="str">
-        <v>浪潮集团</v>
+        <v>屹通信息</v>
       </c>
       <c r="D104" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E104" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F104" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B105" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C105" t="str">
+        <v>北京杰山科技有限公司</v>
+      </c>
+      <c r="D105" t="str">
         <v>郑州-高新区</v>
       </c>
-      <c r="E104" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F104" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="105" xml:space="preserve">
-      <c r="A105" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B105" t="str" xml:space="preserve">
-        <v xml:space="preserve">7千-8千
-          · 13薪</v>
-      </c>
-      <c r="C105" t="str">
-        <v>郑州百易科技有限公司</v>
-      </c>
-      <c r="D105" t="str">
-        <v>郑州-金水区</v>
-      </c>
       <c r="E105" t="str">
         <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2799,22 +2799,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B106" t="str">
-        <v>5千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C106" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F106" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2822,22 +2822,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师7-10k</v>
       </c>
       <c r="B107" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C107" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>郑州悦之喜企业管理咨询有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2848,10 +2848,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>7千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C108" t="str">
-        <v>UU跑腿</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
@@ -2860,7 +2860,7 @@
         <v>1-3年</v>
       </c>
       <c r="F108" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2868,22 +2868,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B109" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
         <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2894,13 +2894,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C110" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
         <v>1-3年</v>
@@ -2917,13 +2917,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>4千-6千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C111" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
         <v>1-3年</v>
@@ -2937,19 +2937,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C112" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2960,13 +2960,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
@@ -2975,7 +2975,7 @@
         <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2983,22 +2983,22 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D114" t="str">
         <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -3009,19 +3009,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C115" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E115" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3032,19 +3032,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C116" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E116" t="str">
         <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3055,19 +3055,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>5千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C117" t="str">
-        <v>八六三软件</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
         <v>1-3年</v>
       </c>
       <c r="F117" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3075,19 +3075,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B118" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C118" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
         <v>大专</v>
@@ -3098,22 +3098,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C119" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3121,22 +3121,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B120" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C120" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D120" t="str">
         <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F120" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3144,22 +3144,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B121" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C121" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D121" t="str">
         <v>郑州</v>
       </c>
       <c r="E121" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3167,16 +3167,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android前端开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>4千-7千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C122" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E122" t="str">
         <v>1-3年</v>
@@ -3190,22 +3190,22 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android软件工程师</v>
+        <v>android-郑州-京东</v>
       </c>
       <c r="B123" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C123" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>软通动力信息技术(集团)股份有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F123" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3213,22 +3213,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C124" t="str">
-        <v>天迈科技</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F124" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android开发工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B125" t="str">
-        <v>6千-1万</v>
+        <v>4千-7千</v>
       </c>
       <c r="C125" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3259,19 +3259,19 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B127" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C127" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
@@ -3297,7 +3297,7 @@
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C128" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F128" t="str">
         <v>本科</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州</v>
@@ -3343,7 +3343,7 @@
         <v>3-5年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3354,16 +3354,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C130" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
         <v>本科</v>
@@ -3377,19 +3377,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C131" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3400,16 +3400,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>8千-1万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C132" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F132" t="str">
         <v>本科</v>
@@ -3420,13 +3420,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android开发</v>
       </c>
       <c r="B133" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C133" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
@@ -3443,19 +3443,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>android软件开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C134" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>天迈科技</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
         <v>本科</v>
@@ -3472,16 +3472,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C135" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F135" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C136" t="str">
-        <v>易宝软件</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
@@ -3512,22 +3512,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C137" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F137" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安桌app开发员</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B138" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C138" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F138" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3561,19 +3561,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
       </c>
       <c r="E139" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3581,19 +3581,19 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>安卓开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B140" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C140" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D140" t="str">
         <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F140" t="str">
         <v>本科</v>
@@ -3604,22 +3604,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C141" t="str">
-        <v>贝博电子</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3627,19 +3627,19 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>flutter开发工程师</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C142" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
         <v>大专</v>
@@ -3650,19 +3650,19 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
         <v>本科</v>
@@ -3673,22 +3673,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>安卓开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C144" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3696,16 +3696,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C145" t="str">
-        <v>万邦国际集团</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
@@ -3719,19 +3719,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>1.3万-2.5万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C146" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D146" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3742,19 +3742,19 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>本科</v>
@@ -3765,138 +3765,138 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
+        <v>andriod开发工程师（可兼职）</v>
+      </c>
+      <c r="B148" t="str">
+        <v>1.3万-2.5万</v>
+      </c>
+      <c r="C148" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D148" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E148" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F148" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>andorid开发工程师</v>
+      </c>
+      <c r="B149" t="str">
+        <v>5千-9千</v>
+      </c>
+      <c r="C149" t="str">
+        <v>北京慧联无限信息技术有限公司</v>
+      </c>
+      <c r="D149" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E149" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F149" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B150" t="str">
+        <v>9千-1.8万</v>
+      </c>
+      <c r="C150" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D150" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E150" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F150" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>资深andriod开发工程师</v>
+      </c>
+      <c r="B151" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C151" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D151" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E151" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F151" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
         <v>安卓软件开发工程师</v>
       </c>
-      <c r="B148" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C148" t="str">
-        <v>河南国都时代科技有限公司</v>
-      </c>
-      <c r="D148" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E148" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F148" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G148" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="149" xml:space="preserve">
-      <c r="A149" t="str">
+      <c r="B152" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C152" t="str">
+        <v>郑州远洋电子科技有限公司</v>
+      </c>
+      <c r="D152" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E152" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F152" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B149" t="str" xml:space="preserve">
+      <c r="B153" t="str" xml:space="preserve">
         <v xml:space="preserve">9千-1.6万
           · 13薪</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C153" t="str">
         <v>南京北路智控科技股份有限公司</v>
       </c>
-      <c r="D149" t="str">
+      <c r="D153" t="str">
         <v>郑州-管城回族区</v>
       </c>
-      <c r="E149" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F149" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G149" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>资深andriod开发工程师</v>
-      </c>
-      <c r="B150" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C150" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D150" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E150" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F150" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G150" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B151" t="str">
-        <v>9千-1.8万</v>
-      </c>
-      <c r="C151" t="str">
-        <v>河南趣思得网络科技有限公司</v>
-      </c>
-      <c r="D151" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E151" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F151" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G151" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B152" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C152" t="str">
-        <v>云涌科技</v>
-      </c>
-      <c r="D152" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E152" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F152" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G152" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B153" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C153" t="str">
-        <v>河南知途游道信息科技有限公司</v>
-      </c>
-      <c r="D153" t="str">
-        <v>郑州</v>
-      </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3904,22 +3904,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>高级Linux工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C154" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3927,13 +3927,13 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>安卓研发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>6千-8千</v>
+        <v>4千-5千</v>
       </c>
       <c r="C155" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>河南德克电子科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
@@ -3950,13 +3950,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C156" t="str">
-        <v>河南思维列控</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
@@ -3965,7 +3965,7 @@
         <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3973,22 +3973,22 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andriod开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州原力能源科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D157" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F157" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -4019,19 +4019,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C159" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
         <v>大专</v>
@@ -4042,22 +4042,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>逆向工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>1万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C160" t="str">
-        <v>云库科技</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -4065,19 +4065,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E161" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
         <v>本科</v>
@@ -4088,22 +4088,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>5千-7千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C162" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>安卓工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B163" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C163" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E163" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F163" t="str">
         <v>本科</v>
@@ -4134,19 +4134,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>程序员开发</v>
       </c>
       <c r="B164" t="str">
-        <v>1.5万-2.5万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C164" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E164" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
         <v>本科</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>逆向研发工程师</v>
+        <v>资深andriod开发工程师-浏览器方向</v>
       </c>
       <c r="B165" t="str">
-        <v>1万-2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C165" t="str">
-        <v>云库科技</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F165" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B166" t="str">
-        <v>8千-1万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C166" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D166" t="str">
         <v>郑州</v>
       </c>
       <c r="E166" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D168" t="str">
         <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
-        <v>硕士</v>
+        <v>本科</v>
       </c>
       <c r="G168" t="str">
         <v/>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>5千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C169" t="str">
-        <v>超图软件</v>
+        <v>云库科技</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F169" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C170" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E170" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G170" t="str">
         <v/>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>6千-8千</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C171" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D171" t="str">
         <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F171" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G171" t="str">
         <v/>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B172" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C172" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D172" t="str">
         <v>郑州</v>
       </c>
       <c r="E172" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F172" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4344,10 +4344,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D173" t="str">
         <v>郑州</v>
@@ -4356,7 +4356,7 @@
         <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -4364,16 +4364,16 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>安卓工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C174" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E174" t="str">
         <v>3-5年</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>安卓开发工程师</v>
+        <v>资深andriod开发工程师-清理安全方向</v>
       </c>
       <c r="B175" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C175" t="str">
-        <v>天一文化</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D175" t="str">
         <v>郑州</v>
       </c>
       <c r="E175" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F175" t="str">
-        <v>本科</v>
+        <v>硕士</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4410,30 +4410,214 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
+        <v>安卓开发工程师5K-1W</v>
+      </c>
+      <c r="B176" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C176" t="str">
+        <v>河南格瑞恩电子科技有限公司</v>
+      </c>
+      <c r="D176" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E176" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F176" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B177" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C177" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D177" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E177" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F177" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B178" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C178" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D178" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E178" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F178" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+      </c>
+      <c r="B179" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C179" t="str">
+        <v>超图软件</v>
+      </c>
+      <c r="D179" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E179" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F179" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B180" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C180" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D180" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E180" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F180" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>unity开发工程师</v>
+      </c>
+      <c r="B181" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C181" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D181" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E181" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F181" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B182" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C182" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D182" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E182" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F182" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>手机软件开发工程师</v>
+      </c>
+      <c r="B183" t="str">
+        <v>5.5千-7千</v>
+      </c>
+      <c r="C183" t="str">
+        <v>河南易众拍卖行有限公司</v>
+      </c>
+      <c r="D183" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E183" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F183" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B184" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C184" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D176" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E176" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F176" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G176" t="str">
+      <c r="D184" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E184" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F184" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G184" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G176"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G184"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -428,19 +428,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android应用开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C3" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E3" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F3" t="str">
         <v>本科</v>
@@ -451,22 +451,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android工程师</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C4" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,19 +474,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>安卓android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D5" t="str">
         <v>郑州</v>
       </c>
       <c r="E5" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
         <v>大专</v>
@@ -497,22 +497,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C6" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -520,22 +520,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C7" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -569,19 +569,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
         <v>1-3年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,22 +589,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android开发工程师</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B10" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C10" t="str">
-        <v>硕诺科技</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -638,19 +638,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C12" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,16 +658,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
         <v>1-3年</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D14" t="str">
         <v>郑州</v>
@@ -696,7 +696,7 @@
         <v>3-5年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -707,19 +707,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>7千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C15" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -750,19 +750,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
         <v>本科</v>
@@ -773,19 +773,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B18" t="str">
-        <v>1万-1.5万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
         <v>本科</v>
@@ -796,16 +796,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>7千-1.3万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E19" t="str">
         <v>3-5年</v>
@@ -819,19 +819,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C20" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F20" t="str">
         <v>本科</v>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C21" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -865,16 +865,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android软件开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C22" t="str">
-        <v>昂普科技</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E22" t="str">
         <v>3-5年</v>
@@ -894,16 +894,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C23" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -911,13 +911,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android app工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
         <v>5千-7千</v>
       </c>
       <c r="C24" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D24" t="str">
         <v>郑州</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C25" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E25" t="str">
         <v>1-3年</v>
@@ -957,19 +957,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>1.2万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C26" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E26" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
         <v>本科</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B27" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C27" t="str">
-        <v>天星教育</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F27" t="str">
         <v>本科</v>
@@ -1003,19 +1003,19 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>刀锋互娱</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
         <v>大专</v>
@@ -1024,71 +1024,71 @@
         <v/>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
+    <row r="29">
       <c r="A29" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B29" t="str" xml:space="preserve">
+        <v>移动端开发（android）</v>
+      </c>
+      <c r="B29" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C29" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D29" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F29" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>android工程师(J10082)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C30" t="str">
+        <v>天星教育</v>
+      </c>
+      <c r="D30" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E30" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F30" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
         <v xml:space="preserve">6千-1万
           · 14薪</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C31" t="str">
         <v>郑州创亿达照明有限公司</v>
       </c>
-      <c r="D29" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E29" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F29" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>android开发工程师（五险一金）</v>
-      </c>
-      <c r="B30" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C30" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
-      </c>
-      <c r="D30" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E30" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F30" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>android开发工程师（高薪+五险）</v>
-      </c>
-      <c r="B31" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C31" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
       <c r="D31" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1096,22 +1096,22 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B32" t="str">
-        <v>7千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C32" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E32" t="str">
         <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1122,16 +1122,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>5千-7千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E33" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F33" t="str">
         <v>本科</v>
@@ -1145,19 +1145,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C34" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E34" t="str">
         <v>3-5年</v>
       </c>
       <c r="F34" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1165,22 +1165,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B35" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C35" t="str">
-        <v>牧原股份</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>3-5年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1191,13 +1191,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>9千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D36" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E36" t="str">
         <v>3-5年</v>
@@ -1214,10 +1214,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1237,19 +1237,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C38" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D38" t="str">
         <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B39" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C39" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F39" t="str">
         <v>大专</v>
@@ -1283,16 +1283,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C40" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
         <v>大专</v>
@@ -1306,19 +1306,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C41" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C42" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F42" t="str">
         <v>本科</v>
@@ -1349,19 +1349,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>9千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E43" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
         <v>大专</v>
@@ -1372,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C44" t="str">
-        <v>优路教育</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1398,19 +1398,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E45" t="str">
         <v>5-10年</v>
       </c>
       <c r="F45" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1418,22 +1418,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1.3万-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C46" t="str">
-        <v>捷安高科</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E46" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F46" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1444,19 +1444,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>1万-1.6万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1464,22 +1464,22 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C48" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1490,19 +1490,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>5千-8千</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1510,19 +1510,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>9千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C50" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F50" t="str">
         <v>本科</v>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1556,19 +1556,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
@@ -1579,22 +1579,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C53" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E53" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1605,16 +1605,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
         <v>本科</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州-中原区</v>
@@ -1671,19 +1671,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B57" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C57" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
         <v>本科</v>
@@ -1694,22 +1694,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C58" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E58" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
@@ -1732,7 +1732,7 @@
         <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1743,16 +1743,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>1万-1.6万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C61" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
         <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B62" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C62" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1812,19 +1812,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C63" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F63" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C64" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C65" t="str">
         <v>梦之源科技集团有限公司</v>
@@ -1870,7 +1870,7 @@
         <v>3-5年</v>
       </c>
       <c r="F65" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>8千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E66" t="str">
         <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E67" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
         <v>本科</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C68" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D68" t="str">
         <v>郑州</v>
@@ -1950,13 +1950,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>1万-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C69" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
@@ -1970,22 +1970,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B70" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C70" t="str">
-        <v>南京迈特望</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
         <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1996,10 +1996,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>4千-6千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州-金水区</v>
@@ -2016,16 +2016,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C72" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
@@ -2042,19 +2042,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C73" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E73" t="str">
         <v>3-5年</v>
       </c>
       <c r="F73" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2065,16 +2065,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>6千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
         <v>大专</v>
@@ -2085,22 +2085,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C75" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2108,22 +2108,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B76" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E76" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B77" t="str">
-        <v>1万-2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C77" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2157,13 +2157,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E78" t="str">
         <v>3-5年</v>
@@ -2177,22 +2177,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B79" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C79" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D79" t="str">
         <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2200,16 +2200,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C80" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
@@ -2229,16 +2229,16 @@
         <v>6千-8千</v>
       </c>
       <c r="C81" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
         <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2246,13 +2246,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C82" t="str">
-        <v>新天科技</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D82" t="str">
         <v>郑州</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B83" t="str">
-        <v>7千-1.4万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C83" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2284,7 +2284,7 @@
         <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2292,16 +2292,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C84" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
         <v>1-3年</v>
@@ -2318,13 +2318,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>5千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C85" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E85" t="str">
         <v>1-3年</v>
@@ -2341,13 +2341,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C86" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E86" t="str">
         <v>3-5年</v>
@@ -2364,16 +2364,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2384,22 +2384,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B88" t="str">
-        <v>8千-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C88" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
         <v>5-10年</v>
       </c>
       <c r="F88" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2407,22 +2407,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B89" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2430,22 +2430,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C90" t="str">
-        <v>天迈科技</v>
+        <v>八六三软件</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E90" t="str">
         <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2453,22 +2453,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C91" t="str">
-        <v>浪潮集团</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2476,22 +2476,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B92" t="str">
-        <v>1万-1.8万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>智信安装集团有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2499,22 +2499,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>2.5万-3.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C93" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2522,22 +2522,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C94" t="str">
-        <v>科大讯飞</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>5千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C95" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2560,7 +2560,7 @@
         <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2568,22 +2568,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C96" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E96" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2594,13 +2594,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>1万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
         <v>3-5年</v>
@@ -2614,22 +2614,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B98" t="str">
-        <v>8千-1.3万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C98" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F98" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2640,10 +2640,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C99" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州</v>
@@ -2652,7 +2652,7 @@
         <v>3-5年</v>
       </c>
       <c r="F99" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2660,22 +2660,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B100" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
         <v>3-5年</v>
       </c>
       <c r="F100" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2683,19 +2683,19 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B101" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
         <v>大专</v>
@@ -2706,474 +2706,474 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B102" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C102" t="str">
+        <v>郑州清森科技有限公司</v>
+      </c>
+      <c r="D102" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E102" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F102" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>android app工程师</v>
+      </c>
+      <c r="B103" t="str">
+        <v>5千-7千</v>
+      </c>
+      <c r="C103" t="str">
+        <v>郑州万迪来电子技术有限公司</v>
+      </c>
+      <c r="D103" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E103" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F103" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B104" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C104" t="str">
+        <v>锦锐科技有限公司</v>
+      </c>
+      <c r="D104" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E104" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F104" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>android开发</v>
+      </c>
+      <c r="B105" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C105" t="str">
+        <v>八六三软件</v>
+      </c>
+      <c r="D105" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F105" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B106" t="str">
+        <v>8千-1.6万</v>
+      </c>
+      <c r="C106" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D106" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E106" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F106" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B107" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C107" t="str">
+        <v>河南港江建设集团有限公司</v>
+      </c>
+      <c r="D107" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E107" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F107" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B108" t="str">
+        <v>9千-1.5万</v>
+      </c>
+      <c r="C108" t="str">
+        <v>河南爱家校数据服务有限公司</v>
+      </c>
+      <c r="D108" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E108" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F108" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>android开发高级工程师</v>
+      </c>
+      <c r="B109" t="str">
+        <v>1万-1.8万</v>
+      </c>
+      <c r="C109" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D109" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E109" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F109" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B110" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C110" t="str">
+        <v>河南饮水网文化传媒有限公司</v>
+      </c>
+      <c r="D110" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E110" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F110" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B111" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C111" t="str">
+        <v>北京标软信息技术有限公司</v>
+      </c>
+      <c r="D111" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E111" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F111" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>高级安卓android开发工程师</v>
+      </c>
+      <c r="B112" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C112" t="str">
+        <v>大河网络传媒集团有限公司</v>
+      </c>
+      <c r="D112" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E112" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F112" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>android应用开发工程师</v>
+      </c>
+      <c r="B113" t="str">
+        <v>1.3万-1.8万</v>
+      </c>
+      <c r="C113" t="str">
+        <v>捷安高科</v>
+      </c>
+      <c r="D113" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E113" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F113" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>android开发工程师（兼职）</v>
+      </c>
+      <c r="B114" t="str">
         <v>8千-1万</v>
       </c>
-      <c r="C102" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D102" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E102" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F102" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G102" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103" xml:space="preserve">
-      <c r="A103" t="str">
+      <c r="C114" t="str">
+        <v>郑州软秦计算机信息技术有限公司</v>
+      </c>
+      <c r="D114" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E114" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F114" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B115" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C115" t="str">
+        <v>金豆豆互联网有限责任公司</v>
+      </c>
+      <c r="D115" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E115" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F115" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B116" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C116" t="str">
+        <v>河南指联物联网科技有限公司</v>
+      </c>
+      <c r="D116" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E116" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F116" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B117" t="str">
+        <v>9千-1.3万</v>
+      </c>
+      <c r="C117" t="str">
+        <v>康桥悦生活服务集团有限公司</v>
+      </c>
+      <c r="D117" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E117" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F117" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B118" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C118" t="str">
+        <v>河南航天金盾网络科技有限公司</v>
+      </c>
+      <c r="D118" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E118" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F118" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1万-1.8万</v>
+      </c>
+      <c r="C119" t="str">
+        <v>智信安装集团有限公司</v>
+      </c>
+      <c r="D119" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E119" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F119" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B120" t="str">
+        <v>2.5万-3.5万</v>
+      </c>
+      <c r="C120" t="str">
+        <v>上海思汐乐人力资源咨询有限公司</v>
+      </c>
+      <c r="D120" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E120" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F120" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B121" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C121" t="str">
+        <v>河南容亿软件技术有限公司</v>
+      </c>
+      <c r="D121" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E121" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F121" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
         <v>android/ios开发工程师</v>
       </c>
-      <c r="B103" t="str" xml:space="preserve">
+      <c r="B122" t="str" xml:space="preserve">
         <v xml:space="preserve">7千-8千
           · 13薪</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C122" t="str">
         <v>郑州百易科技有限公司</v>
-      </c>
-      <c r="D103" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E103" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F103" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B104" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C104" t="str">
-        <v>屹通信息</v>
-      </c>
-      <c r="D104" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E104" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F104" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B105" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C105" t="str">
-        <v>北京杰山科技有限公司</v>
-      </c>
-      <c r="D105" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E105" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F105" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>android/安卓开发经理</v>
-      </c>
-      <c r="B106" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C106" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D106" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E106" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F106" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>android开发工程师7-10k</v>
-      </c>
-      <c r="B107" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C107" t="str">
-        <v>郑州悦之喜企业管理咨询有限公司</v>
-      </c>
-      <c r="D107" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E107" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F107" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B108" t="str">
-        <v>7千-9千</v>
-      </c>
-      <c r="C108" t="str">
-        <v>河南南秀建筑科技有限公司</v>
-      </c>
-      <c r="D108" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E108" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F108" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B109" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C109" t="str">
-        <v>河南宇通信息技术有限公司</v>
-      </c>
-      <c r="D109" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E109" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F109" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B110" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C110" t="str">
-        <v>UU跑腿</v>
-      </c>
-      <c r="D110" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E110" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F110" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B111" t="str">
-        <v>7千-9千</v>
-      </c>
-      <c r="C111" t="str">
-        <v>河南探迹信息技术有限公司</v>
-      </c>
-      <c r="D111" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E111" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F111" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B112" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C112" t="str">
-        <v>河南永硕实业发展有限公司</v>
-      </c>
-      <c r="D112" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E112" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F112" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B113" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C113" t="str">
-        <v>郑州一迅软件科技有限公司</v>
-      </c>
-      <c r="D113" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E113" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F113" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>资深android开发工程师</v>
-      </c>
-      <c r="B114" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C114" t="str">
-        <v>郑州珑凌科技有限公司</v>
-      </c>
-      <c r="D114" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E114" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F114" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B115" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C115" t="str">
-        <v>郑州点读电子科技有限公司</v>
-      </c>
-      <c r="D115" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E115" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F115" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B116" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C116" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D116" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E116" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F116" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G116" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B117" t="str">
-        <v>4千-6千</v>
-      </c>
-      <c r="C117" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
-      </c>
-      <c r="D117" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E117" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F117" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G117" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B118" t="str">
-        <v>4千-6千</v>
-      </c>
-      <c r="C118" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
-      </c>
-      <c r="D118" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E118" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F118" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G118" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B119" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C119" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
-      </c>
-      <c r="D119" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E119" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F119" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
-      </c>
-      <c r="B120" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C120" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
-      </c>
-      <c r="D120" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E120" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F120" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>android/安卓开发工程师（中级）</v>
-      </c>
-      <c r="B121" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C121" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D121" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E121" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F121" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B122" t="str">
-        <v>4千-6千</v>
-      </c>
-      <c r="C122" t="str">
-        <v>锦锐科技有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州-金水区</v>
@@ -3190,19 +3190,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android-郑州-京东</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>软通动力信息技术(集团)股份有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
         <v>大专</v>
@@ -3213,22 +3213,22 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android软件工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B124" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E124" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android前端开发</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>4千-7千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C125" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E125" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3262,16 +3262,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>android工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C127" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D127" t="str">
         <v>郑州</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android 工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B128" t="str">
         <v>6千-8千</v>
@@ -3317,7 +3317,7 @@
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
         <v>本科</v>
@@ -3328,22 +3328,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C129" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3354,19 +3354,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C130" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3377,16 +3377,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C131" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
       </c>
       <c r="E131" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F131" t="str">
         <v>本科</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
@@ -3412,7 +3412,7 @@
         <v>不限</v>
       </c>
       <c r="F132" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android开发</v>
+        <v>android工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>5千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C133" t="str">
-        <v>八六三软件</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D133" t="str">
         <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3443,16 +3443,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C134" t="str">
-        <v>天迈科技</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>android软件开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B137" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C137" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
@@ -3535,16 +3535,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android前端开发</v>
       </c>
       <c r="B138" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-7千</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E138" t="str">
         <v>1-3年</v>
@@ -3558,19 +3558,19 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
       </c>
       <c r="E139" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F139" t="str">
         <v>本科</v>
@@ -3581,16 +3581,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>软件开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B140" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C140" t="str">
-        <v>贝博电子</v>
+        <v>天迈科技</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E140" t="str">
         <v>3-5年</v>
@@ -3604,16 +3604,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>安卓端工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C141" t="str">
-        <v>万邦国际集团</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
@@ -3627,13 +3627,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Andorid开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C142" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
@@ -3642,7 +3642,7 @@
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3650,13 +3650,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C143" t="str">
-        <v>易宝软件</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
@@ -3673,22 +3673,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>flutter开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F144" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B145" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D145" t="str">
         <v>郑州</v>
@@ -3719,19 +3719,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3765,13 +3765,13 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>1.3万-2.5万</v>
+        <v>5千-9千</v>
       </c>
       <c r="C148" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州-高新区</v>
@@ -3788,19 +3788,19 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>andorid开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>5千-9千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C149" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E149" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
         <v>本科</v>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>APP开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>9千-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C150" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F150" t="str">
         <v>大专</v>
@@ -3834,19 +3834,19 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>资深andriod开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C151" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D151" t="str">
         <v>郑州</v>
       </c>
       <c r="E151" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F151" t="str">
         <v>本科</v>
@@ -3857,296 +3857,296 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B152" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C152" t="str">
+        <v>易宝软件</v>
+      </c>
+      <c r="D152" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E152" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F152" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>安卓端工程师</v>
+      </c>
+      <c r="B153" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C153" t="str">
+        <v>万邦国际集团</v>
+      </c>
+      <c r="D153" t="str">
+        <v>郑州-中牟县</v>
+      </c>
+      <c r="E153" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F153" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>andriod开发工程师</v>
+      </c>
+      <c r="B154" t="str">
+        <v>1.2万-1.6万</v>
+      </c>
+      <c r="C154" t="str">
+        <v>郑州阿帕斯科技有限公司</v>
+      </c>
+      <c r="D154" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E154" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F154" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>安卓研发工程师</v>
+      </c>
+      <c r="B155" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C155" t="str">
+        <v>河南绘梦未来网络科技有限公司</v>
+      </c>
+      <c r="D155" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E155" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F155" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B156" t="str">
+        <v>9千-1.8万</v>
+      </c>
+      <c r="C156" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D156" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E156" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F156" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>andriod开发工程师（可兼职）</v>
+      </c>
+      <c r="B157" t="str">
+        <v>1.3万-2.5万</v>
+      </c>
+      <c r="C157" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D157" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E157" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F157" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B158" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C158" t="str">
+        <v>河南思维列控</v>
+      </c>
+      <c r="D158" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E158" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F158" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>逆向工程师（windows/android15-30k）</v>
+      </c>
+      <c r="B159" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C159" t="str">
+        <v>刀锋互娱</v>
+      </c>
+      <c r="D159" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E159" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F159" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
         <v>安卓软件开发工程师</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B160" t="str">
         <v>8千-1万</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C160" t="str">
         <v>郑州远洋电子科技有限公司</v>
       </c>
-      <c r="D152" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E152" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F152" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G152" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="153" xml:space="preserve">
-      <c r="A153" t="str">
+      <c r="D160" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E160" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F160" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B161" t="str">
+        <v>4千-5千</v>
+      </c>
+      <c r="C161" t="str">
+        <v>河南德克电子科技有限公司</v>
+      </c>
+      <c r="D161" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E161" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F161" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>andriod开发工程师</v>
+      </c>
+      <c r="B162" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C162" t="str">
+        <v>河南知途游道信息科技有限公司</v>
+      </c>
+      <c r="D162" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E162" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F162" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C163" t="str">
+        <v>云涌科技</v>
+      </c>
+      <c r="D163" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E163" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F163" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B153" t="str" xml:space="preserve">
+      <c r="B164" t="str" xml:space="preserve">
         <v xml:space="preserve">9千-1.6万
           · 13薪</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C164" t="str">
         <v>南京北路智控科技股份有限公司</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D164" t="str">
         <v>郑州-管城回族区</v>
       </c>
-      <c r="E153" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F153" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G153" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>安卓研发工程师</v>
-      </c>
-      <c r="B154" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C154" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
-      </c>
-      <c r="D154" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E154" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F154" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G154" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B155" t="str">
-        <v>4千-5千</v>
-      </c>
-      <c r="C155" t="str">
-        <v>河南德克电子科技有限公司</v>
-      </c>
-      <c r="D155" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E155" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F155" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G155" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B156" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C156" t="str">
-        <v>河南知途游道信息科技有限公司</v>
-      </c>
-      <c r="D156" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E156" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F156" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G156" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B157" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C157" t="str">
-        <v>云涌科技</v>
-      </c>
-      <c r="D157" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E157" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F157" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G157" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
-      </c>
-      <c r="B158" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C158" t="str">
-        <v>刀锋互娱</v>
-      </c>
-      <c r="D158" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E158" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F158" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G158" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B159" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C159" t="str">
-        <v>郑州维飞软件科技有限公司</v>
-      </c>
-      <c r="D159" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E159" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F159" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G159" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B160" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C160" t="str">
-        <v>河南思维列控</v>
-      </c>
-      <c r="D160" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E160" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F160" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G160" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>高级Linux工程师</v>
-      </c>
-      <c r="B161" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C161" t="str">
-        <v>河南省吉立达机器人有限公司</v>
-      </c>
-      <c r="D161" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E161" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F161" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G161" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B162" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C162" t="str">
-        <v>河南蓝信科技有限责任公司</v>
-      </c>
-      <c r="D162" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E162" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F162" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G162" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
-      </c>
-      <c r="B163" t="str">
-        <v>1.5万-2.5万</v>
-      </c>
-      <c r="C163" t="str">
-        <v>合肥观六智能科技有限公司</v>
-      </c>
-      <c r="D163" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E163" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F163" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G163" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>程序员开发</v>
-      </c>
-      <c r="B164" t="str">
-        <v>4千-8千</v>
-      </c>
-      <c r="C164" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
-      </c>
-      <c r="D164" t="str">
-        <v>郑州-中原区</v>
-      </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
         <v>本科</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>资深andriod开发工程师-浏览器方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D165" t="str">
         <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>安卓开发（双休）</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>6千-9千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C166" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>6千-8千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C167" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E167" t="str">
         <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B168" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C168" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D168" t="str">
         <v>郑州</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G168" t="str">
         <v/>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>逆向工程师</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B169" t="str">
-        <v>1万-2万</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C169" t="str">
-        <v>云库科技</v>
+        <v>优路教育</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F169" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>5千-7千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F170" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G170" t="str">
         <v/>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>安卓工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>5.5千-7千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C171" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E171" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F171" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G171" t="str">
         <v/>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C172" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E172" t="str">
         <v>3-5年</v>
       </c>
       <c r="F172" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4344,10 +4344,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C173" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D173" t="str">
         <v>郑州</v>
@@ -4356,7 +4356,7 @@
         <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -4364,13 +4364,13 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>逆向研发工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B174" t="str">
-        <v>1万-2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C174" t="str">
-        <v>云库科技</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州-高新区</v>
@@ -4379,7 +4379,7 @@
         <v>3-5年</v>
       </c>
       <c r="F174" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G174" t="str">
         <v/>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>资深andriod开发工程师-清理安全方向</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C175" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D175" t="str">
         <v>郑州</v>
       </c>
       <c r="E175" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>硕士</v>
+        <v>大专</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B176" t="str">
-        <v>5千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C176" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D176" t="str">
         <v>郑州</v>
@@ -4433,22 +4433,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B177" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C177" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E177" t="str">
         <v>3-5年</v>
       </c>
       <c r="F177" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -4456,19 +4456,19 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>系统开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C178" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E178" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
         <v>本科</v>
@@ -4479,19 +4479,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C179" t="str">
-        <v>超图软件</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D179" t="str">
         <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F179" t="str">
         <v>本科</v>
@@ -4502,22 +4502,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>安卓工程师</v>
+        <v>安卓前端研发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C180" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南陀螺信息技术有限公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
       </c>
       <c r="E180" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F180" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G180" t="str">
         <v/>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>unity开发工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B181" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C181" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
         <v>大专</v>
@@ -4548,22 +4548,22 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>安卓开发工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B182" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C182" t="str">
-        <v>天一文化</v>
+        <v>云库科技</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E182" t="str">
         <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G182" t="str">
         <v/>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>手机软件开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B183" t="str">
         <v>5.5千-7千</v>
@@ -4594,30 +4594,260 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
+        <v>安卓开发工程师5K-1W</v>
+      </c>
+      <c r="B184" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C184" t="str">
+        <v>河南格瑞恩电子科技有限公司</v>
+      </c>
+      <c r="D184" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E184" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F184" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>程序员开发</v>
+      </c>
+      <c r="B185" t="str">
+        <v>4千-8千</v>
+      </c>
+      <c r="C185" t="str">
+        <v>浙江辉腾地理信息技术有限公司</v>
+      </c>
+      <c r="D185" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E185" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F185" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>安卓软件开发工程师</v>
+      </c>
+      <c r="B186" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C186" t="str">
+        <v>河南国都时代科技有限公司</v>
+      </c>
+      <c r="D186" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E186" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F186" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>逆向工程师</v>
+      </c>
+      <c r="B187" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C187" t="str">
+        <v>云库科技</v>
+      </c>
+      <c r="D187" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E187" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F187" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B188" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C188" t="str">
+        <v>河南塔姆网络科技有限公司</v>
+      </c>
+      <c r="D188" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E188" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F188" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+      </c>
+      <c r="B189" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C189" t="str">
+        <v>超图软件</v>
+      </c>
+      <c r="D189" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E189" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F189" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>移动端开发工程师</v>
+      </c>
+      <c r="B190" t="str">
+        <v>面议</v>
+      </c>
+      <c r="C190" t="str">
+        <v>中原银行</v>
+      </c>
+      <c r="D190" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E190" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F190" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>unity开发工程师</v>
+      </c>
+      <c r="B191" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C191" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D191" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E191" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F191" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B192" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C192" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D192" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E192" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F192" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>手机软件开发工程师</v>
+      </c>
+      <c r="B193" t="str">
+        <v>5.5千-7千</v>
+      </c>
+      <c r="C193" t="str">
+        <v>河南易众拍卖行有限公司</v>
+      </c>
+      <c r="D193" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E193" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F193" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
         <v>APP开发工程师</v>
       </c>
-      <c r="B184" t="str">
+      <c r="B194" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C194" t="str">
         <v>河南建祥装饰工程有限公司</v>
       </c>
-      <c r="D184" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E184" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F184" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G184" t="str">
+      <c r="D194" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E194" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F194" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G194" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G184"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G194"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,22 +451,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>安卓android工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B4" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C4" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E4" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,22 +474,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>7千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E5" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F5" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -497,22 +497,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C6" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,10 +523,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C7" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D7" t="str">
         <v>郑州</v>
@@ -543,16 +543,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android开发工程师</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B8" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州乙丙丁软件科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E8" t="str">
         <v>1-3年</v>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B9" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E9" t="str">
         <v>1-3年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,22 +589,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C10" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -615,16 +615,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>7千-1.4万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C11" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
         <v>本科</v>
@@ -638,13 +638,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8千-1.5万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C12" t="str">
-        <v>硕诺科技</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
@@ -658,22 +658,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,19 +684,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F14" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -704,16 +704,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
         <v>1-3年</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B16" t="str">
-        <v>7千-9千</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F16" t="str">
         <v>大专</v>
@@ -750,13 +750,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C17" t="str">
-        <v>优路教育</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
@@ -765,7 +765,7 @@
         <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>1.2万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -796,19 +796,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>高级android开发工程师</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C19" t="str">
-        <v>刀锋互娱</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F19" t="str">
         <v>大专</v>
@@ -822,19 +822,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C20" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>郑州乙丙丁软件科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E20" t="str">
         <v>1-3年</v>
       </c>
       <c r="F20" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,22 +842,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C21" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -865,16 +865,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android底层开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C22" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E22" t="str">
         <v>3-5年</v>
@@ -888,19 +888,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B23" t="str">
-        <v>6千-8千</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C23" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F23" t="str">
         <v>本科</v>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>5千-7千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -934,16 +934,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南腾跃科技有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E25" t="str">
         <v>1-3年</v>
@@ -957,19 +957,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C26" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
         <v>本科</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1006,16 +1006,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C28" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
         <v>大专</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>6千-8千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C29" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1041,7 +1041,7 @@
         <v>1-3年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1049,615 +1049,615 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B30" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C30" t="str">
+        <v>河南腾跃科技有限公司</v>
+      </c>
+      <c r="D30" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F30" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>android开发工程师（高薪+五险）</v>
+      </c>
+      <c r="B31" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C31" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D31" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E31" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F31" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>软件工程师 (车载android方向)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C32" t="str">
+        <v>郑州精益达汽车零部件有限公司</v>
+      </c>
+      <c r="D32" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E32" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F32" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B33" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C33" t="str">
+        <v>河南合众伟奇云智科技有限公司</v>
+      </c>
+      <c r="D33" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E33" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F33" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>移动端开发（android）</v>
+      </c>
+      <c r="B34" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C34" t="str">
+        <v>豪弘电子商务集团有限公司</v>
+      </c>
+      <c r="D34" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E34" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F34" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C35" t="str">
+        <v>乐精灵教育科技(北京)有限公司</v>
+      </c>
+      <c r="D35" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F35" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>双休android五险工程师</v>
+      </c>
+      <c r="B36" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C36" t="str">
+        <v>河南智森物联网科技有限公司</v>
+      </c>
+      <c r="D36" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E36" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F36" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>android app工程师</v>
+      </c>
+      <c r="B37" t="str">
+        <v>5千-7千</v>
+      </c>
+      <c r="C37" t="str">
+        <v>郑州万迪来电子技术有限公司</v>
+      </c>
+      <c r="D37" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E37" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F37" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B38" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C38" t="str">
+        <v>宁波五招信息技术有限公司</v>
+      </c>
+      <c r="D38" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E38" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F38" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B39" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C39" t="str">
+        <v>牧原股份</v>
+      </c>
+      <c r="D39" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F39" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
         <v>android工程师(J10082)</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B40" t="str">
         <v>1万-1.5万</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C40" t="str">
         <v>天星教育</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D40" t="str">
         <v>郑州-中原区</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E40" t="str">
         <v>不限</v>
       </c>
-      <c r="F30" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B31" t="str" xml:space="preserve">
+      <c r="F40" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B41" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C41" t="str">
+        <v>河南聚融优合汽车销售有限公司</v>
+      </c>
+      <c r="D41" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F41" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B42" t="str">
+        <v>7千-1.1万</v>
+      </c>
+      <c r="C42" t="str">
+        <v>河南智亘网络科技有限公司</v>
+      </c>
+      <c r="D42" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E42" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F42" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B43" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C43" t="str">
+        <v>河南友联金融服务有限公司</v>
+      </c>
+      <c r="D43" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E43" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F43" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>android应用开发工程师</v>
+      </c>
+      <c r="B44" t="str">
+        <v>1.3万-1.8万</v>
+      </c>
+      <c r="C44" t="str">
+        <v>捷安高科</v>
+      </c>
+      <c r="D44" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E44" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F44" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>android安卓开发工程师</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C45" t="str">
+        <v>河南澳乐康科技有限公司</v>
+      </c>
+      <c r="D45" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E45" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F45" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>android高级开发工程师（14薪+双休）</v>
+      </c>
+      <c r="B46" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C46" t="str">
+        <v>河南威漫信息科技有限公司</v>
+      </c>
+      <c r="D46" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E46" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F46" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B47" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C47" t="str">
+        <v>河南纳食信息科技有限公司</v>
+      </c>
+      <c r="D47" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E47" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F47" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B48" t="str">
+        <v>7千-1.4万</v>
+      </c>
+      <c r="C48" t="str">
+        <v>郑州软通合力计算机技术有限公司</v>
+      </c>
+      <c r="D48" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E48" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F48" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B49" t="str">
+        <v>9千-1.5万</v>
+      </c>
+      <c r="C49" t="str">
+        <v>河南爱家校数据服务有限公司</v>
+      </c>
+      <c r="D49" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E49" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F49" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B50" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C50" t="str">
+        <v>河南饮水网文化传媒有限公司</v>
+      </c>
+      <c r="D50" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E50" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F50" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C51" t="str">
+        <v>河南指联物联网科技有限公司</v>
+      </c>
+      <c r="D51" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E51" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F51" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>高级android开发工程师</v>
+      </c>
+      <c r="B52" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C52" t="str">
+        <v>河南印爱文化艺术有限公司</v>
+      </c>
+      <c r="D52" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E52" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F52" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C53" t="str">
+        <v>河南安盛科技股份有限公司</v>
+      </c>
+      <c r="D53" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E53" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F53" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C54" t="str">
+        <v>河南云考点教育科技有限公司</v>
+      </c>
+      <c r="D54" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E54" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F54" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C55" t="str">
+        <v>郑州大象通信信息技术有限公司</v>
+      </c>
+      <c r="D55" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E55" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F55" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B56" t="str" xml:space="preserve">
         <v xml:space="preserve">6千-1万
           · 14薪</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C56" t="str">
         <v>郑州创亿达照明有限公司</v>
       </c>
-      <c r="D31" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E31" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F31" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>android开发工程师（高薪+五险）</v>
-      </c>
-      <c r="B32" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C32" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D32" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E32" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F32" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B33" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C33" t="str">
-        <v>牧原股份</v>
-      </c>
-      <c r="D33" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E33" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F33" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B34" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C34" t="str">
-        <v>河南智亘网络科技有限公司</v>
-      </c>
-      <c r="D34" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E34" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F34" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
-      </c>
-      <c r="B35" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C35" t="str">
-        <v>河南威漫信息科技有限公司</v>
-      </c>
-      <c r="D35" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E35" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F35" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B36" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C36" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
-      </c>
-      <c r="D36" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E36" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F36" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B37" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C37" t="str">
-        <v>河南东方健生物科技有限公司</v>
-      </c>
-      <c r="D37" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E37" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F37" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B38" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C38" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
-      </c>
-      <c r="D38" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E38" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F38" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>android</v>
-      </c>
-      <c r="B39" t="str">
-        <v>9千-1.6万</v>
-      </c>
-      <c r="C39" t="str">
-        <v>郑州维飞软件科技有限公司</v>
-      </c>
-      <c r="D39" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E39" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F39" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B40" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C40" t="str">
-        <v>河南商泽网络科技有限公司</v>
-      </c>
-      <c r="D40" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E40" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F40" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B41" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C41" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
-      </c>
-      <c r="D41" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E41" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F41" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B42" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C42" t="str">
-        <v>河南安盛科技股份有限公司</v>
-      </c>
-      <c r="D42" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E42" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F42" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B43" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C43" t="str">
-        <v>河南纳食信息科技有限公司</v>
-      </c>
-      <c r="D43" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E43" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F43" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B44" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C44" t="str">
-        <v>河南云考点教育科技有限公司</v>
-      </c>
-      <c r="D44" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E44" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F44" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B45" t="str">
-        <v>1万-1.6万</v>
-      </c>
-      <c r="C45" t="str">
-        <v>河南派普建工集团有限公司</v>
-      </c>
-      <c r="D45" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E45" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F45" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B46" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C46" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
-      </c>
-      <c r="D46" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E46" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F46" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B47" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C47" t="str">
-        <v>郑州诺云网络科技有限公司</v>
-      </c>
-      <c r="D47" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E47" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F47" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>android高级开发工程师</v>
-      </c>
-      <c r="B48" t="str">
-        <v>8千-1.6万</v>
-      </c>
-      <c r="C48" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D48" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E48" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F48" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B49" t="str">
-        <v>7千-1.4万</v>
-      </c>
-      <c r="C49" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
-      </c>
-      <c r="D49" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E49" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F49" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>高级android开发工程师</v>
-      </c>
-      <c r="B50" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C50" t="str">
-        <v>河南印爱文化艺术有限公司</v>
-      </c>
-      <c r="D50" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E50" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F50" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>android 开发安卓工程师</v>
-      </c>
-      <c r="B51" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C51" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
-      </c>
-      <c r="D51" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E51" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F51" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B52" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C52" t="str">
-        <v>新天科技</v>
-      </c>
-      <c r="D52" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E52" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F52" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G52" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B53" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C53" t="str">
-        <v>友途车家科技服务有限公司</v>
-      </c>
-      <c r="D53" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E53" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F53" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B54" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C54" t="str">
-        <v>河南友联金融服务有限公司</v>
-      </c>
-      <c r="D54" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E54" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F54" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
-      </c>
-      <c r="B55" t="str">
-        <v>6千-9千</v>
-      </c>
-      <c r="C55" t="str">
-        <v>东方国信</v>
-      </c>
-      <c r="D55" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E55" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F55" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B56" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C56" t="str">
-        <v>河南省863软件孵化器有限公司</v>
-      </c>
       <c r="D56" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
         <v>1-3年</v>
@@ -1671,22 +1671,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C57" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1697,19 +1697,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>6千-8千</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C58" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1720,10 +1720,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
@@ -1743,16 +1743,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>7千-1.3万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>1万-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C62" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1809,22 +1809,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发工程师</v>
+        <v>android开发高级工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C63" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E63" t="str">
         <v>5-10年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C64" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1855,19 +1855,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
         <v>本科</v>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B66" t="str">
-        <v>4千-6千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C66" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>东方国信</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B67" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C67" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>本科</v>
@@ -1927,19 +1927,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1万-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C68" t="str">
-        <v>博商云(郑州)科技有限公司</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F68" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1947,16 +1947,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C69" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
@@ -1970,22 +1970,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C70" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D70" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1996,10 +1996,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C71" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州-金水区</v>
@@ -2019,13 +2019,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C72" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
@@ -2039,19 +2039,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B73" t="str">
-        <v>1万-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C73" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D73" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
         <v>本科</v>
@@ -2062,22 +2062,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>7千-9千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F74" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -2085,16 +2085,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android应用开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C75" t="str">
-        <v>天迈科技</v>
+        <v>河南七颗牙教育科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
@@ -2108,22 +2108,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C76" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F76" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C77" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2154,22 +2154,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B78" t="str">
-        <v>1万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C78" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
         <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2177,22 +2177,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发</v>
       </c>
       <c r="B79" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C79" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D79" t="str">
         <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2203,13 +2203,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C80" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E80" t="str">
         <v>3-5年</v>
@@ -2229,10 +2229,10 @@
         <v>6千-8千</v>
       </c>
       <c r="C81" t="str">
-        <v>屹通信息</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
         <v>1-3年</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C82" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C83" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2284,7 +2284,7 @@
         <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2292,16 +2292,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C84" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E84" t="str">
         <v>1-3年</v>
@@ -2318,16 +2318,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C85" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E85" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F85" t="str">
         <v>大专</v>
@@ -2341,16 +2341,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C86" t="str">
-        <v>南京迈特望</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C87" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
         <v>1-3年</v>
@@ -2384,22 +2384,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
         <v>1.5万-2万</v>
       </c>
       <c r="C88" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E88" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F88" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2407,16 +2407,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>6千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C89" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
@@ -2430,22 +2430,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B90" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C90" t="str">
-        <v>八六三软件</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2456,13 +2456,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C91" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E91" t="str">
         <v>1-3年</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>安图生物</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E92" t="str">
         <v>1-3年</v>
@@ -2499,19 +2499,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C93" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D93" t="str">
         <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F93" t="str">
         <v>本科</v>
@@ -2525,19 +2525,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E94" t="str">
         <v>3-5年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2560,7 +2560,7 @@
         <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2571,19 +2571,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D96" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E96" t="str">
         <v>3-5年</v>
       </c>
       <c r="F96" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2594,16 +2594,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C97" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
         <v>大专</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>4千-6千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D98" t="str">
         <v>郑州</v>
@@ -2637,22 +2637,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B99" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C99" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F99" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android程序员</v>
       </c>
       <c r="B100" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C100" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2689,13 +2689,13 @@
         <v>6千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E101" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F101" t="str">
         <v>大专</v>
@@ -2706,22 +2706,22 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C102" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E102" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android app工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B103" t="str">
-        <v>5千-7千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C103" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
@@ -2752,19 +2752,19 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B104" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C104" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E104" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F104" t="str">
         <v>大专</v>
@@ -2778,10 +2778,10 @@
         <v>android开发</v>
       </c>
       <c r="B105" t="str">
-        <v>5千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C105" t="str">
-        <v>八六三软件</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
@@ -2790,7 +2790,7 @@
         <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2801,10 +2801,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C106" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D106" t="str">
         <v>郑州</v>
@@ -2813,7 +2813,7 @@
         <v>3-5年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2824,19 +2824,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C107" t="str">
-        <v>河南港江建设集团有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2847,16 +2847,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>9千-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C108" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E108" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
         <v>大专</v>
@@ -2867,22 +2867,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发高级工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>1万-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C109" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E109" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F109" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2890,22 +2890,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android开发工程师</v>
+        <v>android/移动互联网开发</v>
       </c>
       <c r="B110" t="str">
-        <v>1万-1.5万</v>
+        <v>3千-6千</v>
       </c>
       <c r="C110" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>郑州长兴信息技术有限公司</v>
       </c>
       <c r="D110" t="str">
         <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F110" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2913,22 +2913,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B111" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C111" t="str">
-        <v>北京标软信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2936,22 +2936,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C112" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E112" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -2959,22 +2959,22 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>1.3万-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C113" t="str">
-        <v>捷安高科</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E113" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F113" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2982,19 +2982,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C114" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F114" t="str">
         <v>本科</v>
@@ -3031,16 +3031,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C116" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F116" t="str">
         <v>本科</v>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B117" t="str">
-        <v>9千-1.3万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C117" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E117" t="str">
         <v>3-5年</v>
@@ -3077,10 +3077,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C118" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
@@ -3095,21 +3095,22 @@
         <v/>
       </c>
     </row>
-    <row r="119">
+    <row r="119" xml:space="preserve">
       <c r="A119" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B119" t="str">
-        <v>1万-1.8万</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B119" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
       </c>
       <c r="C119" t="str">
-        <v>智信安装集团有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
         <v>大专</v>
@@ -3123,19 +3124,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>2.5万-3.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C120" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3146,43 +3147,42 @@
         <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C121" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G121" t="str">
         <v/>
       </c>
     </row>
-    <row r="122" xml:space="preserve">
+    <row r="122">
       <c r="A122" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B122" t="str" xml:space="preserve">
-        <v xml:space="preserve">7千-8千
-          · 13薪</v>
+        <v>android开发工程师</v>
+      </c>
+      <c r="B122" t="str">
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州百易科技有限公司</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E122" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3193,10 +3193,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C123" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
@@ -3205,7 +3205,7 @@
         <v>3-5年</v>
       </c>
       <c r="F123" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3213,16 +3213,16 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C124" t="str">
-        <v>浪潮集团</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C125" t="str">
-        <v>科大讯飞</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3265,10 +3265,10 @@
         <v>7千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>UU跑腿</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E126" t="str">
         <v>1-3年</v>
@@ -3282,16 +3282,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>android软件开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C127" t="str">
-        <v>昂普科技</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
@@ -3305,22 +3305,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C128" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3328,19 +3328,19 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>八六三软件</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F129" t="str">
         <v>本科</v>
@@ -3351,22 +3351,22 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>4千-6千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C130" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D130" t="str">
         <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>android软件工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C133" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3446,19 +3446,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>6千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C134" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D134" t="str">
         <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3466,22 +3466,22 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E135" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>android 工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B137" t="str">
         <v>6千-8千</v>
@@ -3524,7 +3524,7 @@
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
         <v>本科</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>android前端开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>4千-7千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C138" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3558,22 +3558,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>android开发工程师</v>
+        <v>android前端开发</v>
       </c>
       <c r="B139" t="str">
-        <v>4千-8千</v>
+        <v>4千-7千</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E139" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F139" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3581,22 +3581,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C140" t="str">
-        <v>天迈科技</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
         <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3604,13 +3604,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C141" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D141" t="str">
         <v>郑州</v>
@@ -3619,7 +3619,7 @@
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3627,19 +3627,19 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>android开发工程师</v>
+        <v>android 工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C142" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F142" t="str">
         <v>本科</v>
@@ -3650,13 +3650,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B143" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C143" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
@@ -3673,19 +3673,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B144" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
@@ -3696,22 +3696,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E145" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F145" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3719,19 +3719,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3742,22 +3742,22 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C147" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F147" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -3765,19 +3765,19 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>andorid开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>5千-9千</v>
+        <v>4千-8千</v>
       </c>
       <c r="C148" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F148" t="str">
         <v>本科</v>
@@ -3788,22 +3788,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B149" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F149" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3811,22 +3811,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>flutter开发工程师</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B150" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C150" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3834,16 +3834,16 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B151" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C151" t="str">
-        <v>贝博电子</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
@@ -3857,22 +3857,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C152" t="str">
-        <v>易宝软件</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
       </c>
       <c r="F152" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓端工程师</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C153" t="str">
-        <v>万邦国际集团</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
@@ -3926,22 +3926,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>安卓研发工程师</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>6千-8千</v>
+        <v>5千-9千</v>
       </c>
       <c r="C155" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E155" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3949,22 +3949,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>9千-1.8万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C156" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E156" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3972,22 +3972,22 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>1.3万-2.5万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C157" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F157" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -3998,16 +3998,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C158" t="str">
-        <v>河南思维列控</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F158" t="str">
         <v>本科</v>
@@ -4018,22 +4018,22 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C159" t="str">
-        <v>刀锋互娱</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E159" t="str">
         <v>3-5年</v>
       </c>
       <c r="F159" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G159" t="str">
         <v/>
@@ -4041,19 +4041,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C160" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F160" t="str">
         <v>本科</v>
@@ -4064,13 +4064,13 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>4千-5千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C161" t="str">
-        <v>河南德克电子科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D161" t="str">
         <v>郑州</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>andriod开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C162" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D162" t="str">
         <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F162" t="str">
         <v>大专</v>
@@ -4110,19 +4110,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>安卓工程师</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C163" t="str">
-        <v>云涌科技</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E163" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F163" t="str">
         <v>本科</v>
@@ -4131,94 +4131,94 @@
         <v/>
       </c>
     </row>
-    <row r="164" xml:space="preserve">
+    <row r="164">
       <c r="A164" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B164" t="str" xml:space="preserve">
+      <c r="B164" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C164" t="str">
+        <v>易宝软件</v>
+      </c>
+      <c r="D164" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E164" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F164" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>andriod开发工程师（可兼职）</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1.3万-2.5万</v>
+      </c>
+      <c r="C165" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D165" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E165" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F165" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>移动开发工程师</v>
+      </c>
+      <c r="B166" t="str">
+        <v>6千-1.1万</v>
+      </c>
+      <c r="C166" t="str">
+        <v>北京动态点网络科技有限公司</v>
+      </c>
+      <c r="D166" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E166" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F166" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167" xml:space="preserve">
+      <c r="A167" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B167" t="str" xml:space="preserve">
         <v xml:space="preserve">9千-1.6万
           · 13薪</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C167" t="str">
         <v>南京北路智控科技股份有限公司</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D167" t="str">
         <v>郑州-管城回族区</v>
       </c>
-      <c r="E164" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F164" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G164" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B165" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C165" t="str">
-        <v>郑州立信软件科技有限公司</v>
-      </c>
-      <c r="D165" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E165" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F165" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G165" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>资深安卓开发工程师</v>
-      </c>
-      <c r="B166" t="str">
-        <v>1.5万-2.5万</v>
-      </c>
-      <c r="C166" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D166" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E166" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F166" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G166" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B167" t="str">
-        <v>5千-7千</v>
-      </c>
-      <c r="C167" t="str">
-        <v>郑州双杰科技股份有限公司</v>
-      </c>
-      <c r="D167" t="str">
-        <v>郑州-金水区</v>
-      </c>
       <c r="E167" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B168" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C168" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E168" t="str">
         <v>3-5年</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>安卓开发工程师 大平台五险一金</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>9千-1.4万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C169" t="str">
-        <v>优路教育</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E169" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4272,19 +4272,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>安卓工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C170" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D170" t="str">
         <v>郑州</v>
       </c>
       <c r="E170" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F170" t="str">
         <v>本科</v>
@@ -4295,16 +4295,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>高级Linux工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C171" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E171" t="str">
         <v>3-5年</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>安卓开发工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>7千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C172" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E172" t="str">
         <v>3-5年</v>
       </c>
       <c r="F172" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4341,19 +4341,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>安卓开发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>5千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C173" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E173" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F173" t="str">
         <v>大专</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C174" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F174" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G174" t="str">
         <v/>
@@ -4410,22 +4410,22 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B176" t="str">
-        <v>8千-1万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C176" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D176" t="str">
         <v>郑州</v>
       </c>
       <c r="E176" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G176" t="str">
         <v/>
@@ -4433,22 +4433,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>6千-9千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C177" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D177" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E177" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F177" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -4456,22 +4456,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C178" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E178" t="str">
         <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G178" t="str">
         <v/>
@@ -4479,19 +4479,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>系统开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C179" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E179" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F179" t="str">
         <v>本科</v>
@@ -4502,19 +4502,19 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B180" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C180" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E180" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F180" t="str">
         <v>本科</v>
@@ -4525,16 +4525,16 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>6千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C181" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E181" t="str">
         <v>3-5年</v>
@@ -4548,22 +4548,22 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>逆向研发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B182" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C182" t="str">
-        <v>云库科技</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F182" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G182" t="str">
         <v/>
@@ -4574,19 +4574,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>5.5千-7千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C183" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D183" t="str">
         <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F183" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G183" t="str">
         <v/>
@@ -4594,22 +4594,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓开发工程师（双休）</v>
       </c>
       <c r="B184" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C184" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南知途游道信息科技有限公司</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F184" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G184" t="str">
         <v/>
@@ -4617,22 +4617,22 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>程序员开发</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B185" t="str">
-        <v>4千-8千</v>
+        <v>4千-5千</v>
       </c>
       <c r="C185" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>河南德克电子科技有限公司</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E185" t="str">
         <v>1-3年</v>
       </c>
       <c r="F185" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G185" t="str">
         <v/>
@@ -4640,19 +4640,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B186" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C186" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E186" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F186" t="str">
         <v>本科</v>
@@ -4663,22 +4663,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>逆向工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B187" t="str">
-        <v>1万-2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C187" t="str">
-        <v>云库科技</v>
+        <v>超图软件</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F187" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G187" t="str">
         <v/>
@@ -4689,16 +4689,16 @@
         <v>安卓工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>6千-1万</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C188" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D188" t="str">
         <v>郑州</v>
       </c>
       <c r="E188" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F188" t="str">
         <v>大专</v>
@@ -4709,13 +4709,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B189" t="str">
         <v>5千-1万</v>
       </c>
       <c r="C189" t="str">
-        <v>超图软件</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D189" t="str">
         <v>郑州</v>
@@ -4732,19 +4732,19 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>移动端开发工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B190" t="str">
-        <v>面议</v>
+        <v>6千-8千</v>
       </c>
       <c r="C190" t="str">
-        <v>中原银行</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F190" t="str">
         <v>本科</v>
@@ -4755,22 +4755,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>unity开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C191" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D191" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E191" t="str">
         <v>1-3年</v>
       </c>
       <c r="F191" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G191" t="str">
         <v/>
@@ -4778,13 +4778,13 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C192" t="str">
-        <v>天一文化</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D192" t="str">
         <v>郑州</v>
@@ -4793,7 +4793,7 @@
         <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -4801,22 +4801,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>手机软件开发工程师</v>
+        <v>软件开发工程师（APP开发）/APP开发工程师</v>
       </c>
       <c r="B193" t="str">
-        <v>5.5千-7千</v>
+        <v>7.5千-1.5万</v>
       </c>
       <c r="C193" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E193" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G193" t="str">
         <v/>
@@ -4824,30 +4824,99 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B194" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C194" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D194" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E194" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F194" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>安卓手机app开发人员</v>
+      </c>
+      <c r="B195" t="str">
         <v>6千-1万</v>
       </c>
-      <c r="C194" t="str">
-        <v>河南建祥装饰工程有限公司</v>
-      </c>
-      <c r="D194" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E194" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F194" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G194" t="str">
+      <c r="C195" t="str">
+        <v>河南商蒙软件科技有限公司</v>
+      </c>
+      <c r="D195" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E195" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F195" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>unity开发工程师</v>
+      </c>
+      <c r="B196" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C196" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D196" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E196" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F196" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>手机软件开发工程师</v>
+      </c>
+      <c r="B197" t="str">
+        <v>5.5千-7千</v>
+      </c>
+      <c r="C197" t="str">
+        <v>河南易众拍卖行有限公司</v>
+      </c>
+      <c r="D197" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E197" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F197" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G197" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G197"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,19 +405,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Andorid开发工程师</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B2" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F2" t="str">
         <v>大专</v>
@@ -428,16 +428,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C3" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E3" t="str">
         <v>3-5年</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C4" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
         <v>本科</v>
@@ -474,22 +474,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android软件开发 高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>9千-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C5" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E5" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F5" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -497,13 +497,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>双休android五险工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C6" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>河南智森物联网科技有限公司</v>
       </c>
       <c r="D6" t="str">
         <v>郑州</v>
@@ -512,7 +512,7 @@
         <v>3-5年</v>
       </c>
       <c r="F6" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,16 +523,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C7" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>宁波五招信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E7" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
         <v>大专</v>
@@ -543,22 +543,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C8" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E8" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -566,19 +566,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android应用开发工程师</v>
+        <v>android工程师(J10082)</v>
       </c>
       <c r="B9" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C9" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>天星教育</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E9" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F9" t="str">
         <v>本科</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C10" t="str">
-        <v>郑州恩普特</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
@@ -615,19 +615,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -638,19 +638,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -661,19 +661,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>硕诺科技</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,16 +684,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C14" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F14" t="str">
         <v>本科</v>
@@ -704,22 +704,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android软件开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>9千-1.6万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E16" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -753,19 +753,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,19 +773,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B18" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F18" t="str">
         <v>大专</v>
@@ -796,19 +796,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>安卓android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E19" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
         <v>大专</v>
@@ -822,16 +822,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6千-8千</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州乙丙丁软件科技有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E20" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
         <v>大专</v>
@@ -845,19 +845,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>7千-9千</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C21" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -865,19 +865,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>8千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C22" t="str">
-        <v>优路教育</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
@@ -888,19 +888,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>1.2万-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C23" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
         <v>本科</v>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C24" t="str">
-        <v>刀锋互娱</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F24" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -934,13 +934,13 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C25" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南云考点教育科技有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C26" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C27" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E27" t="str">
         <v>1-3年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1006,16 +1006,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>7千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C28" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
         <v>大专</v>
@@ -1029,19 +1029,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>5千-7千</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C29" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1052,16 +1052,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C30" t="str">
-        <v>河南腾跃科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F30" t="str">
         <v>大专</v>
@@ -1072,19 +1072,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>大专</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>软件工程师 (车载android方向)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1.5万-2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C32" t="str">
-        <v>郑州精益达汽车零部件有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州</v>
@@ -1110,7 +1110,7 @@
         <v>3-5年</v>
       </c>
       <c r="F32" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>7千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D33" t="str">
         <v>郑州-中原区</v>
@@ -1133,7 +1133,7 @@
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C34" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D34" t="str">
         <v>郑州</v>
@@ -1156,7 +1156,7 @@
         <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1167,19 +1167,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C35" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E35" t="str">
         <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>双休android五险工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南智森物联网科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F36" t="str">
         <v>本科</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android app工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>5千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C37" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州</v>
@@ -1225,7 +1225,7 @@
         <v>1-3年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1236,19 +1236,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C38" t="str">
-        <v>宁波五招信息技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android开发高级工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C39" t="str">
-        <v>牧原股份</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C40" t="str">
-        <v>天星教育</v>
+        <v>新天科技</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
         <v>本科</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D41" t="str">
         <v>郑州</v>
       </c>
       <c r="E41" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F41" t="str">
         <v>大专</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android开发工程师</v>
+        <v>android系统固件工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C42" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B43" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发（SZZF15zjf）(J12500)</v>
       </c>
       <c r="B44" t="str">
-        <v>1.3万-1.8万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C44" t="str">
-        <v>捷安高科</v>
+        <v>东方国信</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
         <v>本科</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>软件工程师 (车载android方向)</v>
       </c>
       <c r="B46" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C46" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>郑州精益达汽车零部件有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1432,7 +1432,7 @@
         <v>3-5年</v>
       </c>
       <c r="F46" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B47" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E47" t="str">
         <v>3-5年</v>
       </c>
       <c r="F47" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1466,19 +1466,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>7千-1.4万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C48" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E48" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F48" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1489,16 +1489,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>9千-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E49" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F49" t="str">
         <v>大专</v>
@@ -1512,19 +1512,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C50" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E50" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F50" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1535,16 +1535,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>8千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E51" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F51" t="str">
         <v>本科</v>
@@ -1555,19 +1555,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B52" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C52" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D52" t="str">
         <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
         <v>本科</v>
@@ -1578,19 +1578,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C53" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南七颗牙教育科技有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
         <v>本科</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1624,19 +1624,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B55" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C55" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
         <v>大专</v>
@@ -1645,25 +1645,24 @@
         <v/>
       </c>
     </row>
-    <row r="56" xml:space="preserve">
+    <row r="56">
       <c r="A56" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B56" t="str" xml:space="preserve">
-        <v xml:space="preserve">6千-1万
-          · 14薪</v>
+      <c r="B56" t="str">
+        <v>1万-1.2万</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州创亿达照明有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E56" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1674,19 +1673,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1万-1.6万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C57" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1694,19 +1693,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B58" t="str">
-        <v>9千-1.3万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C58" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F58" t="str">
         <v>本科</v>
@@ -1717,19 +1716,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
         <v>大专</v>
@@ -1740,19 +1739,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B60" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D60" t="str">
         <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1763,19 +1762,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>8千-1.6万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C61" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1786,19 +1785,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C62" t="str">
-        <v>新天科技</v>
+        <v>天迈科技</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1809,22 +1808,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>android开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>1万-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C63" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州乙丙丁软件科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E63" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1832,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C64" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
@@ -1855,16 +1854,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C65" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
         <v>1-3年</v>
@@ -1878,19 +1877,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android开发工程师（兼职）</v>
       </c>
       <c r="B66" t="str">
-        <v>6千-9千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>东方国信</v>
+        <v>郑州软秦计算机信息技术有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E66" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F66" t="str">
         <v>本科</v>
@@ -1901,19 +1900,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>1万-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
         <v>本科</v>
@@ -1924,22 +1923,22 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C68" t="str">
-        <v>河南港江建设集团有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E68" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1947,16 +1946,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C69" t="str">
-        <v>天迈科技</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
@@ -1973,10 +1972,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>5千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C70" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D70" t="str">
         <v>郑州-金水区</v>
@@ -1996,16 +1995,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C71" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
@@ -2019,19 +2018,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C72" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E72" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F72" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -2039,13 +2038,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>5千-8千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C73" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
@@ -2054,7 +2053,7 @@
         <v>1-3年</v>
       </c>
       <c r="F73" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2062,16 +2061,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B74" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E74" t="str">
         <v>3-5年</v>
@@ -2085,16 +2084,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C75" t="str">
-        <v>河南七颗牙教育科技有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E75" t="str">
         <v>3-5年</v>
@@ -2111,13 +2110,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1万-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C76" t="str">
-        <v>博商云(郑州)科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E76" t="str">
         <v>3-5年</v>
@@ -2134,13 +2133,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>1万-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C77" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
@@ -2154,13 +2153,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C78" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
@@ -2169,7 +2168,7 @@
         <v>3-5年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2177,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B79" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C79" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D79" t="str">
         <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2203,16 +2202,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
         <v>本科</v>
@@ -2226,10 +2225,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C81" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州-高新区</v>
@@ -2246,16 +2245,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E82" t="str">
         <v>1-3年</v>
@@ -2269,13 +2268,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C83" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2295,16 +2294,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C84" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D84" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F84" t="str">
         <v>大专</v>
@@ -2318,19 +2317,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C85" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E85" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2344,7 +2343,7 @@
         <v>7千-9千</v>
       </c>
       <c r="C86" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D86" t="str">
         <v>郑州</v>
@@ -2361,19 +2360,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C87" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2384,16 +2383,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B88" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C88" t="str">
-        <v>南京迈特望</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E88" t="str">
         <v>3-5年</v>
@@ -2410,19 +2409,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E89" t="str">
         <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2430,19 +2429,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发</v>
       </c>
       <c r="B90" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C90" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D90" t="str">
         <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
         <v>本科</v>
@@ -2453,13 +2452,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B91" t="str">
-        <v>7千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C91" t="str">
-        <v>UU跑腿</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
@@ -2468,7 +2467,7 @@
         <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2476,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B92" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C92" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2502,19 +2501,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C93" t="str">
-        <v>屹通信息</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D93" t="str">
         <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F93" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2525,19 +2524,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B94" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C94" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E94" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2548,10 +2547,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2568,22 +2567,22 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android开发工程师</v>
+        <v>android app工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>6千-1万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C96" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
       </c>
       <c r="E96" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F96" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2591,19 +2590,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B97" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E97" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F97" t="str">
         <v>大专</v>
@@ -2614,22 +2613,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>7千-9千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C98" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E98" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F98" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2637,22 +2636,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>android/安卓开发经理</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B99" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C99" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D99" t="str">
         <v>郑州</v>
       </c>
       <c r="E99" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F99" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2660,22 +2659,22 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android程序员</v>
+        <v>android开发</v>
       </c>
       <c r="B100" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C100" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2683,22 +2682,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B101" t="str">
-        <v>6千-1万</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C101" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F101" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2709,13 +2708,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C102" t="str">
-        <v>八六三软件</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E102" t="str">
         <v>3-5年</v>
@@ -2729,19 +2728,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C103" t="str">
-        <v>安图生物</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D103" t="str">
         <v>郑州</v>
       </c>
       <c r="E103" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F103" t="str">
         <v>本科</v>
@@ -2752,13 +2751,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B104" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C104" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D104" t="str">
         <v>郑州</v>
@@ -2775,22 +2774,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>4千-6千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D105" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E105" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2801,16 +2800,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>5千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C106" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
         <v>大专</v>
@@ -2824,19 +2823,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C107" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F107" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2844,22 +2843,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C108" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F108" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2867,22 +2866,22 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>6千-8千</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E109" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F109" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2890,22 +2889,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android/移动互联网开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>3千-6千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C110" t="str">
-        <v>郑州长兴信息技术有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E110" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2913,22 +2912,22 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>5千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C111" t="str">
-        <v>八六三软件</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
       </c>
       <c r="E111" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2939,19 +2938,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C112" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D112" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F112" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -2962,19 +2961,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E113" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F113" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2982,19 +2981,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B114" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C114" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E114" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
         <v>本科</v>
@@ -3008,19 +3007,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C115" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E115" t="str">
         <v>3-5年</v>
       </c>
       <c r="F115" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3031,19 +3030,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C116" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E116" t="str">
         <v>3-5年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3051,22 +3050,22 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>6千-1万</v>
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C117" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D117" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F117" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -3077,16 +3076,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
         <v>大专</v>
@@ -3095,94 +3094,94 @@
         <v/>
       </c>
     </row>
-    <row r="119" xml:space="preserve">
+    <row r="119">
       <c r="A119" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C119" t="str">
+        <v>河南容亿软件技术有限公司</v>
+      </c>
+      <c r="D119" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E119" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F119" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B120" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C120" t="str">
+        <v>厦门特力通通信工程有限公司</v>
+      </c>
+      <c r="D120" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E120" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F120" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>android 开发</v>
+      </c>
+      <c r="B121" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C121" t="str">
+        <v>浪潮集团</v>
+      </c>
+      <c r="D121" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E121" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F121" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
         <v>android/ios开发工程师</v>
       </c>
-      <c r="B119" t="str" xml:space="preserve">
+      <c r="B122" t="str" xml:space="preserve">
         <v xml:space="preserve">7千-8千
           · 13薪</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C122" t="str">
         <v>郑州百易科技有限公司</v>
-      </c>
-      <c r="D119" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E119" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F119" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B120" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C120" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
-      </c>
-      <c r="D120" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E120" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F120" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B121" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C121" t="str">
-        <v>友途车家科技服务有限公司</v>
-      </c>
-      <c r="D121" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E121" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F121" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B122" t="str">
-        <v>2.5万-3.5万</v>
-      </c>
-      <c r="C122" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E122" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3190,19 +3189,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C123" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
@@ -3216,19 +3215,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>1万-2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C124" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E124" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,22 +3235,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android 开发</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C125" t="str">
-        <v>浪潮集团</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3259,19 +3258,19 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>7千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F126" t="str">
         <v>本科</v>
@@ -3282,16 +3281,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C127" t="str">
-        <v>科大讯飞</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
@@ -3308,19 +3307,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C128" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F128" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3328,22 +3327,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B129" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E129" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3351,19 +3350,19 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>7千-1.1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C130" t="str">
-        <v>昂普科技</v>
+        <v>八六三软件</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
         <v>本科</v>
@@ -3377,10 +3376,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B131" t="str">
-        <v>6千-1.2万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D131" t="str">
         <v>郑州</v>
@@ -3389,7 +3388,7 @@
         <v>1-3年</v>
       </c>
       <c r="F131" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3397,22 +3396,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>资深android开发工程师</v>
+        <v>android/移动互联网开发</v>
       </c>
       <c r="B132" t="str">
-        <v>1.5万-2万</v>
+        <v>3千-6千</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州长兴信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
         <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F132" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,19 +3419,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C133" t="str">
-        <v>八六三软件</v>
+        <v>天迈科技</v>
       </c>
       <c r="D133" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
         <v>本科</v>
@@ -3443,13 +3442,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B134" t="str">
-        <v>4千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C134" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D134" t="str">
         <v>郑州</v>
@@ -3458,7 +3457,7 @@
         <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3466,16 +3465,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B135" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>天迈科技</v>
+        <v>威科姆</v>
       </c>
       <c r="D135" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E135" t="str">
         <v>3-5年</v>
@@ -3492,10 +3491,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C136" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
@@ -3512,22 +3511,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android前端开发</v>
       </c>
       <c r="B137" t="str">
-        <v>6千-8千</v>
+        <v>4千-7千</v>
       </c>
       <c r="C137" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E137" t="str">
         <v>1-3年</v>
       </c>
       <c r="F137" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3538,10 +3537,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C138" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
@@ -3558,22 +3557,22 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>android前端开发</v>
+        <v>android工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>4千-7千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C139" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E139" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F139" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3607,10 +3606,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C141" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D141" t="str">
         <v>郑州</v>
@@ -3627,19 +3626,19 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>android 工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C142" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
         <v>本科</v>
@@ -3650,22 +3649,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F143" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3673,19 +3672,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B144" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
@@ -3696,19 +3695,19 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B145" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C145" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F145" t="str">
         <v>学历不限</v>
@@ -3719,13 +3718,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6千-8千</v>
+        <v>4千-8千</v>
       </c>
       <c r="C146" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
@@ -3742,22 +3741,22 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>android软件工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B147" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F147" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -3765,19 +3764,19 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B148" t="str">
-        <v>4千-8千</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
         <v>本科</v>
@@ -3788,19 +3787,19 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E149" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F149" t="str">
         <v>大专</v>
@@ -3811,16 +3810,16 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓开发工程师 大平台五险一金</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>9千-1.4万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C150" t="str">
-        <v>优路教育</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E150" t="str">
         <v>3-5年</v>
@@ -3834,22 +3833,22 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C151" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
       </c>
       <c r="F151" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -3857,22 +3856,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>安卓端工程师</v>
+        <v>andriod开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>8千-1.5万</v>
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C152" t="str">
-        <v>万邦国际集团</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E152" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F152" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -3880,22 +3879,22 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>ios+安卓 软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C153" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3903,19 +3902,19 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>1.2万-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C154" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F154" t="str">
         <v>本科</v>
@@ -3926,22 +3925,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>andorid开发工程师</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>5千-9千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C155" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3952,19 +3951,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C156" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3972,22 +3971,22 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>APP开发工程师</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>9千-1.8万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C157" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E157" t="str">
         <v>5-10年</v>
       </c>
       <c r="F157" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -3995,13 +3994,13 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>安卓开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C158" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
@@ -4010,7 +4009,7 @@
         <v>1-3年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -4018,13 +4017,13 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>安卓开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C159" t="str">
-        <v>河南思维列控</v>
+        <v>贝博电子</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
@@ -4041,16 +4040,16 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>软件开发工程师</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-9千</v>
       </c>
       <c r="C160" t="str">
-        <v>贝博电子</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E160" t="str">
         <v>3-5年</v>
@@ -4064,19 +4063,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>5千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C161" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D161" t="str">
         <v>郑州</v>
       </c>
       <c r="E161" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F161" t="str">
         <v>大专</v>
@@ -4087,22 +4086,22 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>flutter开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C162" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>易宝软件</v>
       </c>
       <c r="D162" t="str">
         <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -4110,19 +4109,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>资深安卓开发工程师</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B163" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C163" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E163" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F163" t="str">
         <v>本科</v>
@@ -4136,10 +4135,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C164" t="str">
-        <v>易宝软件</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
@@ -4154,18 +4153,19 @@
         <v/>
       </c>
     </row>
-    <row r="165">
+    <row r="165" xml:space="preserve">
       <c r="A165" t="str">
-        <v>andriod开发工程师（可兼职）</v>
-      </c>
-      <c r="B165" t="str">
-        <v>1.3万-2.5万</v>
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B165" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
       </c>
       <c r="C165" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4179,43 +4179,42 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>移动开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B166" t="str">
-        <v>6千-1.1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C166" t="str">
-        <v>北京动态点网络科技有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E166" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G166" t="str">
         <v/>
       </c>
     </row>
-    <row r="167" xml:space="preserve">
+    <row r="167">
       <c r="A167" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B167" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
+        <v>安卓软件开发工程师</v>
+      </c>
+      <c r="B167" t="str">
+        <v>8千-1万</v>
       </c>
       <c r="C167" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F167" t="str">
         <v>本科</v>
@@ -4226,19 +4225,19 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>1.5万-2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C168" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E168" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F168" t="str">
         <v>大专</v>
@@ -4252,19 +4251,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B169" t="str">
-        <v>5千-7千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C169" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E169" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F169" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4272,19 +4271,19 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B170" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>北京动态点网络科技有限公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F170" t="str">
         <v>本科</v>
@@ -4295,22 +4294,22 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B171" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C171" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D171" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E171" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F171" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G171" t="str">
         <v/>
@@ -4318,22 +4317,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>andriod开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C172" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E172" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F172" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4341,19 +4340,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>逆向工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B173" t="str">
-        <v>1万-2万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C173" t="str">
-        <v>云库科技</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D173" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F173" t="str">
         <v>大专</v>
@@ -4364,19 +4363,19 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>安卓研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C174" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D174" t="str">
         <v>郑州</v>
       </c>
       <c r="E174" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F174" t="str">
         <v>大专</v>
@@ -4387,22 +4386,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>安卓开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C175" t="str">
-        <v>河南广播传媒集团有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E175" t="str">
         <v>3-5年</v>
       </c>
       <c r="F175" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4410,22 +4409,22 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>安卓开发（双休）</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B176" t="str">
-        <v>6千-9千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C176" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E176" t="str">
         <v>3-5年</v>
       </c>
       <c r="F176" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G176" t="str">
         <v/>
@@ -4433,22 +4432,22 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>安卓工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C177" t="str">
-        <v>云涌科技</v>
+        <v>云库科技</v>
       </c>
       <c r="D177" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E177" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F177" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -4456,22 +4455,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C178" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D178" t="str">
         <v>郑州</v>
       </c>
       <c r="E178" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G178" t="str">
         <v/>
@@ -4479,19 +4478,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>高级Linux工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C179" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F179" t="str">
         <v>本科</v>
@@ -4502,22 +4501,22 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>1.5万-2.5万</v>
+        <v>4千-5千</v>
       </c>
       <c r="C180" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南德克电子科技有限公司</v>
       </c>
       <c r="D180" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E180" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F180" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G180" t="str">
         <v/>
@@ -4525,16 +4524,16 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>逆向研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B181" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C181" t="str">
-        <v>云库科技</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E181" t="str">
         <v>3-5年</v>
@@ -4548,22 +4547,22 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B182" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C182" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E182" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F182" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G182" t="str">
         <v/>
@@ -4571,19 +4570,19 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>安卓工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C183" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E183" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F183" t="str">
         <v>本科</v>
@@ -4594,22 +4593,22 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>安卓开发工程师（双休）</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B184" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C184" t="str">
-        <v>河南知途游道信息科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D184" t="str">
         <v>郑州</v>
       </c>
       <c r="E184" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F184" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G184" t="str">
         <v/>
@@ -4620,10 +4619,10 @@
         <v>安卓工程师</v>
       </c>
       <c r="B185" t="str">
-        <v>4千-5千</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C185" t="str">
-        <v>河南德克电子科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D185" t="str">
         <v>郑州</v>
@@ -4640,19 +4639,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B186" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C186" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F186" t="str">
         <v>本科</v>
@@ -4663,19 +4662,19 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C187" t="str">
-        <v>超图软件</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D187" t="str">
         <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F187" t="str">
         <v>本科</v>
@@ -4686,13 +4685,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>5.5千-7千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C188" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D188" t="str">
         <v>郑州</v>
@@ -4701,7 +4700,7 @@
         <v>1-3年</v>
       </c>
       <c r="F188" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G188" t="str">
         <v/>
@@ -4709,22 +4708,22 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B189" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C189" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D189" t="str">
         <v>郑州</v>
       </c>
       <c r="E189" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F189" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G189" t="str">
         <v/>
@@ -4732,22 +4731,22 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>系统开发工程师</v>
+        <v>uni app开发工程师</v>
       </c>
       <c r="B190" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C190" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南智宽科技有限公司</v>
       </c>
       <c r="D190" t="str">
         <v>郑州</v>
       </c>
       <c r="E190" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F190" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G190" t="str">
         <v/>
@@ -4758,16 +4757,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C191" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D191" t="str">
         <v>郑州</v>
       </c>
       <c r="E191" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F191" t="str">
         <v>本科</v>
@@ -4778,22 +4777,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>安卓工程师</v>
+        <v>软件开发工程师（APP开发）/APP开发工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>6千-1万</v>
+        <v>7.5千-1.5万</v>
       </c>
       <c r="C192" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E192" t="str">
         <v>3-5年</v>
       </c>
       <c r="F192" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -4801,22 +4800,22 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>软件开发工程师（APP开发）/APP开发工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B193" t="str">
-        <v>7.5千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C193" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D193" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E193" t="str">
         <v>3-5年</v>
       </c>
       <c r="F193" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G193" t="str">
         <v/>
@@ -4824,22 +4823,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>安卓开发工程师</v>
+        <v>unity开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C194" t="str">
-        <v>天一文化</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E194" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F194" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G194" t="str">
         <v/>
@@ -4847,76 +4846,30 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B195" t="str">
-        <v>6千-1万</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C195" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D195" t="str">
         <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F195" t="str">
         <v>大专</v>
       </c>
       <c r="G195" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="str">
-        <v>unity开发工程师</v>
-      </c>
-      <c r="B196" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C196" t="str">
-        <v>河南商泽网络科技有限公司</v>
-      </c>
-      <c r="D196" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E196" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F196" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G196" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="str">
-        <v>手机软件开发工程师</v>
-      </c>
-      <c r="B197" t="str">
-        <v>5.5千-7千</v>
-      </c>
-      <c r="C197" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D197" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E197" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F197" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G197" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G197"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G195"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,16 +405,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C2" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E2" t="str">
         <v>1-3年</v>
@@ -428,19 +428,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8千-1.5万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C3" t="str">
-        <v>硕诺科技</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F3" t="str">
         <v>本科</v>
@@ -454,13 +454,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C4" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
         <v>1-3年</v>
@@ -474,16 +474,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E5" t="str">
         <v>1-3年</v>
@@ -497,16 +497,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>双休android五险工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C6" t="str">
-        <v>河南智森物联网科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -523,19 +523,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C7" t="str">
-        <v>宁波五招信息技术有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E7" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -543,22 +543,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B8" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C8" t="str">
-        <v>牧原股份</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F8" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C9" t="str">
-        <v>天星教育</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D9" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F9" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,22 +589,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C10" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
         <v>3-5年</v>
       </c>
       <c r="F10" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -612,19 +612,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android开发工程师</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C11" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D11" t="str">
         <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F11" t="str">
         <v>大专</v>
@@ -638,10 +638,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D12" t="str">
         <v>郑州</v>
@@ -650,7 +650,7 @@
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,22 +658,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,19 +684,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E14" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F14" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -704,19 +704,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>优路教育</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
         <v>本科</v>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android软件开发 高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B16" t="str">
-        <v>9千-1.8万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C16" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -753,19 +753,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>7千-1.2万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C17" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E17" t="str">
         <v>1-3年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B18" t="str">
-        <v>9千-1.6万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C18" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D18" t="str">
         <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -799,19 +799,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C19" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
         <v>3-5年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -822,16 +822,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>9千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C20" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E20" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F20" t="str">
         <v>大专</v>
@@ -845,13 +845,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>7千-1.4万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C21" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南合众伟奇云智科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E21" t="str">
         <v>3-5年</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android app工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C22" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>郑州万迪来电子技术有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
       </c>
       <c r="E22" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F22" t="str">
         <v>本科</v>
@@ -888,22 +888,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>android开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B23" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C23" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D23" t="str">
         <v>郑州</v>
       </c>
       <c r="E23" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F23" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -911,19 +911,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B24" t="str">
-        <v>8千-1万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D24" t="str">
         <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F24" t="str">
         <v>本科</v>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>双休android五险工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南云考点教育科技有限公司</v>
+        <v>河南智森物联网科技有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -960,19 +960,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C26" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E26" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F26" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B27" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C27" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1006,16 +1006,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B28" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C28" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>宁波五招信息技术有限公司</v>
       </c>
       <c r="D28" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E28" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F28" t="str">
         <v>大专</v>
@@ -1029,10 +1029,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>7千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C29" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1052,19 +1052,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>1万-1.6万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C30" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1075,19 +1075,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F31" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1098,16 +1098,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C32" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
         <v>大专</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C33" t="str">
-        <v>刀锋互娱</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E33" t="str">
         <v>3-5年</v>
       </c>
       <c r="F33" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1147,10 +1147,10 @@
         <v>7千-1万</v>
       </c>
       <c r="C34" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E34" t="str">
         <v>1-3年</v>
@@ -1167,16 +1167,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E35" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F35" t="str">
         <v>大专</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B36" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C36" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
         <v>本科</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C37" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E37" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1236,19 +1236,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>7千-1.4万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1万-1.8万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E39" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
@@ -1285,16 +1285,16 @@
         <v>5千-1万</v>
       </c>
       <c r="C40" t="str">
-        <v>新天科技</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E40" t="str">
         <v>1-3年</v>
       </c>
       <c r="F40" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>安卓android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C41" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E41" t="str">
         <v>1-3年</v>
       </c>
       <c r="F41" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>android系统固件工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C42" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C43" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E43" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发（SZZF15zjf）(J12500)</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B44" t="str">
-        <v>6千-9千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C44" t="str">
-        <v>东方国信</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F44" t="str">
         <v>本科</v>
@@ -1397,16 +1397,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B45" t="str">
-        <v>7千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C45" t="str">
-        <v>河南腾跃科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D45" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E45" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F45" t="str">
         <v>大专</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>软件工程师 (车载android方向)</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州精益达汽车零部件有限公司</v>
+        <v>河南七颗牙教育科技有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>1万-1.6万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C47" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F47" t="str">
         <v>本科</v>
@@ -1466,19 +1466,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C48" t="str">
-        <v>河南港江建设集团有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E48" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C49" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E49" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1515,10 +1515,10 @@
         <v>6千-8千</v>
       </c>
       <c r="C50" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>郑州乙丙丁软件科技有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E50" t="str">
         <v>1-3年</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B51" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E51" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>5千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>6千-8千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C53" t="str">
-        <v>河南七颗牙教育科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B54" t="str">
-        <v>8千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F54" t="str">
         <v>本科</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C55" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1647,16 +1647,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android开发工程师</v>
+        <v>android程序员</v>
       </c>
       <c r="B56" t="str">
-        <v>1万-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C56" t="str">
-        <v>博商云(郑州)科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E56" t="str">
         <v>3-5年</v>
@@ -1670,16 +1670,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1万-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C57" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
         <v>3-5年</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>1.2万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>易安德电子商务有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
       </c>
       <c r="E58" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>6千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C59" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C60" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
@@ -1765,16 +1765,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>郑州信大先进技术研究院</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E61" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C62" t="str">
-        <v>天迈科技</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E62" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1811,16 +1811,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州乙丙丁软件科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D63" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F63" t="str">
         <v>大专</v>
@@ -1834,19 +1834,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C64" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1857,13 +1857,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>5千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E65" t="str">
         <v>1-3年</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师（兼职）</v>
+        <v>android开发</v>
       </c>
       <c r="B66" t="str">
-        <v>8千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州软秦计算机信息技术有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D66" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E66" t="str">
         <v>1-3年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1903,19 +1903,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>5千-1万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C67" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>河南探迹信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E67" t="str">
         <v>1-3年</v>
       </c>
       <c r="F67" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C68" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>屹通信息</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E68" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1949,19 +1949,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C69" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E69" t="str">
         <v>3-5年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>4千-6千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C70" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E70" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F70" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1995,16 +1995,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C71" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
         <v>大专</v>
@@ -2018,16 +2018,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>8千-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C72" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E72" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F72" t="str">
         <v>大专</v>
@@ -2041,16 +2041,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>7千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F73" t="str">
         <v>大专</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android开发</v>
+        <v>android/移动互联网开发</v>
       </c>
       <c r="B74" t="str">
-        <v>8千-1万</v>
+        <v>3千-6千</v>
       </c>
       <c r="C74" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>郑州长兴信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F74" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -2084,19 +2084,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B75" t="str">
-        <v>7千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C75" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F75" t="str">
         <v>本科</v>
@@ -2110,19 +2110,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C76" t="str">
-        <v>南京迈特望</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2133,19 +2133,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C77" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
       </c>
       <c r="F77" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师(J10082)</v>
       </c>
       <c r="B78" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C78" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>天星教育</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E78" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F78" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B79" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C79" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E79" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F79" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B80" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C80" t="str">
-        <v>UU跑腿</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D80" t="str">
         <v>郑州</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发工程师</v>
+        <v>android开发高级工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C81" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E81" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F81" t="str">
         <v>本科</v>
@@ -2248,19 +2248,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C82" t="str">
-        <v>屹通信息</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E82" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F82" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>android软件开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C83" t="str">
-        <v>昂普科技</v>
+        <v>优路教育</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
@@ -2294,19 +2294,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F84" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -2317,13 +2317,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C85" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E85" t="str">
         <v>3-5年</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B86" t="str">
-        <v>7千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C86" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E86" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C87" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D87" t="str">
         <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B88" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C88" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
@@ -2409,16 +2409,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>八六三软件</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
         <v>大专</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>5千-1万</v>
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C90" t="str">
-        <v>安图生物</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E90" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F90" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>4千-6千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南容亿软件技术有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
       </c>
       <c r="E91" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F91" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C92" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E92" t="str">
         <v>3-5年</v>
       </c>
       <c r="F92" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2501,10 +2501,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
-        <v>5千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C93" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D93" t="str">
         <v>郑州</v>
@@ -2519,18 +2519,19 @@
         <v/>
       </c>
     </row>
-    <row r="94">
+    <row r="94" xml:space="preserve">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B94" t="str">
-        <v>5千-8千</v>
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
       </c>
       <c r="C94" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>郑州百易科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E94" t="str">
         <v>1-3年</v>
@@ -2544,13 +2545,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B95" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>昂普科技</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
@@ -2559,7 +2560,7 @@
         <v>3-5年</v>
       </c>
       <c r="F95" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2567,13 +2568,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>android app工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B96" t="str">
-        <v>5千-7千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C96" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>UU跑腿</v>
       </c>
       <c r="D96" t="str">
         <v>郑州</v>
@@ -2590,22 +2591,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E97" t="str">
         <v>3-5年</v>
       </c>
       <c r="F97" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2613,22 +2614,22 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B98" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C98" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>河南航天金盾网络科技有限公司</v>
       </c>
       <c r="D98" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E98" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F98" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2636,22 +2637,22 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B99" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C99" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D99" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E99" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F99" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2659,13 +2660,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C100" t="str">
-        <v>八六三软件</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D100" t="str">
         <v>郑州</v>
@@ -2682,22 +2683,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android应用开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B101" t="str">
-        <v>1.3万-1.8万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>捷安高科</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
         <v>郑州</v>
       </c>
       <c r="E101" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2708,16 +2709,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>7千-1.1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C102" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D102" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F102" t="str">
         <v>大专</v>
@@ -2728,22 +2729,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C103" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E103" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F103" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2751,22 +2752,22 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C104" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E104" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -2774,13 +2775,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>android 安卓 APP开发工程师</v>
       </c>
       <c r="B105" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
+        <v>郑州清森科技有限公司</v>
       </c>
       <c r="D105" t="str">
         <v>郑州-金水区</v>
@@ -2797,22 +2798,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B106" t="str">
-        <v>7千-9千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C106" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E106" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F106" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2820,22 +2821,22 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发工程师</v>
+        <v>android(安卓)开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C107" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南普惠天成生物科技有限公司</v>
       </c>
       <c r="D107" t="str">
         <v>郑州</v>
       </c>
       <c r="E107" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2843,19 +2844,19 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>高级android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B108" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C108" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D108" t="str">
         <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F108" t="str">
         <v>本科</v>
@@ -2866,16 +2867,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>9千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C109" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D109" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E109" t="str">
         <v>3-5年</v>
@@ -2892,13 +2893,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B110" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C110" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南瑞丰软件科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
         <v>3-5年</v>
@@ -2915,10 +2916,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C111" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D111" t="str">
         <v>郑州</v>
@@ -2927,7 +2928,7 @@
         <v>3-5年</v>
       </c>
       <c r="F111" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2935,13 +2936,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B112" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州恩普特</v>
+        <v>郑州郑大信息技术有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
@@ -2961,13 +2962,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B113" t="str">
-        <v>8千-1.3万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C113" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D113" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E113" t="str">
         <v>3-5年</v>
@@ -2981,16 +2982,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C114" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
         <v>3-5年</v>
@@ -3004,22 +3005,22 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B115" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C115" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D115" t="str">
         <v>郑州</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F115" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -3030,19 +3031,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C116" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D116" t="str">
         <v>郑州</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F116" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3050,16 +3051,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>2.5万-3.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C117" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
         <v>不限</v>
@@ -3073,16 +3074,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B118" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C118" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E118" t="str">
         <v>1-3年</v>
@@ -3096,13 +3097,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android开发工程师</v>
+        <v>Andorid开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C119" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D119" t="str">
         <v>郑州</v>
@@ -3111,7 +3112,7 @@
         <v>3-5年</v>
       </c>
       <c r="F119" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3119,22 +3120,22 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B120" t="str">
-        <v>1万-2万</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C120" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E120" t="str">
         <v>3-5年</v>
       </c>
       <c r="F120" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3142,16 +3143,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>android 开发</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C121" t="str">
-        <v>浪潮集团</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E121" t="str">
         <v>3-5年</v>
@@ -3163,25 +3164,24 @@
         <v/>
       </c>
     </row>
-    <row r="122" xml:space="preserve">
+    <row r="122">
       <c r="A122" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B122" t="str" xml:space="preserve">
-        <v xml:space="preserve">7千-8千
-          · 13薪</v>
+        <v>andriod开发工程师</v>
+      </c>
+      <c r="B122" t="str">
+        <v>1.2万-1.6万</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州百易科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D122" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F122" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3189,19 +3189,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C123" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E123" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
@@ -3212,19 +3212,19 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C124" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E124" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F124" t="str">
         <v>本科</v>
@@ -3235,22 +3235,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C125" t="str">
-        <v>科大讯飞</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E125" t="str">
         <v>3-5年</v>
       </c>
       <c r="F125" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>android软件开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C126" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D126" t="str">
         <v>郑州</v>
@@ -3281,19 +3281,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>资深android开发工程师</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>1.5万-2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C127" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E127" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F127" t="str">
         <v>本科</v>
@@ -3304,22 +3304,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>6千-1.2万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C128" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D128" t="str">
         <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F128" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C129" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E129" t="str">
         <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3350,45 +3350,46 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>5千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C130" t="str">
-        <v>八六三软件</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
         <v>1-3年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G130" t="str">
         <v/>
       </c>
     </row>
-    <row r="131">
+    <row r="131" xml:space="preserve">
       <c r="A131" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B131" t="str">
-        <v>4千-6千</v>
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B131" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
       </c>
       <c r="C131" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E131" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F131" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3396,22 +3397,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>android/移动互联网开发</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B132" t="str">
-        <v>3千-6千</v>
+        <v>5千-9千</v>
       </c>
       <c r="C132" t="str">
-        <v>郑州长兴信息技术有限公司</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E132" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F132" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3419,22 +3420,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C133" t="str">
-        <v>天迈科技</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3442,19 +3443,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B134" t="str">
-        <v>6千-8千</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C134" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
         <v>本科</v>
@@ -3465,13 +3466,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>威科姆</v>
+        <v>易宝软件</v>
       </c>
       <c r="D135" t="str">
         <v>郑州</v>
@@ -3488,22 +3489,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>android开发工程师</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>8千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C136" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E136" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F136" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -3511,16 +3512,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>android前端开发</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>4千-7千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C137" t="str">
-        <v>北京青蓝在线教育咨询有限公司河南分公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D137" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E137" t="str">
         <v>1-3年</v>
@@ -3534,22 +3535,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>7千-1.2万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C138" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E138" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F138" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3557,13 +3558,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>android工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B139" t="str">
         <v>8千-1万</v>
       </c>
       <c r="C139" t="str">
-        <v>郑州郑大信息技术有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
@@ -3580,22 +3581,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C140" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
+        <v>北京动态点网络科技有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E140" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F140" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3603,22 +3604,22 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>android开发工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>6千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C141" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E141" t="str">
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3626,22 +3627,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>android开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B142" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C142" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E142" t="str">
         <v>3-5年</v>
       </c>
       <c r="F142" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3649,22 +3650,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>android开发工程师</v>
+        <v>uni app开发工程师</v>
       </c>
       <c r="B143" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C143" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>河南智宽科技有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E143" t="str">
         <v>1-3年</v>
       </c>
       <c r="F143" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3672,19 +3673,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>android软件开发工程师</v>
+        <v>高级Linux工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C144" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E144" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F144" t="str">
         <v>本科</v>
@@ -3695,22 +3696,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>android软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州立信软件科技有限公司</v>
       </c>
       <c r="D145" t="str">
         <v>郑州</v>
       </c>
       <c r="E145" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3718,19 +3719,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>android开发工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C146" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3741,13 +3742,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>郑州远洋电子科技有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
@@ -3756,7 +3757,7 @@
         <v>1-3年</v>
       </c>
       <c r="F147" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -3764,16 +3765,16 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>安卓开发工程师 大平台五险一金</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>9千-1.4万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C148" t="str">
-        <v>优路教育</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E148" t="str">
         <v>3-5年</v>
@@ -3787,16 +3788,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>ios+安卓 软件工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C149" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
         <v>3-5年</v>
@@ -3810,22 +3811,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-7千</v>
       </c>
       <c r="C150" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南亚菲品牌策划有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E150" t="str">
-        <v>3-5年</v>
+        <v>1年以下</v>
       </c>
       <c r="F150" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3833,22 +3834,22 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>安卓端工程师</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B151" t="str">
-        <v>8千-1.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C151" t="str">
-        <v>万邦国际集团</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
       </c>
       <c r="F151" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -3856,19 +3857,19 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>andriod开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>1.2万-1.6万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E152" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F152" t="str">
         <v>本科</v>
@@ -3879,22 +3880,22 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发（双休）</v>
       </c>
       <c r="B153" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C153" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D153" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E153" t="str">
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3902,19 +3903,19 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C154" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F154" t="str">
         <v>本科</v>
@@ -3925,19 +3926,19 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Andorid开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>8千-1万</v>
+        <v>4千-5千</v>
       </c>
       <c r="C155" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南德克电子科技有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F155" t="str">
         <v>大专</v>
@@ -3948,22 +3949,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C156" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E156" t="str">
         <v>1-3年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3971,19 +3972,19 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>资深安卓开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>河南凯仕网络科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F157" t="str">
         <v>本科</v>
@@ -3994,13 +3995,13 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>flutter开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B158" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C158" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
@@ -4009,7 +4010,7 @@
         <v>1-3年</v>
       </c>
       <c r="F158" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -4017,19 +4018,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>软件开发工程师</v>
+        <v>系统开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C159" t="str">
-        <v>贝博电子</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F159" t="str">
         <v>本科</v>
@@ -4040,22 +4041,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>andorid开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>5千-9千</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C160" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F160" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -4063,19 +4064,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>APP开发工程师</v>
+        <v>Flutter</v>
       </c>
       <c r="B161" t="str">
-        <v>9千-1.8万</v>
+        <v>9千-1.1万</v>
       </c>
       <c r="C161" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E161" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F161" t="str">
         <v>大专</v>
@@ -4086,19 +4087,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师5K-1W</v>
       </c>
       <c r="B162" t="str">
-        <v>1.5万-2.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C162" t="str">
-        <v>易宝软件</v>
+        <v>河南格瑞恩电子科技有限公司</v>
       </c>
       <c r="D162" t="str">
         <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F162" t="str">
         <v>本科</v>
@@ -4109,22 +4110,22 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>1.3万-2.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C163" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南塔姆网络科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E163" t="str">
         <v>3-5年</v>
       </c>
       <c r="F163" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G163" t="str">
         <v/>
@@ -4132,13 +4133,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B164" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C164" t="str">
-        <v>河南思维列控</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
@@ -4147,25 +4148,24 @@
         <v>3-5年</v>
       </c>
       <c r="F164" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G164" t="str">
         <v/>
       </c>
     </row>
-    <row r="165" xml:space="preserve">
+    <row r="165">
       <c r="A165" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B165" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
+      <c r="B165" t="str">
+        <v>6千-8千</v>
       </c>
       <c r="C165" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4179,22 +4179,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>软件开发工程师（APP开发）/APP开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>1.5万-2万</v>
+        <v>7.5千-1.5万</v>
       </c>
       <c r="C166" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E166" t="str">
         <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4202,22 +4202,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>unity开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C167" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E167" t="str">
         <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4225,16 +4225,16 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>安卓开发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>5千-7千</v>
+        <v>5.5千-7千</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>河南易众拍卖行有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E168" t="str">
         <v>1-3年</v>
@@ -4243,633 +4243,12 @@
         <v>大专</v>
       </c>
       <c r="G168" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B169" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C169" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
-      </c>
-      <c r="D169" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E169" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F169" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G169" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>移动开发工程师</v>
-      </c>
-      <c r="B170" t="str">
-        <v>6千-1.1万</v>
-      </c>
-      <c r="C170" t="str">
-        <v>北京动态点网络科技有限公司</v>
-      </c>
-      <c r="D170" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E170" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F170" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G170" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>安卓研发工程师</v>
-      </c>
-      <c r="B171" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C171" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
-      </c>
-      <c r="D171" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E171" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F171" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G171" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B172" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C172" t="str">
-        <v>云涌科技</v>
-      </c>
-      <c r="D172" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E172" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F172" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G172" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>安卓开发（双休）</v>
-      </c>
-      <c r="B173" t="str">
-        <v>6千-9千</v>
-      </c>
-      <c r="C173" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D173" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E173" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F173" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G173" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B174" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C174" t="str">
-        <v>郑州立信软件科技有限公司</v>
-      </c>
-      <c r="D174" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E174" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F174" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G174" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>高级Linux工程师</v>
-      </c>
-      <c r="B175" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C175" t="str">
-        <v>河南省吉立达机器人有限公司</v>
-      </c>
-      <c r="D175" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E175" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F175" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G175" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
-      </c>
-      <c r="B176" t="str">
-        <v>1.5万-2.5万</v>
-      </c>
-      <c r="C176" t="str">
-        <v>合肥观六智能科技有限公司</v>
-      </c>
-      <c r="D176" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E176" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F176" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G176" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>逆向工程师</v>
-      </c>
-      <c r="B177" t="str">
-        <v>1万-2万</v>
-      </c>
-      <c r="C177" t="str">
-        <v>云库科技</v>
-      </c>
-      <c r="D177" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E177" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F177" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G177" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>安卓软件开发工程师</v>
-      </c>
-      <c r="B178" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C178" t="str">
-        <v>河南国都时代科技有限公司</v>
-      </c>
-      <c r="D178" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E178" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F178" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G178" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B179" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C179" t="str">
-        <v>河南蓝信科技有限责任公司</v>
-      </c>
-      <c r="D179" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E179" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F179" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G179" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B180" t="str">
-        <v>4千-5千</v>
-      </c>
-      <c r="C180" t="str">
-        <v>河南德克电子科技有限公司</v>
-      </c>
-      <c r="D180" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E180" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F180" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G180" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B181" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C181" t="str">
-        <v>河南广播传媒集团有限公司</v>
-      </c>
-      <c r="D181" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E181" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F181" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G181" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>逆向研发工程师</v>
-      </c>
-      <c r="B182" t="str">
-        <v>1万-2万</v>
-      </c>
-      <c r="C182" t="str">
-        <v>云库科技</v>
-      </c>
-      <c r="D182" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E182" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F182" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G182" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B183" t="str">
-        <v>8千-1.5万</v>
-      </c>
-      <c r="C183" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D183" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E183" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F183" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G183" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
-      </c>
-      <c r="B184" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C184" t="str">
-        <v>超图软件</v>
-      </c>
-      <c r="D184" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E184" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F184" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G184" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B185" t="str">
-        <v>5.5千-7千</v>
-      </c>
-      <c r="C185" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D185" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E185" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F185" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G185" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
-        <v>安卓开发工程师5K-1W</v>
-      </c>
-      <c r="B186" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C186" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
-      </c>
-      <c r="D186" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E186" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F186" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G186" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
-        <v>系统开发工程师</v>
-      </c>
-      <c r="B187" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C187" t="str">
-        <v>富士康科技集团郑州科技园</v>
-      </c>
-      <c r="D187" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E187" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F187" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G187" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B188" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C188" t="str">
-        <v>河南凯仕网络科技有限公司</v>
-      </c>
-      <c r="D188" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E188" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F188" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G188" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B189" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C189" t="str">
-        <v>河南塔姆网络科技有限公司</v>
-      </c>
-      <c r="D189" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E189" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F189" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G189" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
-        <v>uni app开发工程师</v>
-      </c>
-      <c r="B190" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C190" t="str">
-        <v>河南智宽科技有限公司</v>
-      </c>
-      <c r="D190" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E190" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F190" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G190" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B191" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C191" t="str">
-        <v>天一文化</v>
-      </c>
-      <c r="D191" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E191" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F191" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G191" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="str">
-        <v>软件开发工程师（APP开发）/APP开发工程师</v>
-      </c>
-      <c r="B192" t="str">
-        <v>7.5千-1.5万</v>
-      </c>
-      <c r="C192" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
-      </c>
-      <c r="D192" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E192" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F192" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G192" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="str">
-        <v>安卓手机app开发人员</v>
-      </c>
-      <c r="B193" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C193" t="str">
-        <v>河南商蒙软件科技有限公司</v>
-      </c>
-      <c r="D193" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E193" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F193" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G193" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="str">
-        <v>unity开发工程师</v>
-      </c>
-      <c r="B194" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C194" t="str">
-        <v>河南商泽网络科技有限公司</v>
-      </c>
-      <c r="D194" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E194" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F194" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G194" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
-        <v>手机软件开发工程师</v>
-      </c>
-      <c r="B195" t="str">
-        <v>5.5千-7千</v>
-      </c>
-      <c r="C195" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D195" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E195" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F195" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G195" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G168"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +408,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C2" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>郑州泽贤信息技术有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android软件开发 高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>9千-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F3" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,19 +451,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B4" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C4" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E4" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F4" t="str">
         <v>本科</v>
@@ -474,22 +474,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F5" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -523,19 +523,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>5千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C7" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E7" t="str">
         <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -543,22 +543,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>9千-1.6万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>日本村郑州</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E8" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F8" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -569,10 +569,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>易安德电子商务有限公司</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
@@ -592,16 +592,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C10" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E10" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F10" t="str">
         <v>大专</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安卓android工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C11" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E11" t="str">
         <v>1-3年</v>
       </c>
       <c r="F11" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -638,16 +638,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州恩普特</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E12" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F12" t="str">
         <v>本科</v>
@@ -658,22 +658,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C13" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E13" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,16 +684,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E14" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F14" t="str">
         <v>大专</v>
@@ -704,22 +704,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -727,22 +727,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B16" t="str">
-        <v>7千-1.3万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C16" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D16" t="str">
         <v>郑州</v>
       </c>
       <c r="E16" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F16" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>7千-9千</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C17" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F17" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -773,22 +773,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>5千-8千</v>
+        <v>7千-9千</v>
       </c>
       <c r="C18" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E18" t="str">
         <v>1-3年</v>
       </c>
       <c r="F18" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -799,19 +799,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>河南国测信息技术有限公司</v>
       </c>
       <c r="D19" t="str">
         <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F19" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -819,16 +819,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C20" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E20" t="str">
         <v>1-3年</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B21" t="str">
-        <v>7千-1.2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C21" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
         <v>本科</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android app工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>5千-7千</v>
+        <v>4千-8千</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州万迪来电子技术有限公司</v>
+        <v>郑州天启自动化系统有限公司</v>
       </c>
       <c r="D22" t="str">
         <v>郑州</v>
@@ -880,7 +880,7 @@
         <v>1-3年</v>
       </c>
       <c r="F22" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -911,22 +911,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1.2万-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>宁波五招信息技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>双休android五险工程师</v>
+        <v>android</v>
       </c>
       <c r="B25" t="str">
-        <v>6千-1.2万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南智森物联网科技有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F25" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -963,10 +963,10 @@
         <v>1万-1.5万</v>
       </c>
       <c r="C26" t="str">
-        <v>牧原股份</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D26" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E26" t="str">
         <v>3-5年</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D27" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E27" t="str">
         <v>3-5年</v>
       </c>
       <c r="F27" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师(J10082)</v>
       </c>
       <c r="B28" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C28" t="str">
-        <v>宁波五招信息技术有限公司</v>
+        <v>天星教育</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E28" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F28" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1029,10 +1029,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C29" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D29" t="str">
         <v>郑州</v>
@@ -1041,7 +1041,7 @@
         <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1052,19 +1052,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E30" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F30" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1072,19 +1072,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B31" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D31" t="str">
         <v>郑州</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F31" t="str">
         <v>本科</v>
@@ -1093,21 +1093,22 @@
         <v/>
       </c>
     </row>
-    <row r="32">
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B32" t="str">
-        <v>6千-8千</v>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">1万-1.2万
+          · 13薪</v>
       </c>
       <c r="C32" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D32" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E32" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F32" t="str">
         <v>大专</v>
@@ -1118,19 +1119,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C33" t="str">
-        <v>硕诺科技</v>
+        <v>郑州市金水区天一外语培训中心</v>
       </c>
       <c r="D33" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E33" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F33" t="str">
         <v>本科</v>
@@ -1141,19 +1142,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B34" t="str">
-        <v>7千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C34" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D34" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E34" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F34" t="str">
         <v>本科</v>
@@ -1167,19 +1168,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C35" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D35" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E35" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F35" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1187,13 +1188,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B36" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C36" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>河南聚融优合汽车销售有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
@@ -1202,7 +1203,7 @@
         <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1210,22 +1211,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B37" t="str">
-        <v>8千-1.3万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C37" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E37" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F37" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1233,22 +1234,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C38" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E38" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1256,22 +1257,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B39" t="str">
-        <v>1万-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C39" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E39" t="str">
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1282,16 +1283,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>5千-1万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C40" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E40" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F40" t="str">
         <v>大专</v>
@@ -1302,19 +1303,19 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南省吉立达机器人有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E41" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F41" t="str">
         <v>本科</v>
@@ -1328,13 +1329,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>1万-1.2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C42" t="str">
-        <v>博商云(郑州)科技有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D42" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E42" t="str">
         <v>3-5年</v>
@@ -1348,16 +1349,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android应用开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C43" t="str">
-        <v>天迈科技</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D43" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E43" t="str">
         <v>3-5年</v>
@@ -1371,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B44" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C44" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E44" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F44" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1394,22 +1395,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B45" t="str">
-        <v>1万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C45" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E45" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F45" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1417,22 +1418,22 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android(安卓)开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6千-8千</v>
+        <v>6千-9千</v>
       </c>
       <c r="C46" t="str">
-        <v>河南七颗牙教育科技有限公司</v>
+        <v>郑州木加林文化传播有限公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
       </c>
       <c r="E46" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F46" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1440,13 +1441,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>5千-7千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
@@ -1455,7 +1456,7 @@
         <v>1-3年</v>
       </c>
       <c r="F47" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1466,19 +1467,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C48" t="str">
-        <v>南京迈特望</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年</v>
       </c>
       <c r="F48" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1486,13 +1487,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D49" t="str">
         <v>郑州-高新区</v>
@@ -1501,7 +1502,7 @@
         <v>3-5年</v>
       </c>
       <c r="F49" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1512,16 +1513,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>6千-8千</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州乙丙丁软件科技有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E50" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F50" t="str">
         <v>大专</v>
@@ -1532,22 +1533,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android 开发</v>
+        <v>android开发</v>
       </c>
       <c r="B51" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>浪潮集团</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E51" t="str">
         <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1558,19 +1559,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F52" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1581,19 +1582,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>7千-9千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C53" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州</v>
       </c>
       <c r="E53" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1601,13 +1602,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>5千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>安图生物</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D54" t="str">
         <v>郑州</v>
@@ -1616,7 +1617,7 @@
         <v>1-3年</v>
       </c>
       <c r="F54" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1624,22 +1625,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android（安卓）开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C55" t="str">
-        <v>河南金案场科技有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1647,13 +1648,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>android程序员</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C56" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
@@ -1662,7 +1663,7 @@
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1670,22 +1671,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E57" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F57" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1693,13 +1694,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B58" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C58" t="str">
-        <v>易安德电子商务有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
@@ -1708,7 +1709,7 @@
         <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1716,13 +1717,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B59" t="str">
         <v>6千-1.2万</v>
       </c>
       <c r="C59" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
@@ -1731,7 +1732,7 @@
         <v>3-5年</v>
       </c>
       <c r="F59" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1742,19 +1743,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C60" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>河南智亘网络科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E60" t="str">
         <v>3-5年</v>
       </c>
       <c r="F60" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1762,19 +1763,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B61" t="str">
-        <v>7千-1万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C61" t="str">
-        <v>郑州信大先进技术研究院</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D61" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F61" t="str">
         <v>本科</v>
@@ -1785,22 +1786,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>7千-1.1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C62" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F62" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1811,10 +1812,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>8千-1.3万</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C63" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D63" t="str">
         <v>郑州</v>
@@ -1823,7 +1824,7 @@
         <v>3-5年</v>
       </c>
       <c r="F63" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1831,19 +1832,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C64" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>求夸技术有限公司</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F64" t="str">
         <v>大专</v>
@@ -1857,19 +1858,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C65" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E65" t="str">
         <v>1-3年</v>
       </c>
       <c r="F65" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1877,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B66" t="str">
-        <v>4千-6千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C66" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F66" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1903,16 +1904,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B67" t="str">
-        <v>7千-9千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>河南探迹信息技术有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D67" t="str">
         <v>郑州</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>大专</v>
@@ -1923,19 +1924,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发工程师</v>
+        <v>android开发 (MJ004178)</v>
       </c>
       <c r="B68" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C68" t="str">
-        <v>屹通信息</v>
+        <v>神州数码系统集成服务有限公司广州分公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E68" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F68" t="str">
         <v>本科</v>
@@ -1949,19 +1950,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C69" t="str">
-        <v>八六三软件</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E69" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1969,22 +1970,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B70" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C70" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D70" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E70" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F70" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1992,22 +1993,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>android开发工程师</v>
+        <v>双休android五险工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C71" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>河南智森物联网科技有限公司</v>
       </c>
       <c r="D71" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F71" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2018,16 +2019,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>5千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C72" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E72" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F72" t="str">
         <v>大专</v>
@@ -2044,7 +2045,7 @@
         <v>6千-1万</v>
       </c>
       <c r="C73" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
@@ -2061,22 +2062,22 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>android/移动互联网开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>3千-6千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C74" t="str">
-        <v>郑州长兴信息技术有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D74" t="str">
         <v>郑州</v>
       </c>
       <c r="E74" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F74" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -2084,22 +2085,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>5千-8千</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C75" t="str">
-        <v>八六三软件</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E75" t="str">
         <v>1-3年</v>
       </c>
       <c r="F75" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2107,22 +2108,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C76" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E76" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F76" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2133,13 +2134,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C77" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
@@ -2153,39 +2154,40 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>android工程师(J10082)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C78" t="str">
-        <v>天星教育</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D78" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E78" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G78" t="str">
         <v/>
       </c>
     </row>
-    <row r="79">
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B79" t="str">
-        <v>6千-1万</v>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">5千-1万
+          · 13薪</v>
       </c>
       <c r="C79" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>去森教育</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E79" t="str">
         <v>1-3年</v>
@@ -2199,22 +2201,22 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C80" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E80" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F80" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2222,22 +2224,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>android开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>1万-1.8万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C81" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D81" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F81" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2248,19 +2250,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C82" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E82" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F82" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2268,19 +2270,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C83" t="str">
-        <v>优路教育</v>
+        <v>新天科技</v>
       </c>
       <c r="D83" t="str">
         <v>郑州</v>
       </c>
       <c r="E83" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F83" t="str">
         <v>本科</v>
@@ -2291,19 +2293,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>android开发工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B84" t="str">
-        <v>8千-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C84" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F84" t="str">
         <v>本科</v>
@@ -2317,19 +2319,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C85" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E85" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F85" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2337,22 +2339,22 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B86" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C86" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E86" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F86" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2360,19 +2362,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C87" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E87" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2383,19 +2385,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B88" t="str">
-        <v>6千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F88" t="str">
         <v>大专</v>
@@ -2406,22 +2408,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>7千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C89" t="str">
-        <v>河南腾跃科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E89" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F89" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2429,22 +2431,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B90" t="str">
-        <v>2.5万-3.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C90" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E90" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F90" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2455,10 +2457,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C91" t="str">
-        <v>河南容亿软件技术有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D91" t="str">
         <v>郑州</v>
@@ -2475,19 +2477,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B92" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C92" t="str">
-        <v>科大讯飞</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D92" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F92" t="str">
         <v>本科</v>
@@ -2501,918 +2503,917 @@
         <v>android开发工程师</v>
       </c>
       <c r="B93" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C93" t="str">
+        <v>厦门特力通通信工程有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E93" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F93" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B94" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C94" t="str">
+        <v>河南善水左岸商贸有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E94" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F94" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C95" t="str">
+        <v>郑州一迅软件科技有限公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E95" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F95" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C96" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E96" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F96" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>android/安卓开发工程师（中级）</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C97" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E97" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F97" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B98" t="str">
         <v>5千-8千</v>
       </c>
-      <c r="C93" t="str">
-        <v>河南腾帆科技有限公司</v>
-      </c>
-      <c r="D93" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E93" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F93" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G93" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="94" xml:space="preserve">
-      <c r="A94" t="str">
+      <c r="C98" t="str">
+        <v>八六三软件</v>
+      </c>
+      <c r="D98" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E98" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F98" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B99" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C99" t="str">
+        <v>河南合众伟奇云智科技有限公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E99" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F99" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B100" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C100" t="str">
+        <v>郑州点读电子科技有限公司</v>
+      </c>
+      <c r="D100" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E100" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F100" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>android 开发安卓工程师</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C101" t="str">
+        <v>河南恒辉房地产顾问有限公司</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E101" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F101" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B102" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C102" t="str">
+        <v>屹通信息</v>
+      </c>
+      <c r="D102" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E102" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F102" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>android开发工程师（高薪+五险）</v>
+      </c>
+      <c r="B103" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C103" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D103" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E103" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F103" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B104" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C104" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D104" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E104" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F104" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B105" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C105" t="str">
+        <v>郑州灵慧软件科技有限公司</v>
+      </c>
+      <c r="D105" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E105" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F105" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>android软件开发工程师</v>
+      </c>
+      <c r="B106" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C106" t="str">
+        <v>河南信安通信技术股份有限公司</v>
+      </c>
+      <c r="D106" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E106" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F106" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>android开发</v>
+      </c>
+      <c r="B107" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C107" t="str">
+        <v>八六三软件</v>
+      </c>
+      <c r="D107" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E107" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F107" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>android 安卓 APP开发工程师</v>
+      </c>
+      <c r="B108" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C108" t="str">
+        <v>郑州清森科技有限公司</v>
+      </c>
+      <c r="D108" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E108" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F108" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>android/移动互联网开发</v>
+      </c>
+      <c r="B109" t="str">
+        <v>3千-6千</v>
+      </c>
+      <c r="C109" t="str">
+        <v>郑州长兴信息技术有限公司</v>
+      </c>
+      <c r="D109" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E109" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F109" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B110" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C110" t="str">
+        <v>深圳市芬析仪器制造有限公司</v>
+      </c>
+      <c r="D110" t="str">
+        <v>郑州-新郑市</v>
+      </c>
+      <c r="E110" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F110" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B111" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C111" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D111" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E111" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F111" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>android开发</v>
+      </c>
+      <c r="B112" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C112" t="str">
+        <v>郑州鼓点软件科技有限公司</v>
+      </c>
+      <c r="D112" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E112" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F112" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B113" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C113" t="str">
+        <v>郑州磐森数字科技有限公司</v>
+      </c>
+      <c r="D113" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E113" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F113" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B114" t="str">
+        <v>4千-8千</v>
+      </c>
+      <c r="C114" t="str">
+        <v>河南洗得嗨科技有限公司</v>
+      </c>
+      <c r="D114" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E114" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F114" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>android高级开发工程师+高薪+双休</v>
+      </c>
+      <c r="B115" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C115" t="str">
+        <v>郑州恒信软件科技有限公司</v>
+      </c>
+      <c r="D115" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E115" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F115" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B116" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C116" t="str">
+        <v>郑州江山科技有限公司</v>
+      </c>
+      <c r="D116" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E116" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F116" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B117" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C117" t="str">
+        <v>牧原股份</v>
+      </c>
+      <c r="D117" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E117" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F117" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B118" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C118" t="str">
+        <v>郑州点都科技有限公司</v>
+      </c>
+      <c r="D118" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E118" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F118" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>android开发高级工程师</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1万-1.8万</v>
+      </c>
+      <c r="C119" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D119" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E119" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F119" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B120" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C120" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D120" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E120" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F120" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>急聘移动端开发android</v>
+      </c>
+      <c r="B121" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C121" t="str">
+        <v>锦锐科技有限公司</v>
+      </c>
+      <c r="D121" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E121" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F121" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B122" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C122" t="str">
+        <v>郑州诺云网络科技有限公司</v>
+      </c>
+      <c r="D122" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E122" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F122" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B123" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C123" t="str">
+        <v>金豆豆互联网有限责任公司</v>
+      </c>
+      <c r="D123" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E123" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F123" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B124" t="str">
+        <v>1万-1.2万</v>
+      </c>
+      <c r="C124" t="str">
+        <v>超级智慧家(上海)物联网科技有限公司</v>
+      </c>
+      <c r="D124" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E124" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F124" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B125" t="str">
+        <v>8千-1.6万</v>
+      </c>
+      <c r="C125" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D125" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E125" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F125" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B126" t="str">
+        <v>1.5万-3万</v>
+      </c>
+      <c r="C126" t="str">
+        <v>河南枞宁信息科技有限公司</v>
+      </c>
+      <c r="D126" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E126" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F126" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B127" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C127" t="str">
+        <v>河南纵达软件科技有限公司</v>
+      </c>
+      <c r="D127" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E127" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F127" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B128" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C128" t="str">
+        <v>北京云鸟科技有限公司</v>
+      </c>
+      <c r="D128" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E128" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F128" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B129" t="str">
+        <v>2.5万-3.5万</v>
+      </c>
+      <c r="C129" t="str">
+        <v>上海思汐乐人力资源咨询有限公司</v>
+      </c>
+      <c r="D129" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E129" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F129" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B130" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C130" t="str">
+        <v>锦锐科技有限公司</v>
+      </c>
+      <c r="D130" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E130" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F130" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>android（安卓）开发工程师</v>
+      </c>
+      <c r="B131" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C131" t="str">
+        <v>河南金案场科技有限公司</v>
+      </c>
+      <c r="D131" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E131" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F131" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
         <v>android/ios开发工程师</v>
       </c>
-      <c r="B94" t="str" xml:space="preserve">
+      <c r="B132" t="str" xml:space="preserve">
         <v xml:space="preserve">7千-8千
           · 13薪</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C132" t="str">
         <v>郑州百易科技有限公司</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D132" t="str">
         <v>郑州-金水区</v>
       </c>
-      <c r="E94" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F94" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G94" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>android软件开发工程师</v>
-      </c>
-      <c r="B95" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C95" t="str">
-        <v>昂普科技</v>
-      </c>
-      <c r="D95" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E95" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F95" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G95" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B96" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C96" t="str">
-        <v>UU跑腿</v>
-      </c>
-      <c r="D96" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E96" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F96" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>android/安卓高级开发工程师</v>
-      </c>
-      <c r="B97" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C97" t="str">
-        <v>威科姆</v>
-      </c>
-      <c r="D97" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E97" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F97" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G97" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B98" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C98" t="str">
-        <v>河南航天金盾网络科技有限公司</v>
-      </c>
-      <c r="D98" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E98" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F98" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B99" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C99" t="str">
-        <v>河南港江建设集团有限公司</v>
-      </c>
-      <c r="D99" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E99" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F99" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G99" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B100" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C100" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
-      </c>
-      <c r="D100" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E100" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F100" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>android/安卓开发工程师（中级）</v>
-      </c>
-      <c r="B101" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C101" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D101" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E101" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F101" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G101" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B102" t="str">
-        <v>4千-6千</v>
-      </c>
-      <c r="C102" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
-      </c>
-      <c r="D102" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E102" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F102" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G102" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B103" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C103" t="str">
-        <v>锦锐科技有限公司</v>
-      </c>
-      <c r="D103" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E103" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F103" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B104" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C104" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D104" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E104" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F104" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>android 安卓 APP开发工程师</v>
-      </c>
-      <c r="B105" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C105" t="str">
-        <v>郑州清森科技有限公司</v>
-      </c>
-      <c r="D105" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E105" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F105" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>android/安卓开发经理</v>
-      </c>
-      <c r="B106" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C106" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D106" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E106" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F106" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>android(安卓)开发工程师</v>
-      </c>
-      <c r="B107" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C107" t="str">
-        <v>河南普惠天成生物科技有限公司</v>
-      </c>
-      <c r="D107" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E107" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F107" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
-      </c>
-      <c r="B108" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C108" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
-      </c>
-      <c r="D108" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E108" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F108" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>android C/C++开发工程师</v>
-      </c>
-      <c r="B109" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C109" t="str">
-        <v>天迈科技</v>
-      </c>
-      <c r="D109" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E109" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F109" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B110" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C110" t="str">
-        <v>河南瑞丰软件科技有限公司</v>
-      </c>
-      <c r="D110" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E110" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F110" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B111" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C111" t="str">
-        <v>河南盘古科技发展有限公司</v>
-      </c>
-      <c r="D111" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E111" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F111" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>android工程师</v>
-      </c>
-      <c r="B112" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C112" t="str">
-        <v>郑州郑大信息技术有限公司</v>
-      </c>
-      <c r="D112" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E112" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F112" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B113" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C113" t="str">
-        <v>河南信安通信技术股份有限公司</v>
-      </c>
-      <c r="D113" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E113" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F113" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B114" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C114" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
-      </c>
-      <c r="D114" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E114" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F114" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>android软件开发工程师</v>
-      </c>
-      <c r="B115" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C115" t="str">
-        <v>富士康科技集团郑州科技园</v>
-      </c>
-      <c r="D115" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E115" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F115" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B116" t="str">
-        <v>4千-8千</v>
-      </c>
-      <c r="C116" t="str">
-        <v>郑州郑乾科技有限公司</v>
-      </c>
-      <c r="D116" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E116" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F116" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G116" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>android软件工程师</v>
-      </c>
-      <c r="B117" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C117" t="str">
-        <v>郑州思博科信息技术有限公司</v>
-      </c>
-      <c r="D117" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E117" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F117" t="str">
-        <v>学历不限</v>
-      </c>
-      <c r="G117" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>安卓开发工程师andriod</v>
-      </c>
-      <c r="B118" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C118" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
-      </c>
-      <c r="D118" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E118" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F118" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G118" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Andorid开发工程师</v>
-      </c>
-      <c r="B119" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C119" t="str">
-        <v>河南友联金融服务有限公司</v>
-      </c>
-      <c r="D119" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E119" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F119" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>安卓开发工程师 大平台五险一金</v>
-      </c>
-      <c r="B120" t="str">
-        <v>9千-1.4万</v>
-      </c>
-      <c r="C120" t="str">
-        <v>优路教育</v>
-      </c>
-      <c r="D120" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E120" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F120" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>ios+安卓 软件工程师</v>
-      </c>
-      <c r="B121" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C121" t="str">
-        <v>河南洗得嗨科技有限公司</v>
-      </c>
-      <c r="D121" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E121" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F121" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>andriod开发工程师</v>
-      </c>
-      <c r="B122" t="str">
-        <v>1.2万-1.6万</v>
-      </c>
-      <c r="C122" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D122" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E122" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F122" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G122" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B123" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C123" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
-      </c>
-      <c r="D123" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E123" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F123" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G123" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B124" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C124" t="str">
-        <v>河南友联金融服务有限公司</v>
-      </c>
-      <c r="D124" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E124" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F124" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G124" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>安卓端工程师</v>
-      </c>
-      <c r="B125" t="str">
-        <v>8千-1.5万</v>
-      </c>
-      <c r="C125" t="str">
-        <v>万邦国际集团</v>
-      </c>
-      <c r="D125" t="str">
-        <v>郑州-中牟县</v>
-      </c>
-      <c r="E125" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F125" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G125" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>软件开发工程师</v>
-      </c>
-      <c r="B126" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C126" t="str">
-        <v>贝博电子</v>
-      </c>
-      <c r="D126" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E126" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F126" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G126" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>资深安卓开发工程师</v>
-      </c>
-      <c r="B127" t="str">
-        <v>1.5万-2.5万</v>
-      </c>
-      <c r="C127" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
-      </c>
-      <c r="D127" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E127" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F127" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G127" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>APP开发工程师</v>
-      </c>
-      <c r="B128" t="str">
-        <v>9千-1.8万</v>
-      </c>
-      <c r="C128" t="str">
-        <v>河南趣思得网络科技有限公司</v>
-      </c>
-      <c r="D128" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E128" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F128" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G128" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B129" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C129" t="str">
-        <v>郑州报业集团有限公司</v>
-      </c>
-      <c r="D129" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E129" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F129" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G129" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B130" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C130" t="str">
-        <v>郑州维飞软件科技有限公司</v>
-      </c>
-      <c r="D130" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E130" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F130" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G130" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="131" xml:space="preserve">
-      <c r="A131" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B131" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
-      </c>
-      <c r="C131" t="str">
-        <v>南京北路智控科技股份有限公司</v>
-      </c>
-      <c r="D131" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E131" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F131" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G131" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>andorid开发工程师</v>
-      </c>
-      <c r="B132" t="str">
-        <v>5千-9千</v>
-      </c>
-      <c r="C132" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
-      </c>
-      <c r="D132" t="str">
-        <v>郑州-高新区</v>
-      </c>
       <c r="E132" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3420,22 +3421,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>安卓研发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C133" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E133" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3443,22 +3444,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>andriod开发工程师（可兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>1.3万-2.5万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C134" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F134" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3466,19 +3467,19 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C135" t="str">
-        <v>易宝软件</v>
+        <v>郑州巨之麦科技有限公司</v>
       </c>
       <c r="D135" t="str">
         <v>郑州</v>
       </c>
       <c r="E135" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F135" t="str">
         <v>本科</v>
@@ -3489,22 +3490,22 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>逆向工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>1万-2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C136" t="str">
-        <v>云库科技</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E136" t="str">
-        <v>5-10年</v>
+        <v>不限</v>
       </c>
       <c r="F136" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -3512,19 +3513,19 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>flutter开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>8千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C137" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F137" t="str">
         <v>大专</v>
@@ -3535,22 +3536,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B138" t="str">
-        <v>5千-7千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D138" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E138" t="str">
         <v>1-3年</v>
       </c>
       <c r="F138" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3558,13 +3559,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>安卓开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C139" t="str">
-        <v>河南思维列控</v>
+        <v>威科姆</v>
       </c>
       <c r="D139" t="str">
         <v>郑州</v>
@@ -3581,22 +3582,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>移动开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>6千-1.1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C140" t="str">
-        <v>北京动态点网络科技有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E140" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F140" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3604,19 +3605,19 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>逆向研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>1万-2万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C141" t="str">
-        <v>云库科技</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D141" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F141" t="str">
         <v>大专</v>
@@ -3627,22 +3628,22 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B142" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C142" t="str">
-        <v>刀锋互娱</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E142" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F142" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3650,22 +3651,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>uni app开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C143" t="str">
-        <v>河南智宽科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3673,22 +3674,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>高级Linux工程师</v>
+        <v>android研发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>云端信息</v>
       </c>
       <c r="D144" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F144" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3696,22 +3697,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>安卓开发工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>8千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C145" t="str">
-        <v>郑州立信软件科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3719,19 +3720,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C146" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3742,16 +3743,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C147" t="str">
-        <v>郑州远洋电子科技有限公司</v>
+        <v>宁夏智宁技术有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E147" t="str">
         <v>1-3年</v>
@@ -3765,22 +3766,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>安卓开发工程师</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C148" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F148" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3788,22 +3789,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>6千-8千</v>
+        <v>4千-8千</v>
       </c>
       <c r="C149" t="str">
-        <v>河南广播传媒集团有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D149" t="str">
         <v>郑州</v>
       </c>
       <c r="E149" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F149" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3811,22 +3812,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>手机软件开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>5千-7千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C150" t="str">
-        <v>河南亚菲品牌策划有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D150" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>1年以下</v>
+        <v>不限</v>
       </c>
       <c r="F150" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3834,16 +3835,16 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C151" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
@@ -3857,22 +3858,22 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B152" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C152" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
       </c>
       <c r="F152" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -3880,13 +3881,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓开发（双休）</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B153" t="str">
-        <v>6千-9千</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C153" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D153" t="str">
         <v>郑州</v>
@@ -3895,7 +3896,7 @@
         <v>3-5年</v>
       </c>
       <c r="F153" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3903,22 +3904,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>安卓工程师</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C154" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E154" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3926,22 +3927,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>安卓工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>4千-5千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C155" t="str">
-        <v>河南德克电子科技有限公司</v>
+        <v>上海埃林哲软件系统股份有限公司</v>
       </c>
       <c r="D155" t="str">
         <v>郑州</v>
       </c>
       <c r="E155" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3949,22 +3950,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>安卓工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C156" t="str">
-        <v>云涌科技</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E156" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3975,16 +3976,16 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C157" t="str">
-        <v>河南凯仕网络科技有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E157" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F157" t="str">
         <v>本科</v>
@@ -3995,19 +3996,19 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>5千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C158" t="str">
-        <v>超图软件</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E158" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F158" t="str">
         <v>本科</v>
@@ -4018,19 +4019,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>系统开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C159" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>易宝软件</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F159" t="str">
         <v>本科</v>
@@ -4041,13 +4042,13 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>安卓工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>5.5千-7千</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C160" t="str">
-        <v>河南易众拍卖行有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
@@ -4064,16 +4065,16 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Flutter</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>9千-1.1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C161" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D161" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E161" t="str">
         <v>3-5年</v>
@@ -4087,19 +4088,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>安卓开发工程师5K-1W</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>5千-1万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C162" t="str">
-        <v>河南格瑞恩电子科技有限公司</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E162" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F162" t="str">
         <v>本科</v>
@@ -4110,19 +4111,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>安卓工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>6千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C163" t="str">
-        <v>河南塔姆网络科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D163" t="str">
         <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F163" t="str">
         <v>大专</v>
@@ -4133,19 +4134,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B164" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C164" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D164" t="str">
         <v>郑州</v>
       </c>
       <c r="E164" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F164" t="str">
         <v>大专</v>
@@ -4156,16 +4157,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>安卓开发工程师</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>6千-8千</v>
+        <v>5千-9千</v>
       </c>
       <c r="C165" t="str">
-        <v>天一文化</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
         <v>3-5年</v>
@@ -4179,22 +4180,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>软件开发工程师（APP开发）/APP开发工程师</v>
+        <v>flutter开发工程师</v>
       </c>
       <c r="B166" t="str">
-        <v>7.5千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C166" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E166" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F166" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4202,22 +4203,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>unity开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C167" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D167" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F167" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4225,30 +4226,836 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B168" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C168" t="str">
+        <v>郑州双杰科技股份有限公司</v>
+      </c>
+      <c r="D168" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E168" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F168" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B169" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
+      </c>
+      <c r="C169" t="str">
+        <v>南京北路智控科技股份有限公司</v>
+      </c>
+      <c r="D169" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E169" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F169" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B170" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C170" t="str">
+        <v>郑州报业集团有限公司</v>
+      </c>
+      <c r="D170" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E170" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F170" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>andriod开发工程师（可兼职）</v>
+      </c>
+      <c r="B171" t="str">
+        <v>1.3万-2.5万</v>
+      </c>
+      <c r="C171" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D171" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E171" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F171" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>逆向工程师（windows/android15-30k）</v>
+      </c>
+      <c r="B172" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C172" t="str">
+        <v>刀锋互娱</v>
+      </c>
+      <c r="D172" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E172" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F172" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>软件开发工程师</v>
+      </c>
+      <c r="B173" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C173" t="str">
+        <v>贝博电子</v>
+      </c>
+      <c r="D173" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E173" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F173" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>安卓开发工程师andriod</v>
+      </c>
+      <c r="B174" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C174" t="str">
+        <v>广东腾辉商务服务有限责任公司</v>
+      </c>
+      <c r="D174" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E174" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F174" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B175" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C175" t="str">
+        <v>河南道阅网络技术有限公司</v>
+      </c>
+      <c r="D175" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E175" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F175" t="str">
+        <v>学历不限</v>
+      </c>
+      <c r="G175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B176" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C176" t="str">
+        <v>郑州泽贤信息技术有限公司</v>
+      </c>
+      <c r="D176" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E176" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F176" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B177" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C177" t="str">
+        <v>河南蓝信科技有限责任公司</v>
+      </c>
+      <c r="D177" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E177" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F177" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>移动端开发工程师</v>
+      </c>
+      <c r="B178" t="str">
+        <v>4千-8千</v>
+      </c>
+      <c r="C178" t="str">
+        <v>河南洗得嗨科技有限公司</v>
+      </c>
+      <c r="D178" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E178" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F178" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Flutter</v>
+      </c>
+      <c r="B179" t="str">
+        <v>9千-1.1万</v>
+      </c>
+      <c r="C179" t="str">
+        <v>北京云鸟科技有限公司</v>
+      </c>
+      <c r="D179" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E179" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F179" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B180" t="str">
+        <v>4千-5千</v>
+      </c>
+      <c r="C180" t="str">
+        <v>河南德克电子科技有限公司</v>
+      </c>
+      <c r="D180" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E180" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F180" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>安卓中级开发工程师（双休）</v>
+      </c>
+      <c r="B181" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C181" t="str">
+        <v>郑州泽贤信息技术有限公司</v>
+      </c>
+      <c r="D181" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E181" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F181" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>逆向工程师</v>
+      </c>
+      <c r="B182" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C182" t="str">
+        <v>云库科技</v>
+      </c>
+      <c r="D182" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E182" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F182" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B183" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C183" t="str">
+        <v>河南云煤网网络科技有限责任公司</v>
+      </c>
+      <c r="D183" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E183" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F183" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>高级Linux工程师</v>
+      </c>
+      <c r="B184" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C184" t="str">
+        <v>河南省吉立达机器人有限公司</v>
+      </c>
+      <c r="D184" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E184" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F184" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+      </c>
+      <c r="B185" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C185" t="str">
+        <v>超图软件</v>
+      </c>
+      <c r="D185" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E185" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F185" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B186" t="str">
+        <v>8千-1.5万</v>
+      </c>
+      <c r="C186" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D186" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E186" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F186" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Flutter开发工程师（可兼职）</v>
+      </c>
+      <c r="B187" t="str">
+        <v>1.5万-2.5万</v>
+      </c>
+      <c r="C187" t="str">
+        <v>合肥观六智能科技有限公司</v>
+      </c>
+      <c r="D187" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E187" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F187" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>uni app开发工程师</v>
+      </c>
+      <c r="B188" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C188" t="str">
+        <v>河南智宽科技有限公司</v>
+      </c>
+      <c r="D188" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E188" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F188" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>安卓软件开发工程师</v>
+      </c>
+      <c r="B189" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C189" t="str">
+        <v>河南国都时代科技有限公司</v>
+      </c>
+      <c r="D189" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E189" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F189" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>系统开发工程师</v>
+      </c>
+      <c r="B190" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C190" t="str">
+        <v>富士康科技集团郑州科技园</v>
+      </c>
+      <c r="D190" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E190" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F190" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B191" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C191" t="str">
+        <v>云涌科技</v>
+      </c>
+      <c r="D191" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E191" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F191" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>安卓前端研发工程师</v>
+      </c>
+      <c r="B192" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C192" t="str">
+        <v>河南陀螺信息技术有限公司</v>
+      </c>
+      <c r="D192" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E192" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F192" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B193" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C193" t="str">
+        <v>河南凯仕网络科技有限公司</v>
+      </c>
+      <c r="D193" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E193" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F193" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
         <v>手机软件开发工程师</v>
       </c>
-      <c r="B168" t="str">
-        <v>5.5千-7千</v>
-      </c>
-      <c r="C168" t="str">
-        <v>河南易众拍卖行有限公司</v>
-      </c>
-      <c r="D168" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E168" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F168" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G168" t="str">
+      <c r="B194" t="str">
+        <v>5千-7千</v>
+      </c>
+      <c r="C194" t="str">
+        <v>河南亚菲品牌策划有限公司</v>
+      </c>
+      <c r="D194" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E194" t="str">
+        <v>1年以下</v>
+      </c>
+      <c r="F194" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>逆向研发工程师</v>
+      </c>
+      <c r="B195" t="str">
+        <v>1万-2万</v>
+      </c>
+      <c r="C195" t="str">
+        <v>云库科技</v>
+      </c>
+      <c r="D195" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E195" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F195" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>移动开发工程师</v>
+      </c>
+      <c r="B196" t="str">
+        <v>6千-1.1万</v>
+      </c>
+      <c r="C196" t="str">
+        <v>北京动态点网络科技有限公司</v>
+      </c>
+      <c r="D196" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E196" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F196" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>安卓开发工程师5K-1W</v>
+      </c>
+      <c r="B197" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C197" t="str">
+        <v>河南格瑞恩电子科技有限公司</v>
+      </c>
+      <c r="D197" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E197" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F197" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B198" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C198" t="str">
+        <v>河南省高校新技术有限公司</v>
+      </c>
+      <c r="D198" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E198" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F198" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>安卓手机app开发人员</v>
+      </c>
+      <c r="B199" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C199" t="str">
+        <v>河南商蒙软件科技有限公司</v>
+      </c>
+      <c r="D199" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E199" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F199" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>软件开发工程师（APP开发）/APP开发工程师</v>
+      </c>
+      <c r="B200" t="str">
+        <v>7.5千-1.5万</v>
+      </c>
+      <c r="C200" t="str">
+        <v>郑州软通合力计算机技术有限公司</v>
+      </c>
+      <c r="D200" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E200" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F200" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B201" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C201" t="str">
+        <v>昆山双宇新信息科技有限公司</v>
+      </c>
+      <c r="D201" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E201" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F201" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G201" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B202" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C202" t="str">
+        <v>天一文化</v>
+      </c>
+      <c r="D202" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E202" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F202" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>unity开发工程师</v>
+      </c>
+      <c r="B203" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C203" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D203" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E203" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F203" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G203" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G168"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G203"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,19 +405,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>5千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C2" t="str">
-        <v>郑州泽贤信息技术有限公司</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D2" t="str">
         <v>郑州</v>
       </c>
       <c r="E2" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F2" t="str">
         <v>大专</v>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B3" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C3" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E3" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F3" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,22 +451,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C4" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E4" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F4" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -474,16 +474,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B5" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C5" t="str">
-        <v>硕诺科技</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
@@ -500,13 +500,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B6" t="str">
-        <v>7千-1.4万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C6" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E6" t="str">
         <v>3-5年</v>
@@ -523,19 +523,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C7" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E7" t="str">
         <v>1-3年</v>
       </c>
       <c r="F7" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -546,19 +546,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C8" t="str">
-        <v>日本村郑州</v>
+        <v>郑州泽贤信息技术有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E8" t="str">
         <v>1-3年</v>
       </c>
       <c r="F8" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -566,19 +566,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B9" t="str">
-        <v>6千-1万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C9" t="str">
-        <v>易安德电子商务有限公司</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F9" t="str">
         <v>大专</v>
@@ -592,13 +592,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>5千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C10" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E10" t="str">
         <v>1-3年</v>
@@ -612,16 +612,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C11" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>日本村郑州</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E11" t="str">
         <v>1-3年</v>
@@ -638,16 +638,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B12" t="str">
-        <v>8千-1.3万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C12" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E12" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F12" t="str">
         <v>本科</v>
@@ -658,22 +658,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>7千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C13" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>浙江盛迪科技股份有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E13" t="str">
         <v>1-3年</v>
       </c>
       <c r="F13" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -684,16 +684,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>1万-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>河南买多电子商务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E14" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F14" t="str">
         <v>大专</v>
@@ -704,19 +704,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>高级android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>1.5万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C15" t="str">
-        <v>刀锋互娱</v>
+        <v>河南品辰电子科技有限公司</v>
       </c>
       <c r="D15" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F15" t="str">
         <v>大专</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发</v>
       </c>
       <c r="B16" t="str">
-        <v>5千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C16" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E16" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F16" t="str">
         <v>本科</v>
@@ -750,22 +750,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>1.3万-1.8万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C17" t="str">
-        <v>捷安高科</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D17" t="str">
         <v>郑州</v>
       </c>
       <c r="E17" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F17" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -776,16 +776,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>7千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C18" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>易安德电子商务有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E18" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F18" t="str">
         <v>大专</v>
@@ -799,19 +799,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南国测信息技术有限公司</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E19" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F19" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -819,22 +819,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C20" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E20" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F20" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,19 +842,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android开发</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C21" t="str">
-        <v>安图生物</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E21" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F21" t="str">
         <v>本科</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>android工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>4千-8千</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C22" t="str">
-        <v>郑州天启自动化系统有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E22" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F22" t="str">
         <v>大专</v>
@@ -888,16 +888,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C23" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>河南宏博测控技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E23" t="str">
         <v>1-3年</v>
@@ -914,16 +914,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C24" t="str">
-        <v>宁波五招信息技术有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E24" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F24" t="str">
         <v>大专</v>
@@ -934,22 +934,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>9千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C25" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D25" t="str">
         <v>郑州</v>
       </c>
       <c r="E25" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -960,19 +960,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C26" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南国测信息技术有限公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F26" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -980,19 +980,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>8千-1.6万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C27" t="str">
-        <v>优路教育</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D27" t="str">
         <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F27" t="str">
         <v>本科</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>android工程师(J10082)</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B28" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C28" t="str">
-        <v>天星教育</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E28" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1029,19 +1029,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>7千-1.4万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C29" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E29" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F29" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B30" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
+        <v>郑州天启自动化系统有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E30" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F30" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1072,158 +1072,158 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C31" t="str">
+        <v>牧原股份</v>
+      </c>
+      <c r="D31" t="str">
+        <v>郑州-郑东新区</v>
+      </c>
+      <c r="E31" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F31" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B32" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C32" t="str">
+        <v>宁波五招信息技术有限公司</v>
+      </c>
+      <c r="D32" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E32" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F32" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>高级android开发工程师</v>
+      </c>
+      <c r="B33" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C33" t="str">
         <v>河南印爱文化艺术有限公司</v>
       </c>
-      <c r="D31" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D33" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E33" t="str">
         <v>5-10年</v>
       </c>
-      <c r="F31" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B32" t="str" xml:space="preserve">
+      <c r="F33" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B34" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C34" t="str">
+        <v>河南聚融优合汽车销售有限公司</v>
+      </c>
+      <c r="D34" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E34" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F34" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B35" t="str">
+        <v>7千-1.4万</v>
+      </c>
+      <c r="C35" t="str">
+        <v>郑州软通合力计算机技术有限公司</v>
+      </c>
+      <c r="D35" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E35" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F35" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>android应用开发工程师</v>
+      </c>
+      <c r="B36" t="str">
+        <v>1.3万-1.8万</v>
+      </c>
+      <c r="C36" t="str">
+        <v>捷安高科</v>
+      </c>
+      <c r="D36" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E36" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F36" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
         <v xml:space="preserve">1万-1.2万
           · 13薪</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C37" t="str">
         <v>博商云(郑州)科技有限公司</v>
-      </c>
-      <c r="D32" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E32" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F32" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>android高级开发工程师</v>
-      </c>
-      <c r="B33" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C33" t="str">
-        <v>郑州市金水区天一外语培训中心</v>
-      </c>
-      <c r="D33" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E33" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F33" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>android软件开发 高级开发工程师</v>
-      </c>
-      <c r="B34" t="str">
-        <v>9千-1.8万</v>
-      </c>
-      <c r="C34" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
-      </c>
-      <c r="D34" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E34" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F34" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B35" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C35" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
-      </c>
-      <c r="D35" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E35" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F35" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B36" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C36" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
-      </c>
-      <c r="D36" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E36" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F36" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>android应用开发工程师</v>
-      </c>
-      <c r="B37" t="str">
-        <v>8千-1.6万</v>
-      </c>
-      <c r="C37" t="str">
-        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D37" t="str">
         <v>郑州-中原区</v>
       </c>
       <c r="E37" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F37" t="str">
         <v>大专</v>
@@ -1234,22 +1234,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C38" t="str">
-        <v>天迈科技</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
       </c>
       <c r="F38" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C39" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D39" t="str">
         <v>郑州</v>
@@ -1272,7 +1272,7 @@
         <v>3-5年</v>
       </c>
       <c r="F39" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>7千-1.3万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C40" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E40" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F40" t="str">
         <v>大专</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B41" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C41" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E41" t="str">
         <v>3-5年</v>
@@ -1329,16 +1329,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>8千-1.2万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>郑州木加林文化传播有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F42" t="str">
         <v>大专</v>
@@ -1372,16 +1372,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B44" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C44" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D44" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E44" t="str">
         <v>3-5年</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6千-9千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C46" t="str">
-        <v>郑州木加林文化传播有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D46" t="str">
         <v>郑州</v>
@@ -1441,19 +1441,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.3万</v>
       </c>
       <c r="C47" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南宝蓝实业有限公司</v>
       </c>
       <c r="D47" t="str">
         <v>郑州</v>
       </c>
       <c r="E47" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F47" t="str">
         <v>大专</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B48" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C48" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D48" t="str">
         <v>郑州</v>
       </c>
       <c r="E48" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F48" t="str">
         <v>本科</v>
@@ -1490,13 +1490,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
@@ -1513,19 +1513,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B50" t="str">
-        <v>9千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C50" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D50" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E50" t="str">
         <v>3-5年</v>
       </c>
       <c r="F50" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1533,16 +1533,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D51" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E51" t="str">
         <v>3-5年</v>
@@ -1559,19 +1559,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B52" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E52" t="str">
         <v>1-3年</v>
       </c>
       <c r="F52" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1582,19 +1582,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B53" t="str">
-        <v>8千-1.5万</v>
+        <v>9千-1.5万</v>
       </c>
       <c r="C53" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>河南爱家校数据服务有限公司</v>
       </c>
       <c r="D53" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E53" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1602,19 +1602,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>安卓android工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B54" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E54" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F54" t="str">
         <v>大专</v>
@@ -1625,22 +1625,22 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发工程师</v>
+        <v>android开发高级工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>7千-1万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C55" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D55" t="str">
         <v>郑州</v>
       </c>
       <c r="E55" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F55" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1651,10 +1651,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C56" t="str">
-        <v>郑州恩普特</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D56" t="str">
         <v>郑州</v>
@@ -1663,7 +1663,7 @@
         <v>3-5年</v>
       </c>
       <c r="F56" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1671,22 +1671,22 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>android开发工程师</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C57" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E57" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F57" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发</v>
       </c>
       <c r="B58" t="str">
-        <v>8千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C58" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D58" t="str">
         <v>郑州</v>
@@ -1709,7 +1709,7 @@
         <v>3-5年</v>
       </c>
       <c r="F58" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1717,22 +1717,22 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android开发</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B59" t="str">
-        <v>6千-1.2万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C59" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D59" t="str">
         <v>郑州</v>
       </c>
       <c r="E59" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F59" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1743,19 +1743,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B60" t="str">
-        <v>7千-1.1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C60" t="str">
-        <v>河南智亘网络科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E60" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F60" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>android/安卓技术主管</v>
+        <v>安卓android工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>1.2万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南百信科技发展有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F61" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B62" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C62" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D62" t="str">
         <v>郑州</v>
       </c>
       <c r="E62" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F62" t="str">
         <v>本科</v>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android工程师</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B64" t="str">
-        <v>5千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C64" t="str">
-        <v>求夸技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D64" t="str">
         <v>郑州</v>
       </c>
       <c r="E64" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F64" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1858,16 +1858,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C65" t="str">
-        <v>河南宏博检测技术有限公司</v>
+        <v>河南东方健生物科技有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F65" t="str">
         <v>大专</v>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B66" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
       </c>
       <c r="E66" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F66" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1907,13 +1907,13 @@
         <v>8千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>郑州大象通信信息技术有限公司</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E67" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F67" t="str">
         <v>大专</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>android开发 (MJ004178)</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1万-1.6万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C68" t="str">
-        <v>神州数码系统集成服务有限公司广州分公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E68" t="str">
         <v>3-5年</v>
@@ -1950,33 +1950,34 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
-        <v>7千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C69" t="str">
-        <v>河南省863软件孵化器有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D69" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E69" t="str">
         <v>1-3年</v>
       </c>
       <c r="F69" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G69" t="str">
         <v/>
       </c>
     </row>
-    <row r="70">
+    <row r="70" xml:space="preserve">
       <c r="A70" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B70" t="str">
-        <v>4千-6千</v>
+      <c r="B70" t="str" xml:space="preserve">
+        <v xml:space="preserve">5千-1万
+          · 13薪</v>
       </c>
       <c r="C70" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>去森教育</v>
       </c>
       <c r="D70" t="str">
         <v>郑州-金水区</v>
@@ -1993,22 +1994,22 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>双休android五险工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B71" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C71" t="str">
-        <v>河南智森物联网科技有限公司</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D71" t="str">
         <v>郑州</v>
       </c>
       <c r="E71" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F71" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -2019,13 +2020,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B72" t="str">
-        <v>7千-1万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C72" t="str">
-        <v>河南腾跃科技有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D72" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E72" t="str">
         <v>1-3年</v>
@@ -2042,16 +2043,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B73" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C73" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D73" t="str">
         <v>郑州</v>
       </c>
       <c r="E73" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F73" t="str">
         <v>大专</v>
@@ -2065,13 +2066,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B74" t="str">
-        <v>5千-7千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C74" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D74" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E74" t="str">
         <v>1-3年</v>
@@ -2088,19 +2089,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B75" t="str">
-        <v>7千-1.1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C75" t="str">
-        <v>友途车家科技服务有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D75" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E75" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F75" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -2108,19 +2109,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B76" t="str">
-        <v>8千-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C76" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>河南省863软件孵化器有限公司</v>
       </c>
       <c r="D76" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E76" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F76" t="str">
         <v>本科</v>
@@ -2134,13 +2135,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B77" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C77" t="str">
-        <v>南京迈特望</v>
+        <v>八六三软件</v>
       </c>
       <c r="D77" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E77" t="str">
         <v>3-5年</v>
@@ -2157,10 +2158,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B78" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C78" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
+        <v>新天科技</v>
       </c>
       <c r="D78" t="str">
         <v>郑州</v>
@@ -2169,31 +2170,30 @@
         <v>1-3年</v>
       </c>
       <c r="F78" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G78" t="str">
         <v/>
       </c>
     </row>
-    <row r="79" xml:space="preserve">
+    <row r="79">
       <c r="A79" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B79" t="str" xml:space="preserve">
-        <v xml:space="preserve">5千-1万
-          · 13薪</v>
+        <v>资深android开发工程师</v>
+      </c>
+      <c r="B79" t="str">
+        <v>1.5万-2万</v>
       </c>
       <c r="C79" t="str">
-        <v>去森教育</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D79" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E79" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F79" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2201,19 +2201,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>android开发工程师</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B80" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C80" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D80" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E80" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F80" t="str">
         <v>本科</v>
@@ -2227,19 +2227,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B81" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C81" t="str">
-        <v>八六三软件</v>
+        <v>北京杰山科技有限公司</v>
       </c>
       <c r="D81" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E81" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F81" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2250,19 +2250,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B82" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C82" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D82" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E82" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F82" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2273,19 +2273,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B83" t="str">
-        <v>5千-1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C83" t="str">
-        <v>新天科技</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D83" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E83" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F83" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2293,19 +2293,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>资深android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B84" t="str">
-        <v>1.5万-2万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C84" t="str">
-        <v>郑州珑凌科技有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D84" t="str">
         <v>郑州</v>
       </c>
       <c r="E84" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F84" t="str">
         <v>本科</v>
@@ -2319,19 +2319,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B85" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C85" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D85" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E85" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F85" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2339,19 +2339,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发</v>
       </c>
       <c r="B86" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C86" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>浪潮集团</v>
       </c>
       <c r="D86" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E86" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F86" t="str">
         <v>大专</v>
@@ -2365,16 +2365,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B87" t="str">
-        <v>6千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C87" t="str">
-        <v>北京杰山科技有限公司</v>
+        <v>郑州致博思远企业管理咨询有限公司</v>
       </c>
       <c r="D87" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E87" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F87" t="str">
         <v>本科</v>
@@ -2385,19 +2385,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>android开发</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B88" t="str">
-        <v>4千-6千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C88" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D88" t="str">
         <v>郑州</v>
       </c>
       <c r="E88" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F88" t="str">
         <v>大专</v>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>郑州研究院-android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B89" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C89" t="str">
-        <v>科大讯飞</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D89" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E89" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F89" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2431,22 +2431,22 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>android 开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B90" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C90" t="str">
-        <v>浪潮集团</v>
+        <v>屹通信息</v>
       </c>
       <c r="D90" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E90" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F90" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2457,19 +2457,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B91" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C91" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
+        <v>河南善水左岸商贸有限公司</v>
       </c>
       <c r="D91" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E91" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F91" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2477,22 +2477,22 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>android/安卓开发经理</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B92" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C92" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>郑州一迅软件科技有限公司</v>
       </c>
       <c r="D92" t="str">
         <v>郑州</v>
       </c>
       <c r="E92" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F92" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2500,22 +2500,22 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发经理</v>
       </c>
       <c r="B93" t="str">
-        <v>1万-2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C93" t="str">
-        <v>厦门特力通通信工程有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D93" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E93" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F93" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2523,22 +2523,22 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>android开发工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B94" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C94" t="str">
-        <v>河南善水左岸商贸有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D94" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E94" t="str">
         <v>1-3年</v>
       </c>
       <c r="F94" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2546,19 +2546,19 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B95" t="str">
-        <v>8千-1.3万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C95" t="str">
-        <v>郑州一迅软件科技有限公司</v>
+        <v>郑州可瑞为信息技术有限公司</v>
       </c>
       <c r="D95" t="str">
         <v>郑州</v>
       </c>
       <c r="E95" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F95" t="str">
         <v>大专</v>
@@ -2592,22 +2592,22 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>android/安卓开发工程师（中级）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B97" t="str">
-        <v>8千-1万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C97" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D97" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E97" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F97" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2664,16 +2664,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B100" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C100" t="str">
-        <v>郑州点读电子科技有限公司</v>
+        <v>郑州巨之麦科技有限公司</v>
       </c>
       <c r="D100" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E100" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F100" t="str">
         <v>本科</v>
@@ -2684,22 +2684,22 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>android 开发安卓工程师</v>
+        <v>android开发工程师（高薪+五险）</v>
       </c>
       <c r="B101" t="str">
-        <v>8千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C101" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D101" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E101" t="str">
         <v>3-5年</v>
       </c>
       <c r="F101" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2710,19 +2710,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B102" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C102" t="str">
-        <v>屹通信息</v>
+        <v>郑州灵慧软件科技有限公司</v>
       </c>
       <c r="D102" t="str">
         <v>郑州</v>
       </c>
       <c r="E102" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F102" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2730,22 +2730,22 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>android开发工程师（高薪+五险）</v>
+        <v>android 开发安卓工程师</v>
       </c>
       <c r="B103" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C103" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南恒辉房地产顾问有限公司</v>
       </c>
       <c r="D103" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E103" t="str">
         <v>3-5年</v>
       </c>
       <c r="F103" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2756,19 +2756,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B104" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C104" t="str">
-        <v>新开普</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D104" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E104" t="str">
         <v>1-3年</v>
       </c>
       <c r="F104" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -2776,22 +2776,22 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B105" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C105" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D105" t="str">
         <v>郑州</v>
       </c>
       <c r="E105" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F105" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2799,22 +2799,22 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>android软件开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B106" t="str">
-        <v>6千-1万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C106" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D106" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E106" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F106" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2822,19 +2822,19 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B107" t="str">
-        <v>5千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C107" t="str">
-        <v>八六三软件</v>
+        <v>无锡精英堂信息科技有限公司</v>
       </c>
       <c r="D107" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E107" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F107" t="str">
         <v>本科</v>
@@ -2845,22 +2845,22 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>android 安卓 APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B108" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C108" t="str">
-        <v>郑州清森科技有限公司</v>
+        <v>五基传媒有限公司</v>
       </c>
       <c r="D108" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E108" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F108" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>android/移动互联网开发</v>
+        <v>android/APP开发工程师</v>
       </c>
       <c r="B109" t="str">
-        <v>3千-6千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C109" t="str">
-        <v>郑州长兴信息技术有限公司</v>
+        <v>河南经协智慧出行网络科技有限公司</v>
       </c>
       <c r="D109" t="str">
         <v>郑州</v>
@@ -2891,22 +2891,22 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师+高薪+双休</v>
       </c>
       <c r="B110" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.3万</v>
       </c>
       <c r="C110" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>郑州恒信软件科技有限公司</v>
       </c>
       <c r="D110" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E110" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F110" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2917,13 +2917,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B111" t="str">
-        <v>8千-1.2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C111" t="str">
-        <v>新开普</v>
+        <v>郑州磐森数字科技有限公司</v>
       </c>
       <c r="D111" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E111" t="str">
         <v>3-5年</v>
@@ -2937,19 +2937,19 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>android开发</v>
+        <v>android</v>
       </c>
       <c r="B112" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C112" t="str">
-        <v>郑州鼓点软件科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D112" t="str">
         <v>郑州</v>
       </c>
       <c r="E112" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F112" t="str">
         <v>本科</v>
@@ -2960,13 +2960,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B113" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C113" t="str">
-        <v>郑州磐森数字科技有限公司</v>
+        <v>郑州鼓点软件科技有限公司</v>
       </c>
       <c r="D113" t="str">
         <v>郑州</v>
@@ -2986,19 +2986,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B114" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C114" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>郑州江山科技有限公司</v>
       </c>
       <c r="D114" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E114" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F114" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>android高级开发工程师+高薪+双休</v>
+        <v>android工程师(J10082)</v>
       </c>
       <c r="B115" t="str">
-        <v>8千-1.3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C115" t="str">
-        <v>郑州恒信软件科技有限公司</v>
+        <v>天星教育</v>
       </c>
       <c r="D115" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E115" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F115" t="str">
         <v>本科</v>
@@ -3029,19 +3029,19 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B116" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C116" t="str">
-        <v>郑州江山科技有限公司</v>
+        <v>郑州市金水区天一外语培训中心</v>
       </c>
       <c r="D116" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F116" t="str">
         <v>本科</v>
@@ -3052,19 +3052,19 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C117" t="str">
-        <v>牧原股份</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E117" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F117" t="str">
         <v>本科</v>
@@ -3078,19 +3078,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D118" t="str">
         <v>郑州</v>
       </c>
       <c r="E118" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F118" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -3098,22 +3098,22 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>android开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>1万-1.8万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C119" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E119" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F119" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3121,16 +3121,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>android开发工程师</v>
+        <v>急聘移动端开发android</v>
       </c>
       <c r="B120" t="str">
         <v>6千-1万</v>
       </c>
       <c r="C120" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D120" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E120" t="str">
         <v>1-3年</v>
@@ -3144,22 +3144,22 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B121" t="str">
-        <v>6千-1万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C121" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D121" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E121" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F121" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3167,19 +3167,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>android开发工程师</v>
+        <v>双休android五险工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>7千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C122" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>河南智森物联网科技有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F122" t="str">
         <v>本科</v>
@@ -3193,13 +3193,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B123" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C123" t="str">
-        <v>金豆豆互联网有限责任公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D123" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E123" t="str">
         <v>3-5年</v>
@@ -3216,19 +3216,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>1万-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C124" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3239,16 +3239,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>8千-1.6万</v>
+        <v>1.5万-3万</v>
       </c>
       <c r="C125" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>河南枞宁信息科技有限公司</v>
       </c>
       <c r="D125" t="str">
         <v>郑州</v>
       </c>
       <c r="E125" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F125" t="str">
         <v>本科</v>
@@ -3262,13 +3262,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>1.5万-3万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C126" t="str">
-        <v>河南枞宁信息科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E126" t="str">
         <v>1-3年</v>
@@ -3285,19 +3285,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C127" t="str">
-        <v>河南纵达软件科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
       </c>
       <c r="F127" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3308,19 +3308,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>8千-1万</v>
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C128" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E128" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F128" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3331,19 +3331,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>2.5万-3.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C129" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>锦锐科技有限公司</v>
       </c>
       <c r="D129" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E129" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F129" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3351,69 +3351,69 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>6千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C130" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E130" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F130" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G130" t="str">
         <v/>
       </c>
     </row>
-    <row r="131">
+    <row r="131" xml:space="preserve">
       <c r="A131" t="str">
-        <v>android（安卓）开发工程师</v>
-      </c>
-      <c r="B131" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C131" t="str">
-        <v>河南金案场科技有限公司</v>
-      </c>
-      <c r="D131" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E131" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F131" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G131" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="132" xml:space="preserve">
-      <c r="A132" t="str">
         <v>android/ios开发工程师</v>
       </c>
-      <c r="B132" t="str" xml:space="preserve">
+      <c r="B131" t="str" xml:space="preserve">
         <v xml:space="preserve">7千-8千
           · 13薪</v>
       </c>
+      <c r="C131" t="str">
+        <v>郑州百易科技有限公司</v>
+      </c>
+      <c r="D131" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E131" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F131" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B132" t="str">
+        <v>5千-1万</v>
+      </c>
       <c r="C132" t="str">
-        <v>郑州百易科技有限公司</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E132" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F132" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3421,22 +3421,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C133" t="str">
-        <v>天迈科技</v>
+        <v>河南南秀建筑科技有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E133" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F133" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3447,16 +3447,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>7千-9千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C134" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D134" t="str">
         <v>郑州</v>
       </c>
       <c r="E134" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F134" t="str">
         <v>大专</v>
@@ -3467,19 +3467,19 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C135" t="str">
-        <v>郑州巨之麦科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D135" t="str">
         <v>郑州</v>
       </c>
       <c r="E135" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F135" t="str">
         <v>本科</v>
@@ -3493,19 +3493,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>5千-1万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C136" t="str">
-        <v>河南港江建设集团有限公司</v>
+        <v>郑州龙图环宇科技开发有限公司</v>
       </c>
       <c r="D136" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F136" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -3516,16 +3516,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>5千-8千</v>
+        <v>4千-6千</v>
       </c>
       <c r="C137" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F137" t="str">
         <v>大专</v>
@@ -3536,13 +3536,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B138" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C138" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>1万-1.5万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C139" t="str">
-        <v>威科姆</v>
+        <v>新开普</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
@@ -3582,16 +3582,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>android开发工程师</v>
+        <v>android研发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>5千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C140" t="str">
-        <v>河南中懿游软件开发有限公司</v>
+        <v>云端信息</v>
       </c>
       <c r="D140" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E140" t="str">
         <v>1-3年</v>
@@ -3608,19 +3608,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B141" t="str">
-        <v>4千-6千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C141" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D141" t="str">
         <v>郑州</v>
       </c>
       <c r="E141" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3628,16 +3628,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C142" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>宁夏智宁技术有限公司</v>
       </c>
       <c r="D142" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E142" t="str">
         <v>1-3年</v>
@@ -3651,22 +3651,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>android开发工程师</v>
+        <v>android/移动互联网开发</v>
       </c>
       <c r="B143" t="str">
-        <v>7千-1.2万</v>
+        <v>3千-6千</v>
       </c>
       <c r="C143" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州长兴信息技术有限公司</v>
       </c>
       <c r="D143" t="str">
         <v>郑州</v>
       </c>
       <c r="E143" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F143" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3674,22 +3674,22 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>android研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B144" t="str">
-        <v>6千-8千</v>
+        <v>5千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>云端信息</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
       </c>
       <c r="E144" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F144" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>android底层驱动工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>1万-2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C145" t="str">
-        <v>新开普</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C146" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3743,19 +3743,19 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C147" t="str">
-        <v>宁夏智宁技术有限公司</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D147" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F147" t="str">
         <v>本科</v>
@@ -3792,19 +3792,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B149" t="str">
-        <v>4千-8千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C149" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>深圳市芬析仪器制造有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州</v>
+        <v>郑州-新郑市</v>
       </c>
       <c r="E149" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F149" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3812,22 +3812,22 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>android软件开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B150" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C150" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
       </c>
       <c r="E150" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3838,13 +3838,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B151" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C151" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C152" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
@@ -3904,22 +3904,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>ios+安卓 软件工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C154" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>埃林哲</v>
       </c>
       <c r="D154" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E154" t="str">
         <v>3-5年</v>
       </c>
       <c r="F154" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3927,22 +3927,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B155" t="str">
         <v>8千-1.5万</v>
       </c>
       <c r="C155" t="str">
-        <v>上海埃林哲软件系统股份有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3950,22 +3950,22 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>8千-1.5万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C156" t="str">
-        <v>万邦国际集团</v>
+        <v>易宝软件</v>
       </c>
       <c r="D156" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州</v>
       </c>
       <c r="E156" t="str">
         <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3976,10 +3976,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>6千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C157" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D157" t="str">
         <v>郑州-金水区</v>
@@ -3996,22 +3996,22 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>1万-1.5万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C158" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D158" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F158" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -4022,19 +4022,19 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>1.5万-2.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C159" t="str">
-        <v>易宝软件</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D159" t="str">
         <v>郑州</v>
       </c>
       <c r="E159" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F159" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G159" t="str">
         <v/>
@@ -4042,22 +4042,22 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>8千-1.6万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C160" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D160" t="str">
         <v>郑州</v>
       </c>
       <c r="E160" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F160" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -4068,10 +4068,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B161" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C161" t="str">
-        <v>河南广播传媒集团有限公司</v>
+        <v>河南思维列控</v>
       </c>
       <c r="D161" t="str">
         <v>郑州</v>
@@ -4080,7 +4080,7 @@
         <v>3-5年</v>
       </c>
       <c r="F161" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G161" t="str">
         <v/>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>9千-1.8万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C163" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E163" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F163" t="str">
         <v>大专</v>
@@ -4132,24 +4132,25 @@
         <v/>
       </c>
     </row>
-    <row r="164">
+    <row r="164" xml:space="preserve">
       <c r="A164" t="str">
-        <v>安卓研发工程师</v>
-      </c>
-      <c r="B164" t="str">
-        <v>6千-8千</v>
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B164" t="str" xml:space="preserve">
+        <v xml:space="preserve">9千-1.6万
+          · 13薪</v>
       </c>
       <c r="C164" t="str">
-        <v>河南绘梦未来网络科技有限公司</v>
+        <v>南京北路智控科技股份有限公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E164" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F164" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G164" t="str">
         <v/>
@@ -4157,19 +4158,19 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>andorid开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>5千-9千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C165" t="str">
-        <v>北京慧联无限信息技术有限公司</v>
+        <v>郑州报业集团有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E165" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F165" t="str">
         <v>本科</v>
@@ -4180,19 +4181,19 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>flutter开发工程师</v>
+        <v>逆向工程师（windows/android15-30k）</v>
       </c>
       <c r="B166" t="str">
-        <v>8千-1.2万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C166" t="str">
-        <v>河南省联众智能系统有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E166" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F166" t="str">
         <v>大专</v>
@@ -4203,22 +4204,22 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C167" t="str">
-        <v>河南思维列控</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D167" t="str">
         <v>郑州</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F167" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4226,46 +4227,45 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>安卓开发工程师</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B168" t="str">
-        <v>7千-1万</v>
+        <v>5千-9千</v>
       </c>
       <c r="C168" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D168" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E168" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F168" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G168" t="str">
         <v/>
       </c>
     </row>
-    <row r="169" xml:space="preserve">
+    <row r="169">
       <c r="A169" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B169" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
+        <v>flutter开发工程师</v>
+      </c>
+      <c r="B169" t="str">
+        <v>8千-1.2万</v>
       </c>
       <c r="C169" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>河南省联众智能系统有限公司</v>
       </c>
       <c r="D169" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E169" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F169" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4273,22 +4273,22 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B170" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C170" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>广东腾辉商务服务有限责任公司</v>
       </c>
       <c r="D170" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E170" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F170" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G170" t="str">
         <v/>
@@ -4319,22 +4319,22 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B172" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C172" t="str">
-        <v>刀锋互娱</v>
+        <v>河南道阅网络技术有限公司</v>
       </c>
       <c r="D172" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E172" t="str">
         <v>3-5年</v>
       </c>
       <c r="F172" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4342,22 +4342,22 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>软件开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B173" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C173" t="str">
-        <v>贝博电子</v>
+        <v>郑州泽贤信息技术有限公司</v>
       </c>
       <c r="D173" t="str">
         <v>郑州</v>
       </c>
       <c r="E173" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F173" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -4365,16 +4365,16 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B174" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C174" t="str">
-        <v>广东腾辉商务服务有限责任公司</v>
+        <v>深圳壹玖企业管理有限公司河南分公司</v>
       </c>
       <c r="D174" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E174" t="str">
         <v>3-5年</v>
@@ -4388,22 +4388,22 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>安卓开发工程师</v>
+        <v>移动端开发工程师</v>
       </c>
       <c r="B175" t="str">
-        <v>8千-1.5万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C175" t="str">
-        <v>河南道阅网络技术有限公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D175" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E175" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F175" t="str">
-        <v>学历不限</v>
+        <v>大专</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4411,19 +4411,19 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>安卓开发工程师</v>
+        <v>Flutter</v>
       </c>
       <c r="B176" t="str">
-        <v>5千-8千</v>
+        <v>9千-1.1万</v>
       </c>
       <c r="C176" t="str">
-        <v>郑州泽贤信息技术有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D176" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E176" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F176" t="str">
         <v>大专</v>
@@ -4437,19 +4437,19 @@
         <v>安卓工程师</v>
       </c>
       <c r="B177" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-5千</v>
       </c>
       <c r="C177" t="str">
-        <v>河南蓝信科技有限责任公司</v>
+        <v>河南德克电子科技有限公司</v>
       </c>
       <c r="D177" t="str">
         <v>郑州</v>
       </c>
       <c r="E177" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F177" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -4457,22 +4457,22 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>移动端开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B178" t="str">
-        <v>4千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C178" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>河南云煤网网络科技有限责任公司</v>
       </c>
       <c r="D178" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E178" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F178" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G178" t="str">
         <v/>
@@ -4480,19 +4480,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Flutter</v>
+        <v>逆向工程师</v>
       </c>
       <c r="B179" t="str">
-        <v>9千-1.1万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C179" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>云库科技</v>
       </c>
       <c r="D179" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E179" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F179" t="str">
         <v>大专</v>
@@ -4503,13 +4503,13 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>安卓工程师</v>
+        <v>安卓软件开发工程师</v>
       </c>
       <c r="B180" t="str">
-        <v>4千-5千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C180" t="str">
-        <v>河南德克电子科技有限公司</v>
+        <v>河南国都时代科技有限公司</v>
       </c>
       <c r="D180" t="str">
         <v>郑州</v>
@@ -4518,7 +4518,7 @@
         <v>1-3年</v>
       </c>
       <c r="F180" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G180" t="str">
         <v/>
@@ -4526,22 +4526,22 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>安卓中级开发工程师（双休）</v>
+        <v>Flutter开发工程师（可兼职）</v>
       </c>
       <c r="B181" t="str">
-        <v>6千-8千</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C181" t="str">
-        <v>郑州泽贤信息技术有限公司</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D181" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E181" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F181" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G181" t="str">
         <v/>
@@ -4549,19 +4549,19 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>逆向工程师</v>
+        <v>安卓中级开发工程师（双休）</v>
       </c>
       <c r="B182" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C182" t="str">
-        <v>云库科技</v>
+        <v>郑州泽贤信息技术有限公司</v>
       </c>
       <c r="D182" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E182" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F182" t="str">
         <v>大专</v>
@@ -4572,22 +4572,22 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>安卓开发工程师</v>
+        <v>uni app开发工程师</v>
       </c>
       <c r="B183" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C183" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南智宽科技有限公司</v>
       </c>
       <c r="D183" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E183" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F183" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G183" t="str">
         <v/>
@@ -4595,16 +4595,16 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>高级Linux工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B184" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C184" t="str">
-        <v>河南省吉立达机器人有限公司</v>
+        <v>河南九域腾龙信息工程有限公司</v>
       </c>
       <c r="D184" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E184" t="str">
         <v>3-5年</v>
@@ -4618,16 +4618,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B185" t="str">
-        <v>5千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C185" t="str">
-        <v>超图软件</v>
+        <v>众智科技</v>
       </c>
       <c r="D185" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E185" t="str">
         <v>1-3年</v>
@@ -4641,19 +4641,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B186" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C186" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
+        <v>河南蓝信科技有限责任公司</v>
       </c>
       <c r="D186" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E186" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F186" t="str">
         <v>本科</v>
@@ -4664,22 +4664,22 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Flutter开发工程师（可兼职）</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B187" t="str">
-        <v>1.5万-2.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C187" t="str">
-        <v>合肥观六智能科技有限公司</v>
+        <v>河南省高校新技术有限公司</v>
       </c>
       <c r="D187" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E187" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F187" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G187" t="str">
         <v/>
@@ -4687,22 +4687,22 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>uni app开发工程师</v>
+        <v>安卓工程师</v>
       </c>
       <c r="B188" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C188" t="str">
-        <v>河南智宽科技有限公司</v>
+        <v>云涌科技</v>
       </c>
       <c r="D188" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E188" t="str">
         <v>1-3年</v>
       </c>
       <c r="F188" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G188" t="str">
         <v/>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>安卓软件开发工程师</v>
+        <v>软件开发工程师（智慧设施-郑州kkkk）</v>
       </c>
       <c r="B189" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C189" t="str">
-        <v>河南国都时代科技有限公司</v>
+        <v>超图软件</v>
       </c>
       <c r="D189" t="str">
         <v>郑州</v>
@@ -4756,22 +4756,22 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>安卓工程师</v>
+        <v>逆向研发工程师</v>
       </c>
       <c r="B191" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C191" t="str">
-        <v>云涌科技</v>
+        <v>云库科技</v>
       </c>
       <c r="D191" t="str">
         <v>郑州-高新区</v>
       </c>
       <c r="E191" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F191" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G191" t="str">
         <v/>
@@ -4779,22 +4779,22 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>安卓前端研发工程师</v>
+        <v>手机软件开发工程师</v>
       </c>
       <c r="B192" t="str">
-        <v>6千-8千</v>
+        <v>5千-7千</v>
       </c>
       <c r="C192" t="str">
-        <v>河南陀螺信息技术有限公司</v>
+        <v>河南亚菲品牌策划有限公司</v>
       </c>
       <c r="D192" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E192" t="str">
-        <v>1-3年</v>
+        <v>1年以下</v>
       </c>
       <c r="F192" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -4825,22 +4825,22 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>手机软件开发工程师</v>
+        <v>移动开发工程师</v>
       </c>
       <c r="B194" t="str">
-        <v>5千-7千</v>
+        <v>6千-1.1万</v>
       </c>
       <c r="C194" t="str">
-        <v>河南亚菲品牌策划有限公司</v>
+        <v>北京动态点网络科技有限公司</v>
       </c>
       <c r="D194" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E194" t="str">
-        <v>1年以下</v>
+        <v>不限</v>
       </c>
       <c r="F194" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G194" t="str">
         <v/>
@@ -4848,19 +4848,19 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>逆向研发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B195" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C195" t="str">
-        <v>云库科技</v>
+        <v>昆山双宇新信息科技有限公司</v>
       </c>
       <c r="D195" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E195" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F195" t="str">
         <v>大专</v>
@@ -4871,22 +4871,22 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>移动开发工程师</v>
+        <v>Flutter移动开发工程师</v>
       </c>
       <c r="B196" t="str">
         <v>6千-1.1万</v>
       </c>
       <c r="C196" t="str">
-        <v>北京动态点网络科技有限公司</v>
+        <v>郑州卡卡罗特软件科技有限公司</v>
       </c>
       <c r="D196" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E196" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F196" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G196" t="str">
         <v/>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓手机app开发人员</v>
       </c>
       <c r="B198" t="str">
-        <v>7千-1.2万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C198" t="str">
-        <v>河南省高校新技术有限公司</v>
+        <v>河南商蒙软件科技有限公司</v>
       </c>
       <c r="D198" t="str">
         <v>郑州</v>
       </c>
       <c r="E198" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F198" t="str">
         <v>大专</v>
@@ -4940,22 +4940,22 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>安卓手机app开发人员</v>
+        <v>软件开发工程师（APP开发）/APP开发工程师</v>
       </c>
       <c r="B199" t="str">
-        <v>6千-1万</v>
+        <v>7.5千-1.5万</v>
       </c>
       <c r="C199" t="str">
-        <v>河南商蒙软件科技有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D199" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E199" t="str">
         <v>3-5年</v>
       </c>
       <c r="F199" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G199" t="str">
         <v/>
@@ -4963,16 +4963,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>软件开发工程师（APP开发）/APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B200" t="str">
-        <v>7.5千-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C200" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>天一文化</v>
       </c>
       <c r="D200" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E200" t="str">
         <v>3-5年</v>
@@ -4986,76 +4986,30 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>APP开发工程师</v>
+        <v>unity开发工程师</v>
       </c>
       <c r="B201" t="str">
-        <v>6千-8千</v>
+        <v>7千-1万</v>
       </c>
       <c r="C201" t="str">
-        <v>昆山双宇新信息科技有限公司</v>
+        <v>河南商泽网络科技有限公司</v>
       </c>
       <c r="D201" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E201" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F201" t="str">
         <v>大专</v>
       </c>
       <c r="G201" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B202" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C202" t="str">
-        <v>天一文化</v>
-      </c>
-      <c r="D202" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E202" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F202" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G202" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="str">
-        <v>unity开发工程师</v>
-      </c>
-      <c r="B203" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C203" t="str">
-        <v>河南商泽网络科技有限公司</v>
-      </c>
-      <c r="D203" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E203" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F203" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G203" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G203"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G201"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
+++ b/app/src/main/assets/企业最新招聘信息_求职信息_找工作上智联招聘.xlsx
@@ -405,22 +405,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B2" t="str">
-        <v>6千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C2" t="str">
-        <v>河南广播传媒集团有限公司</v>
+        <v>乐精灵教育科技(北京)有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E2" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F2" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -428,22 +428,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>安卓开发工程师</v>
+        <v>移动端开发（android）</v>
       </c>
       <c r="B3" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C3" t="str">
-        <v>郑州富铭环保科技股份有限公司</v>
+        <v>豪弘电子商务集团有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E3" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F3" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -451,13 +451,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>android开发工程师</v>
+        <v>android工程师</v>
       </c>
       <c r="B4" t="str">
-        <v>8千-1.2万</v>
+        <v>4千-8千</v>
       </c>
       <c r="C4" t="str">
-        <v>河南克穷电子商务有限公司</v>
+        <v>郑州天启自动化系统有限公司</v>
       </c>
       <c r="D4" t="str">
         <v>郑州</v>
@@ -474,16 +474,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B5" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C5" t="str">
-        <v>河南中裕广恒科技股份有限公司</v>
+        <v>牧原股份</v>
       </c>
       <c r="D5" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E5" t="str">
         <v>3-5年</v>
@@ -497,22 +497,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B6" t="str">
-        <v>8千-1.5万</v>
+        <v>9千-1.6万</v>
       </c>
       <c r="C6" t="str">
-        <v>硕诺科技</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E6" t="str">
-        <v>3-5年</v>
+        <v>不限</v>
       </c>
       <c r="F6" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -523,19 +523,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B7" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C7" t="str">
-        <v>乐精灵教育科技(北京)有限公司</v>
+        <v>宁波五招信息技术有限公司</v>
       </c>
       <c r="D7" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E7" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F7" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -546,19 +546,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B8" t="str">
-        <v>5千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C8" t="str">
-        <v>郑州泽贤信息技术有限公司</v>
+        <v>郑州鼎立土石方工程有限公司</v>
       </c>
       <c r="D8" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E8" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F8" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -566,22 +566,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>android</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B9" t="str">
-        <v>9千-1.6万</v>
+        <v>1.3万-1.8万</v>
       </c>
       <c r="C9" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>捷安高科</v>
       </c>
       <c r="D9" t="str">
         <v>郑州</v>
       </c>
       <c r="E9" t="str">
-        <v>不限</v>
+        <v>5-10年</v>
       </c>
       <c r="F9" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -589,19 +589,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B10" t="str">
-        <v>7千-1.2万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C10" t="str">
-        <v>河南云煤网网络科技有限责任公司</v>
+        <v>河南亿秒电子科技有限公司</v>
       </c>
       <c r="D10" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E10" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F10" t="str">
         <v>大专</v>
@@ -615,16 +615,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B11" t="str">
-        <v>7千-1万</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C11" t="str">
-        <v>日本村郑州</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D11" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E11" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F11" t="str">
         <v>本科</v>
@@ -635,22 +635,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师（14薪+双休）</v>
       </c>
       <c r="B12" t="str">
-        <v>7千-1.4万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C12" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南威漫信息科技有限公司</v>
       </c>
       <c r="D12" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E12" t="str">
         <v>3-5年</v>
       </c>
       <c r="F12" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -658,19 +658,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>android应用开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B13" t="str">
-        <v>6千-8千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C13" t="str">
-        <v>浙江盛迪科技股份有限公司</v>
+        <v>河南印爱文化艺术有限公司</v>
       </c>
       <c r="D13" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E13" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F13" t="str">
         <v>本科</v>
@@ -684,13 +684,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B14" t="str">
-        <v>5千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C14" t="str">
-        <v>河南买多电子商务有限公司</v>
+        <v>河南克穷电子商务有限公司</v>
       </c>
       <c r="D14" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E14" t="str">
         <v>1-3年</v>
@@ -704,45 +704,46 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>android软件开发工程师</v>
+        <v>聘android（安卓）研发工程师</v>
       </c>
       <c r="B15" t="str">
-        <v>6千-1万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C15" t="str">
-        <v>河南品辰电子科技有限公司</v>
+        <v>优路教育</v>
       </c>
       <c r="D15" t="str">
         <v>郑州</v>
       </c>
       <c r="E15" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F15" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
     </row>
-    <row r="16">
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B16" t="str">
-        <v>6千-1万</v>
+        <v>android开发工程师</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">1万-1.2万
+          · 13薪</v>
       </c>
       <c r="C16" t="str">
-        <v>河南宇通信息技术有限公司</v>
+        <v>博商云(郑州)科技有限公司</v>
       </c>
       <c r="D16" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E16" t="str">
         <v>3-5年</v>
       </c>
       <c r="F16" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -753,13 +754,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B17" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C17" t="str">
-        <v>郑州软盟通信技术有限公司</v>
+        <v>河南纳食信息科技有限公司</v>
       </c>
       <c r="D17" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E17" t="str">
         <v>3-5年</v>
@@ -773,22 +774,22 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发 高级开发工程师</v>
       </c>
       <c r="B18" t="str">
-        <v>6千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C18" t="str">
-        <v>易安德电子商务有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D18" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E18" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F18" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -799,16 +800,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B19" t="str">
-        <v>8千-1.6万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C19" t="str">
-        <v>河南省日立信股份有限公司</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D19" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E19" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F19" t="str">
         <v>本科</v>
@@ -819,22 +820,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>android开发工程师</v>
+        <v>android应用开发工程师</v>
       </c>
       <c r="B20" t="str">
-        <v>8千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C20" t="str">
-        <v>郑州鼎立土石方工程有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D20" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-航空港区</v>
       </c>
       <c r="E20" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F20" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -842,22 +843,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>android底层开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B21" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-9千</v>
       </c>
       <c r="C21" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>郑州木加林文化传播有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E21" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F21" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -865,22 +866,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>高级android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B22" t="str">
-        <v>1.5万-2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C22" t="str">
-        <v>刀锋互娱</v>
+        <v>郑州市金水区天一外语培训中心</v>
       </c>
       <c r="D22" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E22" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F22" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -891,19 +892,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B23" t="str">
-        <v>6千-8千</v>
+        <v>7千-1.4万</v>
       </c>
       <c r="C23" t="str">
-        <v>河南宏博测控技术有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D23" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E23" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F23" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -914,16 +915,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B24" t="str">
-        <v>1万-1.6万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C24" t="str">
-        <v>河南派普建工集团有限公司</v>
+        <v>郑州软盟通信技术有限公司</v>
       </c>
       <c r="D24" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州</v>
       </c>
       <c r="E24" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F24" t="str">
         <v>大专</v>
@@ -934,22 +935,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>android开发工程师</v>
+        <v>高级android开发工程师</v>
       </c>
       <c r="B25" t="str">
-        <v>1万-1.5万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C25" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>刀锋互娱</v>
       </c>
       <c r="D25" t="str">
-        <v>郑州</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E25" t="str">
         <v>3-5年</v>
       </c>
       <c r="F25" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -957,19 +958,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B26" t="str">
-        <v>8千-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C26" t="str">
-        <v>河南国测信息技术有限公司</v>
+        <v>北京物通时空网络科技开发有限公司河南分公司</v>
       </c>
       <c r="D26" t="str">
         <v>郑州</v>
       </c>
       <c r="E26" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F26" t="str">
         <v>大专</v>
@@ -980,19 +981,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>android开发工程师</v>
+        <v>android安卓开发工程师</v>
       </c>
       <c r="B27" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C27" t="str">
-        <v>河南安盛科技股份有限公司</v>
+        <v>河南澳乐康科技有限公司</v>
       </c>
       <c r="D27" t="str">
         <v>郑州</v>
       </c>
       <c r="E27" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F27" t="str">
         <v>本科</v>
@@ -1003,22 +1004,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>移动端开发（android）</v>
+        <v>android开发工程师 五险一金+餐补双休</v>
       </c>
       <c r="B28" t="str">
-        <v>6千-8千</v>
+        <v>8千-1万</v>
       </c>
       <c r="C28" t="str">
-        <v>豪弘电子商务集团有限公司</v>
+        <v>郑州软通合力计算机技术有限公司</v>
       </c>
       <c r="D28" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E28" t="str">
         <v>1-3年</v>
       </c>
       <c r="F28" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1029,19 +1030,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B29" t="str">
-        <v>7千-9千</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C29" t="str">
-        <v>河南沃柑科技服务有限公司</v>
+        <v>河南饮水网文化传媒有限公司</v>
       </c>
       <c r="D29" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E29" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F29" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -1049,22 +1050,22 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>android工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B30" t="str">
-        <v>4千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C30" t="str">
-        <v>郑州天启自动化系统有限公司</v>
+        <v>河南宇通信息技术有限公司</v>
       </c>
       <c r="D30" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E30" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F30" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1075,16 +1076,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B31" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C31" t="str">
-        <v>牧原股份</v>
+        <v>河南省日立信股份有限公司</v>
       </c>
       <c r="D31" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E31" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F31" t="str">
         <v>本科</v>
@@ -1098,16 +1099,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B32" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C32" t="str">
-        <v>宁波五招信息技术有限公司</v>
+        <v>河南惟客信息科技有限公司</v>
       </c>
       <c r="D32" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E32" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F32" t="str">
         <v>大专</v>
@@ -1118,19 +1119,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>高级android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B33" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C33" t="str">
-        <v>河南印爱文化艺术有限公司</v>
+        <v>河南安盛科技股份有限公司</v>
       </c>
       <c r="D33" t="str">
         <v>郑州</v>
       </c>
       <c r="E33" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F33" t="str">
         <v>本科</v>
@@ -1141,22 +1142,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师（五险一金）</v>
       </c>
       <c r="B34" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C34" t="str">
-        <v>河南聚融优合汽车销售有限公司</v>
+        <v>河南华元嘉信医疗器械销售有限公司</v>
       </c>
       <c r="D34" t="str">
         <v>郑州</v>
       </c>
       <c r="E34" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F34" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1164,19 +1165,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>android开发工程师</v>
+        <v>android开发高级工程师</v>
       </c>
       <c r="B35" t="str">
-        <v>7千-1.4万</v>
+        <v>1万-1.8万</v>
       </c>
       <c r="C35" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D35" t="str">
         <v>郑州</v>
       </c>
       <c r="E35" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F35" t="str">
         <v>本科</v>
@@ -1187,46 +1188,45 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B36" t="str">
-        <v>1.3万-1.8万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C36" t="str">
-        <v>捷安高科</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D36" t="str">
         <v>郑州</v>
       </c>
       <c r="E36" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F36" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G36" t="str">
         <v/>
       </c>
     </row>
-    <row r="37" xml:space="preserve">
+    <row r="37">
       <c r="A37" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B37" t="str" xml:space="preserve">
-        <v xml:space="preserve">1万-1.2万
-          · 13薪</v>
+      <c r="B37" t="str">
+        <v>8千-1.2万</v>
       </c>
       <c r="C37" t="str">
-        <v>博商云(郑州)科技有限公司</v>
+        <v>郑州恩普特</v>
       </c>
       <c r="D37" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E37" t="str">
         <v>3-5年</v>
       </c>
       <c r="F37" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1237,13 +1237,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B38" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C38" t="str">
-        <v>河南纳食信息科技有限公司</v>
+        <v>郑州点都科技有限公司</v>
       </c>
       <c r="D38" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E38" t="str">
         <v>3-5年</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>聘android（安卓）研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B39" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C39" t="str">
-        <v>优路教育</v>
+        <v>日本村郑州</v>
       </c>
       <c r="D39" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E39" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F39" t="str">
         <v>本科</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B40" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-9千</v>
       </c>
       <c r="C40" t="str">
-        <v>河南亿秒电子科技有限公司</v>
+        <v>河南沃柑科技服务有限公司</v>
       </c>
       <c r="D40" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E40" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F40" t="str">
         <v>大专</v>
@@ -1303,22 +1303,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>android应用开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B41" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C41" t="str">
-        <v>天迈科技</v>
+        <v>梦之源科技集团有限公司</v>
       </c>
       <c r="D41" t="str">
-        <v>郑州-航空港区</v>
+        <v>郑州</v>
       </c>
       <c r="E41" t="str">
         <v>3-5年</v>
       </c>
       <c r="F41" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1329,19 +1329,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B42" t="str">
-        <v>6千-9千</v>
+        <v>9千-1.3万</v>
       </c>
       <c r="C42" t="str">
-        <v>郑州木加林文化传播有限公司</v>
+        <v>康桥悦生活服务集团有限公司</v>
       </c>
       <c r="D42" t="str">
         <v>郑州</v>
       </c>
       <c r="E42" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F42" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1349,19 +1349,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B43" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C43" t="str">
-        <v>河南澳乐康科技有限公司</v>
+        <v>河南指联物联网科技有限公司</v>
       </c>
       <c r="D43" t="str">
         <v>郑州</v>
       </c>
       <c r="E43" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F43" t="str">
         <v>本科</v>
@@ -1372,22 +1372,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>android高级开发工程师（14薪+双休）</v>
+        <v>高级安卓android开发工程师</v>
       </c>
       <c r="B44" t="str">
         <v>1万-1.5万</v>
       </c>
       <c r="C44" t="str">
-        <v>河南威漫信息科技有限公司</v>
+        <v>大河网络传媒集团有限公司</v>
       </c>
       <c r="D44" t="str">
         <v>郑州</v>
       </c>
       <c r="E44" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F44" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1395,19 +1395,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>android开发工程师 五险一金+餐补双休</v>
+        <v>android/安卓开发工程师（高级）</v>
       </c>
       <c r="B45" t="str">
-        <v>8千-1万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C45" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D45" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E45" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F45" t="str">
         <v>本科</v>
@@ -1418,16 +1418,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>android安卓开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B46" t="str">
-        <v>6千-1万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C46" t="str">
-        <v>北京物通时空网络科技开发有限公司河南分公司</v>
+        <v>河南腾跃科技有限公司</v>
       </c>
       <c r="D46" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E46" t="str">
         <v>1-3年</v>
@@ -1444,16 +1444,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B47" t="str">
-        <v>7千-1.3万</v>
+        <v>1万-1.6万</v>
       </c>
       <c r="C47" t="str">
-        <v>河南宝蓝实业有限公司</v>
+        <v>河南派普建工集团有限公司</v>
       </c>
       <c r="D47" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E47" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F47" t="str">
         <v>大专</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>android开发工程师（五险一金）</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B48" t="str">
-        <v>5千-8千</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C48" t="str">
-        <v>河南华元嘉信医疗器械销售有限公司</v>
+        <v>金豆豆互联网有限责任公司</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E48" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F48" t="str">
         <v>本科</v>
@@ -1490,13 +1490,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B49" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C49" t="str">
-        <v>郑州点都科技有限公司</v>
+        <v>河南国超电子商务有限公司</v>
       </c>
       <c r="D49" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E49" t="str">
         <v>3-5年</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>android开发工程师</v>
+        <v>android开发工程师高级</v>
       </c>
       <c r="B50" t="str">
-        <v>8千-1.2万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C50" t="str">
-        <v>郑州恩普特</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D50" t="str">
         <v>郑州</v>
@@ -1536,10 +1536,10 @@
         <v>android开发工程师</v>
       </c>
       <c r="B51" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-1万</v>
       </c>
       <c r="C51" t="str">
-        <v>河南饮水网文化传媒有限公司</v>
+        <v>易安德电子商务有限公司</v>
       </c>
       <c r="D51" t="str">
         <v>郑州</v>
@@ -1548,7 +1548,7 @@
         <v>3-5年</v>
       </c>
       <c r="F51" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1562,13 +1562,13 @@
         <v>7千-1万</v>
       </c>
       <c r="C52" t="str">
-        <v>河南惟客信息科技有限公司</v>
+        <v>河南翰京教育科技有限公司</v>
       </c>
       <c r="D52" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E52" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F52" t="str">
         <v>大专</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B53" t="str">
-        <v>9千-1.5万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C53" t="str">
-        <v>河南爱家校数据服务有限公司</v>
+        <v>河南中裕广恒科技股份有限公司</v>
       </c>
       <c r="D53" t="str">
         <v>郑州-金水区</v>
@@ -1594,7 +1594,7 @@
         <v>3-5年</v>
       </c>
       <c r="F53" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1602,22 +1602,22 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓技术主管</v>
       </c>
       <c r="B54" t="str">
-        <v>8千-1万</v>
+        <v>1.2万-1.5万</v>
       </c>
       <c r="C54" t="str">
-        <v>河南国超电子商务有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D54" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E54" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F54" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1625,19 +1625,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>android开发高级工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B55" t="str">
-        <v>1万-1.8万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C55" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D55" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E55" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F55" t="str">
         <v>本科</v>
@@ -1651,16 +1651,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B56" t="str">
-        <v>7千-1万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C56" t="str">
-        <v>河南翰京教育科技有限公司</v>
+        <v>中融鑫集团有限公司</v>
       </c>
       <c r="D56" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E56" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F56" t="str">
         <v>大专</v>
@@ -1671,19 +1671,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>高级安卓android开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B57" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C57" t="str">
-        <v>大河网络传媒集团有限公司</v>
+        <v>硕诺科技</v>
       </c>
       <c r="D57" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E57" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F57" t="str">
         <v>本科</v>
@@ -1694,19 +1694,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>android开发</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B58" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1.1万</v>
       </c>
       <c r="C58" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>友途车家科技服务有限公司</v>
       </c>
       <c r="D58" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E58" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F58" t="str">
         <v>大专</v>
@@ -1717,19 +1717,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>android/安卓技术主管</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B59" t="str">
-        <v>1.2万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C59" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>河南永硕实业发展有限公司</v>
       </c>
       <c r="D59" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E59" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F59" t="str">
         <v>本科</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>android开发工程师</v>
+        <v>android底层开发工程师</v>
       </c>
       <c r="B60" t="str">
         <v>8千-1.5万</v>
       </c>
       <c r="C60" t="str">
-        <v>河南指联物联网科技有限公司</v>
+        <v>超级智慧家(上海)物联网科技有限公司</v>
       </c>
       <c r="D60" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E60" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F60" t="str">
         <v>本科</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>安卓android工程师</v>
+        <v>资深android开发工程师</v>
       </c>
       <c r="B61" t="str">
-        <v>6千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C61" t="str">
-        <v>河南百信科技发展有限公司</v>
+        <v>郑州珑凌科技有限公司</v>
       </c>
       <c r="D61" t="str">
         <v>郑州</v>
       </c>
       <c r="E61" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F61" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1786,22 +1786,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>android开发工程师高级</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B62" t="str">
-        <v>8千-1万</v>
+        <v>1.5万-2万</v>
       </c>
       <c r="C62" t="str">
-        <v>中融鑫集团有限公司</v>
+        <v>南京迈特望</v>
       </c>
       <c r="D62" t="str">
-        <v>郑州</v>
+        <v>郑州-二七区</v>
       </c>
       <c r="E62" t="str">
         <v>3-5年</v>
       </c>
       <c r="F62" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1812,19 +1812,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B63" t="str">
-        <v>9千-1.3万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C63" t="str">
-        <v>康桥悦生活服务集团有限公司</v>
+        <v>郑州优行优客信息科技有限公司</v>
       </c>
       <c r="D63" t="str">
         <v>郑州</v>
       </c>
       <c r="E63" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F63" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1832,19 +1832,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>android/安卓开发工程师（高级）</v>
+        <v>郑州研究院-android开发工程师</v>
       </c>
       <c r="B64" t="str">
-        <v>1万-1.5万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C64" t="str">
-        <v>河南犇犇网络科技有限公司</v>
+        <v>科大讯飞</v>
       </c>
       <c r="D64" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E64" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F64" t="str">
         <v>本科</v>
@@ -1858,16 +1858,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>8千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C65" t="str">
-        <v>河南东方健生物科技有限公司</v>
+        <v>河南宏博检测技术有限公司</v>
       </c>
       <c r="D65" t="str">
         <v>郑州</v>
       </c>
       <c r="E65" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F65" t="str">
         <v>大专</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓开发工程师（中级）</v>
       </c>
       <c r="B66" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C66" t="str">
-        <v>梦之源科技集团有限公司</v>
+        <v>河南犇犇网络科技有限公司</v>
       </c>
       <c r="D66" t="str">
         <v>郑州</v>
@@ -1907,13 +1907,13 @@
         <v>8千-1万</v>
       </c>
       <c r="C67" t="str">
-        <v>郑州大象通信信息技术有限公司</v>
+        <v>八六三软件</v>
       </c>
       <c r="D67" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E67" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F67" t="str">
         <v>大专</v>
@@ -1927,19 +1927,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B68" t="str">
-        <v>1万-1.2万</v>
+        <v>1万-2万</v>
       </c>
       <c r="C68" t="str">
-        <v>超级智慧家(上海)物联网科技有限公司</v>
+        <v>厦门特力通通信工程有限公司</v>
       </c>
       <c r="D68" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E68" t="str">
         <v>3-5年</v>
       </c>
       <c r="F68" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1950,1101 +1950,1101 @@
         <v>android开发工程师</v>
       </c>
       <c r="B69" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C69" t="str">
+        <v>河南善水左岸商贸有限公司</v>
+      </c>
+      <c r="D69" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E69" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F69" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>android 开发</v>
+      </c>
+      <c r="B70" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C70" t="str">
+        <v>浪潮集团</v>
+      </c>
+      <c r="D70" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E70" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F70" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>android/安卓开发经理</v>
+      </c>
+      <c r="B71" t="str">
+        <v>1.5万-2万</v>
+      </c>
+      <c r="C71" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D71" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E71" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F71" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>android开发</v>
+      </c>
+      <c r="B72" t="str">
         <v>4千-6千</v>
       </c>
-      <c r="C69" t="str">
-        <v>中融鑫集团有限公司</v>
-      </c>
-      <c r="D69" t="str">
+      <c r="C72" t="str">
+        <v>郑州可瑞为信息技术有限公司</v>
+      </c>
+      <c r="D72" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E72" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F72" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B73" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C73" t="str">
+        <v>新天科技</v>
+      </c>
+      <c r="D73" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E73" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F73" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B74" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C74" t="str">
+        <v>河南宏博测控技术有限公司</v>
+      </c>
+      <c r="D74" t="str">
         <v>郑州-金水区</v>
       </c>
-      <c r="E69" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F69" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G69" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B70" t="str" xml:space="preserve">
+      <c r="E74" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F74" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C75" t="str">
+        <v>河南九域腾龙信息工程有限公司</v>
+      </c>
+      <c r="D75" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E75" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F75" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B76" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C76" t="str">
+        <v>北京杰山科技有限公司</v>
+      </c>
+      <c r="D76" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E76" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F76" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C77" t="str">
+        <v>软语科技</v>
+      </c>
+      <c r="D77" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E77" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F77" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B78" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C78" t="str">
+        <v>河南合众伟奇云智科技有限公司</v>
+      </c>
+      <c r="D78" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E78" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F78" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B79" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C79" t="str">
+        <v>郑州致博思远企业管理咨询有限公司</v>
+      </c>
+      <c r="D79" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E79" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F79" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C80" t="str">
+        <v>郑州巨之麦科技有限公司</v>
+      </c>
+      <c r="D80" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E80" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F80" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B81" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C81" t="str">
+        <v>屹通信息</v>
+      </c>
+      <c r="D81" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E81" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F81" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C82" t="str">
+        <v>郑州一迅软件科技有限公司</v>
+      </c>
+      <c r="D82" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E82" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F82" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B83" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C83" t="str">
+        <v>郑州灵慧软件科技有限公司</v>
+      </c>
+      <c r="D83" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E83" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F83" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B84" t="str">
+        <v>7千-9千</v>
+      </c>
+      <c r="C84" t="str">
+        <v>河南南秀建筑科技有限公司</v>
+      </c>
+      <c r="D84" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E84" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F84" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B85" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C85" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D85" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E85" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F85" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B86" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C86" t="str">
+        <v>八六三软件</v>
+      </c>
+      <c r="D86" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E86" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F86" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>android开发工程师（高薪+五险）</v>
+      </c>
+      <c r="B87" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C87" t="str">
+        <v>河南犇犇网络科技有限公司</v>
+      </c>
+      <c r="D87" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E87" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F87" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>android 开发安卓工程师</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C88" t="str">
+        <v>河南恒辉房地产顾问有限公司</v>
+      </c>
+      <c r="D88" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E88" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F88" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>android/移动互联网开发</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3千-6千</v>
+      </c>
+      <c r="C89" t="str">
+        <v>郑州长兴信息技术有限公司</v>
+      </c>
+      <c r="D89" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E89" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F89" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>android开发</v>
+      </c>
+      <c r="B90" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C90" t="str">
+        <v>八六三软件</v>
+      </c>
+      <c r="D90" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E90" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F90" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B91" t="str">
+        <v>4千-8千</v>
+      </c>
+      <c r="C91" t="str">
+        <v>河南洗得嗨科技有限公司</v>
+      </c>
+      <c r="D91" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E91" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F91" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B92" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C92" t="str">
+        <v>郑州泽贤信息技术有限公司</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E92" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F92" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1.6万-2.5万</v>
+      </c>
+      <c r="C93" t="str">
+        <v>德一文化旅游产业有限公司</v>
+      </c>
+      <c r="D93" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E93" t="str">
+        <v>5-10年</v>
+      </c>
+      <c r="F93" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B94" t="str">
+        <v>5千-8千</v>
+      </c>
+      <c r="C94" t="str">
+        <v>求夸技术有限公司</v>
+      </c>
+      <c r="D94" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E94" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F94" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>android高级开发工程师+高薪+双休</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8千-1.3万</v>
+      </c>
+      <c r="C95" t="str">
+        <v>郑州恒信软件科技有限公司</v>
+      </c>
+      <c r="D95" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E95" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F95" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8千-1.2万</v>
+      </c>
+      <c r="C96" t="str">
+        <v>新开普</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州-高新区</v>
+      </c>
+      <c r="E96" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F96" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B97" t="str">
+        <v>1.2万-2万</v>
+      </c>
+      <c r="C97" t="str">
+        <v>北京琥珀创想科技有限公司</v>
+      </c>
+      <c r="D97" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E97" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F97" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C98" t="str">
+        <v>五基传媒有限公司</v>
+      </c>
+      <c r="D98" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E98" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F98" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B99" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C99" t="str">
+        <v>郑州磐森数字科技有限公司</v>
+      </c>
+      <c r="D99" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E99" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F99" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B100" t="str">
+        <v>7千-1.2万</v>
+      </c>
+      <c r="C100" t="str">
+        <v>河南云煤网网络科技有限责任公司</v>
+      </c>
+      <c r="D100" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E100" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F100" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>android工程师(J10082)</v>
+      </c>
+      <c r="B101" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C101" t="str">
+        <v>天星教育</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E101" t="str">
+        <v>不限</v>
+      </c>
+      <c r="F101" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B102" t="str">
+        <v>1万-1.5万</v>
+      </c>
+      <c r="C102" t="str">
+        <v>河南聚融优合汽车销售有限公司</v>
+      </c>
+      <c r="D102" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E102" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F102" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B103" t="str">
+        <v>7千-1.3万</v>
+      </c>
+      <c r="C103" t="str">
+        <v>河南宝蓝实业有限公司</v>
+      </c>
+      <c r="D103" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E103" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F103" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B104" t="str">
+        <v>7千-1万</v>
+      </c>
+      <c r="C104" t="str">
+        <v>郑州诺云网络科技有限公司</v>
+      </c>
+      <c r="D104" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E104" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F104" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>android应用开发工程师</v>
+      </c>
+      <c r="B105" t="str">
+        <v>6千-8千</v>
+      </c>
+      <c r="C105" t="str">
+        <v>浙江盛迪科技股份有限公司</v>
+      </c>
+      <c r="D105" t="str">
+        <v>郑州-管城回族区</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F105" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B106" t="str">
+        <v>9千-1.5万</v>
+      </c>
+      <c r="C106" t="str">
+        <v>河南爱家校数据服务有限公司</v>
+      </c>
+      <c r="D106" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E106" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F106" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B107" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C107" t="str">
+        <v>河南商泽网络科技有限公司</v>
+      </c>
+      <c r="D107" t="str">
+        <v>郑州-二七区</v>
+      </c>
+      <c r="E107" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F107" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>android软件开发工程师</v>
+      </c>
+      <c r="B108" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C108" t="str">
+        <v>河南品辰电子科技有限公司</v>
+      </c>
+      <c r="D108" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E108" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F108" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B109" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C109" t="str">
+        <v>河南东方健生物科技有限公司</v>
+      </c>
+      <c r="D109" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E109" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F109" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>双休android五险工程师</v>
+      </c>
+      <c r="B110" t="str">
+        <v>6千-1.2万</v>
+      </c>
+      <c r="C110" t="str">
+        <v>河南智森物联网科技有限公司</v>
+      </c>
+      <c r="D110" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E110" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F110" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>安卓android工程师</v>
+      </c>
+      <c r="B111" t="str">
+        <v>6千-1万</v>
+      </c>
+      <c r="C111" t="str">
+        <v>河南百信科技发展有限公司</v>
+      </c>
+      <c r="D111" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E111" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F111" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B112" t="str">
+        <v>8千-1万</v>
+      </c>
+      <c r="C112" t="str">
+        <v>郑州大象通信信息技术有限公司</v>
+      </c>
+      <c r="D112" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E112" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F112" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B113" t="str">
+        <v>8千-1.6万</v>
+      </c>
+      <c r="C113" t="str">
+        <v>河南趣思得网络科技有限公司</v>
+      </c>
+      <c r="D113" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E113" t="str">
+        <v>3-5年</v>
+      </c>
+      <c r="F113" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B114" t="str">
+        <v>1.5万-3万</v>
+      </c>
+      <c r="C114" t="str">
+        <v>河南枞宁信息科技有限公司</v>
+      </c>
+      <c r="D114" t="str">
+        <v>郑州</v>
+      </c>
+      <c r="E114" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F114" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B115" t="str">
+        <v>5千-1万</v>
+      </c>
+      <c r="C115" t="str">
+        <v>河南买多电子商务有限公司</v>
+      </c>
+      <c r="D115" t="str">
+        <v>郑州-金水区</v>
+      </c>
+      <c r="E115" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F115" t="str">
+        <v>大专</v>
+      </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B116" t="str" xml:space="preserve">
         <v xml:space="preserve">5千-1万
           · 13薪</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C116" t="str">
         <v>去森教育</v>
-      </c>
-      <c r="D70" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E70" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F70" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G70" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B71" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C71" t="str">
-        <v>郑州优行优客信息科技有限公司</v>
-      </c>
-      <c r="D71" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E71" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F71" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G71" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B72" t="str">
-        <v>7千-1.1万</v>
-      </c>
-      <c r="C72" t="str">
-        <v>友途车家科技服务有限公司</v>
-      </c>
-      <c r="D72" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E72" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F72" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G72" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B73" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C73" t="str">
-        <v>河南宏博检测技术有限公司</v>
-      </c>
-      <c r="D73" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E73" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F73" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G73" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B74" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C74" t="str">
-        <v>浙江辉腾地理信息技术有限公司</v>
-      </c>
-      <c r="D74" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E74" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F74" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G74" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B75" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C75" t="str">
-        <v>河南纵达软件科技有限公司</v>
-      </c>
-      <c r="D75" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E75" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F75" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G75" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B76" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C76" t="str">
-        <v>河南省863软件孵化器有限公司</v>
-      </c>
-      <c r="D76" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E76" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F76" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G76" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B77" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C77" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D77" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E77" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F77" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G77" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B78" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C78" t="str">
-        <v>新天科技</v>
-      </c>
-      <c r="D78" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E78" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F78" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G78" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>资深android开发工程师</v>
-      </c>
-      <c r="B79" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C79" t="str">
-        <v>郑州珑凌科技有限公司</v>
-      </c>
-      <c r="D79" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E79" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F79" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G79" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>郑州研究院-android开发工程师</v>
-      </c>
-      <c r="B80" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C80" t="str">
-        <v>科大讯飞</v>
-      </c>
-      <c r="D80" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E80" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F80" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G80" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B81" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C81" t="str">
-        <v>北京杰山科技有限公司</v>
-      </c>
-      <c r="D81" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E81" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F81" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G81" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B82" t="str">
-        <v>8千-1.5万</v>
-      </c>
-      <c r="C82" t="str">
-        <v>河南派普建工集团有限公司</v>
-      </c>
-      <c r="D82" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E82" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F82" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G82" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B83" t="str">
-        <v>1万-2万</v>
-      </c>
-      <c r="C83" t="str">
-        <v>厦门特力通通信工程有限公司</v>
-      </c>
-      <c r="D83" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E83" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F83" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G83" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B84" t="str">
-        <v>5千-1万</v>
-      </c>
-      <c r="C84" t="str">
-        <v>安图生物</v>
-      </c>
-      <c r="D84" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E84" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F84" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G84" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B85" t="str">
-        <v>8千-1.2万</v>
-      </c>
-      <c r="C85" t="str">
-        <v>郑州点读电子科技有限公司</v>
-      </c>
-      <c r="D85" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E85" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F85" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G85" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>android 开发</v>
-      </c>
-      <c r="B86" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C86" t="str">
-        <v>浪潮集团</v>
-      </c>
-      <c r="D86" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E86" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F86" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G86" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B87" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C87" t="str">
-        <v>郑州致博思远企业管理咨询有限公司</v>
-      </c>
-      <c r="D87" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E87" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F87" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G87" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>android/安卓开发工程师（中级）</v>
-      </c>
-      <c r="B88" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C88" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D88" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E88" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F88" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G88" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B89" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C89" t="str">
-        <v>河南腾跃科技有限公司</v>
-      </c>
-      <c r="D89" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E89" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F89" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G89" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B90" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C90" t="str">
-        <v>屹通信息</v>
-      </c>
-      <c r="D90" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E90" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F90" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G90" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B91" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C91" t="str">
-        <v>河南善水左岸商贸有限公司</v>
-      </c>
-      <c r="D91" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E91" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F91" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G91" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B92" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C92" t="str">
-        <v>郑州一迅软件科技有限公司</v>
-      </c>
-      <c r="D92" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E92" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F92" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G92" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>android/安卓开发经理</v>
-      </c>
-      <c r="B93" t="str">
-        <v>1.5万-2万</v>
-      </c>
-      <c r="C93" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D93" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E93" t="str">
-        <v>5-10年</v>
-      </c>
-      <c r="F93" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G93" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>android（安卓）开发工程师</v>
-      </c>
-      <c r="B94" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C94" t="str">
-        <v>河南金案场科技有限公司</v>
-      </c>
-      <c r="D94" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E94" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F94" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G94" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B95" t="str">
-        <v>4千-6千</v>
-      </c>
-      <c r="C95" t="str">
-        <v>郑州可瑞为信息技术有限公司</v>
-      </c>
-      <c r="D95" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E95" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F95" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G95" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B96" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C96" t="str">
-        <v>河南九域腾龙信息工程有限公司</v>
-      </c>
-      <c r="D96" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E96" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F96" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B97" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C97" t="str">
-        <v>新开普</v>
-      </c>
-      <c r="D97" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E97" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F97" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G97" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B98" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C98" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D98" t="str">
-        <v>郑州-高新区</v>
-      </c>
-      <c r="E98" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F98" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B99" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C99" t="str">
-        <v>河南合众伟奇云智科技有限公司</v>
-      </c>
-      <c r="D99" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E99" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F99" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G99" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B100" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C100" t="str">
-        <v>郑州巨之麦科技有限公司</v>
-      </c>
-      <c r="D100" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E100" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F100" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>android开发工程师（高薪+五险）</v>
-      </c>
-      <c r="B101" t="str">
-        <v>7千-1万</v>
-      </c>
-      <c r="C101" t="str">
-        <v>河南犇犇网络科技有限公司</v>
-      </c>
-      <c r="D101" t="str">
-        <v>郑州-二七区</v>
-      </c>
-      <c r="E101" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F101" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G101" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B102" t="str">
-        <v>6千-1万</v>
-      </c>
-      <c r="C102" t="str">
-        <v>郑州灵慧软件科技有限公司</v>
-      </c>
-      <c r="D102" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E102" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F102" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G102" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>android 开发安卓工程师</v>
-      </c>
-      <c r="B103" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C103" t="str">
-        <v>河南恒辉房地产顾问有限公司</v>
-      </c>
-      <c r="D103" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E103" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F103" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B104" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C104" t="str">
-        <v>河南中懿游软件开发有限公司</v>
-      </c>
-      <c r="D104" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
-      <c r="E104" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F104" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B105" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C105" t="str">
-        <v>八六三软件</v>
-      </c>
-      <c r="D105" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E105" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F105" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B106" t="str">
-        <v>4千-8千</v>
-      </c>
-      <c r="C106" t="str">
-        <v>河南洗得嗨科技有限公司</v>
-      </c>
-      <c r="D106" t="str">
-        <v>郑州-管城回族区</v>
-      </c>
-      <c r="E106" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F106" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B107" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C107" t="str">
-        <v>无锡精英堂信息科技有限公司</v>
-      </c>
-      <c r="D107" t="str">
-        <v>郑州-金水区</v>
-      </c>
-      <c r="E107" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F107" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B108" t="str">
-        <v>8千-1万</v>
-      </c>
-      <c r="C108" t="str">
-        <v>五基传媒有限公司</v>
-      </c>
-      <c r="D108" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E108" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F108" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>android/APP开发工程师</v>
-      </c>
-      <c r="B109" t="str">
-        <v>5千-8千</v>
-      </c>
-      <c r="C109" t="str">
-        <v>河南经协智慧出行网络科技有限公司</v>
-      </c>
-      <c r="D109" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E109" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F109" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>android高级开发工程师+高薪+双休</v>
-      </c>
-      <c r="B110" t="str">
-        <v>8千-1.3万</v>
-      </c>
-      <c r="C110" t="str">
-        <v>郑州恒信软件科技有限公司</v>
-      </c>
-      <c r="D110" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E110" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F110" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B111" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C111" t="str">
-        <v>郑州磐森数字科技有限公司</v>
-      </c>
-      <c r="D111" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E111" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F111" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>android</v>
-      </c>
-      <c r="B112" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C112" t="str">
-        <v>郑州诺云网络科技有限公司</v>
-      </c>
-      <c r="D112" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E112" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F112" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>android开发</v>
-      </c>
-      <c r="B113" t="str">
-        <v>6千-1.2万</v>
-      </c>
-      <c r="C113" t="str">
-        <v>郑州鼓点软件科技有限公司</v>
-      </c>
-      <c r="D113" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E113" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F113" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B114" t="str">
-        <v>6千-8千</v>
-      </c>
-      <c r="C114" t="str">
-        <v>郑州江山科技有限公司</v>
-      </c>
-      <c r="D114" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="E114" t="str">
-        <v>3-5年</v>
-      </c>
-      <c r="F114" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>android工程师(J10082)</v>
-      </c>
-      <c r="B115" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C115" t="str">
-        <v>天星教育</v>
-      </c>
-      <c r="D115" t="str">
-        <v>郑州-中原区</v>
-      </c>
-      <c r="E115" t="str">
-        <v>不限</v>
-      </c>
-      <c r="F115" t="str">
-        <v>本科</v>
-      </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>android高级开发工程师</v>
-      </c>
-      <c r="B116" t="str">
-        <v>1万-1.5万</v>
-      </c>
-      <c r="C116" t="str">
-        <v>郑州市金水区天一外语培训中心</v>
       </c>
       <c r="D116" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E116" t="str">
-        <v>5-10年</v>
+        <v>1-3年</v>
       </c>
       <c r="F116" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -3052,19 +3052,19 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>android软件开发 高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B117" t="str">
-        <v>9千-1.8万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C117" t="str">
-        <v>郑州软通合力计算机技术有限公司</v>
+        <v>河南纵达软件科技有限公司</v>
       </c>
       <c r="D117" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州</v>
       </c>
       <c r="E117" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F117" t="str">
         <v>本科</v>
@@ -3078,19 +3078,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B118" t="str">
-        <v>7千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C118" t="str">
-        <v>郑州诺云网络科技有限公司</v>
+        <v>北京云鸟科技有限公司</v>
       </c>
       <c r="D118" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E118" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F118" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -3101,19 +3101,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B119" t="str">
-        <v>6千-1万</v>
+        <v>2.5万-3.5万</v>
       </c>
       <c r="C119" t="str">
-        <v>河南商泽网络科技有限公司</v>
+        <v>上海思汐乐人力资源咨询有限公司</v>
       </c>
       <c r="D119" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E119" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F119" t="str">
-        <v>大专</v>
+        <v>学历不限</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3121,45 +3121,46 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>急聘移动端开发android</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B120" t="str">
-        <v>6千-1万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C120" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>浙江辉腾地理信息技术有限公司</v>
       </c>
       <c r="D120" t="str">
+        <v>郑州-中原区</v>
+      </c>
+      <c r="E120" t="str">
+        <v>1-3年</v>
+      </c>
+      <c r="F120" t="str">
+        <v>本科</v>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>android/ios开发工程师</v>
+      </c>
+      <c r="B121" t="str" xml:space="preserve">
+        <v xml:space="preserve">7千-8千
+          · 13薪</v>
+      </c>
+      <c r="C121" t="str">
+        <v>郑州百易科技有限公司</v>
+      </c>
+      <c r="D121" t="str">
         <v>郑州-金水区</v>
       </c>
-      <c r="E120" t="str">
-        <v>1-3年</v>
-      </c>
-      <c r="F120" t="str">
-        <v>大专</v>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>android开发工程师</v>
-      </c>
-      <c r="B121" t="str">
-        <v>7千-1.2万</v>
-      </c>
-      <c r="C121" t="str">
-        <v>金豆豆互联网有限责任公司</v>
-      </c>
-      <c r="D121" t="str">
-        <v>郑州-郑东新区</v>
-      </c>
       <c r="E121" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F121" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3167,19 +3168,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>双休android五险工程师</v>
+        <v>android（安卓）开发工程师</v>
       </c>
       <c r="B122" t="str">
-        <v>6千-1.2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C122" t="str">
-        <v>河南智森物联网科技有限公司</v>
+        <v>河南金案场科技有限公司</v>
       </c>
       <c r="D122" t="str">
         <v>郑州</v>
       </c>
       <c r="E122" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F122" t="str">
         <v>本科</v>
@@ -3190,19 +3191,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>android开发工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B123" t="str">
-        <v>8千-1.6万</v>
+        <v>5千-1万</v>
       </c>
       <c r="C123" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>安图生物</v>
       </c>
       <c r="D123" t="str">
         <v>郑州</v>
       </c>
       <c r="E123" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F123" t="str">
         <v>本科</v>
@@ -3216,19 +3217,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B124" t="str">
-        <v>1.5万-2万</v>
+        <v>8千-1.2万</v>
       </c>
       <c r="C124" t="str">
-        <v>南京迈特望</v>
+        <v>郑州点读电子科技有限公司</v>
       </c>
       <c r="D124" t="str">
-        <v>郑州-二七区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E124" t="str">
         <v>3-5年</v>
       </c>
       <c r="F124" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3236,19 +3237,19 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>android开发工程师</v>
+        <v>android C/C++开发工程师</v>
       </c>
       <c r="B125" t="str">
-        <v>1.5万-3万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C125" t="str">
-        <v>河南枞宁信息科技有限公司</v>
+        <v>天迈科技</v>
       </c>
       <c r="D125" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E125" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F125" t="str">
         <v>本科</v>
@@ -3262,19 +3263,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B126" t="str">
-        <v>6千-8千</v>
+        <v>5千-1万</v>
       </c>
       <c r="C126" t="str">
-        <v>河南永硕实业发展有限公司</v>
+        <v>河南港江建设集团有限公司</v>
       </c>
       <c r="D126" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E126" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F126" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G126" t="str">
         <v/>
@@ -3285,13 +3286,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B127" t="str">
-        <v>8千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C127" t="str">
-        <v>北京云鸟科技有限公司</v>
+        <v>河南腾帆科技有限公司</v>
       </c>
       <c r="D127" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E127" t="str">
         <v>3-5年</v>
@@ -3305,22 +3306,22 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>android开发工程师</v>
+        <v>android/安卓高级开发工程师</v>
       </c>
       <c r="B128" t="str">
-        <v>2.5万-3.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C128" t="str">
-        <v>上海思汐乐人力资源咨询有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D128" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E128" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F128" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3331,13 +3332,13 @@
         <v>android开发工程师</v>
       </c>
       <c r="B129" t="str">
-        <v>6千-1万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C129" t="str">
-        <v>锦锐科技有限公司</v>
+        <v>河南中懿游软件开发有限公司</v>
       </c>
       <c r="D129" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E129" t="str">
         <v>1-3年</v>
@@ -3351,40 +3352,39 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>android C/C++开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B130" t="str">
-        <v>1万-1.5万</v>
+        <v>4千-6千</v>
       </c>
       <c r="C130" t="str">
-        <v>天迈科技</v>
+        <v>信阳正和云鼎智能科技有限公司</v>
       </c>
       <c r="D130" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E130" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F130" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G130" t="str">
         <v/>
       </c>
     </row>
-    <row r="131" xml:space="preserve">
+    <row r="131">
       <c r="A131" t="str">
-        <v>android/ios开发工程师</v>
-      </c>
-      <c r="B131" t="str" xml:space="preserve">
-        <v xml:space="preserve">7千-8千
-          · 13薪</v>
+        <v>android研发工程师</v>
+      </c>
+      <c r="B131" t="str">
+        <v>6千-8千</v>
       </c>
       <c r="C131" t="str">
-        <v>郑州百易科技有限公司</v>
+        <v>云端信息</v>
       </c>
       <c r="D131" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E131" t="str">
         <v>1-3年</v>
@@ -3398,22 +3398,22 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>android开发工程师</v>
+        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
       </c>
       <c r="B132" t="str">
-        <v>5千-1万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C132" t="str">
-        <v>河南港江建设集团有限公司</v>
+        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
       </c>
       <c r="D132" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州</v>
       </c>
       <c r="E132" t="str">
-        <v>不限</v>
+        <v>1-3年</v>
       </c>
       <c r="F132" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3421,22 +3421,22 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>android开发工程师</v>
+        <v>android高级开发工程师</v>
       </c>
       <c r="B133" t="str">
-        <v>7千-9千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C133" t="str">
-        <v>河南南秀建筑科技有限公司</v>
+        <v>宁夏智宁技术有限公司</v>
       </c>
       <c r="D133" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E133" t="str">
         <v>1-3年</v>
       </c>
       <c r="F133" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3444,22 +3444,22 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>android开发工程师</v>
+        <v>android底层驱动工程师</v>
       </c>
       <c r="B134" t="str">
-        <v>5千-8千</v>
+        <v>1万-2万</v>
       </c>
       <c r="C134" t="str">
-        <v>河南腾帆科技有限公司</v>
+        <v>新开普</v>
       </c>
       <c r="D134" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E134" t="str">
         <v>3-5年</v>
       </c>
       <c r="F134" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>android/安卓高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B135" t="str">
-        <v>1万-1.5万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C135" t="str">
-        <v>威科姆</v>
+        <v>北京合众伟奇科技股份有限公司</v>
       </c>
       <c r="D135" t="str">
         <v>郑州</v>
@@ -3493,16 +3493,16 @@
         <v>android开发工程师</v>
       </c>
       <c r="B136" t="str">
-        <v>6千-1.2万</v>
+        <v>5千-8千</v>
       </c>
       <c r="C136" t="str">
-        <v>郑州龙图环宇科技开发有限公司</v>
+        <v>郑州郑乾科技有限公司</v>
       </c>
       <c r="D136" t="str">
         <v>郑州</v>
       </c>
       <c r="E136" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F136" t="str">
         <v>本科</v>
@@ -3513,22 +3513,22 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>android开发工程师</v>
+        <v>android软件开发工程师</v>
       </c>
       <c r="B137" t="str">
-        <v>4千-6千</v>
+        <v>6千-8千</v>
       </c>
       <c r="C137" t="str">
-        <v>信阳正和云鼎智能科技有限公司</v>
+        <v>富士康科技集团郑州科技园</v>
       </c>
       <c r="D137" t="str">
         <v>郑州</v>
       </c>
       <c r="E137" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F137" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3536,22 +3536,22 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>android 开发安卓工程师（周末双休、年终奖金、人性化管理）</v>
+        <v>android软件工程师</v>
       </c>
       <c r="B138" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C138" t="str">
-        <v>北京森泰英睿传媒科技有限公司河南分公司</v>
+        <v>郑州思博科信息技术有限公司</v>
       </c>
       <c r="D138" t="str">
         <v>郑州</v>
       </c>
       <c r="E138" t="str">
-        <v>1-3年</v>
+        <v>不限</v>
       </c>
       <c r="F138" t="str">
-        <v>本科</v>
+        <v>学历不限</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>android底层驱动工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B139" t="str">
-        <v>1万-2万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C139" t="str">
-        <v>新开普</v>
+        <v>河南盘古科技发展有限公司</v>
       </c>
       <c r="D139" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E139" t="str">
         <v>3-5年</v>
@@ -3582,22 +3582,22 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>android研发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B140" t="str">
-        <v>6千-8千</v>
+        <v>6千-1万</v>
       </c>
       <c r="C140" t="str">
-        <v>云端信息</v>
+        <v>河南信安通信技术股份有限公司</v>
       </c>
       <c r="D140" t="str">
         <v>郑州</v>
       </c>
       <c r="E140" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F140" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师andriod</v>
       </c>
       <c r="B141" t="str">
-        <v>7千-1.2万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C141" t="str">
-        <v>北京合众伟奇科技股份有限公司</v>
+        <v>郑州米当秀品网络科技有限公司</v>
       </c>
       <c r="D141" t="str">
         <v>郑州</v>
@@ -3620,7 +3620,7 @@
         <v>3-5年</v>
       </c>
       <c r="F141" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3628,19 +3628,19 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>android高级开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B142" t="str">
-        <v>6千-1.2万</v>
+        <v>7千-1.2万</v>
       </c>
       <c r="C142" t="str">
-        <v>宁夏智宁技术有限公司</v>
+        <v>无锡精英堂信息科技有限公司</v>
       </c>
       <c r="D142" t="str">
         <v>郑州-金水区</v>
       </c>
       <c r="E142" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F142" t="str">
         <v>本科</v>
@@ -3651,22 +3651,22 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>android/移动互联网开发</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B143" t="str">
-        <v>3千-6千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C143" t="str">
-        <v>郑州长兴信息技术有限公司</v>
+        <v>郑州富铭环保科技股份有限公司</v>
       </c>
       <c r="D143" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E143" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F143" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>android开发工程师</v>
+        <v>android/APP开发工程师</v>
       </c>
       <c r="B144" t="str">
         <v>5千-8千</v>
       </c>
       <c r="C144" t="str">
-        <v>郑州郑乾科技有限公司</v>
+        <v>河南经协智慧出行网络科技有限公司</v>
       </c>
       <c r="D144" t="str">
         <v>郑州</v>
@@ -3689,7 +3689,7 @@
         <v>不限</v>
       </c>
       <c r="F144" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3697,22 +3697,22 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>android开发工程师</v>
+        <v>ios+安卓 软件工程师</v>
       </c>
       <c r="B145" t="str">
-        <v>6千-1万</v>
+        <v>8千-1万</v>
       </c>
       <c r="C145" t="str">
-        <v>河南信安通信技术股份有限公司</v>
+        <v>河南洗得嗨科技有限公司</v>
       </c>
       <c r="D145" t="str">
-        <v>郑州</v>
+        <v>郑州-管城回族区</v>
       </c>
       <c r="E145" t="str">
         <v>3-5年</v>
       </c>
       <c r="F145" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>android软件开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B146" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C146" t="str">
-        <v>富士康科技集团郑州科技园</v>
+        <v>埃林哲</v>
       </c>
       <c r="D146" t="str">
         <v>郑州</v>
       </c>
       <c r="E146" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F146" t="str">
         <v>本科</v>
@@ -3746,19 +3746,19 @@
         <v>android开发工程师</v>
       </c>
       <c r="B147" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C147" t="str">
-        <v>河南盘古科技发展有限公司</v>
+        <v>河南国测信息技术有限公司</v>
       </c>
       <c r="D147" t="str">
         <v>郑州</v>
       </c>
       <c r="E147" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F147" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -3766,22 +3766,22 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>android软件工程师</v>
+        <v>android开发</v>
       </c>
       <c r="B148" t="str">
-        <v>6千-8千</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C148" t="str">
-        <v>郑州思博科信息技术有限公司</v>
+        <v>郑州鼓点软件科技有限公司</v>
       </c>
       <c r="D148" t="str">
         <v>郑州</v>
       </c>
       <c r="E148" t="str">
-        <v>不限</v>
+        <v>3-5年</v>
       </c>
       <c r="F148" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>android开发工程师</v>
+        <v>android</v>
       </c>
       <c r="B149" t="str">
         <v>6千-8千</v>
       </c>
       <c r="C149" t="str">
-        <v>深圳市芬析仪器制造有限公司</v>
+        <v>郑州诺云网络科技有限公司</v>
       </c>
       <c r="D149" t="str">
-        <v>郑州-新郑市</v>
+        <v>郑州</v>
       </c>
       <c r="E149" t="str">
         <v>1-3年</v>
       </c>
       <c r="F149" t="str">
-        <v>学历不限</v>
+        <v>本科</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>安卓开发工程师andriod</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B150" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C150" t="str">
-        <v>郑州米当秀品网络科技有限公司</v>
+        <v>郑州江山科技有限公司</v>
       </c>
       <c r="D150" t="str">
         <v>郑州</v>
@@ -3827,7 +3827,7 @@
         <v>3-5年</v>
       </c>
       <c r="F150" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3835,16 +3835,16 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>android开发工程师</v>
+        <v>安卓开发工程师 大平台五险一金</v>
       </c>
       <c r="B151" t="str">
-        <v>8千-1.2万</v>
+        <v>9千-1.4万</v>
       </c>
       <c r="C151" t="str">
-        <v>新开普</v>
+        <v>优路教育</v>
       </c>
       <c r="D151" t="str">
-        <v>郑州-高新区</v>
+        <v>郑州</v>
       </c>
       <c r="E151" t="str">
         <v>3-5年</v>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>ios+安卓 软件工程师</v>
+        <v>安卓端工程师</v>
       </c>
       <c r="B152" t="str">
-        <v>8千-1万</v>
+        <v>8千-1.5万</v>
       </c>
       <c r="C152" t="str">
-        <v>河南洗得嗨科技有限公司</v>
+        <v>万邦国际集团</v>
       </c>
       <c r="D152" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中牟县</v>
       </c>
       <c r="E152" t="str">
         <v>3-5年</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>安卓开发工程师 大平台五险一金</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B153" t="str">
-        <v>9千-1.4万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C153" t="str">
-        <v>优路教育</v>
+        <v>易宝软件</v>
       </c>
       <c r="D153" t="str">
         <v>郑州</v>
@@ -3904,22 +3904,22 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>APP开发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B154" t="str">
-        <v>8千-1.5万</v>
+        <v>8千-1.6万</v>
       </c>
       <c r="C154" t="str">
-        <v>埃林哲</v>
+        <v>郑州维飞软件科技有限公司</v>
       </c>
       <c r="D154" t="str">
         <v>郑州</v>
       </c>
       <c r="E154" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F154" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3927,22 +3927,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>安卓端工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B155" t="str">
-        <v>8千-1.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C155" t="str">
-        <v>万邦国际集团</v>
+        <v>河南友联金融服务有限公司</v>
       </c>
       <c r="D155" t="str">
-        <v>郑州-中牟县</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E155" t="str">
         <v>3-5年</v>
       </c>
       <c r="F155" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3953,10 +3953,10 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B156" t="str">
-        <v>1.5万-2.5万</v>
+        <v>6千-1.2万</v>
       </c>
       <c r="C156" t="str">
-        <v>易宝软件</v>
+        <v>河南广播传媒集团有限公司</v>
       </c>
       <c r="D156" t="str">
         <v>郑州</v>
@@ -3965,7 +3965,7 @@
         <v>3-5年</v>
       </c>
       <c r="F156" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3973,22 +3973,22 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>安卓开发工程师</v>
+        <v>安卓研发工程师</v>
       </c>
       <c r="B157" t="str">
-        <v>1万-1.5万</v>
+        <v>6千-8千</v>
       </c>
       <c r="C157" t="str">
-        <v>河南友联金融服务有限公司</v>
+        <v>河南绘梦未来网络科技有限公司</v>
       </c>
       <c r="D157" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E157" t="str">
-        <v>3-5年</v>
+        <v>1-3年</v>
       </c>
       <c r="F157" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -3996,22 +3996,22 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>APP开发工程师</v>
+        <v>android开发工程师</v>
       </c>
       <c r="B158" t="str">
-        <v>9千-1.8万</v>
+        <v>1万-1.2万</v>
       </c>
       <c r="C158" t="str">
-        <v>河南趣思得网络科技有限公司</v>
+        <v>威科姆</v>
       </c>
       <c r="D158" t="str">
         <v>郑州</v>
       </c>
       <c r="E158" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F158" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -4022,13 +4022,13 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B159" t="str">
-        <v>8千-1.6万</v>
+        <v>7千-1万</v>
       </c>
       <c r="C159" t="str">
-        <v>郑州维飞软件科技有限公司</v>
+        <v>郑州双杰科技股份有限公司</v>
       </c>
       <c r="D159" t="str">
-        <v>郑州</v>
+        <v>郑州-金水区</v>
       </c>
       <c r="E159" t="str">
         <v>1-3年</v>
@@ -4042,19 +4042,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>android开发工程师</v>
+        <v>资深安卓开发工程师</v>
       </c>
       <c r="B160" t="str">
-        <v>1万-1.2万</v>
+        <v>1.5万-2.5万</v>
       </c>
       <c r="C160" t="str">
-        <v>威科姆</v>
+        <v>郑州阿帕斯科技有限公司</v>
       </c>
       <c r="D160" t="str">
-        <v>郑州</v>
+        <v>郑州-郑东新区</v>
       </c>
       <c r="E160" t="str">
-        <v>3-5年</v>
+        <v>5-10年</v>
       </c>
       <c r="F160" t="str">
         <v>本科</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>资深安卓开发工程师</v>
+        <v>软件开发工程师</v>
       </c>
       <c r="B162" t="str">
-        <v>1.5万-2.5万</v>
+        <v>1万-1.5万</v>
       </c>
       <c r="C162" t="str">
-        <v>郑州阿帕斯科技有限公司</v>
+        <v>贝博电子</v>
       </c>
       <c r="D162" t="str">
-        <v>郑州-郑东新区</v>
+        <v>郑州</v>
       </c>
       <c r="E162" t="str">
-        <v>5-10年</v>
+        <v>3-5年</v>
       </c>
       <c r="F162" t="str">
         <v>本科</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>安卓开发工程师</v>
+        <v>APP开发工程师</v>
       </c>
       <c r="B163" t="str">
-        <v>7千-1万</v>
+        <v>9千-1.8万</v>
       </c>
       <c r="C163" t="str">
-        <v>郑州双杰科技股份有限公司</v>
+        <v>河南趣思得网络科技有限公司</v>
       </c>
       <c r="D163" t="str">
-        <v>郑州-金水区</v>
+        <v>郑州</v>
       </c>
       <c r="E163" t="str">
-        <v>1-3年</v>
+        <v>5-10年</v>
       </c>
       <c r="F163" t="str">
         <v>大专</v>
@@ -4132,25 +4132,24 @@
         <v/>
       </c>
     </row>
-    <row r="164" xml:space="preserve">
+    <row r="164">
       <c r="A164" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B164" t="str" xml:space="preserve">
-        <v xml:space="preserve">9千-1.6万
-          · 13薪</v>
+        <v>安卓开发工程师andriod</v>
+      </c>
+      <c r="B164" t="str">
+        <v>1万-1.5万</v>
       </c>
       <c r="C164" t="str">
-        <v>南京北路智控科技股份有限公司</v>
+        <v>广东腾辉商务服务有限责任公司</v>
       </c>
       <c r="D164" t="str">
-        <v>郑州-管城回族区</v>
+        <v>郑州-中原区</v>
       </c>
       <c r="E164" t="str">
         <v>3-5年</v>
       </c>
       <c r="F164" t="str">
-        <v>本科</v>
+        <v>大专</v>
       </c>
       <c r="G164" t="str">
         <v/>
@@ -4158,19 +4157,19 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>安卓开发工程师</v>
+        <v>andorid开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>1万-1.5万</v>
+        <v>5千-9千</v>
       </c>
       <c r="C165" t="str">
-        <v>郑州报业集团有限公司</v>
+        <v>北京慧联无限信息技术有限公司</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E165" t="str">
-        <v>1-3年</v>
+        <v>3-5年</v>
       </c>
       <c r="F165" t="str">
         <v>本科</v>
@@ -4181,22 +4180,22 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>逆向工程师（windows/android15-30k）</v>
+        <v>andriod开发工程师（可兼职）</v>
       </c>
       <c r="B166" t="str">
-        <v>1.5万-2万</v>
+        <v>1.3万-2.5万</v>
       </c>
       <c r="C166" t="str">
-        <v>刀锋互娱</v>
+        <v>合肥观六智能科技有限公司</v>
       </c>
       <c r="D166" t="str">
-        <v>郑州-中原区</v>
+        <v>郑州-高新区</v>
       </c>
       <c r="E166" t="str">
         <v>3-5年</v>
       </c>
       <c r="F166" t="str">
-        <v>大专</v>
+        <v>本科</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4204,19 +4203,19 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>安卓研发工程师</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>6千-8千</v>
+        <v>8千-1.2万</v>
       </c>
       <